--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I500647\eclipse-workspace\Manoj\Web_Automation_WordPress\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{363C0CBA-6D57-4049-AC82-AF565DF68FE0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C694C11D-452B-4719-BC0C-B79C05301BA8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" r:id="rId1" sheetId="1"/>
@@ -19,21 +19,21 @@
     <sheet name="Agency login" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$51</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!$E$1:$E$32</definedName>
     <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
     <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
     <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
-    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="372">
   <si>
     <t>ID</t>
   </si>
@@ -740,6 +740,9 @@
     <t>https://www.allhomes.com.au/12-ledgar-rise-taylor-act-2913</t>
   </si>
   <si>
+    <t>https://www.allhomes.com.au/unit-19-16-david-miller-crescent-casey-act-2913</t>
+  </si>
+  <si>
     <t>https://www.allhomes.com.au/19-charles-perkins-circuit-bonner-act-2914</t>
   </si>
   <si>
@@ -756,6 +759,9 @@
   </si>
   <si>
     <t>https://www.allhomes.com.au/taylor-act-2913?tid=179295362</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
   <si>
     <t>32</t>
@@ -1191,6 +1197,43 @@
     <t>45</t>
   </si>
   <si>
+    <t>19/16 David Miller Crescent, Casey ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House:5282/ 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3	8	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$385,000+</t>
+  </si>
+  <si>
+    <t>Located in a convenient location at short stroll to Casey Market Town, this 2-bedroom apartment is now available to buy for living or an investment. You will be delighted to discover this low maintenance, first floor apartment in the ‘Berwick' complex. Just a stones' throw from the very popular Casey Market Town, this is the only unit development in the suburb, so the most affordable opportunity in Casey to live-in or invest. The large open plan living &amp; dining area extends onto a massive balcony with an amazing view to enjoy daily &amp; provides the perfect place to entertain. The modern kitchen includes stone benchtops, electric oven &amp; cooktop plus dishwasher.
+Both bedrooms are generously sized &amp; the main bedroom feature walk-in-robe and an ensuite. With heaps of additional visitor parking at the front of the development, &amp; intercom access for guests, you will have no issues entertaining visitors. This apartment includes zoned entry, restricted under cover access from your 2 allocated car spots in the basement to your front door, plus a lockable storage enclosure at the rear of the car space. It is just a short stroll to the local Casey Market Town where you will find all the essentials such as a Supabarn, butcher, newsagent; plus, the added benefits of coffee shops, takeaways, gyms, hairdressers &amp; much more. This opportunity will not last long. Call Anish now before it is too late.
+Property Features Include:
+First floor apartment in the ‘Berwick' complex
+400m to the hugely popular Casey Market Town
+Short walk to Springbank Rise Park &amp; Dog Park
+Walking distance to Gold Creek Primary &amp; Senior School
+About 6 minutes’ drive to Gungahlin Town Centre
+Pet friendly development
+Open plan living &amp; dining area with sliding door access to balcony
+Carpeted &amp; LED downlights throughout living areas
+Reverse cycle air-conditioning unit in lounge room
+Modern kitchen with stone benchtops, electric oven &amp; cooktop plus a dishwasher
+Spacious bedrooms with robes
+Restricted access parking for 2 vehicles in the basement
+Separate lockable storage cage in basement
+Internal, undercover access from basement to the front door
+Intercom access for guests
+Plenty of additional visitor parking in front of the building
+This opportunity will not last long. Call Anish now before it is too late.</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>19 Charles Perkins Circuit, Bonner ACT 2914</t>
   </si>
   <si>
@@ -1233,7 +1276,7 @@
 Call us now to book an appointment to view this wonderful home before you miss out.</t>
   </si>
   <si>
-    <t>46</t>
+    <t>47</t>
   </si>
   <si>
     <t>Block/House:240/ -</t>
@@ -1252,7 +1295,7 @@
 Want to include your own features and options? We are here to assist with designing your very own bespoke home.</t>
   </si>
   <si>
-    <t>47</t>
+    <t>48</t>
   </si>
   <si>
     <t>5 Kaylock Street, Strathnairn ACT 2615</t>
@@ -1283,7 +1326,7 @@
 In accordance with government recommendations, if you are experiencing COVID-19 symptoms, have been in contact with someone who is ill or have travelled recently, we ask that you be respectful of the well-being of others and not attend the open home or auction.</t>
   </si>
   <si>
-    <t>48</t>
+    <t>49</t>
   </si>
   <si>
     <t>1 Halpern Street, MacGregor ACT 2615</t>
@@ -1306,7 +1349,7 @@
 Macgregor is just minutes to outstanding local schools and universities, great freeway access, child care centres, local parks, shops, restaurants, coffee shops and transport. A quality residence for any buyers wanting to take advantage of the location and position on offer. Inspection is a must, as rare opportunities like this are few and far between!!</t>
   </si>
   <si>
-    <t>49</t>
+    <t>50</t>
   </si>
   <si>
     <t>48 Asimus Avenue, Strathnairn ACT 2615</t>
@@ -1328,7 +1371,7 @@
 Why not picture yourself looking out over the green wide open spaces of Ginninderry, from your dream home on a beautiful view-plenty block. Set high above this Green star award winning suburb, you will feel the undeniable peace, far away from your neighbours' activities, with nature strip on the side, boasting incredible views across to the lake and Never-never land.</t>
   </si>
   <si>
-    <t>50</t>
+    <t>51</t>
   </si>
   <si>
     <t>Block/House:570/ 260</t>
@@ -1355,6 +1398,9 @@
 Double garage with auto door
 Internal access to garage
 Your foreverhome, custom designed for you.</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1581,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,11 +1635,6 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
@@ -1750,7 +1791,7 @@
     <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1986,11 +2027,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="F53" pane="bottomLeft" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A29" ySplit="1"/>
+      <selection activeCell="B56" pane="bottomLeft" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
@@ -3422,7 +3463,7 @@
         <v>222</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>85</v>
@@ -3442,7 +3483,7 @@
         <v>223</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>85</v>
@@ -3462,7 +3503,7 @@
         <v>224</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>85</v>
@@ -3482,7 +3523,7 @@
         <v>225</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>85</v>
@@ -3502,7 +3543,7 @@
         <v>226</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>85</v>
@@ -3701,17 +3742,17 @@
       <c r="B47" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row ht="13.8" r="48" spans="1:8">
@@ -3791,6 +3832,26 @@
         <v>19</v>
       </c>
       <c r="H51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="13.8" r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3869,10 +3930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
@@ -6134,15 +6195,17 @@
       <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="62" t="s">
+        <v>218</v>
+      </c>
       <c r="C31" s="29" t="s">
         <v>191</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>104</v>
+      <c r="E31" s="62" t="s">
+        <v>242</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>121</v>
@@ -6276,15 +6339,15 @@
       <c r="AI32" s="29"/>
       <c r="AJ32" s="29"/>
     </row>
-    <row r="33">
+    <row ht="13.2" r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -6299,34 +6362,34 @@
         <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s">
+        <v>249</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>252</v>
+      </c>
+      <c r="R33" t="s">
         <v>244</v>
       </c>
-      <c r="K33" t="s">
-        <v>245</v>
-      </c>
-      <c r="L33" t="s">
-        <v>246</v>
-      </c>
-      <c r="M33" t="s">
-        <v>247</v>
-      </c>
-      <c r="N33" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>250</v>
-      </c>
-      <c r="R33" t="s">
-        <v>242</v>
-      </c>
       <c r="S33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T33" t="s">
         <v>85</v>
@@ -6335,57 +6398,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row ht="13.2" r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
         <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
         <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T34" t="s">
         <v>85</v>
@@ -6394,18 +6457,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
+    <row ht="13.2" r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>81</v>
@@ -6417,34 +6480,34 @@
         <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="T35" t="s">
         <v>85</v>
@@ -6453,15 +6516,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
+    <row ht="13.2" r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -6473,37 +6536,37 @@
         <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="s">
+        <v>252</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>252</v>
+      </c>
+      <c r="R36" t="s">
         <v>268</v>
       </c>
-      <c r="I36" t="s">
-        <v>244</v>
-      </c>
-      <c r="K36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M36" t="s">
-        <v>250</v>
-      </c>
-      <c r="N36" t="s">
-        <v>250</v>
-      </c>
-      <c r="P36" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>250</v>
-      </c>
-      <c r="R36" t="s">
-        <v>266</v>
-      </c>
       <c r="S36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T36" t="s">
         <v>85</v>
@@ -6512,15 +6575,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row ht="13.2" r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
@@ -6535,34 +6598,34 @@
         <v>172</v>
       </c>
       <c r="H37" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>247</v>
+      </c>
+      <c r="R37" t="s">
         <v>275</v>
       </c>
-      <c r="L37" t="s">
-        <v>276</v>
-      </c>
-      <c r="M37" t="s">
-        <v>248</v>
-      </c>
-      <c r="N37" t="s">
-        <v>250</v>
-      </c>
-      <c r="P37" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>245</v>
-      </c>
-      <c r="R37" t="s">
-        <v>273</v>
-      </c>
       <c r="S37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T37" t="s">
         <v>85</v>
@@ -6571,57 +6634,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row ht="13.2" r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
         <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S38" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T38" t="s">
         <v>85</v>
@@ -6630,18 +6693,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row ht="13.2" r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
@@ -6650,37 +6713,37 @@
         <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S39" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="T39" t="s">
         <v>85</v>
@@ -6689,9 +6752,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row ht="13.2" r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -6712,34 +6775,34 @@
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R40" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S40" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T40" t="s">
         <v>85</v>
@@ -6748,15 +6811,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row ht="13.2" r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
         <v>220</v>
@@ -6765,40 +6828,40 @@
         <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" t="s">
+        <v>299</v>
+      </c>
+      <c r="L41" t="s">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s">
+        <v>301</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>252</v>
+      </c>
+      <c r="R41" t="s">
         <v>296</v>
       </c>
-      <c r="I41" t="s">
-        <v>244</v>
-      </c>
-      <c r="K41" t="s">
-        <v>297</v>
-      </c>
-      <c r="L41" t="s">
-        <v>298</v>
-      </c>
-      <c r="M41" t="s">
-        <v>299</v>
-      </c>
-      <c r="N41" t="s">
-        <v>248</v>
-      </c>
-      <c r="P41" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>250</v>
-      </c>
-      <c r="R41" t="s">
-        <v>294</v>
-      </c>
       <c r="S41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T41" t="s">
         <v>85</v>
@@ -6807,9 +6870,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row ht="13.2" r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -6830,34 +6893,34 @@
         <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T42" t="s">
         <v>85</v>
@@ -6866,15 +6929,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row ht="13.2" r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
         <v>98</v>
@@ -6886,37 +6949,37 @@
         <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H43" t="s">
+        <v>311</v>
+      </c>
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="s">
+        <v>250</v>
+      </c>
+      <c r="N43" t="s">
+        <v>252</v>
+      </c>
+      <c r="P43" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>314</v>
+      </c>
+      <c r="R43" t="s">
         <v>309</v>
       </c>
-      <c r="I43" t="s">
-        <v>244</v>
-      </c>
-      <c r="K43" t="s">
-        <v>310</v>
-      </c>
-      <c r="L43" t="s">
-        <v>311</v>
-      </c>
-      <c r="M43" t="s">
-        <v>248</v>
-      </c>
-      <c r="N43" t="s">
-        <v>250</v>
-      </c>
-      <c r="P43" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>312</v>
-      </c>
-      <c r="R43" t="s">
-        <v>307</v>
-      </c>
       <c r="S43" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T43" t="s">
         <v>85</v>
@@ -6925,15 +6988,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row ht="13.2" r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -6942,40 +7005,40 @@
         <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G44" t="s">
         <v>53</v>
       </c>
       <c r="H44" t="s">
+        <v>319</v>
+      </c>
+      <c r="I44" t="s">
+        <v>246</v>
+      </c>
+      <c r="K44" t="s">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" t="s">
+        <v>252</v>
+      </c>
+      <c r="N44" t="s">
+        <v>252</v>
+      </c>
+      <c r="P44" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>314</v>
+      </c>
+      <c r="R44" t="s">
         <v>317</v>
       </c>
-      <c r="I44" t="s">
-        <v>244</v>
-      </c>
-      <c r="K44" t="s">
-        <v>318</v>
-      </c>
-      <c r="L44" t="s">
-        <v>319</v>
-      </c>
-      <c r="M44" t="s">
-        <v>250</v>
-      </c>
-      <c r="N44" t="s">
-        <v>250</v>
-      </c>
-      <c r="P44" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>312</v>
-      </c>
-      <c r="R44" t="s">
-        <v>315</v>
-      </c>
       <c r="S44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="T44" t="s">
         <v>85</v>
@@ -6984,15 +7047,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row ht="13.2" r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
@@ -7007,34 +7070,34 @@
         <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s">
+        <v>326</v>
+      </c>
+      <c r="L45" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" t="s">
+        <v>249</v>
+      </c>
+      <c r="N45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>252</v>
+      </c>
+      <c r="R45" t="s">
         <v>324</v>
       </c>
-      <c r="L45" t="s">
-        <v>325</v>
-      </c>
-      <c r="M45" t="s">
-        <v>247</v>
-      </c>
-      <c r="N45" t="s">
-        <v>248</v>
-      </c>
-      <c r="P45" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>250</v>
-      </c>
-      <c r="R45" t="s">
-        <v>322</v>
-      </c>
       <c r="S45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T45" t="s">
         <v>85</v>
@@ -7043,57 +7106,57 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46">
+    <row ht="13.2" r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
         <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K46" t="s">
+        <v>332</v>
+      </c>
+      <c r="L46" t="s">
+        <v>333</v>
+      </c>
+      <c r="M46" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" t="s">
+        <v>252</v>
+      </c>
+      <c r="P46" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>252</v>
+      </c>
+      <c r="R46" t="s">
         <v>330</v>
       </c>
-      <c r="L46" t="s">
-        <v>331</v>
-      </c>
-      <c r="M46" t="s">
-        <v>247</v>
-      </c>
-      <c r="N46" t="s">
-        <v>250</v>
-      </c>
-      <c r="P46" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>250</v>
-      </c>
-      <c r="R46" t="s">
-        <v>328</v>
-      </c>
       <c r="S46" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="T46" t="s">
         <v>85</v>
@@ -7102,116 +7165,116 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47">
+    <row ht="13.2" r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
         <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="H47" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s">
         <v>249</v>
       </c>
       <c r="Q47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R47" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="S47" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="T47" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="U47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="13.2" r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="E48" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="N48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R48" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="S48" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T48" t="s">
         <v>110</v>
@@ -7220,15 +7283,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row ht="13.2" r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -7237,40 +7300,40 @@
         <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G49" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="H49" t="s">
+        <v>348</v>
+      </c>
+      <c r="I49" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" t="s">
+        <v>301</v>
+      </c>
+      <c r="N49" t="s">
+        <v>252</v>
+      </c>
+      <c r="P49" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>252</v>
+      </c>
+      <c r="R49" t="s">
         <v>347</v>
       </c>
-      <c r="I49" t="s">
-        <v>244</v>
-      </c>
-      <c r="K49" t="s">
-        <v>348</v>
-      </c>
-      <c r="L49" t="s">
-        <v>349</v>
-      </c>
-      <c r="M49" t="s">
-        <v>248</v>
-      </c>
-      <c r="N49" t="s">
-        <v>312</v>
-      </c>
-      <c r="P49" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>312</v>
-      </c>
-      <c r="R49" t="s">
-        <v>345</v>
-      </c>
       <c r="S49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T49" t="s">
         <v>110</v>
@@ -7279,57 +7342,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row ht="13.2" r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
         <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="H50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I50" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N50" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q50" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="R50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S50" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T50" t="s">
         <v>110</v>
@@ -7338,72 +7401,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row ht="13.2" r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="E51" t="s">
         <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K51" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s">
         <v>247</v>
       </c>
       <c r="N51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R51" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="S51" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T51" t="s">
         <v>110</v>
       </c>
       <c r="U51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="13.2" r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
+        <v>367</v>
+      </c>
+      <c r="I52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="s">
+        <v>249</v>
+      </c>
+      <c r="N52" t="s">
+        <v>252</v>
+      </c>
+      <c r="P52" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>252</v>
+      </c>
+      <c r="R52" t="s">
+        <v>265</v>
+      </c>
+      <c r="S52" t="s">
+        <v>370</v>
+      </c>
+      <c r="T52" t="s">
+        <v>110</v>
+      </c>
+      <c r="U52" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
     <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
       <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -7413,6 +7531,10 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AJ1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I500647\eclipse-workspace\Manoj\Web_Automation_WordPress\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C694C11D-452B-4719-BC0C-B79C05301BA8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BBA761E0-93CC-4972-8F5A-F1F544EEA47B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" r:id="rId1" sheetId="1"/>
@@ -19,21 +19,21 @@
     <sheet name="Agency login" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!$E$1:$E$32</definedName>
     <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
     <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
     <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
-    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="371">
   <si>
     <t>ID</t>
   </si>
@@ -701,6 +701,9 @@
     <t>OFF THE MARKET</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>https://www.allhomes.com.au/14-mottram-street-taylor-act-2913</t>
   </si>
   <si>
@@ -761,16 +764,13 @@
     <t>https://www.allhomes.com.au/taylor-act-2913?tid=179295362</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>14 Mottram Street, Taylor ACT 2913</t>
   </si>
   <si>
-    <t>Block/House:450/ 248</t>
+    <t>Block/House: 450/ 248</t>
   </si>
   <si>
     <t>m² approx</t>
@@ -829,7 +829,7 @@
     <t>Belconnen</t>
   </si>
   <si>
-    <t>Block/House:667/ 225</t>
+    <t>Block/House: 667/ 225</t>
   </si>
   <si>
     <t xml:space="preserve">4	4	9	0	0	0	</t>
@@ -853,7 +853,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>Block/House:337/ 200</t>
+    <t>Block/House: 337/ 200</t>
   </si>
   <si>
     <t xml:space="preserve">4	1	5	0	0	0	</t>
@@ -883,7 +883,7 @@
     <t>Franklin</t>
   </si>
   <si>
-    <t>Block/House:1.04/ 110</t>
+    <t>Block/House: 1.04/ 110</t>
   </si>
   <si>
     <t xml:space="preserve">4	2	9	0	0	0	</t>
@@ -919,7 +919,7 @@
     <t>27 Irinyili Street, Bonner ACT 2914</t>
   </si>
   <si>
-    <t>Block/House:242/ 128</t>
+    <t>Block/House: 242/ 128</t>
   </si>
   <si>
     <t xml:space="preserve">5	7	9	0	0	0	</t>
@@ -943,7 +943,7 @@
     <t>(no street name provided), Whitlam ACT 2611</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Others</t>
   </si>
   <si>
     <t>Molonglo Valley</t>
@@ -969,9 +969,6 @@
   </si>
   <si>
     <t>95/235 Flemington Road, Franklin ACT 2913</t>
-  </si>
-  <si>
-    <t>Unit / Apartment</t>
   </si>
   <si>
     <t>Enjoy being located in a prime and central location, this spacious Franklin loft house offers a central lifestyle being located just minutes from the tram line, local schools, shops and The Gungahlin Town Centre!
@@ -1002,7 +999,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>Block/House:175/ -</t>
+    <t>Block/House: 175/ -</t>
   </si>
   <si>
     <t>Constrction Price  $289,000
@@ -1018,7 +1015,7 @@
     <t>Coombs</t>
   </si>
   <si>
-    <t>Block/House:612/ -</t>
+    <t>Block/House: 612/ -</t>
   </si>
   <si>
     <t xml:space="preserve">1	1	7	9	0	0	0	</t>
@@ -1039,7 +1036,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>Block/House:420/ 220</t>
+    <t>Block/House: 420/ 220</t>
   </si>
   <si>
     <t xml:space="preserve"> Throsby ACT 2914</t>
@@ -1083,10 +1080,13 @@
     <t>Lawrenson Circuit, Jacka ACT 2914</t>
   </si>
   <si>
+    <t>Town house</t>
+  </si>
+  <si>
     <t>Jacka</t>
   </si>
   <si>
-    <t>Block/House:94/ -</t>
+    <t>Block/House: 94/ -</t>
   </si>
   <si>
     <t xml:space="preserve">5	4	9	0	0	0	</t>
@@ -1114,7 +1114,7 @@
     <t>North Canberra</t>
   </si>
   <si>
-    <t>Block/House:83/ -</t>
+    <t>Block/House: 83/ -</t>
   </si>
   <si>
     <t xml:space="preserve">4	8	3	0	0	0	</t>
@@ -1153,7 +1153,7 @@
     <t>12 Ledgar Rise, Taylor ACT 2913</t>
   </si>
   <si>
-    <t>Block/House:540/ 288</t>
+    <t>Block/House: 540/ 288</t>
   </si>
   <si>
     <t xml:space="preserve">9	6	9	0	0	0	</t>
@@ -1200,7 +1200,7 @@
     <t>19/16 David Miller Crescent, Casey ACT 2913</t>
   </si>
   <si>
-    <t>Block/House:5282/ 92</t>
+    <t>Block/House: 5282/ 92</t>
   </si>
   <si>
     <t xml:space="preserve">3	8	5	0	0	0	</t>
@@ -1237,7 +1237,7 @@
     <t>19 Charles Perkins Circuit, Bonner ACT 2914</t>
   </si>
   <si>
-    <t>Block/House:426/ 238</t>
+    <t>Block/House: 426/ 238</t>
   </si>
   <si>
     <t xml:space="preserve">8	3	0	0	0	0	</t>
@@ -1279,7 +1279,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>Block/House:240/ -</t>
+    <t>Block/House: 240/ -</t>
   </si>
   <si>
     <t xml:space="preserve">5	9	9	0	0	0	</t>
@@ -1301,7 +1301,7 @@
     <t>5 Kaylock Street, Strathnairn ACT 2615</t>
   </si>
   <si>
-    <t>Block/House:612/ 250</t>
+    <t>Block/House: 612/ 250</t>
   </si>
   <si>
     <t xml:space="preserve">9	2	5	0	0	0	</t>
@@ -1335,7 +1335,7 @@
     <t>MacGregor</t>
   </si>
   <si>
-    <t>Block/House:470/ -</t>
+    <t>Block/House: 470/ -</t>
   </si>
   <si>
     <t xml:space="preserve">6	9	9	0	0	0	</t>
@@ -1355,10 +1355,7 @@
     <t>48 Asimus Avenue, Strathnairn ACT 2615</t>
   </si>
   <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Block/House:649/ -</t>
+    <t>Block/House: 649/ -</t>
   </si>
   <si>
     <t xml:space="preserve">9	5	0	0	0	0	</t>
@@ -1374,7 +1371,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>Block/House:570/ 260</t>
+    <t>Block/House: 570/ 260</t>
   </si>
   <si>
     <t xml:space="preserve">9	9	9	0	0	0	</t>
@@ -1581,7 +1578,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,6 +1640,16 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1656,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1792,6 +1799,7 @@
     <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2029,9 +2037,9 @@
   </sheetPr>
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A29" ySplit="1"/>
-      <selection activeCell="B56" pane="bottomLeft" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
+      <selection activeCell="B57" pane="bottomLeft" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
@@ -3460,10 +3468,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>371</v>
+        <v>223</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>85</v>
@@ -3480,10 +3488,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>371</v>
+        <v>224</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>85</v>
@@ -3500,10 +3508,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>371</v>
+        <v>225</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>85</v>
@@ -3520,10 +3528,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>371</v>
+        <v>226</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>85</v>
@@ -3540,10 +3548,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>371</v>
+        <v>227</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>85</v>
@@ -3560,9 +3568,9 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="29" t="s">
@@ -3580,10 +3588,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>15</v>
+        <v>229</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>85</v>
@@ -3600,10 +3608,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>15</v>
+        <v>230</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>85</v>
@@ -3620,9 +3628,9 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="29" t="s">
@@ -3640,10 +3648,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>15</v>
+        <v>232</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>85</v>
@@ -3660,10 +3668,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>15</v>
+        <v>233</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>370</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>85</v>
@@ -3680,9 +3688,9 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="29" t="s">
@@ -3700,10 +3708,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>15</v>
+        <v>235</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>370</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>85</v>
@@ -3720,10 +3728,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>15</v>
+        <v>236</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>370</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>85</v>
@@ -3740,9 +3748,9 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="29" t="s">
@@ -3760,10 +3768,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>15</v>
+        <v>238</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>110</v>
@@ -3780,10 +3788,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>15</v>
+        <v>239</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>110</v>
@@ -3800,9 +3808,9 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="29" t="s">
@@ -3820,10 +3828,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>110</v>
@@ -3840,10 +3848,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>15</v>
+        <v>242</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>110</v>
@@ -3932,8 +3940,8 @@
   </sheetPr>
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
@@ -6195,7 +6203,7 @@
       <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="59" t="s">
         <v>218</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -6204,8 +6212,8 @@
       <c r="D31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="62" t="s">
-        <v>242</v>
+      <c r="E31" s="59" t="s">
+        <v>222</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>121</v>
@@ -6339,12 +6347,12 @@
       <c r="AI32" s="29"/>
       <c r="AJ32" s="29"/>
     </row>
-    <row ht="13.2" r="33" spans="1:21">
+    <row r="33">
       <c r="A33" t="s">
         <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
         <v>244</v>
@@ -6398,12 +6406,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="34" spans="1:21">
+    <row r="34">
       <c r="A34" t="s">
         <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
@@ -6457,12 +6465,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="35" spans="1:21">
+    <row r="35">
       <c r="A35" t="s">
         <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
@@ -6516,12 +6524,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="36" spans="1:21">
+    <row r="36">
       <c r="A36" t="s">
         <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
         <v>268</v>
@@ -6575,12 +6583,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="37" spans="1:21">
+    <row r="37">
       <c r="A37" t="s">
         <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C37" t="s">
         <v>275</v>
@@ -6634,7 +6642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="38" spans="1:21">
+    <row r="38">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -6693,18 +6701,18 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="39" spans="1:21">
+    <row r="39">
       <c r="A39" t="s">
         <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
         <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
@@ -6743,7 +6751,7 @@
         <v>289</v>
       </c>
       <c r="S39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T39" t="s">
         <v>85</v>
@@ -6752,18 +6760,18 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="40" spans="1:21">
+    <row r="40">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C40" t="s">
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
         <v>219</v>
@@ -6775,7 +6783,7 @@
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I40" t="s">
         <v>246</v>
@@ -6802,7 +6810,7 @@
         <v>265</v>
       </c>
       <c r="S40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T40" t="s">
         <v>85</v>
@@ -6811,18 +6819,18 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="41" spans="1:21">
+    <row r="41">
       <c r="A41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
         <v>219</v>
@@ -6831,37 +6839,37 @@
         <v>283</v>
       </c>
       <c r="G41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" t="s">
         <v>297</v>
-      </c>
-      <c r="H41" t="s">
-        <v>298</v>
       </c>
       <c r="I41" t="s">
         <v>246</v>
       </c>
       <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
         <v>299</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>300</v>
-      </c>
-      <c r="M41" t="s">
-        <v>301</v>
       </c>
       <c r="N41" t="s">
         <v>250</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q41" t="s">
         <v>252</v>
       </c>
       <c r="R41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T41" t="s">
         <v>85</v>
@@ -6870,12 +6878,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="42" spans="1:21">
+    <row r="42">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C42" t="s">
         <v>139</v>
@@ -6893,7 +6901,7 @@
         <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I42" t="s">
         <v>246</v>
@@ -6917,10 +6925,10 @@
         <v>252</v>
       </c>
       <c r="R42" t="s">
+        <v>305</v>
+      </c>
+      <c r="S42" t="s">
         <v>306</v>
-      </c>
-      <c r="S42" t="s">
-        <v>307</v>
       </c>
       <c r="T42" t="s">
         <v>85</v>
@@ -6929,18 +6937,18 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="43" spans="1:21">
+    <row r="43">
       <c r="A43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" t="s">
         <v>308</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>309</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>81</v>
@@ -6976,7 +6984,7 @@
         <v>314</v>
       </c>
       <c r="R43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S43" t="s">
         <v>315</v>
@@ -6988,7 +6996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="44" spans="1:21">
+    <row r="44">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -7047,12 +7055,12 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="13.2" r="45" spans="1:21">
+    <row r="45">
       <c r="A45" t="s">
         <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
         <v>324</v>
@@ -7106,12 +7114,12 @@
         <v>40</v>
       </c>
     </row>
-    <row ht="13.2" r="46" spans="1:21">
+    <row r="46">
       <c r="A46" t="s">
         <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
         <v>330</v>
@@ -7165,7 +7173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row ht="13.2" r="47" spans="1:21">
+    <row r="47">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -7224,18 +7232,18 @@
         <v>40</v>
       </c>
     </row>
-    <row ht="13.2" r="48" spans="1:21">
+    <row r="48">
       <c r="A48" t="s">
         <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
         <v>81</v>
@@ -7283,12 +7291,12 @@
         <v>19</v>
       </c>
     </row>
-    <row ht="13.2" r="49" spans="1:21">
+    <row r="49">
       <c r="A49" t="s">
         <v>346</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s">
         <v>347</v>
@@ -7318,7 +7326,7 @@
         <v>350</v>
       </c>
       <c r="M49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N49" t="s">
         <v>252</v>
@@ -7342,7 +7350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row ht="13.2" r="50" spans="1:21">
+    <row r="50">
       <c r="A50" t="s">
         <v>352</v>
       </c>
@@ -7401,18 +7409,18 @@
         <v>19</v>
       </c>
     </row>
-    <row ht="13.2" r="51" spans="1:21">
+    <row r="51">
       <c r="A51" t="s">
         <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
         <v>360</v>
       </c>
       <c r="D51" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
         <v>81</v>
@@ -7424,16 +7432,16 @@
         <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I51" t="s">
         <v>246</v>
       </c>
       <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
         <v>363</v>
-      </c>
-      <c r="L51" t="s">
-        <v>364</v>
       </c>
       <c r="M51" t="s">
         <v>247</v>
@@ -7451,7 +7459,7 @@
         <v>360</v>
       </c>
       <c r="S51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T51" t="s">
         <v>110</v>
@@ -7460,12 +7468,12 @@
         <v>19</v>
       </c>
     </row>
-    <row ht="13.2" r="52" spans="1:21">
+    <row r="52">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
@@ -7483,16 +7491,16 @@
         <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I52" t="s">
         <v>246</v>
       </c>
       <c r="K52" t="s">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s">
         <v>368</v>
-      </c>
-      <c r="L52" t="s">
-        <v>369</v>
       </c>
       <c r="M52" t="s">
         <v>249</v>
@@ -7510,7 +7518,7 @@
         <v>265</v>
       </c>
       <c r="S52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T52" t="s">
         <v>110</v>
@@ -7522,6 +7530,10 @@
   </sheetData>
   <autoFilter ref="E1:E32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
+    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
       <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -7531,10 +7543,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AJ1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I500647\eclipse-workspace\Manoj\Web_Automation_WordPress\src\main\resources\InputTestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BBA761E0-93CC-4972-8F5A-F1F544EEA47B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8A021-CCB4-4CB0-BEDF-09813CBEECB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
-    <sheet name="Listing" r:id="rId2" sheetId="2"/>
-    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
-    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Listing" sheetId="2" r:id="rId2"/>
+    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
+    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!$E$1:$E$32</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!$A$1:$AE$68</definedName>
+    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
-    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="486">
   <si>
     <t>ID</t>
   </si>
@@ -689,19 +689,10 @@
     <t>SOLD</t>
   </si>
   <si>
-    <t>TO BE UPDATED</t>
-  </si>
-  <si>
     <t>OFFER</t>
   </si>
   <si>
-    <t>House and Land Package</t>
-  </si>
-  <si>
     <t>OFF THE MARKET</t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
   <si>
     <t>https://www.allhomes.com.au/14-mottram-street-taylor-act-2913</t>
@@ -1332,9 +1323,6 @@
     <t>1 Halpern Street, MacGregor ACT 2615</t>
   </si>
   <si>
-    <t>MacGregor</t>
-  </si>
-  <si>
     <t>Block/House: 470/ -</t>
   </si>
   <si>
@@ -1397,7 +1385,709 @@
 Your foreverhome, custom designed for you.</t>
   </si>
   <si>
+    <t>Macgregor</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Not Active</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/agent/vinko-milicevic-871617/</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/langi-apartments-a-boutique-development-2-bedroom-apartment-taylor-act-2913?tid=178964231</t>
+  </si>
+  <si>
+    <t>IQRealEstate</t>
+  </si>
+  <si>
+    <t>vinko@iqreal.com.au</t>
+  </si>
+  <si>
+    <t>VFZlpsH48X2bYid2hwyclusP</t>
+  </si>
+  <si>
+    <t>Vinko Milicevic (IQRealEstate)</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/5-schrieber-place-bonner-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/langi-apartments-a-boutique-development-1-bedroom-plus-study-apartment-taylor-act-2913?tid=178964802</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/langi-apartments-a-boutique-development-1-bedroom-apartment-taylor-act-2913?tid=178979148</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/6-inlander-crescent-flynn-act-2615</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-505-102-swain-street-gungahlin-act-2912</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/5-moor-place-evatt-act-2617</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-5-18-macleay-street-turner-act-2612</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/4-wangalo-lane-harrison-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-7-4-lawrenson-circuit-jacka-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/16-nethercote-street-taylor-act-2913</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/2-tabrett-street-googong-nsw-2620</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/6-waghorn-street-gungahlin-act-2912</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/6-summerhayes-street-taylor-act-2913</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/25-braine-street-page-act-2614</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/227-sculthorpe-avenue-whitlam-act-2611</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Langi Apartments: A Boutique Development - 2 bedroom apartment, Taylor ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 90/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	2	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$420,000+</t>
+  </si>
+  <si>
+    <t>DO YOU QUALIFY FOR THE HOME BUYER CONCESSION SCHEME?
+The ACT Government has a concession scheme to help people buy a home or residential land. The scheme is administered by the ACT Revenue Office.
+https://www.revenue.act.gov.au/home-buyer-assistance/home-buyer-concession-scheme/home-buyer-concessions-from-1-July-2019
+Langi Apartments is a boutique development comprising a generous mix of 30 apartments: 1 bedroom, 1 bedroom plus study, 2 bedrooms &amp; 3 bedrooms. Located in Gungahlin's newest suburb, Taylor, these quality apartments can potentially suit first home buyers, young families or downsizers looking for minimum maintenance living.
+These 2 bedroom apartments features open plan living areas, spacious bedrooms, great sized yard or a balcony and a secured underground parking with storage and additional storeroom. The main living area is open plan design and boasts a great kitchen that incorporates 20mm stone bench tops and splashbacks, stainless steel Bosch appliances.
+Each living area and bedroom features a separate R/C heating &amp; cooling giving you comfort all year round and also allowing you to heat or cool every room separately, saving you money (3 separate A/C units in total!).
+The apartments are positioned close to community facilities, including Margaret Hendry primary school, two future sporting fields, planned local shops and a lot of public green open spaces.
+There are plenty of parks and playgrounds for active kids and the linked cycle paths and natural parkland means you can move through the suburb with few roads to cross. Taylor offers the region full sized playing fields. The two large greenspaces encourage an active lifestyle.
+Taylor is adjacent to Horse Park Drive between Casey, Moncrieff and Jacka. The community is located just 4km from the Gungahlin Town Centre with its major supermarkets, shopping outlets, medical facilities, swimming pool, cafes and restaurants and it's also set close to the popular amenity of Casey Market Town. Taylor is located on Horse Park Drive, giving you easy access to the Federal Highway, Barton Highway and the Canberra International Airport.
+Langi Apartments come with a comprehensive inclusions list giving you many extra features which you will not find elsewhere at this price point and in a property like this.
+- Boutique development
+- 2 bedroom apartments
+- Open plan living
+- 74 sqm - 90 sqm of living area
+- 22 sqm - 106 sqm yard areas
+- 15 sqm - 24 sqm balcony areas
+- 2 bathrooms
+- Study nook
+- 2 secured underground parking spaces
+- 20mm stone bench top selected from colour scheme
+- Bosch Stainless steel appliances; 600 mm electric oven, 700 mm gas cooktop, dishwasher
+- Soft close door and drawers throughout
+- Dual spray sink mixer
+- Stainless steel undermount sink
+- Gas infinite hot water system
+- TV, data &amp; phone points
+- In-house intercom system with video camera and security system
+- Customised wall hung vanity or wall basin in bathrooms as per plan
+- Twin shower heads in bathrooms
+- Floor to ceiling ceramic tiling per selected colour scheme in bathrooms
+- Floating laminate floor (12mm Spotted Gum) to living areas
+- Choice of either roller or vertical blinds
+- Walk-in robes or Built-in robes with mirrored sliding doors
+- Double glazed windows and sliding doors with key locks and fly screens
+- Reverse cycle ducted air-conditioning system in EVERY room
+- Visitors &amp; disabled parking
+- LED lights
+- Close to local amenities and school
+Note: Photos are a guide only and belong to another property built by this builder with similar inclusions.
+Langi Apartments are built by Strika Homes, a small family owned and run building/development company with over 33 years' experience in the residential building industry in Canberra. Strika Homes has a professional attitude towards its construction projects and consistently uses expert advice to assess the quality of the design and construction process, including continual involvement of the architect and structural engineer.
+Strika Homes has developed a reputation of building quality products that last for decades and it is a member of Master Builders Association giving you the confidence you need.
+To view the floor plans and the inclusions lists, or to get any other information regarding the development, or come to the display suite located on the property at 10 Trevor Gibson Way.</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>5 Schrieber Place, Bonner ACT 2914</t>
+  </si>
+  <si>
+    <t>Block/House: 589/ 304</t>
+  </si>
+  <si>
+    <t>This beautiful home is built with uncompromising quality, fantastic proportions and contemporary style and functionality. The home delivers an extraordinary family space with perfectly designed open plan layout offering seamless connection between outdoor and indoor living spaces.
+If you are looking for a top-quality home you could spend the rest of your life in, look no further. This is a true "forever" home and it can be perfect to a wide range of buyers, from families that treasure space and the endless list of features to investors who will appreciate the low maintenance.
+5 Schrieber Place is one of those properties that must be seen to be truly appreciated. Front living room doubles as home theatre complete with Optoma theatre projector, in-built surround sound speakers and 130-inch fixed frame projection screen.
+Open plan kitchen/dining/family room features a raked ceiling raising from 2.4m to 4m in height, allowing an abundance of natural light to pour in through the motorized windows which are controlled remotely.
+The kitchen is great in size and will make any chef happy. The centre of the kitchen is the island bench with waterfall stone benchtop. 900mm Ariston oven and cooktop are complimented by the Sirius Designline canopy rangehood. In addition, built-in SMEG microwave, ISE evolution 100 insinkerator and the Bosch dishwasher complete this beautiful kitchen.
+The dining room opens to the alfresco outdoor area which is under the roofline and can be closed off from the elements with a built-in cafe blind. The alfresco features an outdoor kitchen with a sink, fridge space, bbq and a gas cooktop. Built-in speakers add to the entertaining value of this space.
+Master bedroom features a great walk-through robe with display cabinet drawers whilst the ensuite is large and features a large spa bath and is complemented by the under-floor heating.
+The other bedrooms are all oversized, giving each member of the family plenty of their own space to enjoy. All rooms are equipped with phone, data &amp; video outlets, built-in custom joinery robes and mirrored sliding doors.
+This home simply has an endless list of features which would take forever to list in this ad. We will provide an inclusions list for the home at our inspection events detailing everything that has been included in the property.
+No expenses have been spared in the construction of the home and it will give our buyer a unique unassuming property that will stand out from the crowd for a very long time.
+Some of the features of this magnificent home are:
+- 4 bedrooms
+- 2 bathrooms
+- 2-car garage with 3m ceiling and plenty of storage space
+- 232sqm of living space
+- 304sqm total house size
+- 588sqm block size
+- 2.7m ceilings to main living areas
+- LED lights throughout
+- Solid timber Spotted Gum Hardwood floor to main living areas, study &amp; hallway
+- 8 CCTV security cameras
+- NBN fibre to home
+- Commercial grade alarm
+- Ducted gas heating &amp; air conditioning
+- Ducted vacuum
+- 2x Rinnai gas hot water systems
+- Hills home hub (phone, data &amp; TV distribution hub)
+- Built-in theatre
+- Built-in speakers in living, family, garage &amp; alfresco
+- Large storage shed
+- Low maintenance property
+- Quiet street location close to nature reserve
+As mentioned previously, there are simply too many features to list. This property must be on everyone's list to view.
+For any additional information or alternative viewing times, please call Vinko on 0410 636 045.</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Langi Apartments: A Boutique Development - 1 bedroom plus Study apartment, Taylor ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 72/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3	9	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$395,000+</t>
+  </si>
+  <si>
+    <t>DO YOU QUALIFY FOR THE HOME BUYER CONCESSION SCHEME?
+The ACT Government has a concession scheme to help people buy a home or residential land. The scheme is administered by the ACT Revenue Office.
+https://www.revenue.act.gov.au/home-buyer-assistance/home-buyer-concession-scheme/home-buyer-concessions-from-1-July-2019
+Langi Apartments is a boutique development comprising a generous mix of 30 apartments: 1 bedroom, 1 bedroom plus study, 2 bedrooms &amp; 3 bedrooms. Located in Gungahlin's newest suburb, Taylor, these quality apartments can potentially suit first home buyers, young families or downsizers looking for minimum maintenance living.
+These 1 bedroom plus Study/Multi-purpose room apartments feature open plan living areas, spacious bedrooms, great sized yard or a balcony and a secured underground parking with storage. The main living area is open plan design and boasts a great kitchen that incorporates 20mm stone bench tops and splashbacks, stainless steel Bosch appliances.
+Each living area and bedroom features a separate R/C heating &amp; cooling giving you comfort all year round and also allowing you to heat or cool every room separately, saving you money (2 or 3 separate A/C units in total!).
+The apartments are positioned close to community facilities, including Margaret Hendry primary school, two future sporting fields, planned local shops and a lot of public green open spaces.
+There are plenty of parks and playgrounds for active kids and the linked cycle paths and natural parkland means you can move through the suburb with few roads to cross. Taylor offers the region full sized playing fields. The two large greenspaces encourage an active lifestyle.
+Taylor is adjacent to Horse Park Drive between Casey, Moncrieff and Jacka. The community is located just 4km from the Gungahlin Town Centre with its major supermarkets, shopping outlets, medical facilities, swimming pool, cafes and restaurants and it's also set close to the popular amenity of Casey Market Town. Taylor is located on Horse Park Drive, giving you easy access to the Federal Highway, Barton Highway and the Canberra International Airport.
+Langi Apartments come with a comprehensive inclusions list giving you many extra features which you will not find elsewhere at this price point and in a property like this.
+- Boutique development
+-
+- Open plan living
+- 64 sqm - 72 sqm of living area
+- 48 sqm yard areas
+- 9 sqm - 15 sqm balcony areas
+- 1 bathroom
+- Study or Multi-purpose room
+- 1 or 2 secured underground parking spaces
+- 20mm stone bench top selected from colour scheme
+- Bosch Stainless steel appliances; 600 mm electric oven, 700 mm gas cooktop, dishwasher
+- Soft close door and drawers throughout
+- Dual spray sink mixer
+- Stainless steel undermount sink
+- Gas infinite hot water system
+- TV, data &amp; phone points
+- In-house intercom system with video camera and security system
+- Customised wall hung vanity or wall basin in bathrooms as per plan
+- Twin shower heads in bathrooms
+- Floor to ceiling ceramic tiling per selected colour scheme in bathrooms
+- Floating laminate floor (12mm Spotted Gum) to living areas
+- Choice of either roller or vertical blinds
+- Built in robes with mirrored sliding doors
+- Double glazed windows and sliding doors with key locks and fly screens
+- Reverse cycle ducted air-conditioning system in EVERY room
+- Visitors &amp; disabled parking
+- LED lights
+- Close to local amenities and school
+Note: Photos are a guide only and belong to another property built by this builder with similar inclusions.
+Langi Apartments are built by Strika Homes, a small family owned and run building/development company with over 33 years' experience in the residential building industry in Canberra. Strika Homes has a professional attitude towards its construction projects and consistently uses expert advice to assess the quality of the design and construction process, including continual involvement of the architect and structural engineer.
+Strika Homes has developed a reputation of building quality products that last for decades and it is a member of Master Builders Association giving you the confidence you need.
+To view the floor plans and the inclusions lists, or to get any other information regarding the development, or come to the display suite located on the property at 10 Trevor Gibson Way.</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Langi Apartments: A Boutique Development - 1 bedroom apartment, Taylor ACT 2913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3	2	3	0	0	0	</t>
+  </si>
+  <si>
+    <t>$323,000+</t>
+  </si>
+  <si>
+    <t>DO YOU QUALIFY FOR THE HOME BUYER CONCESSION SCHEME?
+The ACT Government has a concession scheme to help people buy a home or residential land. The scheme is administered by the ACT Revenue Office.
+https://www.revenue.act.gov.au/home-buyer-assistance/home-buyer-concession-scheme/home-buyer-concessions-from-1-July-2019
+Langi Apartments is a boutique development comprising a generous mix of 30 apartments: 1 bedroom, 1 bedroom plus study, 2 bedrooms &amp; 3 bedrooms. Located in Gungahlin's newest suburb, Taylor, these quality apartments can potentially suit first home buyers, young families or downsizers looking for minimum maintenance living.
+These 1 bedroom apartments feature open plan living areas, spacious bedrooms, great sized yard or a balcony and a secured underground parking with storage. The main living areas are open plan design and boast a great kitchen that incorporates 20mm stone bench tops and splashbacks, stainless steel Bosch appliances.
+Each living area and bedroom features a separate R/C heating &amp; cooling giving you comfort all year round and also allowing you to heat or cool every room separately, saving you money (2 separate A/C units in total!).
+The apartments are positioned close to community facilities, including Margaret Hendry primary school, two future sporting fields, planned local shops and a lot of public green open spaces.
+There are plenty of parks and playgrounds for active kids and the linked cycle paths and natural parkland means you can move through the suburb with few roads to cross. Taylor offers the region full sized playing fields. The two large greenspaces encourage an active lifestyle.
+Taylor is adjacent to Horse Park Drive between Casey, Moncrieff and Jacka. The community is located just 4km from the Gungahlin Town Centre with its major supermarkets, shopping outlets, medical facilities, swimming pool, cafes and restaurants and it's also set close to the popular amenity of Casey Market Town. Taylor is located on Horse Park Drive, giving you easy access to the Federal Highway, Barton Highway and the Canberra International Airport.
+Langi Apartments come with a comprehensive inclusions list giving you many extra features which you will not find elsewhere at this price point and in a property like this.
+- Boutique development
+- 1 bedroom apartments
+- Open plan living
+- 55 sqm - 72 sqm of living area
+- 40 sqm - 42 sqm yard areas
+- 55 sqm balcony areas
+- 1 bathroom
+- Study nook
+- 1 secured underground parking space
+- 20mm stone bench top selected from colour scheme
+- Bosch Stainless steel appliances; 600 mm electric oven, 700 mm gas cooktop, dishwasher
+- Soft close door and drawers throughout
+- Dual spray sink mixer
+- Stainless steel undermount sink
+- Gas infinite hot water system
+- TV, data &amp; phone points
+- In-house intercom system with video camera and security system
+- Customised wall hung vanity or wall basin in bathrooms as per plan
+- Twin shower heads in bathrooms
+- Floor to ceiling ceramic tiling per selected colour scheme in bathrooms
+- Floating laminate floor (12mm Spotted Gum) to living areas
+- Choice of either roller or vertical blinds
+- Built in robes with mirrored sliding doors
+- Double glazed windows and sliding doors with key locks and fly screens
+- Reverse cycle ducted air-conditioning system in EVERY room
+- Visitors &amp; disabled parking
+- 2 adaptable apartments
+- LED lights
+- Close to local amenities and school
+Note: Photos are a guide only and belong to another property built by this builder with similar inclusions.
+Langi Apartments are built by Strika Homes, a small family owned and run building/development company with over 33 years' experience in the residential building industry in Canberra. Strika Homes has a professional attitude towards its construction projects and consistently uses expert advice to assess the quality of the design and construction process, including continual involvement of the architect and structural engineer.
+Strika Homes has developed a reputation of building quality products that last for decades and it is a member of Master Builders Association giving you the confidence you need.
+To view the floor plans and the inclusions lists, or to get any other information regarding the development, or come to the display suite located on the property at 10 Trevor Gibson Way.</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>6 Inlander Crescent, Flynn ACT 2615</t>
+  </si>
+  <si>
+    <t>Flynn</t>
+  </si>
+  <si>
+    <t>Block/House: 776/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6	8	0	</t>
+  </si>
+  <si>
+    <t>$680 - $700 per week</t>
+  </si>
+  <si>
+    <t>This beautifully renovated 4-bedroom ensuite home is currently available for rent in the highly sought -after suburb of Flynn.
+The home offers spacious open plan living area that opens to a brand-new covered deck overlooking the private backyard, giving you plenty of space to enjoy and entertain.
+Kitchen is brand new; it features self-standing oven and a large stone bench with a beautiful dual sink and a gorgeous kitchen tap. Brand new cabinetry gives you great storage space and the timber floor extends through the living area.
+Main bedroom is the new extension to the home; it features a beautiful ensuite and plenty of space. Other bedrooms have all been repainted and improved with a new carpet.
+Features:
+- Fully renovated home
+- 4 bedrooms
+- Brand new kitchen with new appliances
+- Brand new master bedroom with designer ensuite
+- Large covered outdoor entertaining deck
+- Large backyard
+- Double garage + single garage under the house
+- Shed
+- Great but simple backyard
+- New deck at the front of the home
+For any additional information or alternative viewing times, please call Vinko on 0410 636 045.</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>505/102 Swain Street, Gungahlin ACT 2912</t>
+  </si>
+  <si>
+    <t>Block/House: 4673/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6	2	0	</t>
+  </si>
+  <si>
+    <t>$620 per week</t>
+  </si>
+  <si>
+    <t>Available from 6th June 2021.
+Located in the brand new Lumi building, this 3-bedroom apartment boasts 101sqm of living area, two balconies, high ceilings and generously sized bedrooms as well as two bathrooms.
+The Lumi apartments are naturally cross ventilated, with optimal solar orientation and natural lighting, and topped off with apartment-specific heat recovery units - delivering a constant flow of fresh, conditioned air.
+The location close to the Gungahlin Town Centre gives residents access to a range of restaurants, shopping, outdoor activities &amp; easy transport to the City via the light rail.
+. 350m walk to Gungahlin Marketplace and light rail
+. Ducted heating and cooling to all living areas and primary bedroom
+. Large bedrooms
+. 100% wool carpet in bedrooms
+. Lots of built-in storage
+. Floating timber floors
+. 2.7m ceilings
+. Full height windows
+. Stone benchtops
+. Soft close joinery
+. Bosch appliances including wall ovens and integrated dishwashers
+. Concealed power points in bathrooms
+. Full height bathroom tiling
+. Basement parking and ample storage
+. Intuitive security with video intercom and internal access to letter boxes
+. Two balconies
+. Double glazed, thermally broken windows and sliding doors.
+Please call Vinko on 0410 636 045 for more details or additional viewing times.</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>5 Moor Place, Evatt ACT 2617</t>
+  </si>
+  <si>
+    <t>Evatt</t>
+  </si>
+  <si>
+    <t>Block/House: 809/ 281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	0	2	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$1,020,000</t>
+  </si>
+  <si>
+    <t>This fantastic home is situated on an 809m2 block in quiet Moor Place just off Copland Drive. It is set close to Copland College, St. Monica's Primary and Miles Franklin Primary Schools. This home will make it very hard to look past if you are after a quality family home that will suit your needs for a long time to come.
+Two levels of the property give you a selection of formal and informal living areas with ample room even for larger families. Kitchen and living areas have been previously renovated and both have large windows giving you plenty of sunlight and is meticulously maintained with pride.
+The upper level of the property is in pristine condition as the result of the long-term maintenance. It contains two separate living spaces and a large pergola overlooking a huge back yard. The front of the home features a long terrace with views over the street and towards West Belconnen.
+There are four bedrooms upstairs with the main bedroom featuring an ensuite and built-in robe. The main bathroom has a spa and a shower.
+Plenty of extra room to utilise is provided downstairs which has been divided into a kitchenette and an additional room with ensuite attached. This space has access to the outside carport and internal access to the garage. There is also a large storage room and additional storage space under the house.
+This property needs to be on your "must see" list as properties like this in this condition do not come to market often!
+- Fantastic family home
+- Huge potential
+- Previously renovated
+- 195m2 approx. of living
+- 281m2 approx. of total house size
+- 809m2 block
+- Sunny kitchen and dining room
+- Formal living room
+- Ducted heating &amp; cooling
+- Large double garage with internal access
+- Four bedrooms upstairs (master with ensuite)
+- Fifth bedroom/office downstairs (with ensuite)
+- Second kitchen downstairs
+- Long terrace with views over the street
+- Lots of storage
+- Side carport with garage door
+- Lots of parking available at front
+- Shed
+Feel free to call Vinko on 0410 636 045 for more details or alternative open times.</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>5/18 MacLeay Street, Turner ACT 2612</t>
+  </si>
+  <si>
+    <t>RENTED</t>
+  </si>
+  <si>
+    <t>Block/House: 1073/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5	3	0	</t>
+  </si>
+  <si>
+    <t>$530 per week</t>
+  </si>
+  <si>
+    <t>This first-floor apartment in the "Allure" boutique development is situated in the prestigious inner north suburb of Turner.
+It is walking distance to the bustling Braddon precinct and the Canberra CBD.
+Boasting two light filled bedrooms, bathroom &amp; ensuite and a covered balcony facing Macleay St, this apartment is in a prime location for anyone's needs!
+Features:</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4 Wangalo Lane, Harrison ACT 2914</t>
+  </si>
+  <si>
+    <t>Block/House: 250/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5	2	0	</t>
+  </si>
+  <si>
+    <t>$520 per week</t>
+  </si>
+  <si>
+    <t>This great three bedroom home is now available to inspect and it may just be the right property for you.
+The single level home is positioned in a quiet location and has been well looked after.
+Features include:
+- Modern kitchen with stainless steel appliances
+- Main bedroom with two-way bathroom
+- All bedrooms with built-in wardrobes
+- Ducted reverse-cycle heating and cooling
+- Double carport with remote controlled doors
+- Covered outdoor entertaining area
+- Great size, low maintenance backyard
+- NBN
+For more details or alternative open times, feel free to call Vinko on 0410 636 045.</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>7/4 Lawrenson Circuit, Jacka ACT 2914</t>
+  </si>
+  <si>
+    <t>A beautiful family home close to Amaroo school &amp; shops is proudly presented by New Door Properties. This brilliantly designed 3-bedroom single storey town-home is just the ticket for the astute buyers for their home or investment. It will surely impress with its individuality, space and style.
+The residence features a modern kitchen with stone benchtop and ample cupboard space. Great sized living space and a splendid layout offer up a practical and light filled pleasant place to live and entertain. Newly fitted air conditioning with heating and Energy Efficiency Rating of 6.0 means that you will be cozy during the extreme Canberra weather.
+Some of the new features are Led lights for brighter view, laminated floor in all the bedrooms. This property is situated close walk to Amaroo Village Shops which includes Coles supermarket, Gym, Coffee Guru, Asian / Indian Grocery Store.
+Features:</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>16 Nethercote Street, Taylor ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 432/ 256</t>
+  </si>
+  <si>
+    <t>Auction 27/05/21</t>
+  </si>
+  <si>
+    <t>New Door is proud to present 16 Nethercote Street Taylor to the market. This contemporary home with modern façade and high-end inclusions is surely to impress everyone. The Living area opens to impressive entertaining area with outdoor Kitchen with free standing 900 mm cooktop &amp; 900 mm oven, sink, barbeque with gas outlet and cabinets. The Built-in entertainment unit in living area is perfect with electric feature firewall and a beautiful crystal chandelier.
+The property includes Ducted reverse cycle air conditioning with 3 zones, double glazing to all windows and doors throughout, recessed stone feature wall with feature lights in Hallway. There is absolutely stunning marble finish floor tiles through entry, lounge, hallway, open plan living, kitchen, Butler's Pantry, and laundry. The two tone paint and laminate finish handle less, soft close Kitchen cabinets from floor to ceiling (2.7m height) with ample storage and drawers
+The luxuriously sized master bedroom with feature wall has walk-in robe, ensuite with shower and double vanity. It features a huge window for more natural light. The other three spacious secondary bedrooms, all with custom built-in robes are highly impressive. There is AC5 laminate flooring with double underlay in all Bedrooms and a large main bathroom has a spa bathtub, shower fittings, vanity and a separate w/c to avoid any morning rush for the whole family. Two rooms have ceiling fan for convenience. It is quite favourable with internal access to double garage with auto, panel lift door and ample built-in storage space. This property is for easy care with beautiful &amp; attractive landscaping.
+Property Features:
+• Spacious and Luxurious four Bedrooms
+• Walk in robe in master bedroom
+• Fan and Laminate flooring in master bedroom
+• Two-way bathroom in bed 2 &amp; 3
+• Built in robes in 3 bedrooms
+• Ducted reverse cycle air conditioning with 3 zones
+• 2.7m High ceiling throughout
+• Floor to Ceiling 2.7meter tiling in all bathrooms
+• Bulkhead with feature Led strip lights
+• Wired speaker system in Lounge area
+• NBN fibre to premises
+• Huge chef's kitchen showcases vast lengths of 50mm stone bench-top
+• Zip filter water tap
+• Island bench with waterfall
+• Costumed Crystal chandelier
+• Bosch Black glass cooktop Series 6
+• Bosch oven
+• Ducted range-hood.
+• Large Butler's pantry with vast length of 50mm stone bench-top
+• Bosch Dishwasher
+• 2340 high internal doors to compliment
+• 7.2 kw high end solar system
+• SMA inverter and Trina panels
+• Swan 6 Camera security system
+• Downlights in Eaves throughout the house
+Property Information:
+• Block area : 432 m2 (approx.)
+• Total GFA : 256 m2 (approx.)
+• Living : 190 m2 (approx.)
+• Garage : 44 m2 (approx.)
+• Alfresco : 17 m2 (approx.)
+• Porch : 5 m2 (approx.)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2 Tabrett Street, Googong NSW 2620</t>
+  </si>
+  <si>
+    <t>Greater Queanbeyan</t>
+  </si>
+  <si>
+    <t>Googong</t>
+  </si>
+  <si>
+    <t>Block/House: 437/ -</t>
+  </si>
+  <si>
+    <t>New Door Properties brings an amazing opportunity of buying a property, in the beautiful suburb of Googong, this house is designed as a dream home for families. As you enter there is a feeling of additional space which is projected by the 2.55m high ceilings and separation of formal living and family areas. The living area is wide open with natural light and good roadside view with greenery. Walking towards the kitchen, it has 600 mm gas cooktop, Bellini Oven, separate island bench with down lights, and a walk-in pantry.
+This property has an impressive five-bedrooms with carpets in all the rooms with Built in robes. The attractive family bathroom comes with vanity and a large bathtub. There are two ensuite and master bedroom has a ceiling fan for easy convenience and a walk-in robe. One can enjoy the time with family and friends under the decked alfresco with beautiful backyard.
+This house can be a fantastic find for first home buyers, downsizers or a savvy investor looking for great returns. Enjoy life with the family in a home which you will have room to accommodate all events whilst only being a short distance to local schools, town centres and convenience stores.
+Property Features:
+• 5 Generous Bedrooms
+• 2 Ensuite
+• 2.55 Ceiling height
+• Walk in pantry
+• Timber flooring in Living area
+• Separate study nook
+• Carpeted bedrooms
+• 3 Zones ducted heating &amp; Cooling
+• Panacom Intercom/ video doorbell
+• Security Cameras
+• Double Garage with secured access
+• Close to shopping centre &amp; Basket Ball Court
+• Amazing view from front and right
+Property Information:
+• Block Size : 437.00 m2 (approx.)
+• House Size : 233.75 m2 (approx.)
+• Living Area : 179.16 m2 (approx.)
+• Garage : 37.75 m2 (approx.)
+• Alfresco : 9.57 m2 (approx.)
+• Porch : 7.27 m2 (approx.)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>6 Waghorn Street, Gungahlin ACT 2912</t>
+  </si>
+  <si>
+    <t>Block/House: 676/ 198</t>
+  </si>
+  <si>
+    <t>Auction 29/05/21</t>
+  </si>
+  <si>
+    <t>This stylish four-bedroom house located in the heart of Gungahlin, in an ultra-convenient location just a short stroll to Gungahlin Marketplace, light rail, local restaurants, shops, library, child care, and schools. This magnificent house offers modern interiors and an open plan living space, plenty of storage with an extra rumpus room and much more! Relax in comfort all throughout the year with reverse cycle air-conditioning and cook up a storm in the functional kitchen with stone benchtops, stainless steel appliances, dishwasher, and island bench for more comfort.
+One will love the luxury and charm of this house. From the modern kitchen with quality appliances and glass splash-back to the four spacious bedrooms, this property has it all.
+Enjoy the great design, remarkable shared spaces, and world class comfort of this amazing single storey property. Nonetheless, fall in love with the alfresco barbecue area set amongst lush gardens, well-planned surroundings and much more. This is a one-time opportunity for investors, first home buyers, and families.
+Properties Features:
+• RZ3 Block
+• 4 Spacious Bedrooms and an en-suite
+• Reverse cycle air conditioning
+• Designed island bench
+• 1200mm Gas cooktop &amp; Induction
+• Ducted Heating and Cooling
+• Low maintenance courtyard
+• Plenty storage
+• Dishwasher
+• Soft close drawers
+• Timber wood flooring to bedrooms
+• Solar Panels
+• Double Lock Up Garage
+• 4 carparks adjacent to the Garage
+• Bathrooms with quality fittings
+• Tiled Pergola
+Property Information:
+• Block area : 676.00 m2 (approx.)
+• Total GFA : 271.00 m2 (approx.)
+• Living : 197.50 m2 (approx.)
+• Garage : 43.30 m2 (approx.)
+• Pergola : 30.00 m2 (approx.)
+• Solar : 8.1 kw
+• EER : 5.5 Stars</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>6 Summerhayes Street, Taylor ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 594/ 271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9	4	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$949,000+</t>
+  </si>
+  <si>
+    <t>Hill side location with amazing views to enjoy living upon completion of this elegant home nearby multiple walking &amp; bike trails, schools and shops in Taylor. All the local amenities are right at your doorstep to build lifetime memories in this wonderful home. Upon completion, this impressive new home will complement the requirements of any growing family needs who is looking for extra space. The home feature multiple living areas and two bedrooms with walk-in robe and ensuite, extra-large rumpus room downstairs spacious family area overlooking an amazing kitchen with an abundance of cupboard &amp; bench space, a delight for all who enjoy delicious meals with loved ones on daily basis.
+The spacious open plan family area flowing out to a large deck which provides a space for all kinds of get-together among family &amp; friends to celebrate life. Call Shaun now to review this house &amp; land package before you miss this one.
+Property Features Include:
+Amazing views to enjoy on daily basis
+Formal lounge at the front of house
+Spacious meals &amp; family area leading to a large deck
+Large rumpus room downstairs
+Modern kitchen with stone bench tops
+Stainless steel appliances
+Ducted heating &amp; cooling system throughout
+Colorbond roof
+Alarm system
+Ring front doorbell/intercom system
+Double garage with internal access &amp; auto door
+2 x Main bedrooms boasts ensuite &amp; walk-in robe
+All other bedrooms are generously sized &amp; feature robes
+All floor coverings - tiles &amp; carpet
+Timber looking floors family area
+Concrete driveway, pads &amp; pathways
+Slim-line cloth line
+Fencing, gates &amp; much more
+Pond, walking &amp; bicycle tracks all nearby
+Proximity to shops &amp; schools
+Call Shaun today to discuss this house &amp; land package before you miss this one.</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>25 Braine Street, Page ACT 2614</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Block/House: 619/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	5	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>When a house has good bones, you only need to dress it up. This project is great for someone with an eye for potential, good taste and perfect detailing skills. 
+This house on a 619sqm good-sized block, in its beautiful central location in Page, is looking for its new owner.</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>227 Sculthorpe Avenue, Whitlam ACT 2611</t>
+  </si>
+  <si>
+    <t>Block/House: 205/ 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7	7	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$775,000-$900,000</t>
+  </si>
+  <si>
+    <t>In this fast-paced market, you won't want to miss out! 
+Where else can you find a property next to the local centre and shops, and also the school and at an affordable price point?
+Single storey, separate-title offering in one of the most premium suburbs in Canberra.</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/agency/new-door-properties-888993/</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/agency/trusted-realtors-570129/</t>
+  </si>
+  <si>
+    <t>799,000+</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +2097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1577,8 +2267,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1616,38 +2312,33 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1660,149 +2351,172 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1822,7 +2536,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1946,21 +2660,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1977,7 +2691,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2031,32 +2745,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
-      <selection activeCell="B57" pane="bottomLeft" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.46484375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.46484375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.1328125" style="59" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="13.8" r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2786,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="58" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2083,7 +2797,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2093,20 +2807,20 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
+      <c r="D2" s="62" t="s">
+        <v>367</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -2131,7 +2845,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row ht="13.8" r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="13.9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2142,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="4"/>
@@ -2179,7 +2893,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2195,14 +2909,14 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
@@ -2227,7 +2941,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row ht="13.8" r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="13.9">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2237,20 +2951,20 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -2275,7 +2989,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row ht="13.8" r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="13.9">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2285,18 +2999,18 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>17</v>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>20</v>
+      <c r="H6" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -2319,7 +3033,7 @@
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
     </row>
-    <row ht="13.8" r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="13.9">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2329,18 +3043,18 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
+      <c r="H7" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2363,7 +3077,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row ht="13.8" r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="13.9">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2373,18 +3087,18 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>17</v>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
+      <c r="H8" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2407,7 +3121,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row ht="13.8" r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="13.9">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2421,14 +3135,14 @@
         <v>9</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>20</v>
+      <c r="H9" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2451,7 +3165,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row ht="13.8" r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="13.9">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2465,14 +3179,14 @@
         <v>9</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
+      <c r="H10" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -2495,7 +3209,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row ht="13.8" r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="13.9">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2509,14 +3223,14 @@
         <v>9</v>
       </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>20</v>
+      <c r="H11" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2539,7 +3253,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row ht="13.8" r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="13.9">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2553,14 +3267,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>20</v>
+      <c r="H12" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2583,7 +3297,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row ht="13.8" r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="13.9">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2597,14 +3311,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>20</v>
+      <c r="H13" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -2627,7 +3341,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row ht="13.8" r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="13.9">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2641,14 +3355,14 @@
         <v>9</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>20</v>
+      <c r="H14" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2671,7 +3385,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row ht="13.8" r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="13.9">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2685,14 +3399,14 @@
         <v>9</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>20</v>
+      <c r="H15" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2715,7 +3429,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row ht="13.8" r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="13.9">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2726,17 +3440,17 @@
         <v>8</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>20</v>
+      <c r="H16" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2759,7 +3473,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row ht="13.8" r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="13.9">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2770,17 +3484,17 @@
         <v>8</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>20</v>
+      <c r="H17" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2803,7 +3517,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row ht="13.8" r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="13.9">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2817,14 +3531,14 @@
         <v>9</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>20</v>
+      <c r="H18" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2847,7 +3561,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row ht="13.8" r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="13.9">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2858,17 +3572,17 @@
         <v>8</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>20</v>
+      <c r="H19" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2891,7 +3605,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row ht="13.8" r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="13.9">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2905,14 +3619,14 @@
         <v>9</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>20</v>
+      <c r="H20" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2935,7 +3649,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row ht="13.8" r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="13.9">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2946,17 +3660,17 @@
         <v>8</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>20</v>
+      <c r="H21" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2979,7 +3693,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row ht="13.8" r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="13.9">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2993,14 +3707,14 @@
         <v>9</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>20</v>
+      <c r="H22" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3023,7 +3737,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row ht="13.8" r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="13.9">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3034,17 +3748,17 @@
         <v>8</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>20</v>
+      <c r="H23" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -3067,7 +3781,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row ht="13.8" r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="13.9">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3081,14 +3795,14 @@
         <v>9</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>20</v>
+      <c r="H24" s="64" t="s">
+        <v>484</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3111,7 +3825,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row ht="13.8" r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="13.9">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3121,11 +3835,11 @@
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>9</v>
+      <c r="D25" s="62" t="s">
+        <v>367</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -3155,7 +3869,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row ht="13.8" r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="13.9">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3169,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -3199,7 +3913,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row ht="13.8" r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="13.9">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3213,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="24" t="s">
@@ -3243,7 +3957,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row ht="13.8" r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="13.9">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3257,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G28" s="24" t="s">
@@ -3287,7 +4001,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row ht="13.8" r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="13.9">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3301,7 +4015,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="24" t="s">
@@ -3331,7 +4045,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row ht="13.8" r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="13.9">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3342,10 +4056,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="24" t="s">
@@ -3375,7 +4089,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row ht="13.8" r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="13.9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3389,7 +4103,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3419,7 +4133,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row ht="13.8" r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="13.9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3430,10 +4144,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E32" s="18"/>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G32" s="24" t="s">
@@ -3463,511 +4177,834 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row ht="13.8" r="33" spans="1:8">
-      <c r="A33">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="D53" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G53" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="34" spans="1:8">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F34" s="29" t="s">
+      <c r="H62" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="35" spans="1:8">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F35" s="29" t="s">
+      <c r="H63" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="36" spans="1:8">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="H64" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="37" spans="1:8">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F37" s="29" t="s">
+      <c r="H65" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="38" spans="1:8">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="39" spans="1:8">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="40" spans="1:8">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="41" spans="1:8">
-      <c r="A41">
+      <c r="G66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="42" spans="1:8">
-      <c r="A42">
+      <c r="H66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="43" spans="1:8">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="44" spans="1:8">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row ht="13.8" r="45" spans="1:8">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row ht="13.8" r="46" spans="1:8">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row ht="13.8" r="47" spans="1:8">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row ht="13.8" r="48" spans="1:8">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" s="29" t="s">
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="13.8" r="49" spans="1:8">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="F49" s="29" t="s">
+      <c r="H67" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="13.8" r="50" spans="1:8">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="13.8" r="51" spans="1:8">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="13.8" r="52" spans="1:8">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
+      <c r="H68" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink r:id="rId2" ref="H2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="B3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="H3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="B4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="H4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="B5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="H5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink r:id="rId9" ref="B6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink r:id="rId10" ref="H6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink r:id="rId11" ref="B7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink r:id="rId12" ref="H7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink r:id="rId13" ref="B8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink r:id="rId14" ref="H8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink r:id="rId15" ref="B9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink r:id="rId16" ref="H9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink r:id="rId17" ref="B10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink r:id="rId18" ref="H10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink r:id="rId19" ref="B11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink r:id="rId20" ref="H11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink r:id="rId21" ref="B12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink r:id="rId22" ref="H12" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink r:id="rId23" ref="B13" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink r:id="rId24" ref="H13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink r:id="rId25" ref="B14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink r:id="rId26" ref="H14" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink r:id="rId27" ref="B15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink r:id="rId28" ref="H15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink r:id="rId29" ref="B16" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink r:id="rId30" ref="H16" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink r:id="rId31" ref="B17" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink r:id="rId32" ref="H17" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink r:id="rId33" ref="B18" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink r:id="rId34" ref="H18" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink r:id="rId35" ref="B19" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink r:id="rId36" ref="H19" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink r:id="rId37" ref="B20" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink r:id="rId38" ref="H20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink r:id="rId39" ref="B21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink r:id="rId40" ref="H21" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink r:id="rId41" ref="B22" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink r:id="rId42" ref="H22" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink r:id="rId43" ref="B23" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink r:id="rId44" ref="H23" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink r:id="rId45" ref="B24" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink r:id="rId46" ref="H24" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink r:id="rId47" ref="B25" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink r:id="rId48" ref="H25" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink r:id="rId49" ref="B26" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink r:id="rId50" ref="H26" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink r:id="rId51" ref="B27" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink r:id="rId52" ref="H27" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink r:id="rId53" ref="B28" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink r:id="rId54" ref="H28" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink r:id="rId55" ref="B29" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink r:id="rId56" ref="H29" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink r:id="rId57" ref="B30" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink r:id="rId58" ref="H30" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink r:id="rId59" ref="B31" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink r:id="rId60" ref="H31" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink r:id="rId61" ref="B32" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink r:id="rId62" ref="H32" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId41" xr:uid="{216068F8-D251-4503-A6AA-6E8E9BF8F445}"/>
+    <hyperlink ref="B34" r:id="rId42" xr:uid="{29CA0E54-3F57-4797-8AC5-D30A8C41B11E}"/>
+    <hyperlink ref="B38" r:id="rId43" xr:uid="{613B847F-1D63-4FE6-87CD-9A90B2815211}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{773C7FEB-63CD-4F4A-9A5B-F4FD322B3BEC}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{F78DF1E6-F644-4187-A337-79ADEB47E951}"/>
+    <hyperlink ref="B35" r:id="rId46" xr:uid="{88A62302-BF53-4CFF-8AD7-2DE6BCCA17BD}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{92A21577-7136-4A6A-8CCD-5B3D3C5C2C0C}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{ADF9802A-6F5D-4AB4-8E56-D36EEBE7DCFD}"/>
+    <hyperlink ref="B55" r:id="rId49" xr:uid="{0798BAD5-2FE9-4432-8EF2-06408F1FC5D5}"/>
+    <hyperlink ref="B56" r:id="rId50" xr:uid="{CAF62789-689C-41B0-8A4C-60F5B0611C48}"/>
+    <hyperlink ref="B57" r:id="rId51" xr:uid="{F89CB49C-B8F5-4C98-BD30-B289C3AA159D}"/>
+    <hyperlink ref="B58" r:id="rId52" xr:uid="{F586AF1E-7D60-4E8D-9BEB-73EF9BCC2BDA}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{545B926D-353B-4750-AD1E-DD11D69A52E1}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{501F9AC2-7099-4A31-B42B-AE8EBB1DB1B8}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{67A5CC4B-F1D3-4A25-9E03-932A2B4A934A}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{C7BE3AF9-BFB2-4354-B22E-083DC8C53D10}"/>
+    <hyperlink ref="B65" r:id="rId57" xr:uid="{126D33B4-6CA3-4B34-B130-A66F1587B980}"/>
+    <hyperlink ref="B66" r:id="rId58" xr:uid="{5A4A53E9-E3A5-40A2-85C5-B42BDA2234A6}"/>
+    <hyperlink ref="B67" r:id="rId59" xr:uid="{1F9B8037-554F-4E3F-87AF-2BA0AC115012}"/>
+    <hyperlink ref="B68" r:id="rId60" xr:uid="{DBE5286B-DC4A-4A41-BF9F-EFFB99E40007}"/>
+    <hyperlink ref="H7:H24" r:id="rId61" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{27871EC5-B8EC-4F40-8058-85C9DFB33F8B}"/>
+    <hyperlink ref="B43" r:id="rId62" xr:uid="{7B97EC38-73D9-446A-9BB0-D558D6D2C93E}"/>
+    <hyperlink ref="B44" r:id="rId63" xr:uid="{865AA9E6-5A06-4E42-92B7-B5619FB4994E}"/>
+    <hyperlink ref="B46" r:id="rId64" xr:uid="{EA28D530-4687-424C-9C94-C7E7B4822694}"/>
+    <hyperlink ref="B54" r:id="rId65" xr:uid="{8DB3DE8F-1FC2-454B-8893-FE191920E6BF}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId63"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="53.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="77.5546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="23" max="31" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="23" max="31" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="27.6" r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="27.75">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -4067,12 +5104,12 @@
       <c r="AI1" s="28"/>
       <c r="AJ1" s="28"/>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:36">
+    <row r="2" spans="1:36" ht="15" customHeight="1">
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>218</v>
+      <c r="B2" s="65" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>79</v>
@@ -4080,7 +5117,7 @@
       <c r="D2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="65" t="s">
         <v>217</v>
       </c>
       <c r="F2" s="29"/>
@@ -4139,11 +5176,13 @@
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:36">
+    <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="29" t="s">
         <v>87</v>
       </c>
@@ -4209,83 +5248,89 @@
       <c r="AI3" s="29"/>
       <c r="AJ3" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="4" spans="1:36">
-      <c r="A4" s="29">
+    <row r="4" spans="1:36" s="68" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29">
-        <v>749000</v>
-      </c>
-      <c r="M4" s="29">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66">
+        <v>799000</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="M4" s="66">
         <v>4</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="66">
         <v>2</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="66">
         <v>2020</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="66">
         <v>6</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="66">
         <v>2</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="U4" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:36">
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="29" t="s">
         <v>97</v>
       </c>
@@ -4353,11 +5398,13 @@
       <c r="AI5" s="29"/>
       <c r="AJ5" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="6" spans="1:36">
+    <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="29" t="s">
         <v>103</v>
       </c>
@@ -4427,12 +5474,12 @@
       <c r="AI6" s="29"/>
       <c r="AJ6" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="7" spans="1:36">
+    <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>218</v>
+      <c r="B7" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>112</v>
@@ -4440,8 +5487,8 @@
       <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>219</v>
+      <c r="E7" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>99</v>
@@ -4503,11 +5550,13 @@
       <c r="AI7" s="29"/>
       <c r="AJ7" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="33" t="s">
         <v>103</v>
       </c>
@@ -4575,11 +5624,13 @@
       <c r="AI8" s="42"/>
       <c r="AJ8" s="42"/>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:36">
+    <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="29" t="s">
         <v>117</v>
       </c>
@@ -4649,12 +5700,12 @@
       <c r="AI9" s="29"/>
       <c r="AJ9" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="10" spans="1:36">
+    <row r="10" spans="1:36" ht="15" customHeight="1">
       <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>218</v>
+      <c r="B10" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>120</v>
@@ -4662,8 +5713,8 @@
       <c r="D10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>219</v>
+      <c r="E10" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>121</v>
@@ -4721,11 +5772,13 @@
       <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
     </row>
-    <row customHeight="1" ht="15" r="11" spans="1:36">
+    <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="33" t="s">
         <v>124</v>
       </c>
@@ -4799,11 +5852,13 @@
       <c r="AI11" s="42"/>
       <c r="AJ11" s="42"/>
     </row>
-    <row customHeight="1" ht="15" r="12" spans="1:36">
+    <row r="12" spans="1:36" ht="15" customHeight="1">
       <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="29" t="s">
         <v>131</v>
       </c>
@@ -4871,21 +5926,21 @@
       <c r="AI12" s="29"/>
       <c r="AJ12" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="13" spans="1:36">
+    <row r="13" spans="1:36" ht="15" customHeight="1">
       <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>218</v>
+      <c r="B13" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>219</v>
+      <c r="D13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>99</v>
@@ -4949,11 +6004,13 @@
       <c r="AI13" s="29"/>
       <c r="AJ13" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="14" spans="1:36">
+    <row r="14" spans="1:36" ht="15" customHeight="1">
       <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="29" t="s">
         <v>139</v>
       </c>
@@ -5027,11 +6084,13 @@
       <c r="AI14" s="29"/>
       <c r="AJ14" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="15" spans="1:36">
+    <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="29" t="s">
         <v>103</v>
       </c>
@@ -5099,11 +6158,13 @@
       <c r="AI15" s="29"/>
       <c r="AJ15" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="16" spans="1:36">
+    <row r="16" spans="1:36" ht="15" customHeight="1">
       <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="29" t="s">
         <v>147</v>
       </c>
@@ -5173,11 +6234,13 @@
       <c r="AI16" s="29"/>
       <c r="AJ16" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="17" spans="1:36">
+    <row r="17" spans="1:36" ht="15" customHeight="1">
       <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="29" t="s">
         <v>150</v>
       </c>
@@ -5245,11 +6308,13 @@
       <c r="AI17" s="29"/>
       <c r="AJ17" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="18" spans="1:36">
+    <row r="18" spans="1:36" ht="15" customHeight="1">
       <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="29" t="s">
         <v>139</v>
       </c>
@@ -5319,11 +6384,13 @@
       <c r="AI18" s="29"/>
       <c r="AJ18" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="19" spans="1:36">
+    <row r="19" spans="1:36" ht="15" customHeight="1">
       <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="29" t="s">
         <v>103</v>
       </c>
@@ -5389,11 +6456,13 @@
       <c r="AI19" s="29"/>
       <c r="AJ19" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="20" spans="1:36">
+    <row r="20" spans="1:36" ht="15" customHeight="1">
       <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="29" t="s">
         <v>156</v>
       </c>
@@ -5463,11 +6532,13 @@
       <c r="AI20" s="29"/>
       <c r="AJ20" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="21" spans="1:36">
+    <row r="21" spans="1:36" ht="15" customHeight="1">
       <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="29" t="s">
         <v>103</v>
       </c>
@@ -5533,11 +6604,13 @@
       <c r="AI21" s="29"/>
       <c r="AJ21" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="22" spans="1:36">
+    <row r="22" spans="1:36" ht="15" customHeight="1">
       <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="29" t="s">
         <v>161</v>
       </c>
@@ -5609,11 +6682,13 @@
       <c r="AI22" s="29"/>
       <c r="AJ22" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="23" spans="1:36">
+    <row r="23" spans="1:36" ht="15" customHeight="1">
       <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="29" t="s">
         <v>164</v>
       </c>
@@ -5681,11 +6756,13 @@
       <c r="AI23" s="29"/>
       <c r="AJ23" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="24" spans="1:36">
+    <row r="24" spans="1:36" ht="15" customHeight="1">
       <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="29" t="s">
         <v>131</v>
       </c>
@@ -5753,12 +6830,12 @@
       <c r="AI24" s="29"/>
       <c r="AJ24" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="25" spans="1:36">
+    <row r="25" spans="1:36" ht="15" customHeight="1">
       <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>218</v>
+      <c r="B25" s="65" t="s">
+        <v>217</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>171</v>
@@ -5766,7 +6843,7 @@
       <c r="D25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="65" t="s">
         <v>217</v>
       </c>
       <c r="F25" s="31" t="s">
@@ -5827,11 +6904,13 @@
       <c r="AI25" s="29"/>
       <c r="AJ25" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="26" spans="1:36">
+    <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="29" t="s">
         <v>176</v>
       </c>
@@ -5901,11 +6980,13 @@
       <c r="AI26" s="29"/>
       <c r="AJ26" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="27" spans="1:36">
+    <row r="27" spans="1:36" ht="15" customHeight="1">
       <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="29" t="s">
         <v>181</v>
       </c>
@@ -5975,11 +7056,13 @@
       <c r="AI27" s="29"/>
       <c r="AJ27" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="28" spans="1:36">
+    <row r="28" spans="1:36" ht="15" customHeight="1">
       <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="29" t="s">
         <v>184</v>
       </c>
@@ -6049,11 +7132,13 @@
       <c r="AI28" s="29"/>
       <c r="AJ28" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="29" spans="1:36">
+    <row r="29" spans="1:36" ht="15" customHeight="1">
       <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="29" t="s">
         <v>187</v>
       </c>
@@ -6123,12 +7208,12 @@
       <c r="AI29" s="29"/>
       <c r="AJ29" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="30" spans="1:36">
+    <row r="30" spans="1:36" ht="15" customHeight="1">
       <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>218</v>
+      <c r="B30" s="65" t="s">
+        <v>217</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>189</v>
@@ -6136,8 +7221,8 @@
       <c r="D30" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>221</v>
+      <c r="E30" s="65" t="s">
+        <v>219</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>177</v>
@@ -6199,12 +7284,12 @@
       <c r="AI30" s="29"/>
       <c r="AJ30" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="31" spans="1:36">
+    <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>218</v>
+      <c r="B31" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>191</v>
@@ -6212,8 +7297,8 @@
       <c r="D31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>222</v>
+      <c r="E31" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>121</v>
@@ -6273,11 +7358,13 @@
       <c r="AI31" s="29"/>
       <c r="AJ31" s="29"/>
     </row>
-    <row customHeight="1" ht="15" r="32" spans="1:36">
+    <row r="32" spans="1:36" ht="15" customHeight="1">
       <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="29" t="s">
         <v>194</v>
       </c>
@@ -6347,1195 +7434,2135 @@
       <c r="AI32" s="29"/>
       <c r="AJ32" s="29"/>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="33" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A33" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B33" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="K33" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D33" t="s">
+      <c r="L33" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="S33" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U33" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A34" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A35" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H35" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N35" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A36" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="S36" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U36" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A37" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N37" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="M33" t="s">
+      <c r="Q37" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="S37" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A38" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U38" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A39" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N39" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="N33" t="s">
-        <v>250</v>
-      </c>
-      <c r="P33" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="P39" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R39" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="S39" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="T39" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A40" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A41" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="S41" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A42" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="S42" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A43" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="S43" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U43" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A44" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="R44" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="S44" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A45" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A46" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="S46" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="T46" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U46" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A47" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U47" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A48" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U48" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A49" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="R33" t="s">
+      <c r="G49" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="S49" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="T49" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U49" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A50" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="S50" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="T50" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U50" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A51" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="S33" t="s">
-        <v>253</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="N51" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R51" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="S51" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U51" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A52" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R52" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="S52" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U52" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A53" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="T53" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U53" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="12.75">
+      <c r="A54" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I54" t="s">
+        <v>243</v>
+      </c>
+      <c r="K54" t="s">
+        <v>244</v>
+      </c>
+      <c r="L54" t="s">
+        <v>282</v>
+      </c>
+      <c r="M54" t="s">
+        <v>246</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="P54" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>244</v>
+      </c>
+      <c r="R54" t="s">
+        <v>397</v>
+      </c>
+      <c r="S54" t="s">
+        <v>399</v>
+      </c>
+      <c r="T54" t="s">
+        <v>85</v>
+      </c>
+      <c r="U54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A55" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="S55" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="T55" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U55" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A56" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="S56" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="T56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U56" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A57" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R57" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="S57" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="T57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U57" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A58" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="S58" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="T58" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U58" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A59" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="S59" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="T59" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U59" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A60" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="S60" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="T60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U60" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A61" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="S61" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="T61" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U61" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A62" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="S62" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="T62" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U62" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="63" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A63" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E34" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" t="s">
-        <v>256</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="E63" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="M63" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K34" t="s">
-        <v>257</v>
-      </c>
-      <c r="L34" t="s">
-        <v>258</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N63" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q63" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="N34" t="s">
+      <c r="R63" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="S63" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="T63" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U63" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A64" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="S64" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="T64" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U64" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A65" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="T65" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U65" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A66" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="S66" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="T66" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U66" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A67" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="P34" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>252</v>
-      </c>
-      <c r="R34" t="s">
-        <v>259</v>
-      </c>
-      <c r="S34" t="s">
-        <v>260</v>
-      </c>
-      <c r="T34" t="s">
-        <v>85</v>
-      </c>
-      <c r="U34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G67" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U67" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" s="29" customFormat="1" ht="13.5">
+      <c r="A68" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E68" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" t="s">
-        <v>262</v>
-      </c>
-      <c r="I35" t="s">
-        <v>246</v>
-      </c>
-      <c r="K35" t="s">
-        <v>263</v>
-      </c>
-      <c r="L35" t="s">
-        <v>264</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="F68" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N68" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="N35" t="s">
-        <v>252</v>
-      </c>
-      <c r="P35" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>252</v>
-      </c>
-      <c r="R35" t="s">
-        <v>265</v>
-      </c>
-      <c r="S35" t="s">
-        <v>266</v>
-      </c>
-      <c r="T35" t="s">
-        <v>85</v>
-      </c>
-      <c r="U35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" t="s">
-        <v>246</v>
-      </c>
-      <c r="K36" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" t="s">
-        <v>272</v>
-      </c>
-      <c r="M36" t="s">
-        <v>252</v>
-      </c>
-      <c r="N36" t="s">
-        <v>252</v>
-      </c>
-      <c r="P36" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>252</v>
-      </c>
-      <c r="R36" t="s">
-        <v>268</v>
-      </c>
-      <c r="S36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T36" t="s">
-        <v>85</v>
-      </c>
-      <c r="U36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" t="s">
-        <v>276</v>
-      </c>
-      <c r="I37" t="s">
-        <v>246</v>
-      </c>
-      <c r="K37" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37" t="s">
-        <v>278</v>
-      </c>
-      <c r="M37" t="s">
-        <v>250</v>
-      </c>
-      <c r="N37" t="s">
-        <v>252</v>
-      </c>
-      <c r="P37" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>247</v>
-      </c>
-      <c r="R37" t="s">
-        <v>275</v>
-      </c>
-      <c r="S37" t="s">
-        <v>279</v>
-      </c>
-      <c r="T37" t="s">
-        <v>85</v>
-      </c>
-      <c r="U37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H38" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" t="s">
-        <v>246</v>
-      </c>
-      <c r="K38" t="s">
-        <v>247</v>
-      </c>
-      <c r="L38" t="s">
-        <v>285</v>
-      </c>
-      <c r="M38" t="s">
-        <v>247</v>
-      </c>
-      <c r="N38" t="s">
-        <v>247</v>
-      </c>
-      <c r="P38" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>247</v>
-      </c>
-      <c r="R38" t="s">
-        <v>286</v>
-      </c>
-      <c r="S38" t="s">
-        <v>287</v>
-      </c>
-      <c r="T38" t="s">
-        <v>85</v>
-      </c>
-      <c r="U38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>288</v>
-      </c>
-      <c r="B39" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H39" t="s">
-        <v>247</v>
-      </c>
-      <c r="I39" t="s">
-        <v>246</v>
-      </c>
-      <c r="K39" t="s">
-        <v>247</v>
-      </c>
-      <c r="L39" t="s">
-        <v>285</v>
-      </c>
-      <c r="M39" t="s">
-        <v>250</v>
-      </c>
-      <c r="N39" t="s">
-        <v>252</v>
-      </c>
-      <c r="P39" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>252</v>
-      </c>
-      <c r="R39" t="s">
-        <v>289</v>
-      </c>
-      <c r="S39" t="s">
-        <v>290</v>
-      </c>
-      <c r="T39" t="s">
-        <v>85</v>
-      </c>
-      <c r="U39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" t="s">
-        <v>247</v>
-      </c>
-      <c r="L40" t="s">
-        <v>285</v>
-      </c>
-      <c r="M40" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" t="s">
-        <v>252</v>
-      </c>
-      <c r="P40" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>252</v>
-      </c>
-      <c r="R40" t="s">
-        <v>265</v>
-      </c>
-      <c r="S40" t="s">
-        <v>293</v>
-      </c>
-      <c r="T40" t="s">
-        <v>85</v>
-      </c>
-      <c r="U40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G41" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I41" t="s">
-        <v>246</v>
-      </c>
-      <c r="K41" t="s">
-        <v>298</v>
-      </c>
-      <c r="L41" t="s">
-        <v>299</v>
-      </c>
-      <c r="M41" t="s">
-        <v>300</v>
-      </c>
-      <c r="N41" t="s">
-        <v>250</v>
-      </c>
-      <c r="P41" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>252</v>
-      </c>
-      <c r="R41" t="s">
-        <v>295</v>
-      </c>
-      <c r="S41" t="s">
-        <v>302</v>
-      </c>
-      <c r="T41" t="s">
-        <v>85</v>
-      </c>
-      <c r="U41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>303</v>
-      </c>
-      <c r="B42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" t="s">
-        <v>304</v>
-      </c>
-      <c r="I42" t="s">
-        <v>246</v>
-      </c>
-      <c r="K42" t="s">
-        <v>247</v>
-      </c>
-      <c r="L42" t="s">
-        <v>285</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="P68" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q68" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="N42" t="s">
-        <v>252</v>
-      </c>
-      <c r="P42" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>252</v>
-      </c>
-      <c r="R42" t="s">
-        <v>305</v>
-      </c>
-      <c r="S42" t="s">
-        <v>306</v>
-      </c>
-      <c r="T42" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" t="s">
-        <v>370</v>
-      </c>
-      <c r="C43" t="s">
-        <v>308</v>
-      </c>
-      <c r="D43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s">
-        <v>310</v>
-      </c>
-      <c r="H43" t="s">
-        <v>311</v>
-      </c>
-      <c r="I43" t="s">
-        <v>246</v>
-      </c>
-      <c r="K43" t="s">
-        <v>312</v>
-      </c>
-      <c r="L43" t="s">
-        <v>313</v>
-      </c>
-      <c r="M43" t="s">
-        <v>250</v>
-      </c>
-      <c r="N43" t="s">
-        <v>252</v>
-      </c>
-      <c r="P43" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>314</v>
-      </c>
-      <c r="R43" t="s">
-        <v>308</v>
-      </c>
-      <c r="S43" t="s">
-        <v>315</v>
-      </c>
-      <c r="T43" t="s">
-        <v>85</v>
-      </c>
-      <c r="U43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>316</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
-        <v>317</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" t="s">
-        <v>318</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" t="s">
-        <v>319</v>
-      </c>
-      <c r="I44" t="s">
-        <v>246</v>
-      </c>
-      <c r="K44" t="s">
-        <v>320</v>
-      </c>
-      <c r="L44" t="s">
-        <v>321</v>
-      </c>
-      <c r="M44" t="s">
-        <v>252</v>
-      </c>
-      <c r="N44" t="s">
-        <v>252</v>
-      </c>
-      <c r="P44" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>314</v>
-      </c>
-      <c r="R44" t="s">
-        <v>317</v>
-      </c>
-      <c r="S44" t="s">
-        <v>322</v>
-      </c>
-      <c r="T44" t="s">
-        <v>85</v>
-      </c>
-      <c r="U44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" t="s">
-        <v>246</v>
-      </c>
-      <c r="K45" t="s">
-        <v>326</v>
-      </c>
-      <c r="L45" t="s">
-        <v>327</v>
-      </c>
-      <c r="M45" t="s">
-        <v>249</v>
-      </c>
-      <c r="N45" t="s">
-        <v>250</v>
-      </c>
-      <c r="P45" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>252</v>
-      </c>
-      <c r="R45" t="s">
-        <v>324</v>
-      </c>
-      <c r="S45" t="s">
-        <v>328</v>
-      </c>
-      <c r="T45" t="s">
-        <v>85</v>
-      </c>
-      <c r="U45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>331</v>
-      </c>
-      <c r="I46" t="s">
-        <v>246</v>
-      </c>
-      <c r="K46" t="s">
-        <v>332</v>
-      </c>
-      <c r="L46" t="s">
-        <v>333</v>
-      </c>
-      <c r="M46" t="s">
-        <v>252</v>
-      </c>
-      <c r="N46" t="s">
-        <v>252</v>
-      </c>
-      <c r="P46" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>252</v>
-      </c>
-      <c r="R46" t="s">
-        <v>330</v>
-      </c>
-      <c r="S46" t="s">
-        <v>334</v>
-      </c>
-      <c r="T46" t="s">
-        <v>85</v>
-      </c>
-      <c r="U46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>335</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K47" t="s">
-        <v>338</v>
-      </c>
-      <c r="L47" t="s">
-        <v>339</v>
-      </c>
-      <c r="M47" t="s">
-        <v>249</v>
-      </c>
-      <c r="N47" t="s">
-        <v>252</v>
-      </c>
-      <c r="P47" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>252</v>
-      </c>
-      <c r="R47" t="s">
-        <v>336</v>
-      </c>
-      <c r="S47" t="s">
-        <v>340</v>
-      </c>
-      <c r="T47" t="s">
-        <v>85</v>
-      </c>
-      <c r="U47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B48" t="s">
-        <v>370</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" t="s">
-        <v>342</v>
-      </c>
-      <c r="I48" t="s">
-        <v>246</v>
-      </c>
-      <c r="K48" t="s">
-        <v>343</v>
-      </c>
-      <c r="L48" t="s">
-        <v>344</v>
-      </c>
-      <c r="M48" t="s">
-        <v>250</v>
-      </c>
-      <c r="N48" t="s">
-        <v>252</v>
-      </c>
-      <c r="P48" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>252</v>
-      </c>
-      <c r="R48" t="s">
-        <v>265</v>
-      </c>
-      <c r="S48" t="s">
-        <v>345</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="R68" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="S68" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="T68" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U68" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>346</v>
-      </c>
-      <c r="B49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" t="s">
-        <v>347</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" t="s">
-        <v>348</v>
-      </c>
-      <c r="I49" t="s">
-        <v>246</v>
-      </c>
-      <c r="K49" t="s">
-        <v>349</v>
-      </c>
-      <c r="L49" t="s">
-        <v>350</v>
-      </c>
-      <c r="M49" t="s">
-        <v>300</v>
-      </c>
-      <c r="N49" t="s">
-        <v>252</v>
-      </c>
-      <c r="P49" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>252</v>
-      </c>
-      <c r="R49" t="s">
-        <v>347</v>
-      </c>
-      <c r="S49" t="s">
-        <v>351</v>
-      </c>
-      <c r="T49" t="s">
-        <v>110</v>
-      </c>
-      <c r="U49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>352</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>353</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>255</v>
-      </c>
-      <c r="G50" t="s">
-        <v>354</v>
-      </c>
-      <c r="H50" t="s">
-        <v>355</v>
-      </c>
-      <c r="I50" t="s">
-        <v>246</v>
-      </c>
-      <c r="K50" t="s">
-        <v>356</v>
-      </c>
-      <c r="L50" t="s">
-        <v>357</v>
-      </c>
-      <c r="M50" t="s">
-        <v>250</v>
-      </c>
-      <c r="N50" t="s">
-        <v>314</v>
-      </c>
-      <c r="P50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>314</v>
-      </c>
-      <c r="R50" t="s">
-        <v>353</v>
-      </c>
-      <c r="S50" t="s">
-        <v>358</v>
-      </c>
-      <c r="T50" t="s">
-        <v>110</v>
-      </c>
-      <c r="U50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>359</v>
-      </c>
-      <c r="B51" t="s">
-        <v>370</v>
-      </c>
-      <c r="C51" t="s">
-        <v>360</v>
-      </c>
-      <c r="D51" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" t="s">
-        <v>255</v>
-      </c>
-      <c r="G51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" t="s">
-        <v>361</v>
-      </c>
-      <c r="I51" t="s">
-        <v>246</v>
-      </c>
-      <c r="K51" t="s">
-        <v>362</v>
-      </c>
-      <c r="L51" t="s">
-        <v>363</v>
-      </c>
-      <c r="M51" t="s">
-        <v>247</v>
-      </c>
-      <c r="N51" t="s">
-        <v>247</v>
-      </c>
-      <c r="P51" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>247</v>
-      </c>
-      <c r="R51" t="s">
-        <v>360</v>
-      </c>
-      <c r="S51" t="s">
-        <v>364</v>
-      </c>
-      <c r="T51" t="s">
-        <v>110</v>
-      </c>
-      <c r="U51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>365</v>
-      </c>
-      <c r="B52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" t="s">
-        <v>366</v>
-      </c>
-      <c r="I52" t="s">
-        <v>246</v>
-      </c>
-      <c r="K52" t="s">
-        <v>367</v>
-      </c>
-      <c r="L52" t="s">
-        <v>368</v>
-      </c>
-      <c r="M52" t="s">
-        <v>249</v>
-      </c>
-      <c r="N52" t="s">
-        <v>252</v>
-      </c>
-      <c r="P52" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>252</v>
-      </c>
-      <c r="R52" t="s">
-        <v>265</v>
-      </c>
-      <c r="S52" t="s">
-        <v>369</v>
-      </c>
-      <c r="T52" t="s">
-        <v>110</v>
-      </c>
-      <c r="U52" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AE68" xr:uid="{3EAC26A4-0215-4509-8AC1-88A18A1CA423}"/>
   <customSheetViews>
-    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+    <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="5">
           <filters blank="1">
@@ -7544,98 +9571,102 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AJ1">
-    <cfRule dxfId="1" priority="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="S3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="S4" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="S5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="S6" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="U6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink r:id="rId7" ref="S7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink r:id="rId8" ref="U7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink r:id="rId9" ref="S8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink r:id="rId10" ref="U8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink r:id="rId11" ref="S9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink r:id="rId12" ref="U9" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink r:id="rId13" ref="S10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink r:id="rId14" ref="U10" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink r:id="rId15" ref="S11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink r:id="rId16" ref="U11" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink r:id="rId17" ref="S12" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink r:id="rId18" ref="U12" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink r:id="rId19" ref="S13" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink r:id="rId20" ref="U13" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink r:id="rId21" ref="S14" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink r:id="rId22" ref="U14" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink r:id="rId23" ref="S15" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink r:id="rId24" ref="U15" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink r:id="rId25" ref="S16" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink r:id="rId26" ref="U16" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink r:id="rId27" ref="S17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink r:id="rId28" ref="U17" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink r:id="rId29" ref="S18" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink r:id="rId30" ref="U18" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink r:id="rId31" ref="S19" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink r:id="rId32" ref="U19" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink r:id="rId33" ref="S20" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink r:id="rId34" ref="U20" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink r:id="rId35" ref="S21" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink r:id="rId36" ref="U21" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink r:id="rId37" ref="S22" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink r:id="rId38" ref="U22" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink r:id="rId39" ref="S23" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink r:id="rId40" ref="U23" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink r:id="rId41" ref="S24" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink r:id="rId42" ref="U24" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink r:id="rId43" ref="S25" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink r:id="rId44" ref="S26" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink r:id="rId45" ref="S27" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink r:id="rId46" ref="S28" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink r:id="rId47" ref="S29" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink r:id="rId48" ref="S30" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink r:id="rId49" ref="S31" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink r:id="rId50" ref="S32" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="U6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="S7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="S8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="U8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="S9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="U9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="S10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="U10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="S11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="U11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="S12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="U12" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="S13" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="U13" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="S14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="U14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="S15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="U15" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="S16" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="U16" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="S17" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="U17" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="S18" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="U18" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="S19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="U19" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="S20" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="U20" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="S21" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="U21" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="S22" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="U22" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="S23" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="U23" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="S24" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="U24" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="S25" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="S26" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="S27" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="S28" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="S29" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="S30" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="S31" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="S32" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId51"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -7734,37 +9765,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule dxfId="0" priority="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B3" pane="bottomLeft" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="51.109375" collapsed="true"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="13.8" r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="13.9">
       <c r="A1" s="46" t="s">
         <v>197</v>
       </c>
@@ -7787,7 +9818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>203</v>
       </c>
@@ -7829,7 +9860,7 @@
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>206</v>
       </c>
@@ -7846,7 +9877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>209</v>
       </c>
@@ -7863,7 +9894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>212</v>
       </c>
@@ -7880,14 +9911,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{202A8C5A-7665-4B59-89FE-132FC4CE50A6}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{C4B58400-FFA3-4164-A34B-303F695E8480}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8A021-CCB4-4CB0-BEDF-09813CBEECB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89832B-1EA9-4B8D-8062-3A8BAA211E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="486">
   <si>
     <t>ID</t>
   </si>
@@ -2274,7 +2274,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2329,18 +2329,6 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2355,7 +2343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2374,7 +2362,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2506,13 +2493,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2753,7 +2733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -2762,7 +2742,7 @@
     <col min="2" max="2" width="77.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.46484375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.46484375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="59" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.1328125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
@@ -2786,7 +2766,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2807,13 +2787,13 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>367</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2823,8 +2803,10 @@
         <v>483</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="7"/>
@@ -2849,7 +2831,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2861,7 +2843,7 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2894,7 +2876,7 @@
       <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2909,7 +2891,7 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2920,7 +2902,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7"/>
@@ -2942,22 +2924,22 @@
       <c r="AB4" s="7"/>
     </row>
     <row r="5" spans="1:28" ht="13.9">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
+      <c r="D5" s="61" t="s">
+        <v>367</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2968,7 +2950,7 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7"/>
@@ -2990,54 +2972,54 @@
       <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="13.9">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="13.9">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3046,14 +3028,14 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I7" s="7"/>
@@ -3078,10 +3060,10 @@
       <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28" ht="13.9">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3090,14 +3072,14 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I8" s="7"/>
@@ -3122,26 +3104,26 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" ht="13.9">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="33" t="s">
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I9" s="7"/>
@@ -3166,26 +3148,26 @@
       <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:28" ht="13.9">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="33" t="s">
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I10" s="7"/>
@@ -3210,26 +3192,26 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="1:28" ht="13.9">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="33" t="s">
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I11" s="7"/>
@@ -3254,26 +3236,26 @@
       <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:28" ht="13.9">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I12" s="7"/>
@@ -3298,26 +3280,26 @@
       <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="1:28" ht="13.9">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="33" t="s">
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I13" s="7"/>
@@ -3342,26 +3324,26 @@
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28" ht="13.9">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I14" s="7"/>
@@ -3386,26 +3368,26 @@
       <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="1:28" ht="13.9">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="33" t="s">
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I15" s="7"/>
@@ -3430,26 +3412,26 @@
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28" ht="13.9">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I16" s="7"/>
@@ -3474,26 +3456,26 @@
       <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="1:28" ht="13.9">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="33" t="s">
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I17" s="7"/>
@@ -3518,26 +3500,26 @@
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28" ht="13.9">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="33" t="s">
+      <c r="D18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I18" s="7"/>
@@ -3562,26 +3544,26 @@
       <c r="AB18" s="7"/>
     </row>
     <row r="19" spans="1:28" ht="13.9">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="33" t="s">
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I19" s="7"/>
@@ -3606,26 +3588,26 @@
       <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28" ht="13.9">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="33" t="s">
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I20" s="7"/>
@@ -3650,26 +3632,26 @@
       <c r="AB20" s="7"/>
     </row>
     <row r="21" spans="1:28" ht="13.9">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="33" t="s">
+      <c r="D21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I21" s="7"/>
@@ -3694,26 +3676,26 @@
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28" ht="13.9">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="33" t="s">
+      <c r="D22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I22" s="7"/>
@@ -3738,26 +3720,26 @@
       <c r="AB22" s="7"/>
     </row>
     <row r="23" spans="1:28" ht="13.9">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="33" t="s">
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I23" s="7"/>
@@ -3782,26 +3764,26 @@
       <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="13.9">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="33" t="s">
+      <c r="D24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I24" s="7"/>
@@ -3826,26 +3808,26 @@
       <c r="AB24" s="7"/>
     </row>
     <row r="25" spans="1:28" ht="13.9">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="I25" s="7"/>
@@ -3870,26 +3852,26 @@
       <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28" ht="13.9">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="33" t="s">
+      <c r="D26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="7"/>
@@ -3914,26 +3896,26 @@
       <c r="AB26" s="7"/>
     </row>
     <row r="27" spans="1:28" ht="13.9">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="33" t="s">
+      <c r="D27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="7"/>
@@ -3958,26 +3940,26 @@
       <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="13.9">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="33" t="s">
+      <c r="D28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I28" s="7"/>
@@ -4002,26 +3984,26 @@
       <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="1:28" ht="13.9">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="33" t="s">
+      <c r="D29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="7"/>
@@ -4046,26 +4028,26 @@
       <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28" ht="13.9">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="33" t="s">
+      <c r="D30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="7"/>
@@ -4093,23 +4075,23 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="33" t="s">
+      <c r="D31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="7"/>
@@ -4137,23 +4119,23 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="33" t="s">
+      <c r="D32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>41</v>
       </c>
       <c r="I32" s="7"/>
@@ -4184,10 +4166,10 @@
       <c r="B33" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="D33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -4204,10 +4186,10 @@
       <c r="B34" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4221,10 +4203,10 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -4244,7 +4226,7 @@
       <c r="B36" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -4264,7 +4246,7 @@
       <c r="B37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -4281,10 +4263,10 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -4304,7 +4286,7 @@
       <c r="B39" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -4324,7 +4306,7 @@
       <c r="B40" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -4344,7 +4326,7 @@
       <c r="B41" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -4361,10 +4343,10 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -4381,10 +4363,10 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="60" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -4401,10 +4383,10 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="60" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -4424,7 +4406,7 @@
       <c r="B45" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -4441,10 +4423,10 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="60" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -4464,7 +4446,7 @@
       <c r="B47" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="60" t="s">
         <v>368</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -4484,7 +4466,7 @@
       <c r="B48" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -4504,7 +4486,7 @@
       <c r="B49" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -4524,7 +4506,7 @@
       <c r="B50" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -4544,7 +4526,7 @@
       <c r="B51" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -4564,7 +4546,7 @@
       <c r="B52" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -4584,7 +4566,7 @@
       <c r="B53" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -4601,10 +4583,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="60" t="s">
         <v>368</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -4624,7 +4606,7 @@
       <c r="B55" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -4644,7 +4626,7 @@
       <c r="B56" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -4664,7 +4646,7 @@
       <c r="B57" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -4684,7 +4666,7 @@
       <c r="B58" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -4704,7 +4686,7 @@
       <c r="B59" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="60" t="s">
         <v>368</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -4724,7 +4706,7 @@
       <c r="B60" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="60" t="s">
         <v>368</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -4744,7 +4726,7 @@
       <c r="B61" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="60" t="s">
         <v>368</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -4964,9 +4946,11 @@
     <hyperlink ref="B44" r:id="rId63" xr:uid="{865AA9E6-5A06-4E42-92B7-B5619FB4994E}"/>
     <hyperlink ref="B46" r:id="rId64" xr:uid="{EA28D530-4687-424C-9C94-C7E7B4822694}"/>
     <hyperlink ref="B54" r:id="rId65" xr:uid="{8DB3DE8F-1FC2-454B-8893-FE191920E6BF}"/>
+    <hyperlink ref="B42" r:id="rId66" xr:uid="{D88479DA-2F1E-48AC-98EB-EF46C7FA758E}"/>
+    <hyperlink ref="J2" r:id="rId67" xr:uid="{43969526-DA28-4ABF-A826-53452A86BE39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -4977,8 +4961,8 @@
   </sheetPr>
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5026,19 +5010,19 @@
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -5098,3578 +5082,3561 @@
       <c r="AE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="28">
         <v>2</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="28">
         <v>1</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <v>2020</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="28">
         <v>6</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="28">
         <v>1</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>4</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>2</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>6</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>2</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-    </row>
-    <row r="4" spans="1:36" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="66">
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+    </row>
+    <row r="4" spans="1:36" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66">
+      <c r="K4" s="28">
         <v>799000</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="28">
         <v>4</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="28">
         <v>2</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="28">
         <v>2020</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="28">
         <v>6</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="28">
         <v>2</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="T4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28">
+        <v>489000</v>
+      </c>
+      <c r="M5" s="28">
+        <v>3</v>
+      </c>
+      <c r="N5" s="28">
+        <v>1</v>
+      </c>
+      <c r="O5" s="28">
+        <v>2013</v>
+      </c>
+      <c r="P5" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>1</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <v>380000</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="28">
+        <v>3</v>
+      </c>
+      <c r="N6" s="28">
+        <v>2</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>2</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <v>820000</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="28">
+        <v>4</v>
+      </c>
+      <c r="N7" s="28">
+        <v>2</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="28">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>2</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36">
+        <v>625000</v>
+      </c>
+      <c r="L8" s="37">
+        <v>625000</v>
+      </c>
+      <c r="M8" s="33">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="33">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28">
+        <v>775000</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="28">
+        <v>4</v>
+      </c>
+      <c r="N9" s="28">
+        <v>2</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>1</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36">
+        <v>359000</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="33">
+        <v>1</v>
+      </c>
+      <c r="N10" s="33">
+        <v>1</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="33">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>1</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36">
+        <v>1199000</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="33">
+        <v>4</v>
+      </c>
+      <c r="N11" s="33">
+        <v>2</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="33">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>2</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28">
+        <v>560000</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="28">
+        <v>3</v>
+      </c>
+      <c r="N12" s="28">
+        <v>1</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>1</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28">
+        <v>795000</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="28">
+        <v>4</v>
+      </c>
+      <c r="N13" s="28">
+        <v>3</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>2</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28">
+        <v>649000</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="28">
+        <v>3</v>
+      </c>
+      <c r="N14" s="28">
+        <v>3</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>2</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28">
+        <v>689000</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="28">
+        <v>4</v>
+      </c>
+      <c r="N15" s="28">
+        <v>2</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>2</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28">
+        <v>840000</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="28">
+        <v>4</v>
+      </c>
+      <c r="N16" s="28">
+        <v>3</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>2</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28">
+        <v>850000</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="28">
+        <v>4</v>
+      </c>
+      <c r="N17" s="28">
+        <v>2</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>2</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28">
+        <v>850000</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="28">
+        <v>4</v>
+      </c>
+      <c r="N18" s="28">
+        <v>3</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>2</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28">
+        <v>720000</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="28">
+        <v>4</v>
+      </c>
+      <c r="N19" s="28">
+        <v>3</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>2</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28">
+        <v>775000</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" s="28">
+        <v>4</v>
+      </c>
+      <c r="N20" s="28">
+        <v>2</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>2</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28">
+        <v>745000</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="28">
+        <v>4</v>
+      </c>
+      <c r="N21" s="28">
+        <v>2</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28">
+        <v>6</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28">
+        <v>660000</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="28">
+        <v>3</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28">
+        <v>2</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28">
+        <v>6</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28">
+        <v>749000</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="28">
+        <v>4</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28">
+        <v>2</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28">
+        <v>6</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+    </row>
+    <row r="24" spans="1:36" ht="15" customHeight="1">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28">
+        <v>799000</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="28">
+        <v>4</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28">
+        <v>2</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28">
+        <v>6</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28">
+        <v>799000</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" s="28">
+        <v>4</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28">
+        <v>2</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" ht="15" customHeight="1">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28">
+        <v>399000</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" s="28">
+        <v>2</v>
+      </c>
+      <c r="N26" s="28">
+        <v>1</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28">
+        <v>8.5</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>1</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+    </row>
+    <row r="27" spans="1:36" ht="15" customHeight="1">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28">
+        <v>425000</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="28">
+        <v>2</v>
+      </c>
+      <c r="N27" s="28">
+        <v>1</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>1</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U27" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" customHeight="1">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28">
+        <v>1069000</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="28">
+        <v>4</v>
+      </c>
+      <c r="N28" s="28">
+        <v>3</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>2</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U28" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+    </row>
+    <row r="29" spans="1:36" ht="15" customHeight="1">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28">
+        <v>1035000</v>
+      </c>
+      <c r="L29" s="28">
+        <v>1035000</v>
+      </c>
+      <c r="M29" s="28">
+        <v>4</v>
+      </c>
+      <c r="N29" s="28">
+        <v>3</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>2</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+    </row>
+    <row r="30" spans="1:36" ht="15" customHeight="1">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28">
+        <v>399000</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="M30" s="28">
+        <v>3</v>
+      </c>
+      <c r="N30" s="28">
+        <v>2</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>1</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+    </row>
+    <row r="31" spans="1:36" ht="15" customHeight="1">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28">
+        <v>322500</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="28">
+        <v>1</v>
+      </c>
+      <c r="N31" s="28">
+        <v>1</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+    </row>
+    <row r="32" spans="1:36" ht="15" customHeight="1">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28">
+        <v>1019000</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" s="28">
+        <v>4</v>
+      </c>
+      <c r="N32" s="28">
+        <v>3</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>2</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+    </row>
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A33" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="F33" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A34" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A35" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A36" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A37" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q37" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A38" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q38" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U38" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A39" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q39" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A40" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A41" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q41" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A42" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R42" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A43" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q43" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="T43" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U43" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A44" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="T44" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A45" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="S45" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="T45" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A46" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29">
-        <v>489000</v>
-      </c>
-      <c r="M5" s="29">
-        <v>3</v>
-      </c>
-      <c r="N5" s="29">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29">
-        <v>2013</v>
-      </c>
-      <c r="P5" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="29">
-        <v>1</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="29" t="s">
+      <c r="H46" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="T46" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="U46" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A47" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="E47" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q47" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="T47" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U47" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A48" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="T48" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U48" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A49" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29">
-        <v>380000</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" s="29">
-        <v>3</v>
-      </c>
-      <c r="N6" s="29">
-        <v>2</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="29">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>2</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="29" t="s">
+      <c r="H49" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q49" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="T49" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U6" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="U49" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A50" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29">
-        <v>820000</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="29">
-        <v>4</v>
-      </c>
-      <c r="N7" s="29">
-        <v>2</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="29">
-        <v>2</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="29" t="s">
+      <c r="E50" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="T50" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U7" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1">
-      <c r="A8" s="29">
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="U50" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A51" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U51" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A52" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37">
-        <v>625000</v>
-      </c>
-      <c r="L8" s="38">
-        <v>625000</v>
-      </c>
-      <c r="M8" s="34">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="34">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="34">
-        <v>1</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="29" t="s">
+      <c r="E52" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="S52" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="T52" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U8" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29">
-        <v>775000</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M9" s="29">
-        <v>4</v>
-      </c>
-      <c r="N9" s="29">
-        <v>2</v>
-      </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>1</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1">
-      <c r="A10" s="29">
-        <v>9</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="U52" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A53" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37">
-        <v>359000</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="34">
-        <v>1</v>
-      </c>
-      <c r="N10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="34">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>1</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1">
-      <c r="A11" s="29">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37">
-        <v>1199000</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="34">
-        <v>4</v>
-      </c>
-      <c r="N11" s="34">
-        <v>2</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="34">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>2</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="X11" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y11" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1">
-      <c r="A12" s="29">
-        <v>11</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29">
-        <v>560000</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="29">
-        <v>3</v>
-      </c>
-      <c r="N12" s="29">
-        <v>1</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>1</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1">
-      <c r="A13" s="29">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29">
-        <v>795000</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="29">
-        <v>4</v>
-      </c>
-      <c r="N13" s="29">
-        <v>3</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>2</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V13" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1">
-      <c r="A14" s="29">
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29">
-        <v>649000</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="29">
-        <v>3</v>
-      </c>
-      <c r="N14" s="29">
-        <v>3</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>2</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-    </row>
-    <row r="15" spans="1:36" ht="15" customHeight="1">
-      <c r="A15" s="29">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29">
-        <v>689000</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="29">
-        <v>4</v>
-      </c>
-      <c r="N15" s="29">
-        <v>2</v>
-      </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>2</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1">
-      <c r="A16" s="29">
-        <v>15</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="E53" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29">
-        <v>840000</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" s="29">
-        <v>4</v>
-      </c>
-      <c r="N16" s="29">
-        <v>3</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>2</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29">
-        <v>850000</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="29">
-        <v>4</v>
-      </c>
-      <c r="N17" s="29">
-        <v>2</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>2</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-    </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29">
-        <v>850000</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="29">
-        <v>4</v>
-      </c>
-      <c r="N18" s="29">
-        <v>3</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>2</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1">
-      <c r="A19" s="29">
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29">
-        <v>720000</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="29">
-        <v>4</v>
-      </c>
-      <c r="N19" s="29">
-        <v>3</v>
-      </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>2</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1">
-      <c r="A20" s="29">
-        <v>19</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29">
-        <v>775000</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" s="29">
-        <v>4</v>
-      </c>
-      <c r="N20" s="29">
-        <v>2</v>
-      </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>2</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" customHeight="1">
-      <c r="A21" s="29">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29">
-        <v>745000</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="M21" s="29">
-        <v>4</v>
-      </c>
-      <c r="N21" s="29">
-        <v>2</v>
-      </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29">
-        <v>6</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-    </row>
-    <row r="22" spans="1:36" ht="15" customHeight="1">
-      <c r="A22" s="29">
-        <v>21</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29">
-        <v>660000</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="M22" s="29">
-        <v>3</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29">
-        <v>2</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29">
-        <v>6</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-    </row>
-    <row r="23" spans="1:36" ht="15" customHeight="1">
-      <c r="A23" s="29">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29">
-        <v>749000</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="M23" s="29">
-        <v>4</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29">
-        <v>2</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29">
-        <v>6</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-    </row>
-    <row r="24" spans="1:36" ht="15" customHeight="1">
-      <c r="A24" s="29">
-        <v>23</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29">
-        <v>799000</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="M24" s="29">
-        <v>4</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29">
-        <v>2</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29">
-        <v>6</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-    </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1">
-      <c r="A25" s="29">
-        <v>24</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29">
-        <v>799000</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="M25" s="29">
-        <v>4</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29">
-        <v>2</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="29" t="s">
+      <c r="H53" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q53" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="R53" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="T53" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U25" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" customHeight="1">
-      <c r="A26" s="29">
-        <v>25</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29">
-        <v>399000</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="M26" s="29">
-        <v>2</v>
-      </c>
-      <c r="N26" s="29">
-        <v>1</v>
-      </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>1</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="S26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U26" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-    </row>
-    <row r="27" spans="1:36" ht="15" customHeight="1">
-      <c r="A27" s="29">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29">
-        <v>425000</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" s="29">
-        <v>2</v>
-      </c>
-      <c r="N27" s="29">
-        <v>1</v>
-      </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>1</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U27" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-    </row>
-    <row r="28" spans="1:36" ht="15" customHeight="1">
-      <c r="A28" s="29">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29">
-        <v>1069000</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="M28" s="29">
-        <v>4</v>
-      </c>
-      <c r="N28" s="29">
-        <v>3</v>
-      </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>2</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="S28" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U28" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-    </row>
-    <row r="29" spans="1:36" ht="15" customHeight="1">
-      <c r="A29" s="29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29">
-        <v>1035000</v>
-      </c>
-      <c r="L29" s="29">
-        <v>1035000</v>
-      </c>
-      <c r="M29" s="29">
-        <v>4</v>
-      </c>
-      <c r="N29" s="29">
-        <v>3</v>
-      </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>2</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="S29" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U29" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-    </row>
-    <row r="30" spans="1:36" ht="15" customHeight="1">
-      <c r="A30" s="29">
-        <v>29</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29">
-        <v>399000</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="M30" s="29">
-        <v>3</v>
-      </c>
-      <c r="N30" s="29">
-        <v>2</v>
-      </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="29">
-        <v>1</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="S30" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="T30" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U30" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-    </row>
-    <row r="31" spans="1:36" ht="15" customHeight="1">
-      <c r="A31" s="29">
-        <v>30</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29">
-        <v>322500</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="M31" s="29">
-        <v>1</v>
-      </c>
-      <c r="N31" s="29">
-        <v>1</v>
-      </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="S31" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U31" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-    </row>
-    <row r="32" spans="1:36" ht="15" customHeight="1">
-      <c r="A32" s="29">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29">
-        <v>1019000</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M32" s="29">
-        <v>4</v>
-      </c>
-      <c r="N32" s="29">
-        <v>3</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="29">
-        <v>2</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U32" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-    </row>
-    <row r="33" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A33" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="M33" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N33" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="P33" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q33" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R33" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="S33" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="T33" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U33" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A34" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="M34" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N34" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q34" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R34" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="S34" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U34" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A35" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="M35" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N35" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q35" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R35" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S35" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="T35" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U35" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A36" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K36" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="M36" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="N36" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P36" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R36" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="S36" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U36" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A37" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="M37" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N37" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P37" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q37" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="R37" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="S37" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="T37" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U37" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A38" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="P38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q38" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="R38" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="S38" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U38" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A39" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="M39" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N39" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P39" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R39" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="S39" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="T39" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U39" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A40" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="M40" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N40" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P40" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R40" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S40" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="T40" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U40" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A41" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="L41" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N41" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="P41" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q41" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R41" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="S41" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="T41" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U41" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A42" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N42" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P42" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q42" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R42" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="S42" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="T42" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A43" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="M43" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N43" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P43" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q43" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="R43" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="S43" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="T43" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U43" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A44" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="M44" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="N44" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P44" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q44" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="R44" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="S44" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="T44" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U44" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A45" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="M45" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N45" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="P45" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q45" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R45" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="S45" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="T45" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U45" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A46" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="N46" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P46" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q46" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R46" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="S46" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="T46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U46" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A47" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P47" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q47" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R47" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="S47" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="T47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U47" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A48" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N48" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q48" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S48" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="T48" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U48" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A49" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N49" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P49" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q49" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R49" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="S49" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="T49" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U49" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A50" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="L50" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="N50" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="P50" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q50" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="R50" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="S50" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="T50" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U50" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A51" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="L51" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="P51" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q51" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="R51" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="S51" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="T51" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U51" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A52" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P52" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q52" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="R52" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S52" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="T52" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U52" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A53" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="K53" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="L53" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="N53" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="P53" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q53" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="S53" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="T53" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="U53" s="29" t="s">
+      <c r="U53" s="28" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8732,829 +8699,829 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A55" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="B55" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K55" s="29" t="s">
+      <c r="K55" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="L55" s="29" t="s">
+      <c r="L55" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="M55" s="29" t="s">
+      <c r="M55" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="N55" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P55" s="29" t="s">
+      <c r="P55" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q55" s="29" t="s">
+      <c r="Q55" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R55" s="29" t="s">
+      <c r="R55" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="S55" s="29" t="s">
+      <c r="S55" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="T55" s="29" t="s">
+      <c r="T55" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U55" s="29" t="s">
+      <c r="U55" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A56" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="29" t="s">
+      <c r="B56" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K56" s="29" t="s">
+      <c r="K56" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="L56" s="29" t="s">
+      <c r="L56" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="M56" s="29" t="s">
+      <c r="M56" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="N56" s="29" t="s">
+      <c r="N56" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P56" s="29" t="s">
+      <c r="P56" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q56" s="29" t="s">
+      <c r="Q56" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R56" s="29" t="s">
+      <c r="R56" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="S56" s="29" t="s">
+      <c r="S56" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="T56" s="29" t="s">
+      <c r="T56" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U56" s="29" t="s">
+      <c r="U56" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A57" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="29" t="s">
+      <c r="B57" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K57" s="29" t="s">
+      <c r="K57" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="L57" s="29" t="s">
+      <c r="L57" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="M57" s="29" t="s">
+      <c r="M57" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="N57" s="29" t="s">
+      <c r="N57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P57" s="29" t="s">
+      <c r="P57" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q57" s="29" t="s">
+      <c r="Q57" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="29" t="s">
+      <c r="R57" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="S57" s="29" t="s">
+      <c r="S57" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="T57" s="29" t="s">
+      <c r="T57" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U57" s="29" t="s">
+      <c r="U57" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A58" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="29" t="s">
+      <c r="B58" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K58" s="29" t="s">
+      <c r="K58" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="L58" s="29" t="s">
+      <c r="L58" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="M58" s="29" t="s">
+      <c r="M58" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="N58" s="29" t="s">
+      <c r="N58" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P58" s="29" t="s">
+      <c r="P58" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q58" s="29" t="s">
+      <c r="Q58" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R58" s="29" t="s">
+      <c r="R58" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="S58" s="29" t="s">
+      <c r="S58" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="T58" s="29" t="s">
+      <c r="T58" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U58" s="29" t="s">
+      <c r="U58" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A59" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="K59" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="L59" s="29" t="s">
+      <c r="L59" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="M59" s="29" t="s">
+      <c r="M59" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="N59" s="29" t="s">
+      <c r="N59" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P59" s="29" t="s">
+      <c r="P59" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q59" s="29" t="s">
+      <c r="Q59" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="S59" s="29" t="s">
+      <c r="S59" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="T59" s="29" t="s">
+      <c r="T59" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U59" s="29" t="s">
+      <c r="U59" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A60" s="29" t="s">
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A60" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="M60" s="29" t="s">
+      <c r="M60" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="N60" s="29" t="s">
+      <c r="N60" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P60" s="29" t="s">
+      <c r="P60" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q60" s="29" t="s">
+      <c r="Q60" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R60" s="29" t="s">
+      <c r="R60" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="S60" s="29" t="s">
+      <c r="S60" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="T60" s="29" t="s">
+      <c r="T60" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U60" s="29" t="s">
+      <c r="U60" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A61" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K61" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L61" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="M61" s="29" t="s">
+      <c r="M61" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="N61" s="29" t="s">
+      <c r="N61" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="P61" s="29" t="s">
+      <c r="P61" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q61" s="29" t="s">
+      <c r="Q61" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="R61" s="29" t="s">
+      <c r="R61" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="S61" s="29" t="s">
+      <c r="S61" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="T61" s="29" t="s">
+      <c r="T61" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U61" s="29" t="s">
+      <c r="U61" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A62" s="29" t="s">
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A62" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="B62" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="29" t="s">
+      <c r="B62" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K62" s="29" t="s">
+      <c r="K62" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="L62" s="29" t="s">
+      <c r="L62" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="M62" s="29" t="s">
+      <c r="M62" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="N62" s="29" t="s">
+      <c r="N62" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="P62" s="29" t="s">
+      <c r="P62" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q62" s="29" t="s">
+      <c r="Q62" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="R62" s="29" t="s">
+      <c r="R62" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="S62" s="29" t="s">
+      <c r="S62" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="T62" s="29" t="s">
+      <c r="T62" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="29" t="s">
+      <c r="U62" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A63" s="29" t="s">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A63" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B63" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="29" t="s">
+      <c r="B63" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K63" s="29" t="s">
+      <c r="K63" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="M63" s="29" t="s">
+      <c r="M63" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="N63" s="29" t="s">
+      <c r="N63" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="P63" s="29" t="s">
+      <c r="P63" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q63" s="29" t="s">
+      <c r="Q63" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R63" s="29" t="s">
+      <c r="R63" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="S63" s="29" t="s">
+      <c r="S63" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="T63" s="29" t="s">
+      <c r="T63" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U63" s="29" t="s">
+      <c r="U63" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A64" s="29" t="s">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A64" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B64" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="29" t="s">
+      <c r="B64" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="K64" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="L64" s="29" t="s">
+      <c r="L64" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="M64" s="29" t="s">
+      <c r="M64" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="N64" s="29" t="s">
+      <c r="N64" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="P64" s="29" t="s">
+      <c r="P64" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q64" s="29" t="s">
+      <c r="Q64" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R64" s="29" t="s">
+      <c r="R64" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="S64" s="29" t="s">
+      <c r="S64" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="T64" s="29" t="s">
+      <c r="T64" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U64" s="29" t="s">
+      <c r="U64" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A65" s="29" t="s">
+    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A65" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B65" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="29" t="s">
+      <c r="B65" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="L65" s="29" t="s">
+      <c r="L65" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="M65" s="29" t="s">
+      <c r="M65" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="N65" s="29" t="s">
+      <c r="N65" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="P65" s="29" t="s">
+      <c r="P65" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="Q65" s="29" t="s">
+      <c r="Q65" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R65" s="29" t="s">
+      <c r="R65" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="S65" s="29" t="s">
+      <c r="S65" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="T65" s="29" t="s">
+      <c r="T65" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U65" s="29" t="s">
+      <c r="U65" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A66" s="29" t="s">
+    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A66" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="B66" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="29" t="s">
+      <c r="B66" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K66" s="29" t="s">
+      <c r="K66" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="L66" s="29" t="s">
+      <c r="L66" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="M66" s="29" t="s">
+      <c r="M66" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="N66" s="29" t="s">
+      <c r="N66" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="P66" s="29" t="s">
+      <c r="P66" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q66" s="29" t="s">
+      <c r="Q66" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R66" s="29" t="s">
+      <c r="R66" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="S66" s="29" t="s">
+      <c r="S66" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="T66" s="29" t="s">
+      <c r="T66" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="U66" s="29" t="s">
+      <c r="U66" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A67" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="29" t="s">
+      <c r="B67" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K67" s="29" t="s">
+      <c r="K67" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="M67" s="29" t="s">
+      <c r="M67" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="N67" s="29" t="s">
+      <c r="N67" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="P67" s="29" t="s">
+      <c r="P67" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="29" t="s">
+      <c r="Q67" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="R67" s="29" t="s">
+      <c r="R67" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="S67" s="29" t="s">
+      <c r="S67" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="T67" s="29" t="s">
+      <c r="T67" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U67" s="29" t="s">
+      <c r="U67" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="29" customFormat="1" ht="13.5">
-      <c r="A68" s="29" t="s">
+    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A68" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="B68" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="C68" s="29" t="s">
+      <c r="B68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="K68" s="29" t="s">
+      <c r="K68" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="L68" s="29" t="s">
+      <c r="L68" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="M68" s="29" t="s">
+      <c r="M68" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="N68" s="29" t="s">
+      <c r="N68" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="P68" s="29" t="s">
+      <c r="P68" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q68" s="29" t="s">
+      <c r="Q68" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R68" s="29" t="s">
+      <c r="R68" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="S68" s="29" t="s">
+      <c r="S68" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="T68" s="29" t="s">
+      <c r="T68" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U68" s="29" t="s">
+      <c r="U68" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9685,19 +9652,19 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -9757,11 +9724,11 @@
       <c r="AD1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
@@ -9796,16 +9763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.9">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -9819,95 +9786,95 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>4</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>7</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9921,10 +9888,10 @@
       <c r="C6" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>369</v>
       </c>
     </row>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89832B-1EA9-4B8D-8062-3A8BAA211E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70CD77-5E20-4D2D-8166-66B54985D1A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,20 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!$A$1:$AE$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!$AF$1:$AF$68</definedName>
     <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
     <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="491">
   <si>
     <t>ID</t>
   </si>
@@ -2075,9 +2075,6 @@
 Single storey, separate-title offering in one of the most premium suburbs in Canberra.</t>
   </si>
   <si>
-    <t>Rent</t>
-  </si>
-  <si>
     <t>Draft</t>
   </si>
   <si>
@@ -2088,6 +2085,24 @@
   </si>
   <si>
     <t>799,000+</t>
+  </si>
+  <si>
+    <t>Rented</t>
+  </si>
+  <si>
+    <t>Property URL</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/property/25-braine-street-page-act-2614-2/</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/property/6-summerhayes-st…aylor-act-2913-2/</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/property/227-sculthorpe-a…itlam-act-2611-2/</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -2736,21 +2751,21 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="77.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.46484375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.9">
+    <row r="1" spans="1:28" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2815,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="63" t="s">
@@ -2827,7 +2842,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="13.9">
+    <row r="3" spans="1:28" ht="13.8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="4"/>
@@ -2898,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
@@ -2923,7 +2938,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="13.9">
+    <row r="5" spans="1:28" ht="13.8">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2946,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -2971,7 +2986,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="13.9">
+    <row r="6" spans="1:28" ht="13.8">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2992,7 +3007,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3015,7 +3030,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9">
+    <row r="7" spans="1:28" ht="13.8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3036,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3059,7 +3074,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="13.9">
+    <row r="8" spans="1:28" ht="13.8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3080,7 +3095,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3103,7 +3118,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="13.9">
+    <row r="9" spans="1:28" ht="13.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3147,7 +3162,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9">
+    <row r="10" spans="1:28" ht="13.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3168,7 +3183,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3191,7 +3206,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9">
+    <row r="11" spans="1:28" ht="13.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3212,7 +3227,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -3235,7 +3250,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="13.9">
+    <row r="12" spans="1:28" ht="13.8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3256,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3279,7 +3294,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9">
+    <row r="13" spans="1:28" ht="13.8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3300,7 +3315,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3323,7 +3338,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="13.9">
+    <row r="14" spans="1:28" ht="13.8">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3344,7 +3359,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -3367,7 +3382,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="13.9">
+    <row r="15" spans="1:28" ht="13.8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3411,7 +3426,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="13.9">
+    <row r="16" spans="1:28" ht="13.8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3432,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3455,7 +3470,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="13.9">
+    <row r="17" spans="1:28" ht="13.8">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -3499,7 +3514,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="13.9">
+    <row r="18" spans="1:28" ht="13.8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3520,7 +3535,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -3543,7 +3558,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.9">
+    <row r="19" spans="1:28" ht="13.8">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3564,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -3587,7 +3602,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="13.9">
+    <row r="20" spans="1:28" ht="13.8">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3608,7 +3623,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -3631,7 +3646,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="13.9">
+    <row r="21" spans="1:28" ht="13.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3652,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3675,7 +3690,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="13.9">
+    <row r="22" spans="1:28" ht="13.8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3719,7 +3734,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="13.9">
+    <row r="23" spans="1:28" ht="13.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3740,7 +3755,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -3763,7 +3778,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="13.9">
+    <row r="24" spans="1:28" ht="13.8">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -3784,7 +3799,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3807,7 +3822,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="13.9">
+    <row r="25" spans="1:28" ht="13.8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3851,7 +3866,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="13.9">
+    <row r="26" spans="1:28" ht="13.8">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -3895,7 +3910,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="13.9">
+    <row r="27" spans="1:28" ht="13.8">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3939,7 +3954,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="13.9">
+    <row r="28" spans="1:28" ht="13.8">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -3983,7 +3998,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="13.9">
+    <row r="29" spans="1:28" ht="13.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -4027,7 +4042,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="13.9">
+    <row r="30" spans="1:28" ht="13.8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -4071,7 +4086,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="13.9">
+    <row r="31" spans="1:28" ht="13.8">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4115,7 +4130,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="13.9">
+    <row r="32" spans="1:28" ht="13.8">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4159,7 +4174,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4176,10 +4191,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4196,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4216,10 +4231,10 @@
         <v>11</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4236,10 +4251,10 @@
         <v>11</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4256,10 +4271,10 @@
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4276,10 +4291,10 @@
         <v>11</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4296,10 +4311,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4316,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4336,10 +4351,10 @@
         <v>11</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4356,10 +4371,10 @@
         <v>11</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4376,10 +4391,10 @@
         <v>11</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4396,10 +4411,10 @@
         <v>11</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4419,7 +4434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4439,7 +4454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4459,7 +4474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4476,10 +4491,10 @@
         <v>19</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4496,10 +4511,10 @@
         <v>19</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4516,10 +4531,10 @@
         <v>19</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4536,10 +4551,10 @@
         <v>19</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -4579,7 +4594,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8" ht="13.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4619,7 +4634,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>377</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>85</v>
@@ -4639,7 +4654,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4659,7 +4674,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4679,7 +4694,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4699,7 +4714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4719,7 +4734,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4739,7 +4754,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4756,10 +4771,10 @@
         <v>11</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4776,10 +4791,10 @@
         <v>11</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4796,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4816,10 +4831,10 @@
         <v>11</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4827,7 +4842,7 @@
         <v>387</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>85</v>
@@ -4839,7 +4854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4847,7 +4862,7 @@
         <v>388</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>110</v>
@@ -4856,10 +4871,10 @@
         <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4867,7 +4882,7 @@
         <v>389</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>110</v>
@@ -4876,7 +4891,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -4961,34 +4976,35 @@
   </sheetPr>
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="53.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.5546875" customWidth="1" collapsed="1"/>
     <col min="16" max="17" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.5546875" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.109375" customWidth="1" collapsed="1"/>
     <col min="23" max="31" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="62.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27.75">
+    <row r="1" spans="1:36" ht="27.6">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -5068,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>75</v>
@@ -5082,7 +5098,9 @@
       <c r="AE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="27"/>
+      <c r="AF1" s="27" t="s">
+        <v>486</v>
+      </c>
       <c r="AG1" s="27"/>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
@@ -5261,7 +5279,7 @@
         <v>799000</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -7401,7 +7419,7 @@
       <c r="AI32" s="28"/>
       <c r="AJ32" s="28"/>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A33" s="28" t="s">
         <v>240</v>
       </c>
@@ -7460,7 +7478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A34" s="28" t="s">
         <v>251</v>
       </c>
@@ -7519,7 +7537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A35" s="28" t="s">
         <v>258</v>
       </c>
@@ -7578,7 +7596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A36" s="28" t="s">
         <v>264</v>
       </c>
@@ -7637,7 +7655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A37" s="28" t="s">
         <v>271</v>
       </c>
@@ -7696,7 +7714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A38" s="28" t="s">
         <v>277</v>
       </c>
@@ -7755,7 +7773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A39" s="28" t="s">
         <v>285</v>
       </c>
@@ -7814,7 +7832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A40" s="28" t="s">
         <v>288</v>
       </c>
@@ -7873,7 +7891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A41" s="28" t="s">
         <v>291</v>
       </c>
@@ -7932,7 +7950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A42" s="28" t="s">
         <v>300</v>
       </c>
@@ -7991,7 +8009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A43" s="28" t="s">
         <v>304</v>
       </c>
@@ -8050,7 +8068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A44" s="28" t="s">
         <v>313</v>
       </c>
@@ -8109,7 +8127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A45" s="28" t="s">
         <v>320</v>
       </c>
@@ -8168,7 +8186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A46" s="28" t="s">
         <v>326</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A47" s="28" t="s">
         <v>332</v>
       </c>
@@ -8286,7 +8304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A48" s="28" t="s">
         <v>338</v>
       </c>
@@ -8345,7 +8363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A49" s="28" t="s">
         <v>343</v>
       </c>
@@ -8404,7 +8422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A50" s="28" t="s">
         <v>349</v>
       </c>
@@ -8463,7 +8481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A51" s="28" t="s">
         <v>355</v>
       </c>
@@ -8522,7 +8540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A52" s="28" t="s">
         <v>361</v>
       </c>
@@ -8581,7 +8599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A53" s="28" t="s">
         <v>390</v>
       </c>
@@ -8640,12 +8658,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75">
+    <row r="54" spans="1:21" ht="13.2">
       <c r="A54" t="s">
         <v>396</v>
       </c>
       <c r="B54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" t="s">
         <v>397</v>
@@ -8699,7 +8717,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A55" s="28" t="s">
         <v>400</v>
       </c>
@@ -8758,12 +8776,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A56" s="28" t="s">
         <v>406</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>407</v>
@@ -8817,12 +8835,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A57" s="28" t="s">
         <v>411</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>412</v>
@@ -8831,7 +8849,7 @@
         <v>88</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>252</v>
@@ -8876,7 +8894,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A58" s="28" t="s">
         <v>418</v>
       </c>
@@ -8890,7 +8908,7 @@
         <v>80</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>82</v>
@@ -8935,7 +8953,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A59" s="28" t="s">
         <v>424</v>
       </c>
@@ -8994,7 +9012,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A60" s="28" t="s">
         <v>431</v>
       </c>
@@ -9053,7 +9071,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A61" s="28" t="s">
         <v>438</v>
       </c>
@@ -9112,7 +9130,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A62" s="28" t="s">
         <v>444</v>
       </c>
@@ -9171,7 +9189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A63" s="28" t="s">
         <v>447</v>
       </c>
@@ -9230,7 +9248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A64" s="28" t="s">
         <v>452</v>
       </c>
@@ -9289,7 +9307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="65" spans="1:32" s="28" customFormat="1" ht="13.8">
       <c r="A65" s="28" t="s">
         <v>458</v>
       </c>
@@ -9348,12 +9366,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="66" spans="1:32" s="28" customFormat="1" ht="13.8">
       <c r="A66" s="28" t="s">
         <v>463</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>464</v>
@@ -9406,13 +9424,16 @@
       <c r="U66" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="AF66" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" s="28" customFormat="1" ht="13.8">
       <c r="A67" s="28" t="s">
         <v>469</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>470</v>
@@ -9465,13 +9486,16 @@
       <c r="U67" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="AF67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="28" customFormat="1" ht="13.8">
       <c r="A68" s="28" t="s">
         <v>475</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>476</v>
@@ -9524,10 +9548,16 @@
       <c r="U68" s="28" t="s">
         <v>19</v>
       </c>
+      <c r="AF68" t="s">
+        <v>489</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE68" xr:uid="{3EAC26A4-0215-4509-8AC1-88A18A1CA423}"/>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -9537,10 +9567,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AJ1">
@@ -9614,23 +9640,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.109375" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.109375" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.44140625" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" customHeight="1">
@@ -9753,16 +9779,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9">
+    <row r="1" spans="1:26" ht="13.8">
       <c r="A1" s="45" t="s">
         <v>197</v>
       </c>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meena\git\777Homes-business2\src\main\resources\InputTestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E921D-2A27-4A64-842E-C75FF4498955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="614">
   <si>
     <t>ID</t>
   </si>
@@ -1319,9 +1320,6 @@
   </si>
   <si>
     <t>Macgregor</t>
-  </si>
-  <si>
-    <t>Sold</t>
   </si>
   <si>
     <t>Not Active</t>
@@ -1981,10 +1979,6 @@
     <t xml:space="preserve">8	5	0	0	0	0	</t>
   </si>
   <si>
-    <t>When a house has good bones, you only need to dress it up. This project is great for someone with an eye for potential, good taste and perfect detailing skills. 
-This house on a 619sqm good-sized block, in its beautiful central location in Page, is looking for its new owner.</t>
-  </si>
-  <si>
     <t>Draft</t>
   </si>
   <si>
@@ -2004,9 +1998,6 @@
   </si>
   <si>
     <t>777 URL</t>
-  </si>
-  <si>
-    <t>http://cbrhome.flywheelstaging.com/?post_type=property&amp;p=6784&amp;preview=true</t>
   </si>
   <si>
     <t>House and Land Package</t>
@@ -2241,11 +2232,523 @@
   <si>
     <t>Block/House: 450/ 313</t>
   </si>
+  <si>
+    <t>https://www.allhomes.com.au/163-oodgeroo-avenue-franklin-act-2913</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-9-4-lawrenson-circuit-jacka-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-152-61-john-gorton-drive-wright-act-2611</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/19-ruby-hunter-rise-moncrieff-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/strathnairn-act-2615?tid=176590861</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/taylor-act-2913?tid=179527288</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-22-22-henry-kendall-street-franklin-act-2913</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/227-sculthorpe-avenue-whitlam-act-2611</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/taylor-act-2913?tid=179140230</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-29-2-pipeclay-street-lawson-act-2617</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/51-jill-landsberg-terrace-strathnairn-act-2615</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-1008-1-edmondstone-place-belconnen-act-2617</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/coombs-act-2611?tid=178602550</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/taylor-act-2913?tid=178481772</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/throsby-act-2914?tid=174685175</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/strathnairn-act-2615?tid=178018433</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/wright-act-2611?tid=177902804</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-89-5-burnie-street-lyons-act-2606</t>
+  </si>
+  <si>
+    <t>Woden Valley</t>
+  </si>
+  <si>
+    <t>Enjoy the convenience and that short walk to the park, living in this quiet tucked away treelined street, with lots of privacy. 
+Perfect for a beautiful family, in this highly sought-after spot. 
+This house on a 619sqm good-sized block, in its beautiful central location in Page, is looking for its new owner.</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>163 Oodgeroo Avenue, Franklin ACT 2913</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Block/House: 330/ 146</t>
+  </si>
+  <si>
+    <t>Auction 19/06/21</t>
+  </si>
+  <si>
+    <t>An amazing opportunity in the beautiful suburb of Franklin, this architecturally designed home is a dream home for families. Presented on a 330 m2 block of m2 with stunning street appeal, this well utilised home is ready to move in and enjoy the luxurious living with your family.
+The open-plan family/dining area is filled with natural light, and inside, you will observe how well the property has been maintained by its only owner. There is laminated wooden flooring throughout both living areas. The contemporary kitchen is quite spacious and comes with hanging lights above the island bench, separate glass storage space, 900mm gas cooktop, 900mm oven, stone bench top, and plenty of soft close drawers.
+Coming to the master bedroom, which is located on upper level and designed a two-way bathroom and built-in robe, another bedroom too comes with built in robe. A spacious bedroom on lower level is with built-in robe. There is an attractive family bathroom with a wall hung vanity, bathtub and sizeable shower, floor to ceiling tiles.
+Amazing and enjoyable backyard with pergola, where you can spend time to relax with family and friends. Some of the other features, separate laundry, double glazed windows, and plenty of storage and 6.5 kw solar system.
+Property Features:
+• 2 Separate living areas
+• 3 Bedrooms
+• 900 mm gas cook top.
+• Stone bench tops
+• Inbuilt storage in island bench
+• Dishwasher
+• Gas cooktop
+• Ducted range-hood
+• 6.5 kw solar.
+• Laminated floorboard
+• Double glazed windows
+• 2000 l water tank
+• Spacious backyard with Pergola
+• Separate laundry
+Property Information
+• Block Size : 333.00 m2 (approx..)
+• House Size : 181.60 m2 (approx..)
+• Ground floor : 89.90 m2 (approx..)
+• First floor : 55.70 m2 (approx..)
+• Garage : 36.00 m2 (approx..)
+• Pergola : 15.00 m2 (approx..)
+• Porch : 4.30 m2 (approx..)
+• EER : 6.0 Stars</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>9/4 Lawrenson Circuit, Jacka ACT 2914</t>
+  </si>
+  <si>
+    <t>A beautiful family home close to Amaroo school &amp; shops
+This brilliantly designed 3-bedroom single storey home is just the ticket for the astute buyers for their home or investment. It has individuality, space and style.
+The residence features a modern kitchen with stone bench-top and ample cupboard space. Great sized living space and a splendid layout offer up a practical and light filled pleasant place to live and entertain.
+Central heating and Energy Efficiency Rating of 6.0 means that you will be cozy during the extreme Canberra weather.
+Features:
+Property information</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>152/61 John Gorton Drive, Wright ACT 2611</t>
+  </si>
+  <si>
+    <t>Block/House: 1.76/ 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	1	7	0	0	0	</t>
+  </si>
+  <si>
+    <t>$417000</t>
+  </si>
+  <si>
+    <t>New Door Properties is proud to present 152/61 John Gorton Drive, Wright ACT located in a prime position in Wright. Upon viewing this property you'll appreciate the love and care. The residence features open plan living, functional kitchen and loads of storage and adding to the appeal the apartment offers two balconies, one off the living area and other off the master bedroom. You will find the spacious bedrooms with BIR, and master bedrooms with Ensuite.
+The complex is surrounded by the landscaped gardens, a private pool and BBQ area for residents. Wright offers residents a wonderful lifestyle with community spaces, large parks and play area through. Moreover, the apartment is designed for a young family keeping in mind, this modern home will suit young home buyers looking to enter the market wisely or an investor seeking to capitalize on a great location with strong rental returns.
+Don't miss out on the opportunity and book your inspection today!!
+Call Yash Sethi 0406551043 or Abhi Parashar 0404525998
+2 Bed | 2 Bath | 2 Car Space
+Property Features:
+Third floor Apartment
+2 Bedroom with BIR and Carpets in both the rooms
+Main bedroom with balcony and En-suit
+Light-fitted, open-plan living
+Modern kitchen with stone benchtops
+Tiled Flashback in kitchen
+Two reverse cycle split systems
+600 mm Bosch induction cooktop and dishwasher
+600 mm Ariston ducted Rangehood and oven
+Two sun facing balconies
+European style laundry
+Secure double car space with lock up cage
+Secured intercom entrance with security cameras around the building
+Secured swimming pool with BBQ place
+Top floor community area
+NBN to the complex
+In close proximity to Charles Westone School
+Rental potential of $470 to $490 per week
+EER: 6 Star
+Living Area: 79 m2
+Balcony: 20 m2 (approx.)
+Body corporate: $966 per quarter Approx.</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>19 Ruby Hunter Rise, Moncrieff ACT 2914</t>
+  </si>
+  <si>
+    <t>Block/House: 648/ 276</t>
+  </si>
+  <si>
+    <t>$925,000</t>
+  </si>
+  <si>
+    <t>An amazing opportunity in the beautiful suburb of Moncrieff, this architecturally designed home is a dream home for families. Presented on a large 648 m2 block, and stunning street appeal, this well utilized home is ready to move in and enjoy.
+As you enter there is a feeling of additional space which is projected by high ceilings and separation of formal living and family areas. Enjoy life with the family in a home which you will have room to accommodate all events whilst only being a short distance to local schools, Gungahlin town centre and numerous walking tracks and playgrounds.
+Features Include:</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Block/House: 450/ 220</t>
+  </si>
+  <si>
+    <t>New Door Properties is proud to present you this modern house and land package.
+This sleek single-level home promotes easy family living and entertaining on a block of 450 m2(approx.). Immaculate from start to finish, enjoy a modern, cleverly considered floorplan hosting a formal lounge room and an open plan family and meals area leading out to the undercover alfresco entertaining area combining indoor/outdoor living.</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Block/House: 135/ -</t>
+  </si>
+  <si>
+    <t>$585,000+</t>
+  </si>
+  <si>
+    <t>Priced affordably with no body corp to pay, a separate title offering in a gorgeous suburb, walking distance to parks and schools. Low maintenance block with single level living, good-sized bedrooms, perfect for downsizers or small families.
+TWO-THREE BEDROOMS: 575000-585000
+THREE BEDROOMS TYPE 1: 695000+ 
+THREE BEDROOMS TYPE 2: 725000+</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>22/22 Henry Kendall Street, Franklin ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 7382/ 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6	6	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$665,000+</t>
+  </si>
+  <si>
+    <t>This spacious modern tri-level townhouse offers generous, separate living areas, large bedrooms, and a sunny north aspect to casual living and entertaining terrace. Contemporary presentation begins with strong contrasting tones on the facade and smooth charcoal paving over the pathway, covered entry and front terrace, which overlooks the landscaped courtyard garden.
+Ground Floor
+Stepping into the house from the exquisite garden, there is a proper shoe cabinet and storage space, the hallway direct access to your private garage, there is a separate washroom and laundry for convenience life style. The Single plus an extra car space outside with a separate back door with a combination lock..
+Also downstairs a specially designed study or entertainment space of moderate size, suitable for professionals or children in the family.
+Up the stairs to the left is a leisurely living room, with the powder room on this level. You can flexibly use it as a recreation space or as another bedroom, stepping off the balcony in to the tiled balcony situated on the 2nd storey where you can enjoy a barbecue or a few drinks with friends.
+The kitchen is well designed with stone benchtops, soft closing drawers and cupboards, stainless steel appliances and a pantry and many drawers. . Its distinctive island bench offers further storage, and doubles as an eating area and work space for the cook, during busy entertainment periods. Accoss the dining area to outside is a beautifully front belcony with water veiw.
+The cleverly decorated top level contains three well sized, light filled bedroom and one is ensuite and on main bathrooms with bathtub. Each bedroom has been carefully designed, with plenty of sunlight and storage area.
+The location is convenient, with direct access to Flemington Road and only a short walk to the primary school.
+Come and be pleasantly surprised by this central location, close to the Light Rail- your perfect haven.
+This best locations is close to:
+-1min walk to the light rail station
+-2 min walk to the Club lime Gym, Woolworths, Fresco Seafood
+-2 min drive to the shopping center, gas station, cinema, supermarket and shopping in one place
+-3 min drive to the Gungahlin shopping center
+-12 min drive to Canberra City, ANU
+Located on the main transport corridor Flemington Road between Gungahlin and the City, this house is close to everything you need. Cafe's, restaurants, shops and schools including primary school, high school, private school and early childcare are all within close walking proximity. A bus stop is virtually at your doorstep and the Light Rail station just 1 min walk away from this home.
+Living - 141.8m2 (approx.)
+Garage - 28.47m2
+Ground Floor - 26.82m2 (Not included stairs)
+Middle Floor - 52.11m2 (Not included stairs)
+Upper Floor - 62.87m2 (Not included stairs)
+Total House Size: 170.27m2
+Front Belcony - 6.3m2 (approx.)
+Back Belcony - 11.03m2 (approx.)
+Front Gardan - 23.4 m2 (approx.)
+Body Corp fees: $387 quarterly
+Rates: $398 per quarterly
+Rental income: around $830 per week
+If you interested for that townhouse welcome to our open inspection at each Saturday. And what are you waiting for, fell free to call us for enquiries any time.
+Call us 0451 660 619
+Or email us pm@trustedrealtors.com.au</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>227 Sculthorpe Avenue, Whitlam ACT 2611</t>
+  </si>
+  <si>
+    <t>Block/House: 205/ 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7	7	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$775,000-$900,000</t>
+  </si>
+  <si>
+    <t>OPENS HELD AT 38 EVERIST STREET TAYLOR
+In this fast-paced market, you won't want to miss out! 
+Where else can you find a property next to the local centre and shops, and also the school and at an affordable price point?</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Block/House: 570/ 265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	9	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$895,000+</t>
+  </si>
+  <si>
+    <t>If you're craving peace, privacy and plenty of room to move, this modern family home is just the ticket. Venture beyond the smooth straight driveway, and you'll discover an enticing blend of functional style and modern convenience in a massive living space.
+This amazing family home full of light that will surely brighten up your daily lives. This home is located in the newest suburb of Gungahlin, this is artfully designed and with attention to details that features spacious family and dining area, five good-sized bedrooms &amp; top of the class kitchen with high end appliances. It also boasts its comfortable living area and a relaxing alfresco, opening to a low maintenance backyard.</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>29/2 Pipeclay St, Lawson ACT 2617</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>Block/House: 6678/ 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	8	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$485,000+</t>
+  </si>
+  <si>
+    <t>29/2 Pipeclay St, Lawson ACT 2617
+2 bedrooms 2.5 bath and 1 car garage
+Featuring vast spaces and contemporary fittings and fixtures, this beautifully cared for townhouse offers low maintenance living.
+Ideal for those looking for convenient living close to the Belconnen Shoping precinct and the University of Canberra.
+Whitegoods included.
+- Open plan lounge and dining space
+- Spacious kitchen with ample storage and Bosch appliances
+- Reverse cycle heating and cooling, downstairs powder room
+- Single garage with remote access, additional allocated park
+- Master bedroom with ensuite and private balcony
+- Second bedroom, perfect for a guest or shared living
+- Private courtyard provides superb outdoor entertaining
+- Walking distance to parks, walking paths and shops
+- Only a short drive to the Gungahlin &amp; Belconnen town centre, and Canberra CBD
+- Available Now</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>51 Jill Landsberg Terrace, Strathnairn ACT 2615</t>
+  </si>
+  <si>
+    <t>Block/House: 362/ 190</t>
+  </si>
+  <si>
+    <t>Opens to be held at Pro Hart Ave, Block 17 Section 23, Ginninderry Residences, Strathnairn.  (Opposite the Land sales office)
+Completion estimated to be last quarter of 2021.</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1008/1 Edmondstone Place, Belconnen ACT 2617</t>
+  </si>
+  <si>
+    <t>Block/House: 78/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5	0	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$509,000+</t>
+  </si>
+  <si>
+    <t>Opens held at 31 Oodgeroo Ave, Franklin. 
+Don't miss out the chance to live in the tallest residential tower in Canberra, the High Society offers luxury living and contemporary lifestyle any one could ask for. 
+The High Society has a lot of private and public amenities to offer including its very own wellness centre, sauna, gym, resort- standard spa, yoga and heated outdoor pool.</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>(no street name provided), Coombs ACT 2611</t>
+  </si>
+  <si>
+    <t>Block/House: 185/ 245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6	4	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$645,000+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coombs ACT 2611</t>
+  </si>
+  <si>
+    <t>   -Modern kitchen with huge stone island bench 
+-Quality appliances
+-Neutral interiors throughout
+-North easterly appointed main living areas
+-Open plan living and dining flow
+-Large rear garden
+-Master suite with walk-in robe and ensuite
+-Generous ensuite with double vanity
+-Bathrooms with floor to ceiling tiles
+-Ducted reverse cycle heating and cooling
+-Choice of good quality schools
+-Short walk to transport</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Block/House: 572/ 273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9	2	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$920,000-$950,000</t>
+  </si>
+  <si>
+    <t>Opens to be held at 16 Crone Terrace TAYLOR!!!
+This new home design specifically take advantage of the beautiful view of  the blocks and solar orientation of Taylor and designed with functionality and space in mind, which are the key focus in every residences. 
+This beautifully designed new home will have 5 spacious bedrooms, 3 bathrooms, the two main bedrooms has walk-in robes &amp; ensuites with remaining bedrooms have built-in robes. It also features a generous kitchen and a family sized laundry. Most importanly, it offers well-proportioned living spaces including cozy living and comfy alfresco that will surely take all your stresses away from work.</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Block/House: 405/ 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	2	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$829,000+</t>
+  </si>
+  <si>
+    <t>Opens to be held at 21 Kalianna Street, Harrison. 
+A rare opportunity to purchase this gorgeous house located on a generous block in one of the fastest growing suburbs in Canberra.</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>$795,000-$815,000</t>
+  </si>
+  <si>
+    <t>49 Jill Landsberg Terrace - A Unique flat block for your forever home. You can locate this on the Interactive Map on www.ginninderry.com.
+With a northerly outlook for the lounge and front verandah, this house is full of natural light.
+Private, flat on the hill, opposite parkland, your master bedroom comes with its own walk in robe and ensuite, not to mention huge windows with a spacious view of the garden.</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Block/House: 180/ 206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wright ACT 2611</t>
+  </si>
+  <si>
+    <t>Beautiful lightfilled modern place you call home! Your designer home in North Wright, at a very attractive price point.
+Four bedrooms where the front lounge can also double as a guest bedroom, study or rumpus, this smart home comes with its own wireless doorbell so you can talk to neighbours or the postie dropping off parcels at your door, even if you are down the coast.
+But why would you be down the coast? You're living the dream in this perfect home!
+You walk into the house and the beautiful linear cladding guides you in, welcoming you. The kitchen bench with gorgeous stone tops, perfect to place that one random avocado just to let everyone know a cool family lives here- why not? A walk-in pantry and a well-organised laundry, with external access makes it easy to dry your clothes outdoor, or indoor. No more getting caught in narrow awkward positions with the laundry basket!
+Close your eyes every night listening to the sounds of imaginary waves, without losing the cleancut designer city feel of Canberra. Bedrooms are larger than normal, so you can have your own space, while being communal in living areas when you want to. Little fun accents around this house, like the stylish filament lighting in the living area and the ensuite, the black framed robes, brushed gold tapware and more!
+Access to existing playgrounds, natural open space areas, cycle and pedestrian networks connecting Wright, Combs and the Molonglo River Corridor, the p-6 Charles Weston School and public transport routes. STROMLO LEISURE CENTRE WITH SWIMMING POOL walking distance from your home!*
+*Check out Stromlo Leisure Centre and its facilities here - https://www.act.gov.au/our-canberra/latest-news/2019/november/new-swimming-pool-coming-to-stromlo-forest-park
+An eight-lane 50-metre competition pool capable of being split into 2 x 25-metre short course swimming pools
+A learn-to-swim pool
+A leisure pool
+A splash pad and slide
+A gym
+Family change rooms
+A creche
+A kiosk/cafe
+https://vimeo.com/375812210
+Close to the water always, spacious living and meals, opening up to an open patio, to soak in all the beautiful sun this season. This could be yours.
+Call Serene 0497 565 143 today.</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>89/5 Burnie Street, Lyons ACT 2606</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>Block/House: 1.02/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3	4	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$349,000+</t>
+  </si>
+  <si>
+    <t>Private Inspections strictly by appointment only. Please register here at https://www.trustedrealtors.com.au/forms. Buyers who do not register will not be allowed to view the house.
+Positioned in one of Woden's most sought after and tightly held modern complexes. This one bedroom apartment has the best in luxury and the latest in European stainless steel appliances, stone bench tops and high quality fixtures and fittings throughout.
+The modern kitchen flows seamlessly to the spacious open plan carpeted living area, flowing into a balcony. Other features include modern bathroom, reverse cycle heat and cool and one underground carpark.
+An outstanding opportunity!
+Development features:
+Large in ground pool and BBQ area
+Lift access
+Secure intercom entry
+Secure basement parking
+Stroll to Woden
+Express bus to Civic
+Apartment:
+Great floor plan
+One massive bedroom with built-in robes
+Spacious open plan living with stunning views
+Modern kitchen with stone bench tops
+Reverse-cycle air conditioning / heating
+High quality fittings and fixtures
+Covered outdoor entertaining area
+Storage area
+Lift access from carpark
+Body Corporate Rate $815.82 per quarter
+Rates $364 per quarter
+Rented for 1 year at $380/week.
+Approx Gross rental yield: 6%
+Nett rental yield: 4.5%
+Call Serene 0497565143 to see this compact beauty today!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -2426,7 +2929,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2506,6 +3009,21 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2520,7 +3038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2675,6 +3193,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2907,32 +3428,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.1328125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2968,7 +3489,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="61" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -2980,7 +3501,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="63" t="s">
@@ -3007,7 +3528,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="14.25">
+    <row r="3" spans="1:28" ht="13.9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3028,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="4"/>
@@ -3074,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
@@ -3099,7 +3620,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="14.25">
+    <row r="5" spans="1:28" ht="13.9">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3108,7 +3629,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="61" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -3120,7 +3641,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -3145,7 +3666,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25">
+    <row r="6" spans="1:28" ht="13.9">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3164,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3187,7 +3708,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="14.25">
+    <row r="7" spans="1:28" ht="13.9">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3206,7 +3727,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3229,7 +3750,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="14.25">
+    <row r="8" spans="1:28" ht="13.9">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3248,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3271,7 +3792,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="14.25">
+    <row r="9" spans="1:28" ht="13.9">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3280,7 +3801,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="32" t="s">
@@ -3290,7 +3811,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3313,7 +3834,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25">
+    <row r="10" spans="1:28" ht="13.9">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3332,7 +3853,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3355,7 +3876,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="14.25">
+    <row r="11" spans="1:28" ht="13.9">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3374,7 +3895,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -3397,7 +3918,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25">
+    <row r="12" spans="1:28" ht="13.9">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3406,7 +3927,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="32" t="s">
@@ -3416,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3439,7 +3960,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="14.25">
+    <row r="13" spans="1:28" ht="13.9">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3458,7 +3979,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3481,7 +4002,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="14.25">
+    <row r="14" spans="1:28" ht="13.9">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3490,7 +4011,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="32" t="s">
@@ -3500,7 +4021,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -3523,7 +4044,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="14.25">
+    <row r="15" spans="1:28" ht="13.9">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -3542,7 +4063,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3565,7 +4086,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="14.25">
+    <row r="16" spans="1:28" ht="13.9">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3574,7 +4095,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="32" t="s">
@@ -3584,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3607,7 +4128,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="14.25">
+    <row r="17" spans="1:28" ht="13.9">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3626,7 +4147,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -3649,7 +4170,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="14.25">
+    <row r="18" spans="1:28" ht="13.9">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3668,7 +4189,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -3691,7 +4212,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="14.25">
+    <row r="19" spans="1:28" ht="13.9">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3710,7 +4231,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -3733,7 +4254,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="14.25">
+    <row r="20" spans="1:28" ht="13.9">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3752,7 +4273,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -3775,7 +4296,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="14.25">
+    <row r="21" spans="1:28" ht="13.9">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3794,7 +4315,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3817,7 +4338,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="14.25">
+    <row r="22" spans="1:28" ht="13.9">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3826,7 +4347,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="32" t="s">
@@ -3836,7 +4357,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3859,7 +4380,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="14.25">
+    <row r="23" spans="1:28" ht="13.9">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3878,7 +4399,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -3901,7 +4422,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="14.25">
+    <row r="24" spans="1:28" ht="13.9">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -3920,7 +4441,7 @@
         <v>17</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3943,7 +4464,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="14.25">
+    <row r="25" spans="1:28" ht="13.9">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3952,7 +4473,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="61" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="32" t="s">
@@ -3985,7 +4506,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25">
+    <row r="26" spans="1:28" ht="13.9">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -4027,7 +4548,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="14.25">
+    <row r="27" spans="1:28" ht="13.9">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -4069,7 +4590,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="14.25">
+    <row r="28" spans="1:28" ht="13.9">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4111,7 +4632,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="14.25">
+    <row r="29" spans="1:28" ht="13.9">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -4153,7 +4674,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="14.25">
+    <row r="30" spans="1:28" ht="13.9">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -4162,7 +4683,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="32" t="s">
@@ -4195,7 +4716,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="14.25">
+    <row r="31" spans="1:28" ht="13.9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4237,7 +4758,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25">
+    <row r="32" spans="1:28" ht="13.9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4279,7 +4800,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="14.25">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4296,10 +4817,10 @@
         <v>9</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="14.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4316,7 +4837,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4336,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4356,7 +4877,7 @@
         <v>9</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4376,7 +4897,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4396,7 +4917,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4416,7 +4937,7 @@
         <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4436,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4456,7 +4977,7 @@
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4476,7 +4997,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4496,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4516,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4567,7 +5088,7 @@
         <v>212</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>83</v>
@@ -4596,7 +5117,7 @@
         <v>17</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4616,7 +5137,7 @@
         <v>17</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4636,7 +5157,7 @@
         <v>17</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4656,7 +5177,7 @@
         <v>17</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4676,7 +5197,7 @@
         <v>17</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -4684,7 +5205,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>7</v>
@@ -4693,10 +5214,10 @@
         <v>83</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75">
@@ -4704,19 +5225,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4724,7 +5245,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>7</v>
@@ -4733,10 +5254,10 @@
         <v>83</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4744,19 +5265,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4764,19 +5285,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4784,7 +5305,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>7</v>
@@ -4793,10 +5314,10 @@
         <v>83</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4804,19 +5325,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4824,19 +5345,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4844,19 +5365,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4864,10 +5385,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>83</v>
@@ -4876,7 +5397,7 @@
         <v>9</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4884,7 +5405,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>7</v>
@@ -4896,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4904,7 +5425,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>7</v>
@@ -4916,7 +5437,7 @@
         <v>9</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4924,13 +5445,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C65" t="s">
-        <v>459</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>83</v>
@@ -4939,7 +5458,7 @@
         <v>9</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -4947,10 +5466,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>83</v>
@@ -4967,10 +5486,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>108</v>
@@ -4979,77 +5498,383 @@
         <v>17</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.75">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>502</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>505</v>
+      </c>
+      <c r="D71" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>506</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>507</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>508</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>509</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>510</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>511</v>
+      </c>
+      <c r="D77" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D78" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="12.75">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>513</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="12.75">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>514</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.75">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>515</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="12.75">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="12.75">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.75">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>518</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="12.75">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>519</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B16" r:id="rId16"/>
-    <hyperlink ref="B17" r:id="rId17"/>
-    <hyperlink ref="B18" r:id="rId18"/>
-    <hyperlink ref="B19" r:id="rId19"/>
-    <hyperlink ref="B20" r:id="rId20"/>
-    <hyperlink ref="B21" r:id="rId21"/>
-    <hyperlink ref="B22" r:id="rId22"/>
-    <hyperlink ref="B23" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="H25" r:id="rId26"/>
-    <hyperlink ref="B26" r:id="rId27"/>
-    <hyperlink ref="H26" r:id="rId28"/>
-    <hyperlink ref="B27" r:id="rId29"/>
-    <hyperlink ref="H27" r:id="rId30"/>
-    <hyperlink ref="B28" r:id="rId31"/>
-    <hyperlink ref="H28" r:id="rId32"/>
-    <hyperlink ref="B29" r:id="rId33"/>
-    <hyperlink ref="H29" r:id="rId34"/>
-    <hyperlink ref="B30" r:id="rId35"/>
-    <hyperlink ref="H30" r:id="rId36"/>
-    <hyperlink ref="B31" r:id="rId37"/>
-    <hyperlink ref="H31" r:id="rId38"/>
-    <hyperlink ref="B32" r:id="rId39"/>
-    <hyperlink ref="H32" r:id="rId40"/>
-    <hyperlink ref="B33" r:id="rId41"/>
-    <hyperlink ref="B34" r:id="rId42"/>
-    <hyperlink ref="B38" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B48" r:id="rId45"/>
-    <hyperlink ref="B35" r:id="rId46"/>
-    <hyperlink ref="B52" r:id="rId47"/>
-    <hyperlink ref="B53" r:id="rId48"/>
-    <hyperlink ref="B55" r:id="rId49"/>
-    <hyperlink ref="B56" r:id="rId50"/>
-    <hyperlink ref="B57" r:id="rId51"/>
-    <hyperlink ref="B58" r:id="rId52"/>
-    <hyperlink ref="B61" r:id="rId53"/>
-    <hyperlink ref="B62" r:id="rId54"/>
-    <hyperlink ref="B63" r:id="rId55"/>
-    <hyperlink ref="B64" r:id="rId56"/>
-    <hyperlink ref="B65" r:id="rId57"/>
-    <hyperlink ref="B66" r:id="rId58"/>
-    <hyperlink ref="B67" r:id="rId59"/>
-    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/"/>
-    <hyperlink ref="B43" r:id="rId61"/>
-    <hyperlink ref="B44" r:id="rId62"/>
-    <hyperlink ref="B46" r:id="rId63"/>
-    <hyperlink ref="B54" r:id="rId64"/>
-    <hyperlink ref="B42" r:id="rId65"/>
-    <hyperlink ref="J2" r:id="rId66"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B38" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
@@ -5057,40 +5882,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="S64" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.73046875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.265625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.59765625" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.73046875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.59765625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.73046875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="23" max="31" width="19.265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35" ht="27.75">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -5170,7 +5995,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>73</v>
@@ -5265,13 +6090,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>79</v>
@@ -5360,7 +6185,7 @@
         <v>799000</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -5542,8 +6367,8 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>461</v>
+      <c r="B7" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>110</v>
@@ -5561,12 +6386,12 @@
         <v>111</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="69" t="s">
-        <v>465</v>
+      <c r="K7" s="72" t="s">
+        <v>462</v>
       </c>
       <c r="L7" s="28" t="s">
         <v>112</v>
@@ -5590,7 +6415,7 @@
         <v>110</v>
       </c>
       <c r="S7" s="66" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>108</v>
@@ -5691,7 +6516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>114</v>
@@ -5703,13 +6528,13 @@
         <v>197</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>93</v>
@@ -5765,8 +6590,8 @@
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>461</v>
+      <c r="B10" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>115</v>
@@ -5784,15 +6609,15 @@
         <v>117</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="69" t="s">
-        <v>470</v>
+      <c r="K10" s="72" t="s">
+        <v>467</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M10" s="33">
         <v>1</v>
@@ -5811,7 +6636,7 @@
         <v>115</v>
       </c>
       <c r="S10" s="67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T10" s="28" t="s">
         <v>108</v>
@@ -5918,7 +6743,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>125</v>
@@ -5936,15 +6761,15 @@
         <v>126</v>
       </c>
       <c r="H12" s="67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="69" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -5963,7 +6788,7 @@
         <v>127</v>
       </c>
       <c r="S12" s="67" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T12" s="28" t="s">
         <v>108</v>
@@ -5990,14 +6815,14 @@
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>461</v>
+      <c r="B13" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>196</v>
@@ -6009,14 +6834,14 @@
         <v>126</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="69" t="s">
-        <v>478</v>
+      <c r="K13" s="72" t="s">
+        <v>475</v>
       </c>
       <c r="L13" s="28" t="s">
         <v>129</v>
@@ -6038,7 +6863,7 @@
         <v>128</v>
       </c>
       <c r="S13" s="67" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T13" s="28" t="s">
         <v>108</v>
@@ -6068,7 +6893,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>130</v>
@@ -6086,17 +6911,17 @@
         <v>132</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="69" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
@@ -6115,7 +6940,7 @@
         <v>133</v>
       </c>
       <c r="S14" s="67" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="T14" s="28" t="s">
         <v>108</v>
@@ -6146,8 +6971,8 @@
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>461</v>
+      <c r="B15" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>101</v>
@@ -6165,12 +6990,12 @@
         <v>104</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="69" t="s">
-        <v>485</v>
+      <c r="K15" s="72" t="s">
+        <v>482</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>134</v>
@@ -6192,7 +7017,7 @@
         <v>107</v>
       </c>
       <c r="S15" s="67" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T15" s="28" t="s">
         <v>108</v>
@@ -6220,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>135</v>
@@ -6232,13 +7057,13 @@
         <v>197</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>93</v>
@@ -6367,8 +7192,8 @@
       <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>461</v>
+      <c r="B18" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>130</v>
@@ -6392,11 +7217,11 @@
         <v>93</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="69" t="s">
-        <v>489</v>
+      <c r="K18" s="72" t="s">
+        <v>486</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M18" s="28">
         <v>4</v>
@@ -6415,7 +7240,7 @@
         <v>133</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>108</v>
@@ -6443,7 +7268,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>101</v>
@@ -6660,7 +7485,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>147</v>
@@ -6678,17 +7503,17 @@
         <v>132</v>
       </c>
       <c r="H22" s="68" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="69" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L22" s="68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M22" s="28">
         <v>3</v>
@@ -6709,7 +7534,7 @@
         <v>147</v>
       </c>
       <c r="S22" s="68" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="T22" s="28" t="s">
         <v>108</v>
@@ -6741,13 +7566,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>148</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>102</v>
@@ -6813,8 +7638,8 @@
       <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>461</v>
+      <c r="B24" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>125</v>
@@ -6832,14 +7657,14 @@
         <v>126</v>
       </c>
       <c r="H24" s="68" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J24" s="28"/>
-      <c r="K24" s="69" t="s">
-        <v>462</v>
+      <c r="K24" s="72" t="s">
+        <v>459</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>153</v>
@@ -6863,7 +7688,7 @@
         <v>127</v>
       </c>
       <c r="S24" s="68" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="T24" s="28" t="s">
         <v>108</v>
@@ -7113,8 +7938,8 @@
       <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>461</v>
+      <c r="B28" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>167</v>
@@ -7132,17 +7957,17 @@
         <v>155</v>
       </c>
       <c r="H28" s="68" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J28" s="28"/>
-      <c r="K28" s="69" t="s">
-        <v>499</v>
+      <c r="K28" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="L28" s="68" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M28" s="28">
         <v>4</v>
@@ -7161,7 +7986,7 @@
         <v>167</v>
       </c>
       <c r="S28" s="68" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="T28" s="28" t="s">
         <v>83</v>
@@ -7264,7 +8089,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>170</v>
@@ -7276,13 +8101,13 @@
         <v>197</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>161</v>
       </c>
       <c r="H30" s="68" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>93</v>
@@ -7411,8 +8236,8 @@
       <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="69" t="s">
-        <v>461</v>
+      <c r="B32" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>174</v>
@@ -7430,17 +8255,17 @@
         <v>87</v>
       </c>
       <c r="H32" s="68" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="69" t="s">
+      <c r="K32" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="L32" s="68" t="s">
         <v>405</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>406</v>
       </c>
       <c r="M32" s="28">
         <v>4</v>
@@ -7459,7 +8284,7 @@
         <v>174</v>
       </c>
       <c r="S32" s="68" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="T32" s="28" t="s">
         <v>83</v>
@@ -7482,7 +8307,7 @@
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A33" s="28" t="s">
         <v>218</v>
       </c>
@@ -7541,7 +8366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A34" s="28" t="s">
         <v>229</v>
       </c>
@@ -7600,7 +8425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A35" s="28" t="s">
         <v>236</v>
       </c>
@@ -7659,7 +8484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A36" s="28" t="s">
         <v>242</v>
       </c>
@@ -7718,7 +8543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A37" s="28" t="s">
         <v>249</v>
       </c>
@@ -7777,7 +8602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A38" s="28" t="s">
         <v>255</v>
       </c>
@@ -7836,7 +8661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A39" s="28" t="s">
         <v>263</v>
       </c>
@@ -7895,7 +8720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A40" s="28" t="s">
         <v>266</v>
       </c>
@@ -7954,7 +8779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A41" s="28" t="s">
         <v>269</v>
       </c>
@@ -8013,7 +8838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A42" s="28" t="s">
         <v>278</v>
       </c>
@@ -8072,12 +8897,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A43" s="28" t="s">
         <v>282</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>283</v>
@@ -8131,7 +8956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A44" s="28" t="s">
         <v>291</v>
       </c>
@@ -8190,7 +9015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A45" s="28" t="s">
         <v>298</v>
       </c>
@@ -8249,12 +9074,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A46" s="28" t="s">
         <v>304</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>305</v>
@@ -8308,7 +9133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A47" s="28" t="s">
         <v>310</v>
       </c>
@@ -8367,7 +9192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A48" s="28" t="s">
         <v>316</v>
       </c>
@@ -8426,7 +9251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A49" s="28" t="s">
         <v>321</v>
       </c>
@@ -8485,7 +9310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A50" s="28" t="s">
         <v>327</v>
       </c>
@@ -8544,7 +9369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A51" s="28" t="s">
         <v>333</v>
       </c>
@@ -8603,7 +9428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A52" s="28" t="s">
         <v>339</v>
       </c>
@@ -8662,15 +9487,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A53" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>78</v>
@@ -8685,16 +9510,16 @@
         <v>87</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K53" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="L53" s="28" t="s">
         <v>370</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>371</v>
       </c>
       <c r="M53" s="28" t="s">
         <v>227</v>
@@ -8709,27 +9534,27 @@
         <v>222</v>
       </c>
       <c r="R53" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S53" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T53" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U53" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="12.75">
       <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" t="s">
         <v>373</v>
-      </c>
-      <c r="B54" t="s">
-        <v>452</v>
-      </c>
-      <c r="C54" t="s">
-        <v>374</v>
       </c>
       <c r="D54" t="s">
         <v>86</v>
@@ -8744,7 +9569,7 @@
         <v>155</v>
       </c>
       <c r="H54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I54" t="s">
         <v>221</v>
@@ -8768,27 +9593,27 @@
         <v>222</v>
       </c>
       <c r="R54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T54" t="s">
         <v>83</v>
       </c>
       <c r="U54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A55" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>78</v>
@@ -8803,16 +9628,16 @@
         <v>87</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K55" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" s="28" t="s">
         <v>380</v>
-      </c>
-      <c r="L55" s="28" t="s">
-        <v>381</v>
       </c>
       <c r="M55" s="28" t="s">
         <v>289</v>
@@ -8827,27 +9652,27 @@
         <v>222</v>
       </c>
       <c r="R55" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S55" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T55" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U55" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A56" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>384</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>78</v>
@@ -8862,16 +9687,16 @@
         <v>87</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K56" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>386</v>
       </c>
       <c r="M56" s="28" t="s">
         <v>289</v>
@@ -8886,51 +9711,51 @@
         <v>222</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S56" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T56" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A57" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>230</v>
       </c>
       <c r="G57" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>390</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>391</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K57" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" s="28" t="s">
         <v>392</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>393</v>
       </c>
       <c r="M57" s="28" t="s">
         <v>224</v>
@@ -8945,33 +9770,33 @@
         <v>222</v>
       </c>
       <c r="R57" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S57" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T57" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U57" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A58" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>80</v>
@@ -8980,16 +9805,16 @@
         <v>80</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K58" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="L58" s="28" t="s">
         <v>398</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>399</v>
       </c>
       <c r="M58" s="28" t="s">
         <v>225</v>
@@ -9004,27 +9829,27 @@
         <v>222</v>
       </c>
       <c r="R58" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S58" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T58" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U58" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A59" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>195</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>86</v>
@@ -9036,19 +9861,19 @@
         <v>230</v>
       </c>
       <c r="G59" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K59" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="L59" s="28" t="s">
         <v>405</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>406</v>
       </c>
       <c r="M59" s="28" t="s">
         <v>275</v>
@@ -9063,33 +9888,33 @@
         <v>222</v>
       </c>
       <c r="R59" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S59" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T59" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U59" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A60" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>408</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>409</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>293</v>
@@ -9098,16 +9923,16 @@
         <v>117</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K60" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="L60" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>413</v>
       </c>
       <c r="M60" s="28" t="s">
         <v>227</v>
@@ -9122,33 +9947,33 @@
         <v>222</v>
       </c>
       <c r="R60" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S60" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T60" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U60" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A61" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="B61" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>416</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>80</v>
@@ -9157,16 +9982,16 @@
         <v>111</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K61" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" s="28" t="s">
         <v>418</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>419</v>
       </c>
       <c r="M61" s="28" t="s">
         <v>225</v>
@@ -9181,27 +10006,27 @@
         <v>222</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S61" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T61" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U61" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="14.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A62" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>284</v>
@@ -9240,10 +10065,10 @@
         <v>289</v>
       </c>
       <c r="R62" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="S62" s="28" t="s">
         <v>422</v>
-      </c>
-      <c r="S62" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="T62" s="28" t="s">
         <v>83</v>
@@ -9252,15 +10077,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A63" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>86</v>
@@ -9275,7 +10100,7 @@
         <v>87</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>221</v>
@@ -9284,7 +10109,7 @@
         <v>222</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M63" s="28" t="s">
         <v>224</v>
@@ -9299,10 +10124,10 @@
         <v>227</v>
       </c>
       <c r="R63" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S63" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T63" s="28" t="s">
         <v>83</v>
@@ -9311,15 +10136,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A64" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>86</v>
@@ -9328,13 +10153,13 @@
         <v>79</v>
       </c>
       <c r="F64" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="H64" s="28" t="s">
         <v>432</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>433</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>221</v>
@@ -9358,10 +10183,10 @@
         <v>227</v>
       </c>
       <c r="R64" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S64" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T64" s="28" t="s">
         <v>83</v>
@@ -9370,15 +10195,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A65" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>435</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>436</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>86</v>
@@ -9393,7 +10218,7 @@
         <v>80</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I65" s="28" t="s">
         <v>221</v>
@@ -9402,7 +10227,7 @@
         <v>222</v>
       </c>
       <c r="L65" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M65" s="28" t="s">
         <v>224</v>
@@ -9417,10 +10242,10 @@
         <v>227</v>
       </c>
       <c r="R65" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S65" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T65" s="28" t="s">
         <v>83</v>
@@ -9429,15 +10254,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A66" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>440</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>441</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>86</v>
@@ -9452,16 +10277,16 @@
         <v>87</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>221</v>
       </c>
       <c r="K66" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" s="28" t="s">
         <v>443</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="M66" s="28" t="s">
         <v>224</v>
@@ -9476,10 +10301,10 @@
         <v>227</v>
       </c>
       <c r="R66" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S66" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T66" s="28" t="s">
         <v>83</v>
@@ -9488,15 +10313,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="14.25">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A67" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>446</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>447</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>86</v>
@@ -9504,46 +10329,1108 @@
       <c r="E67" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="72" t="s">
         <v>230</v>
       </c>
       <c r="G67" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H67" s="72" t="s">
         <v>448</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>449</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="K67" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="L67" s="28" t="s">
+      <c r="K67" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="M67" s="28" t="s">
+      <c r="M67" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="N67" s="28" t="s">
+      <c r="N67" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="P67" s="28" t="s">
+      <c r="P67" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="Q67" s="28" t="s">
+      <c r="Q67" s="72" t="s">
         <v>289</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="S67" s="28" t="s">
-        <v>451</v>
+        <v>446</v>
+      </c>
+      <c r="S67" s="72" t="s">
+        <v>521</v>
       </c>
       <c r="T67" s="28" t="s">
         <v>108</v>
       </c>
       <c r="U67" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="12.75">
+      <c r="A68" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>523</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" t="s">
+        <v>524</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" t="s">
+        <v>525</v>
+      </c>
+      <c r="I68" t="s">
+        <v>221</v>
+      </c>
+      <c r="K68" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" t="s">
+        <v>526</v>
+      </c>
+      <c r="M68" t="s">
+        <v>225</v>
+      </c>
+      <c r="N68" t="s">
+        <v>227</v>
+      </c>
+      <c r="P68" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>227</v>
+      </c>
+      <c r="R68" t="s">
+        <v>523</v>
+      </c>
+      <c r="S68" t="s">
+        <v>527</v>
+      </c>
+      <c r="T68" t="s">
+        <v>222</v>
+      </c>
+      <c r="U68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="12.75">
+      <c r="A69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>529</v>
+      </c>
+      <c r="D69" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>285</v>
+      </c>
+      <c r="H69" t="s">
+        <v>286</v>
+      </c>
+      <c r="I69" t="s">
+        <v>221</v>
+      </c>
+      <c r="K69" t="s">
+        <v>222</v>
+      </c>
+      <c r="L69" t="s">
+        <v>260</v>
+      </c>
+      <c r="M69" t="s">
+        <v>225</v>
+      </c>
+      <c r="N69" t="s">
+        <v>227</v>
+      </c>
+      <c r="P69" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>289</v>
+      </c>
+      <c r="R69" t="s">
+        <v>529</v>
+      </c>
+      <c r="S69" t="s">
+        <v>530</v>
+      </c>
+      <c r="T69" t="s">
+        <v>222</v>
+      </c>
+      <c r="U69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="12.75">
+      <c r="A70" t="s">
+        <v>531</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>532</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" t="s">
+        <v>533</v>
+      </c>
+      <c r="I70" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" t="s">
+        <v>534</v>
+      </c>
+      <c r="L70" t="s">
+        <v>535</v>
+      </c>
+      <c r="M70" t="s">
+        <v>227</v>
+      </c>
+      <c r="N70" t="s">
+        <v>227</v>
+      </c>
+      <c r="P70" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>227</v>
+      </c>
+      <c r="R70" t="s">
+        <v>532</v>
+      </c>
+      <c r="S70" t="s">
+        <v>536</v>
+      </c>
+      <c r="T70" t="s">
+        <v>222</v>
+      </c>
+      <c r="U70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="12.75">
+      <c r="A71" t="s">
+        <v>537</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" t="s">
+        <v>539</v>
+      </c>
+      <c r="I71" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" t="s">
+        <v>324</v>
+      </c>
+      <c r="L71" t="s">
+        <v>540</v>
+      </c>
+      <c r="M71" t="s">
+        <v>275</v>
+      </c>
+      <c r="N71" t="s">
+        <v>227</v>
+      </c>
+      <c r="P71" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>227</v>
+      </c>
+      <c r="R71" t="s">
+        <v>538</v>
+      </c>
+      <c r="S71" t="s">
+        <v>541</v>
+      </c>
+      <c r="T71" t="s">
+        <v>222</v>
+      </c>
+      <c r="U71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="12.75">
+      <c r="A72" t="s">
+        <v>542</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" t="s">
+        <v>543</v>
+      </c>
+      <c r="I72" t="s">
+        <v>221</v>
+      </c>
+      <c r="K72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L72" t="s">
+        <v>260</v>
+      </c>
+      <c r="M72" t="s">
+        <v>224</v>
+      </c>
+      <c r="N72" t="s">
+        <v>227</v>
+      </c>
+      <c r="P72" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>227</v>
+      </c>
+      <c r="R72" t="s">
+        <v>234</v>
+      </c>
+      <c r="S72" t="s">
+        <v>544</v>
+      </c>
+      <c r="T72" t="s">
+        <v>222</v>
+      </c>
+      <c r="U72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="12.75">
+      <c r="A73" t="s">
+        <v>545</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>524</v>
+      </c>
+      <c r="F73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s">
+        <v>546</v>
+      </c>
+      <c r="I73" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" t="s">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s">
+        <v>547</v>
+      </c>
+      <c r="M73" t="s">
+        <v>225</v>
+      </c>
+      <c r="N73" t="s">
+        <v>227</v>
+      </c>
+      <c r="P73" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>227</v>
+      </c>
+      <c r="R73" t="s">
+        <v>240</v>
+      </c>
+      <c r="S73" t="s">
+        <v>548</v>
+      </c>
+      <c r="T73" t="s">
+        <v>222</v>
+      </c>
+      <c r="U73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="12.75">
+      <c r="A74" t="s">
+        <v>549</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>550</v>
+      </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" t="s">
+        <v>551</v>
+      </c>
+      <c r="I74" t="s">
+        <v>221</v>
+      </c>
+      <c r="K74" t="s">
+        <v>552</v>
+      </c>
+      <c r="L74" t="s">
+        <v>553</v>
+      </c>
+      <c r="M74" t="s">
+        <v>224</v>
+      </c>
+      <c r="N74" t="s">
+        <v>227</v>
+      </c>
+      <c r="P74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>222</v>
+      </c>
+      <c r="R74" t="s">
+        <v>550</v>
+      </c>
+      <c r="S74" t="s">
+        <v>554</v>
+      </c>
+      <c r="T74" t="s">
+        <v>222</v>
+      </c>
+      <c r="U74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="12.75">
+      <c r="A75" t="s">
+        <v>555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>556</v>
+      </c>
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" t="s">
+        <v>557</v>
+      </c>
+      <c r="I75" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" t="s">
+        <v>558</v>
+      </c>
+      <c r="L75" t="s">
+        <v>559</v>
+      </c>
+      <c r="M75" t="s">
+        <v>225</v>
+      </c>
+      <c r="N75" t="s">
+        <v>227</v>
+      </c>
+      <c r="P75" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>227</v>
+      </c>
+      <c r="R75" t="s">
+        <v>556</v>
+      </c>
+      <c r="S75" t="s">
+        <v>560</v>
+      </c>
+      <c r="T75" t="s">
+        <v>222</v>
+      </c>
+      <c r="U75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="12.75">
+      <c r="A76" t="s">
+        <v>561</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>562</v>
+      </c>
+      <c r="I76" t="s">
+        <v>221</v>
+      </c>
+      <c r="K76" t="s">
+        <v>563</v>
+      </c>
+      <c r="L76" t="s">
+        <v>564</v>
+      </c>
+      <c r="M76" t="s">
+        <v>275</v>
+      </c>
+      <c r="N76" t="s">
+        <v>225</v>
+      </c>
+      <c r="P76" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>227</v>
+      </c>
+      <c r="R76" t="s">
+        <v>240</v>
+      </c>
+      <c r="S76" t="s">
+        <v>565</v>
+      </c>
+      <c r="T76" t="s">
+        <v>222</v>
+      </c>
+      <c r="U76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="12.75">
+      <c r="A77" t="s">
+        <v>566</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>567</v>
+      </c>
+      <c r="D77" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" t="s">
+        <v>230</v>
+      </c>
+      <c r="G77" t="s">
+        <v>568</v>
+      </c>
+      <c r="H77" t="s">
+        <v>569</v>
+      </c>
+      <c r="I77" t="s">
+        <v>221</v>
+      </c>
+      <c r="K77" t="s">
+        <v>570</v>
+      </c>
+      <c r="L77" t="s">
+        <v>571</v>
+      </c>
+      <c r="M77" t="s">
+        <v>227</v>
+      </c>
+      <c r="N77" t="s">
+        <v>227</v>
+      </c>
+      <c r="P77" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>289</v>
+      </c>
+      <c r="R77" t="s">
+        <v>567</v>
+      </c>
+      <c r="S77" t="s">
+        <v>572</v>
+      </c>
+      <c r="T77" t="s">
+        <v>222</v>
+      </c>
+      <c r="U77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="12.75">
+      <c r="A78" t="s">
+        <v>573</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>574</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
+        <v>230</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" t="s">
+        <v>575</v>
+      </c>
+      <c r="I78" t="s">
+        <v>221</v>
+      </c>
+      <c r="K78" t="s">
+        <v>459</v>
+      </c>
+      <c r="L78" t="s">
+        <v>157</v>
+      </c>
+      <c r="M78" t="s">
+        <v>224</v>
+      </c>
+      <c r="N78" t="s">
+        <v>227</v>
+      </c>
+      <c r="P78" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>227</v>
+      </c>
+      <c r="R78" t="s">
+        <v>574</v>
+      </c>
+      <c r="S78" t="s">
+        <v>576</v>
+      </c>
+      <c r="T78" t="s">
+        <v>222</v>
+      </c>
+      <c r="U78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="12.75">
+      <c r="A79" t="s">
+        <v>577</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>578</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" t="s">
+        <v>230</v>
+      </c>
+      <c r="H79" t="s">
+        <v>579</v>
+      </c>
+      <c r="I79" t="s">
+        <v>221</v>
+      </c>
+      <c r="K79" t="s">
+        <v>580</v>
+      </c>
+      <c r="L79" t="s">
+        <v>581</v>
+      </c>
+      <c r="M79" t="s">
+        <v>227</v>
+      </c>
+      <c r="N79" t="s">
+        <v>227</v>
+      </c>
+      <c r="P79" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>222</v>
+      </c>
+      <c r="R79" t="s">
+        <v>578</v>
+      </c>
+      <c r="S79" t="s">
+        <v>582</v>
+      </c>
+      <c r="T79" t="s">
+        <v>222</v>
+      </c>
+      <c r="U79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="12.75">
+      <c r="A80" t="s">
+        <v>583</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>584</v>
+      </c>
+      <c r="D80" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" t="s">
+        <v>258</v>
+      </c>
+      <c r="G80" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80" t="s">
+        <v>585</v>
+      </c>
+      <c r="I80" t="s">
+        <v>221</v>
+      </c>
+      <c r="K80" t="s">
+        <v>586</v>
+      </c>
+      <c r="L80" t="s">
+        <v>587</v>
+      </c>
+      <c r="M80" t="s">
+        <v>225</v>
+      </c>
+      <c r="N80" t="s">
+        <v>227</v>
+      </c>
+      <c r="P80" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>227</v>
+      </c>
+      <c r="R80" t="s">
+        <v>588</v>
+      </c>
+      <c r="S80" t="s">
+        <v>589</v>
+      </c>
+      <c r="T80" t="s">
+        <v>222</v>
+      </c>
+      <c r="U80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="12.75">
+      <c r="A81" t="s">
+        <v>590</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>591</v>
+      </c>
+      <c r="I81" t="s">
+        <v>221</v>
+      </c>
+      <c r="K81" t="s">
+        <v>592</v>
+      </c>
+      <c r="L81" t="s">
+        <v>593</v>
+      </c>
+      <c r="M81" t="s">
+        <v>275</v>
+      </c>
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+      <c r="P81" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>227</v>
+      </c>
+      <c r="R81" t="s">
+        <v>240</v>
+      </c>
+      <c r="S81" t="s">
+        <v>594</v>
+      </c>
+      <c r="T81" t="s">
+        <v>222</v>
+      </c>
+      <c r="U81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="12.75">
+      <c r="A82" t="s">
+        <v>595</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" t="s">
+        <v>596</v>
+      </c>
+      <c r="I82" t="s">
+        <v>221</v>
+      </c>
+      <c r="K82" t="s">
+        <v>597</v>
+      </c>
+      <c r="L82" t="s">
+        <v>598</v>
+      </c>
+      <c r="M82" t="s">
+        <v>224</v>
+      </c>
+      <c r="N82" t="s">
+        <v>225</v>
+      </c>
+      <c r="P82" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>227</v>
+      </c>
+      <c r="R82" t="s">
+        <v>280</v>
+      </c>
+      <c r="S82" t="s">
+        <v>599</v>
+      </c>
+      <c r="T82" t="s">
+        <v>222</v>
+      </c>
+      <c r="U82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="12.75">
+      <c r="A83" t="s">
+        <v>600</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s">
+        <v>230</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83" t="s">
+        <v>221</v>
+      </c>
+      <c r="K83" t="s">
+        <v>475</v>
+      </c>
+      <c r="L83" t="s">
+        <v>601</v>
+      </c>
+      <c r="M83" t="s">
+        <v>224</v>
+      </c>
+      <c r="N83" t="s">
+        <v>227</v>
+      </c>
+      <c r="P83" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>289</v>
+      </c>
+      <c r="R83" t="s">
+        <v>234</v>
+      </c>
+      <c r="S83" t="s">
+        <v>602</v>
+      </c>
+      <c r="T83" t="s">
+        <v>222</v>
+      </c>
+      <c r="U83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="12.75">
+      <c r="A84" t="s">
+        <v>603</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" t="s">
+        <v>120</v>
+      </c>
+      <c r="H84" t="s">
+        <v>604</v>
+      </c>
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="K84" t="s">
+        <v>586</v>
+      </c>
+      <c r="L84" t="s">
+        <v>587</v>
+      </c>
+      <c r="M84" t="s">
+        <v>224</v>
+      </c>
+      <c r="N84" t="s">
+        <v>227</v>
+      </c>
+      <c r="P84" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>227</v>
+      </c>
+      <c r="R84" t="s">
+        <v>605</v>
+      </c>
+      <c r="S84" t="s">
+        <v>606</v>
+      </c>
+      <c r="T84" t="s">
+        <v>222</v>
+      </c>
+      <c r="U84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="12.75">
+      <c r="A85" t="s">
+        <v>607</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>608</v>
+      </c>
+      <c r="D85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" t="s">
+        <v>520</v>
+      </c>
+      <c r="G85" t="s">
+        <v>609</v>
+      </c>
+      <c r="H85" t="s">
+        <v>610</v>
+      </c>
+      <c r="I85" t="s">
+        <v>221</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="s">
+        <v>289</v>
+      </c>
+      <c r="N85" t="s">
+        <v>289</v>
+      </c>
+      <c r="P85" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>222</v>
+      </c>
+      <c r="R85" t="s">
+        <v>608</v>
+      </c>
+      <c r="S85" t="s">
+        <v>613</v>
+      </c>
+      <c r="T85" t="s">
+        <v>222</v>
+      </c>
+      <c r="U85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9551,7 +11438,7 @@
   <customSheetViews>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33">
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -9561,7 +11448,7 @@
     </customSheetView>
     <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
@@ -9570,56 +11457,56 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5"/>
-    <hyperlink ref="U6" r:id="rId6"/>
-    <hyperlink ref="S7" r:id="rId7"/>
-    <hyperlink ref="U7" r:id="rId8"/>
-    <hyperlink ref="S8" r:id="rId9"/>
-    <hyperlink ref="U8" r:id="rId10"/>
-    <hyperlink ref="S9" r:id="rId11"/>
-    <hyperlink ref="U9" r:id="rId12"/>
-    <hyperlink ref="S10" r:id="rId13"/>
-    <hyperlink ref="U10" r:id="rId14"/>
-    <hyperlink ref="S11" r:id="rId15"/>
-    <hyperlink ref="U11" r:id="rId16"/>
-    <hyperlink ref="S12" r:id="rId17"/>
-    <hyperlink ref="U12" r:id="rId18"/>
-    <hyperlink ref="S13" r:id="rId19"/>
-    <hyperlink ref="U13" r:id="rId20"/>
-    <hyperlink ref="S14" r:id="rId21"/>
-    <hyperlink ref="U14" r:id="rId22"/>
-    <hyperlink ref="S15" r:id="rId23"/>
-    <hyperlink ref="U15" r:id="rId24"/>
-    <hyperlink ref="S16" r:id="rId25"/>
-    <hyperlink ref="U16" r:id="rId26"/>
-    <hyperlink ref="S17" r:id="rId27"/>
-    <hyperlink ref="U17" r:id="rId28"/>
-    <hyperlink ref="S18" r:id="rId29"/>
-    <hyperlink ref="U18" r:id="rId30"/>
-    <hyperlink ref="S19" r:id="rId31"/>
-    <hyperlink ref="U19" r:id="rId32"/>
-    <hyperlink ref="S20" r:id="rId33"/>
-    <hyperlink ref="U20" r:id="rId34"/>
-    <hyperlink ref="S21" r:id="rId35"/>
-    <hyperlink ref="U21" r:id="rId36"/>
-    <hyperlink ref="S22" r:id="rId37"/>
-    <hyperlink ref="U22" r:id="rId38"/>
-    <hyperlink ref="S23" r:id="rId39"/>
-    <hyperlink ref="U23" r:id="rId40"/>
-    <hyperlink ref="S24" r:id="rId41"/>
-    <hyperlink ref="U24" r:id="rId42"/>
-    <hyperlink ref="S25" r:id="rId43"/>
-    <hyperlink ref="S26" r:id="rId44"/>
-    <hyperlink ref="S27" r:id="rId45"/>
-    <hyperlink ref="S28" r:id="rId46"/>
-    <hyperlink ref="S29" r:id="rId47"/>
-    <hyperlink ref="S30" r:id="rId48"/>
-    <hyperlink ref="S31" r:id="rId49"/>
-    <hyperlink ref="S32" r:id="rId50"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="U6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="S7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="S8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="U8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="S9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="U9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="S10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="U10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="S11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="U11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="S12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="U12" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="S13" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="U13" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="S14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="U14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="S15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="U15" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="S16" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="U16" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="S17" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="U17" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="S18" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="U18" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="S19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="U19" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="S20" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="U20" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="S21" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="U21" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="S22" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="U22" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="S23" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="U23" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="S24" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="U24" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="S25" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="S26" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="S27" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="S28" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="S29" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="S30" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="S31" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="S32" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
@@ -9627,7 +11514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9635,23 +11522,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.265625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.73046875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.3984375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.265625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" customHeight="1">
@@ -9763,27 +11650,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15">
+    <row r="1" spans="1:26" ht="13.9">
       <c r="A1" s="45" t="s">
         <v>175</v>
       </c>
@@ -9901,29 +11788,29 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>350</v>
-      </c>
       <c r="E6" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E921D-2A27-4A64-842E-C75FF4498955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4D70A-DB1D-4B22-AB91-82331DAFC9B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="632">
   <si>
     <t>ID</t>
   </si>
@@ -2301,9 +2301,6 @@
     <t>163 Oodgeroo Avenue, Franklin ACT 2913</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>Block/House: 330/ 146</t>
   </si>
   <si>
@@ -2744,6 +2741,63 @@
 Nett rental yield: 4.5%
 Call Serene 0497565143 to see this compact beauty today!</t>
   </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6800&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6802&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6804&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6806&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6810&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6812&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6814&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6816&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6818&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6820&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6822&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6824&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6826&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6828&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6830&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6832&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6834&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6836&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/property/227-sculthorpe-avenue-whitlam-act-2611/</t>
+  </si>
 </sst>
 </file>
 
@@ -2752,7 +2806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2928,8 +2982,14 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3024,6 +3084,12 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3038,7 +3104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3196,6 +3262,8 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3432,11 +3500,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB85"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5508,8 +5576,11 @@
       <c r="B68" t="s">
         <v>502</v>
       </c>
+      <c r="C68" s="62" t="s">
+        <v>629</v>
+      </c>
       <c r="D68" s="70" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -5525,8 +5596,11 @@
       <c r="B69" t="s">
         <v>503</v>
       </c>
+      <c r="C69" s="62" t="s">
+        <v>613</v>
+      </c>
       <c r="D69" s="70" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -5542,8 +5616,11 @@
       <c r="B70" t="s">
         <v>504</v>
       </c>
+      <c r="C70" t="s">
+        <v>614</v>
+      </c>
       <c r="D70" s="70" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -5559,8 +5636,11 @@
       <c r="B71" t="s">
         <v>505</v>
       </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
       <c r="D71" s="70" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
@@ -5576,8 +5656,11 @@
       <c r="B72" t="s">
         <v>506</v>
       </c>
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
       <c r="D72" s="70" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G72" t="s">
         <v>9</v>
@@ -5593,8 +5676,11 @@
       <c r="B73" t="s">
         <v>507</v>
       </c>
+      <c r="C73" t="s">
+        <v>630</v>
+      </c>
       <c r="D73" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
@@ -5610,8 +5696,11 @@
       <c r="B74" t="s">
         <v>508</v>
       </c>
+      <c r="C74" t="s">
+        <v>617</v>
+      </c>
       <c r="D74" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
@@ -5627,8 +5716,11 @@
       <c r="B75" t="s">
         <v>509</v>
       </c>
+      <c r="C75" t="s">
+        <v>618</v>
+      </c>
       <c r="D75" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
@@ -5644,8 +5736,11 @@
       <c r="B76" t="s">
         <v>510</v>
       </c>
+      <c r="C76" t="s">
+        <v>619</v>
+      </c>
       <c r="D76" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
@@ -5661,8 +5756,11 @@
       <c r="B77" t="s">
         <v>511</v>
       </c>
+      <c r="C77" t="s">
+        <v>620</v>
+      </c>
       <c r="D77" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -5678,8 +5776,11 @@
       <c r="B78" t="s">
         <v>512</v>
       </c>
+      <c r="C78" t="s">
+        <v>621</v>
+      </c>
       <c r="D78" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -5695,8 +5796,11 @@
       <c r="B79" t="s">
         <v>513</v>
       </c>
+      <c r="C79" t="s">
+        <v>622</v>
+      </c>
       <c r="D79" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -5712,8 +5816,11 @@
       <c r="B80" t="s">
         <v>514</v>
       </c>
+      <c r="C80" t="s">
+        <v>623</v>
+      </c>
       <c r="D80" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -5729,8 +5836,11 @@
       <c r="B81" t="s">
         <v>515</v>
       </c>
+      <c r="C81" t="s">
+        <v>624</v>
+      </c>
       <c r="D81" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
@@ -5746,8 +5856,11 @@
       <c r="B82" t="s">
         <v>516</v>
       </c>
+      <c r="C82" t="s">
+        <v>625</v>
+      </c>
       <c r="D82" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
@@ -5763,8 +5876,11 @@
       <c r="B83" t="s">
         <v>517</v>
       </c>
+      <c r="C83" t="s">
+        <v>626</v>
+      </c>
       <c r="D83" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
@@ -5780,8 +5896,11 @@
       <c r="B84" t="s">
         <v>518</v>
       </c>
+      <c r="C84" t="s">
+        <v>627</v>
+      </c>
       <c r="D84" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -5797,13 +5916,33 @@
       <c r="B85" t="s">
         <v>519</v>
       </c>
+      <c r="C85" t="s">
+        <v>628</v>
+      </c>
       <c r="D85" s="71" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>631</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5875,9 +6014,11 @@
     <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
+    <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -5886,10 +6027,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI85"/>
+  <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView topLeftCell="S64" workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10372,12 +10513,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="12.75">
+    <row r="68" spans="1:21" ht="13.5">
       <c r="A68" t="s">
         <v>522</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s">
         <v>523</v>
@@ -10386,7 +10527,7 @@
         <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
         <v>80</v>
@@ -10395,7 +10536,7 @@
         <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I68" t="s">
         <v>221</v>
@@ -10404,7 +10545,7 @@
         <v>222</v>
       </c>
       <c r="L68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M68" t="s">
         <v>225</v>
@@ -10422,24 +10563,24 @@
         <v>523</v>
       </c>
       <c r="S68" t="s">
-        <v>527</v>
-      </c>
-      <c r="T68" t="s">
-        <v>222</v>
+        <v>526</v>
+      </c>
+      <c r="T68" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="U68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="12.75">
+    <row r="69" spans="1:21" ht="13.5">
       <c r="A69" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" t="s">
+        <v>450</v>
+      </c>
+      <c r="C69" t="s">
         <v>528</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>529</v>
       </c>
       <c r="D69" t="s">
         <v>284</v>
@@ -10478,27 +10619,27 @@
         <v>289</v>
       </c>
       <c r="R69" t="s">
+        <v>528</v>
+      </c>
+      <c r="S69" t="s">
         <v>529</v>
       </c>
-      <c r="S69" t="s">
-        <v>530</v>
-      </c>
-      <c r="T69" t="s">
-        <v>222</v>
+      <c r="T69" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="U69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="12.75">
+    <row r="70" spans="1:21" ht="13.5">
       <c r="A70" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" t="s">
+        <v>450</v>
+      </c>
+      <c r="C70" t="s">
         <v>531</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>532</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
@@ -10513,16 +10654,16 @@
         <v>120</v>
       </c>
       <c r="H70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I70" t="s">
         <v>221</v>
       </c>
       <c r="K70" t="s">
+        <v>533</v>
+      </c>
+      <c r="L70" t="s">
         <v>534</v>
-      </c>
-      <c r="L70" t="s">
-        <v>535</v>
       </c>
       <c r="M70" t="s">
         <v>227</v>
@@ -10537,27 +10678,27 @@
         <v>227</v>
       </c>
       <c r="R70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S70" t="s">
-        <v>536</v>
-      </c>
-      <c r="T70" t="s">
-        <v>222</v>
+        <v>535</v>
+      </c>
+      <c r="T70" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="U70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="12.75">
+    <row r="71" spans="1:21" ht="13.5">
       <c r="A71" t="s">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s">
+        <v>450</v>
+      </c>
+      <c r="C71" t="s">
         <v>537</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>538</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
@@ -10572,7 +10713,7 @@
         <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I71" t="s">
         <v>221</v>
@@ -10581,7 +10722,7 @@
         <v>324</v>
       </c>
       <c r="L71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M71" t="s">
         <v>275</v>
@@ -10596,24 +10737,24 @@
         <v>227</v>
       </c>
       <c r="R71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S71" t="s">
-        <v>541</v>
-      </c>
-      <c r="T71" t="s">
-        <v>222</v>
+        <v>540</v>
+      </c>
+      <c r="T71" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="U71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="12.75">
+    <row r="72" spans="1:21" ht="13.5">
       <c r="A72" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C72" t="s">
         <v>101</v>
@@ -10631,7 +10772,7 @@
         <v>104</v>
       </c>
       <c r="H72" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I72" t="s">
         <v>221</v>
@@ -10658,21 +10799,21 @@
         <v>234</v>
       </c>
       <c r="S72" t="s">
-        <v>544</v>
-      </c>
-      <c r="T72" t="s">
-        <v>222</v>
+        <v>543</v>
+      </c>
+      <c r="T72" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="U72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="12.75">
+    <row r="73" spans="1:21" ht="13.5">
       <c r="A73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -10681,7 +10822,7 @@
         <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
         <v>80</v>
@@ -10690,7 +10831,7 @@
         <v>87</v>
       </c>
       <c r="H73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I73" t="s">
         <v>221</v>
@@ -10699,7 +10840,7 @@
         <v>471</v>
       </c>
       <c r="L73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M73" t="s">
         <v>225</v>
@@ -10717,24 +10858,24 @@
         <v>240</v>
       </c>
       <c r="S73" t="s">
-        <v>548</v>
-      </c>
-      <c r="T73" t="s">
-        <v>222</v>
+        <v>547</v>
+      </c>
+      <c r="T73" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="12.75">
+    <row r="74" spans="1:21" ht="13.5">
       <c r="A74" t="s">
+        <v>548</v>
+      </c>
+      <c r="B74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" t="s">
         <v>549</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>550</v>
       </c>
       <c r="D74" t="s">
         <v>284</v>
@@ -10749,16 +10890,16 @@
         <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I74" t="s">
         <v>221</v>
       </c>
       <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
         <v>552</v>
-      </c>
-      <c r="L74" t="s">
-        <v>553</v>
       </c>
       <c r="M74" t="s">
         <v>224</v>
@@ -10773,27 +10914,27 @@
         <v>222</v>
       </c>
       <c r="R74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S74" t="s">
-        <v>554</v>
-      </c>
-      <c r="T74" t="s">
-        <v>222</v>
+        <v>553</v>
+      </c>
+      <c r="T74" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="12.75">
+    <row r="75" spans="1:21" ht="13.5">
       <c r="A75" t="s">
+        <v>554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" t="s">
         <v>555</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="s">
-        <v>556</v>
       </c>
       <c r="D75" t="s">
         <v>86</v>
@@ -10808,16 +10949,16 @@
         <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I75" t="s">
         <v>221</v>
       </c>
       <c r="K75" t="s">
+        <v>557</v>
+      </c>
+      <c r="L75" t="s">
         <v>558</v>
-      </c>
-      <c r="L75" t="s">
-        <v>559</v>
       </c>
       <c r="M75" t="s">
         <v>225</v>
@@ -10832,24 +10973,24 @@
         <v>227</v>
       </c>
       <c r="R75" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S75" t="s">
-        <v>560</v>
-      </c>
-      <c r="T75" t="s">
-        <v>222</v>
+        <v>559</v>
+      </c>
+      <c r="T75" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="12.75">
+    <row r="76" spans="1:21" ht="13.5">
       <c r="A76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
@@ -10867,16 +11008,16 @@
         <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I76" t="s">
         <v>221</v>
       </c>
       <c r="K76" t="s">
+        <v>562</v>
+      </c>
+      <c r="L76" t="s">
         <v>563</v>
-      </c>
-      <c r="L76" t="s">
-        <v>564</v>
       </c>
       <c r="M76" t="s">
         <v>275</v>
@@ -10894,24 +11035,24 @@
         <v>240</v>
       </c>
       <c r="S76" t="s">
-        <v>565</v>
-      </c>
-      <c r="T76" t="s">
-        <v>222</v>
+        <v>564</v>
+      </c>
+      <c r="T76" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U76" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="12.75">
+    <row r="77" spans="1:21" ht="13.5">
       <c r="A77" t="s">
+        <v>565</v>
+      </c>
+      <c r="B77" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" t="s">
         <v>566</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>567</v>
       </c>
       <c r="D77" t="s">
         <v>284</v>
@@ -10923,19 +11064,19 @@
         <v>230</v>
       </c>
       <c r="G77" t="s">
+        <v>567</v>
+      </c>
+      <c r="H77" t="s">
         <v>568</v>
-      </c>
-      <c r="H77" t="s">
-        <v>569</v>
       </c>
       <c r="I77" t="s">
         <v>221</v>
       </c>
       <c r="K77" t="s">
+        <v>569</v>
+      </c>
+      <c r="L77" t="s">
         <v>570</v>
-      </c>
-      <c r="L77" t="s">
-        <v>571</v>
       </c>
       <c r="M77" t="s">
         <v>227</v>
@@ -10950,27 +11091,27 @@
         <v>289</v>
       </c>
       <c r="R77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S77" t="s">
-        <v>572</v>
-      </c>
-      <c r="T77" t="s">
-        <v>222</v>
+        <v>571</v>
+      </c>
+      <c r="T77" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="12.75">
+    <row r="78" spans="1:21" ht="13.5">
       <c r="A78" t="s">
+        <v>572</v>
+      </c>
+      <c r="B78" t="s">
+        <v>450</v>
+      </c>
+      <c r="C78" t="s">
         <v>573</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>574</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
@@ -10985,7 +11126,7 @@
         <v>104</v>
       </c>
       <c r="H78" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I78" t="s">
         <v>221</v>
@@ -11009,27 +11150,27 @@
         <v>227</v>
       </c>
       <c r="R78" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S78" t="s">
-        <v>576</v>
-      </c>
-      <c r="T78" t="s">
-        <v>222</v>
+        <v>575</v>
+      </c>
+      <c r="T78" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U78" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="12.75">
+    <row r="79" spans="1:21" ht="13.5">
       <c r="A79" t="s">
+        <v>576</v>
+      </c>
+      <c r="B79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C79" t="s">
         <v>577</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>578</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
@@ -11044,16 +11185,16 @@
         <v>230</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I79" t="s">
         <v>221</v>
       </c>
       <c r="K79" t="s">
+        <v>579</v>
+      </c>
+      <c r="L79" t="s">
         <v>580</v>
-      </c>
-      <c r="L79" t="s">
-        <v>581</v>
       </c>
       <c r="M79" t="s">
         <v>227</v>
@@ -11068,27 +11209,27 @@
         <v>222</v>
       </c>
       <c r="R79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S79" t="s">
-        <v>582</v>
-      </c>
-      <c r="T79" t="s">
-        <v>222</v>
+        <v>581</v>
+      </c>
+      <c r="T79" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U79" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="12.75">
+    <row r="80" spans="1:21" ht="13.5">
       <c r="A80" t="s">
+        <v>582</v>
+      </c>
+      <c r="B80" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" t="s">
         <v>583</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>584</v>
       </c>
       <c r="D80" t="s">
         <v>284</v>
@@ -11103,16 +11244,16 @@
         <v>271</v>
       </c>
       <c r="H80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I80" t="s">
         <v>221</v>
       </c>
       <c r="K80" t="s">
+        <v>585</v>
+      </c>
+      <c r="L80" t="s">
         <v>586</v>
-      </c>
-      <c r="L80" t="s">
-        <v>587</v>
       </c>
       <c r="M80" t="s">
         <v>225</v>
@@ -11127,24 +11268,24 @@
         <v>227</v>
       </c>
       <c r="R80" t="s">
+        <v>587</v>
+      </c>
+      <c r="S80" t="s">
         <v>588</v>
       </c>
-      <c r="S80" t="s">
-        <v>589</v>
-      </c>
-      <c r="T80" t="s">
-        <v>222</v>
+      <c r="T80" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="12.75">
+    <row r="81" spans="1:21" ht="13.5">
       <c r="A81" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C81" t="s">
         <v>91</v>
@@ -11162,16 +11303,16 @@
         <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I81" t="s">
         <v>221</v>
       </c>
       <c r="K81" t="s">
+        <v>591</v>
+      </c>
+      <c r="L81" t="s">
         <v>592</v>
-      </c>
-      <c r="L81" t="s">
-        <v>593</v>
       </c>
       <c r="M81" t="s">
         <v>275</v>
@@ -11189,21 +11330,21 @@
         <v>240</v>
       </c>
       <c r="S81" t="s">
-        <v>594</v>
-      </c>
-      <c r="T81" t="s">
-        <v>222</v>
+        <v>593</v>
+      </c>
+      <c r="T81" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U81" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="12.75">
+    <row r="82" spans="1:21" ht="13.5">
       <c r="A82" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C82" t="s">
         <v>130</v>
@@ -11221,16 +11362,16 @@
         <v>132</v>
       </c>
       <c r="H82" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I82" t="s">
         <v>221</v>
       </c>
       <c r="K82" t="s">
+        <v>596</v>
+      </c>
+      <c r="L82" t="s">
         <v>597</v>
-      </c>
-      <c r="L82" t="s">
-        <v>598</v>
       </c>
       <c r="M82" t="s">
         <v>224</v>
@@ -11248,21 +11389,21 @@
         <v>280</v>
       </c>
       <c r="S82" t="s">
-        <v>599</v>
-      </c>
-      <c r="T82" t="s">
-        <v>222</v>
+        <v>598</v>
+      </c>
+      <c r="T82" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="12.75">
+    <row r="83" spans="1:21" ht="13.5">
       <c r="A83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C83" t="s">
         <v>101</v>
@@ -11289,7 +11430,7 @@
         <v>475</v>
       </c>
       <c r="L83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M83" t="s">
         <v>224</v>
@@ -11307,21 +11448,21 @@
         <v>234</v>
       </c>
       <c r="S83" t="s">
-        <v>602</v>
-      </c>
-      <c r="T83" t="s">
-        <v>222</v>
+        <v>601</v>
+      </c>
+      <c r="T83" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="12.75">
+    <row r="84" spans="1:21" ht="13.5">
       <c r="A84" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
@@ -11339,16 +11480,16 @@
         <v>120</v>
       </c>
       <c r="H84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I84" t="s">
         <v>221</v>
       </c>
       <c r="K84" t="s">
+        <v>585</v>
+      </c>
+      <c r="L84" t="s">
         <v>586</v>
-      </c>
-      <c r="L84" t="s">
-        <v>587</v>
       </c>
       <c r="M84" t="s">
         <v>224</v>
@@ -11363,27 +11504,27 @@
         <v>227</v>
       </c>
       <c r="R84" t="s">
+        <v>604</v>
+      </c>
+      <c r="S84" t="s">
         <v>605</v>
       </c>
-      <c r="S84" t="s">
-        <v>606</v>
-      </c>
-      <c r="T84" t="s">
-        <v>222</v>
+      <c r="T84" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="12.75">
+    <row r="85" spans="1:21" ht="13.5">
       <c r="A85" t="s">
+        <v>606</v>
+      </c>
+      <c r="B85" t="s">
+        <v>450</v>
+      </c>
+      <c r="C85" t="s">
         <v>607</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>608</v>
       </c>
       <c r="D85" t="s">
         <v>78</v>
@@ -11395,19 +11536,19 @@
         <v>520</v>
       </c>
       <c r="G85" t="s">
+        <v>608</v>
+      </c>
+      <c r="H85" t="s">
         <v>609</v>
-      </c>
-      <c r="H85" t="s">
-        <v>610</v>
       </c>
       <c r="I85" t="s">
         <v>221</v>
       </c>
       <c r="K85" t="s">
+        <v>610</v>
+      </c>
+      <c r="L85" t="s">
         <v>611</v>
-      </c>
-      <c r="L85" t="s">
-        <v>612</v>
       </c>
       <c r="M85" t="s">
         <v>289</v>
@@ -11422,20 +11563,57 @@
         <v>222</v>
       </c>
       <c r="R85" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S85" t="s">
-        <v>613</v>
-      </c>
-      <c r="T85" t="s">
-        <v>222</v>
+        <v>612</v>
+      </c>
+      <c r="T85" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="U85" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="86" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>555</v>
+      </c>
+      <c r="D86" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="74"/>
+      <c r="T86" s="74"/>
+      <c r="U86" s="74"/>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -11445,10 +11623,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
@@ -11656,7 +11830,7 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4D70A-DB1D-4B22-AB91-82331DAFC9B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A5BEE4-3CB7-4BFD-9E99-B5BE3ADE53D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,19 +21,30 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
-    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
-    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AG$32</definedName>
+    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AG$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="634">
   <si>
     <t>ID</t>
   </si>
@@ -2254,9 +2265,6 @@
     <t>https://www.allhomes.com.au/unit-22-22-henry-kendall-street-franklin-act-2913</t>
   </si>
   <si>
-    <t>https://www.allhomes.com.au/227-sculthorpe-avenue-whitlam-act-2611</t>
-  </si>
-  <si>
     <t>https://www.allhomes.com.au/taylor-act-2913?tid=179140230</t>
   </si>
   <si>
@@ -2343,14 +2351,6 @@
     <t>9/4 Lawrenson Circuit, Jacka ACT 2914</t>
   </si>
   <si>
-    <t>A beautiful family home close to Amaroo school &amp; shops
-This brilliantly designed 3-bedroom single storey home is just the ticket for the astute buyers for their home or investment. It has individuality, space and style.
-The residence features a modern kitchen with stone bench-top and ample cupboard space. Great sized living space and a splendid layout offer up a practical and light filled pleasant place to live and entertain.
-Central heating and Energy Efficiency Rating of 6.0 means that you will be cozy during the extreme Canberra weather.
-Features:
-Property information</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -2417,10 +2417,6 @@
   </si>
   <si>
     <t>Block/House: 450/ 220</t>
-  </si>
-  <si>
-    <t>New Door Properties is proud to present you this modern house and land package.
-This sleek single-level home promotes easy family living and entertaining on a block of 450 m2(approx.). Immaculate from start to finish, enjoy a modern, cleverly considered floorplan hosting a formal lounge room and an open plan family and meals area leading out to the undercover alfresco entertaining area combining indoor/outdoor living.</t>
   </si>
   <si>
     <t>72</t>
@@ -2566,10 +2562,6 @@
     <t>Block/House: 362/ 190</t>
   </si>
   <si>
-    <t>Opens to be held at Pro Hart Ave, Block 17 Section 23, Ginninderry Residences, Strathnairn.  (Opposite the Land sales office)
-Completion estimated to be last quarter of 2021.</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -2796,7 +2788,100 @@
     <t>https://www.777homes.com.au/?post_type=property&amp;p=6836&amp;preview=true</t>
   </si>
   <si>
-    <t>https://www.777homes.com.au/property/227-sculthorpe-avenue-whitlam-act-2611/</t>
+    <t>https://www.allhomes.com.au/sculthorpe-avenue-whitlam-act-2611?tid=179490568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked by </t>
+  </si>
+  <si>
+    <t>Checked by Date</t>
+  </si>
+  <si>
+    <t>Athavan</t>
+  </si>
+  <si>
+    <t>Start Living Your Dream! Last 2 H&amp;L Packages left!
+Opens to be held at Pro Hart Ave, Block 17 Section 23, Ginninderry Residences, Strathnairn.  (Opposite the Land sales office)
+Completion estimated to be last quarter of 2021.
+Affordable luxury is now within your reach. Located in the fast growing Strathnairn, this 362 sqm block will surely make your dreams come true. This property is also in prime location, situated closely to the Community Recreation Park, a golf course, schools and shopping centres, this surely is the perfect place to build your dream home.
+This house boast a beautiful floorplan with four well-sized bedrooms, two bathrooms, a magnificent kitchen and living room with a lock up garage space, and an open carport. A modern and well-designed home that has a striking abundance of space and light, perfect for gorgeous family or astute investment. One lock-up garage for the everyday automobile and one long car spot perfect for that holidaying caravan or boat.
+Features Include:
+- Stone bench throughout kitchens and walk-in pantry
+- Stainless steel appliances in both kitchens
+- Floor to Ceiling tiles in all bathrooms
+- 2.55m Ceiling in main residence
+- Walk-in pantry
+- Large master and ensuite
+- Walk in robes to master suite
+- Double garage with internal access to rear
+- Plumbed fridge connections
+- Few minutes to local shopping centre (KIPPAX)
+- 15 minutes to the City
+Standard progress payments, on a split contract. Save on Stamp Duty if eligible. 
+*Picture is inspiration and/or artist impression. Full quote to be provided upon non-obligatory discussion.</t>
+  </si>
+  <si>
+    <t>HOME SWEET HOME
+A beautiful family home close to Amaroo school &amp; shops
+This brilliantly designed 3-bedroom single storey home is just the ticket for the astute buyers for their home or investment. It has individuality, space and style.
+The residence features a modern kitchen with stone bench-top and ample cupboard space. Great sized living space and a splendid layout offer up a practical and light filled pleasant place to live and entertain.
+Central heating and Energy Efficiency Rating of 6.0 means that you will be cozy during the extreme Canberra weather.
+Features:
+Three Bedrooms
+Low maintenance backyard with ample space for kids.
+Close walk to Amaroo school which is one of the great public schools in ACT
+Close walk to Amaroo Village Shops which includes Coles supermarket, Gym, Coffee Guru, Asian / Indian Grocery Store
+Spacious open-plan living and dining
+Ducted Gas heating
+Split cooling system
+5 KW solar system
+Separate laundry
+Stone bench-tops
+Bosch Dishwasher
+Alarm system
+Large master bedroom, ensuite and mirrored built in robe
+Generous 2nd and 3rd bedroom with built in robe
+Single garage with remote control access
+Extra storage and concrete around
+Extra two car parking in front of the house
+NBN
+Property information
+Rates : $428 quarterly (approx.)
+Body Corporate : $507 quarterly (approx.)
+EER 6.0</t>
+  </si>
+  <si>
+    <t>House and Land Package
+New Door Properties is proud to present you this modern house and land package.
+This sleek single-level home promotes easy family living and entertaining on a block of 450 m2(approx.). Immaculate from start to finish, enjoy a modern, cleverly considered floorplan hosting a formal lounge room and an open plan family and meals area leading out to the undercover alfresco entertaining area combining indoor/outdoor living.   
+The modern kitchen boasts quality stainless steel appliances, 40 mm stone benchtops with waterfalls, walk in pantry and plenty of storage. Other features include High ceilings, Reverse-cycle ducted air-conditioning and a low maintenance yard.
+Features
+• 4 bedrooms
+• 2 bathrooms
+• 2 garage
+• Spacious family &amp; dining
+• 2.55 high ceilings
+• Modern Kitchen with glass splashback
+• Stone benchtops with waterfalls 
+• Bosch  cooktop, oven and ducted range-hood
+• Bosch 600 semi-Integrated dishwasher
+• Built in Microwave
+• Walk in Pantry
+• Ducted reverse cycle heating and cooling with zones
+• Full length tiles and tub in main bathroom
+• LED lights throughout the house
+• Video intercom
+• Spacious laundry 
+• Rain water tank
+* Photos from the prevoius project of the builder.
+Property information
+Land Size : 450m2 (approx..)
+Living : 172 m2 (approx..)
+Garage : 38 m2 (approx..)
+Alfresco : 8 m2 (approx..)
+Porch : 2 m2 (approx..)
+Total living : 220 m2 ( approx..)
+EER 6 stars</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2891,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2982,14 +3067,8 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3074,22 +3153,6 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3104,7 +3167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3260,10 +3323,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3500,11 +3562,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5569,103 +5631,118 @@
         <v>452</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
-      <c r="A68">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C68" s="62" t="s">
-        <v>629</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="C68" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
-      <c r="A69">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C69" s="62" t="s">
-        <v>613</v>
-      </c>
-      <c r="D69" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="C69" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
-      <c r="A70">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C70" t="s">
-        <v>614</v>
-      </c>
-      <c r="D70" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="C70" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
-      <c r="A71">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C71" t="s">
-        <v>615</v>
-      </c>
-      <c r="D71" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="C71" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="12.75">
-      <c r="A72">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C72" t="s">
-        <v>616</v>
-      </c>
-      <c r="D72" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="C72" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="4" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5676,11 +5753,14 @@
       <c r="B73" t="s">
         <v>507</v>
       </c>
-      <c r="C73" t="s">
-        <v>630</v>
-      </c>
-      <c r="D73" s="71" t="s">
-        <v>450</v>
+      <c r="C73" s="62" t="s">
+        <v>626</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
@@ -5697,10 +5777,13 @@
         <v>508</v>
       </c>
       <c r="C74" t="s">
-        <v>617</v>
-      </c>
-      <c r="D74" s="71" t="s">
-        <v>450</v>
+        <v>613</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
@@ -5709,23 +5792,26 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="12.75">
-      <c r="A75">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>509</v>
-      </c>
-      <c r="C75" t="s">
-        <v>618</v>
-      </c>
-      <c r="D75" s="71" t="s">
-        <v>450</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="B75" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5734,13 +5820,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C76" t="s">
-        <v>619</v>
-      </c>
-      <c r="D76" s="71" t="s">
-        <v>450</v>
+        <v>615</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
@@ -5754,13 +5843,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C77" t="s">
-        <v>620</v>
-      </c>
-      <c r="D77" s="71" t="s">
-        <v>450</v>
+        <v>616</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -5773,14 +5865,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>512</v>
-      </c>
-      <c r="C78" t="s">
-        <v>621</v>
-      </c>
-      <c r="D78" s="71" t="s">
-        <v>450</v>
+      <c r="B78" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>617</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -5794,13 +5889,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C79" t="s">
-        <v>622</v>
-      </c>
-      <c r="D79" s="71" t="s">
-        <v>450</v>
+        <v>618</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -5814,13 +5912,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C80" t="s">
-        <v>623</v>
-      </c>
-      <c r="D80" s="71" t="s">
-        <v>450</v>
+        <v>619</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -5834,13 +5935,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C81" t="s">
-        <v>624</v>
-      </c>
-      <c r="D81" s="71" t="s">
-        <v>450</v>
+        <v>620</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
@@ -5854,13 +5958,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C82" t="s">
-        <v>625</v>
-      </c>
-      <c r="D82" s="71" t="s">
-        <v>450</v>
+        <v>621</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
@@ -5874,13 +5981,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C83" t="s">
-        <v>626</v>
-      </c>
-      <c r="D83" s="71" t="s">
-        <v>450</v>
+        <v>622</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
@@ -5894,13 +6004,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
-      </c>
-      <c r="D84" s="71" t="s">
-        <v>450</v>
+        <v>623</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -5914,35 +6027,21 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C85" t="s">
-        <v>628</v>
-      </c>
-      <c r="D85" s="71" t="s">
-        <v>450</v>
+        <v>624</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="C86" t="s">
-        <v>631</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6016,9 +6115,23 @@
     <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
     <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
+    <hyperlink ref="B75" r:id="rId69" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
+    <hyperlink ref="C75" r:id="rId70" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
+    <hyperlink ref="H75" r:id="rId71" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
+    <hyperlink ref="B78" r:id="rId72" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
+    <hyperlink ref="C78" r:id="rId73" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
+    <hyperlink ref="B68" r:id="rId74" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
+    <hyperlink ref="B69" r:id="rId75" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
+    <hyperlink ref="C70" r:id="rId76" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
+    <hyperlink ref="B70" r:id="rId77" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
+    <hyperlink ref="B71" r:id="rId78" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
+    <hyperlink ref="C71" r:id="rId79" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
+    <hyperlink ref="B72" r:id="rId80" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
+    <hyperlink ref="C72" r:id="rId81" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
+    <hyperlink ref="C73" r:id="rId82" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -6027,17 +6140,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI86"/>
+  <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.73046875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.59765625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.265625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19.59765625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.73046875" customWidth="1" collapsed="1"/>
@@ -6052,11 +6165,12 @@
     <col min="19" max="19" width="77.59765625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="18.73046875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.265625" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="18.73046875" customWidth="1"/>
+    <col min="24" max="24" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="25" max="33" width="19.265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75">
+    <row r="1" spans="1:37" ht="27.75">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6121,41 +6235,47 @@
         <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -6225,8 +6345,10 @@
       <c r="AG2" s="28"/>
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -6296,8 +6418,10 @@
       <c r="AG3" s="28"/>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
-    </row>
-    <row r="4" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+    </row>
+    <row r="4" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -6356,7 +6480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="15" customHeight="1">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -6428,8 +6552,10 @@
       <c r="AG5" s="28"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -6489,8 +6615,8 @@
       <c r="U6" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -6503,12 +6629,14 @@
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1">
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -6531,7 +6659,7 @@
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="70" t="s">
         <v>462</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -6564,8 +6692,8 @@
       <c r="U7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -6578,8 +6706,10 @@
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-    </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -6637,8 +6767,8 @@
       <c r="U8" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
@@ -6647,12 +6777,14 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
-    </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -6712,8 +6844,8 @@
       <c r="U9" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
@@ -6726,12 +6858,14 @@
       <c r="AG9" s="28"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1">
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -6754,7 +6888,7 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="70" t="s">
         <v>467</v>
       </c>
       <c r="L10" s="67" t="s">
@@ -6785,8 +6919,8 @@
       <c r="U10" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
@@ -6795,12 +6929,14 @@
       <c r="AC10" s="40"/>
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
       <c r="AH10" s="41"/>
       <c r="AI10" s="41"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -6858,28 +6994,30 @@
       <c r="U11" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="40"/>
       <c r="Y11" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
+      <c r="Z11" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="AB11" s="40"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -6937,8 +7075,8 @@
       <c r="U12" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
@@ -6951,12 +7089,14 @@
       <c r="AG12" s="28"/>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
-    </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1">
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -6981,7 +7121,7 @@
         <v>93</v>
       </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="70" t="s">
         <v>475</v>
       </c>
       <c r="L13" s="28" t="s">
@@ -7012,11 +7152,11 @@
       <c r="U13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V13" s="28" t="s">
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
@@ -7028,8 +7168,10 @@
       <c r="AG13" s="28"/>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
-    </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -7089,30 +7231,32 @@
       <c r="U14" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
-      <c r="AA14" s="28" t="s">
-        <v>124</v>
-      </c>
+      <c r="AA14" s="28"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28" t="s">
         <v>124</v>
       </c>
       <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
+      <c r="AE14" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="AF14" s="28"/>
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
-    </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -7135,7 +7279,7 @@
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="70" t="s">
         <v>482</v>
       </c>
       <c r="L15" s="28" t="s">
@@ -7166,8 +7310,8 @@
       <c r="U15" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
@@ -7180,8 +7324,10 @@
       <c r="AG15" s="28"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -7241,8 +7387,8 @@
       <c r="U16" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
@@ -7255,8 +7401,10 @@
       <c r="AG16" s="28"/>
       <c r="AH16" s="28"/>
       <c r="AI16" s="28"/>
-    </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -7314,8 +7462,8 @@
       <c r="U17" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
@@ -7328,12 +7476,14 @@
       <c r="AG17" s="28"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
-    </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1">
       <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -7358,7 +7508,7 @@
         <v>93</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="70" t="s">
         <v>486</v>
       </c>
       <c r="L18" s="68" t="s">
@@ -7389,8 +7539,8 @@
       <c r="U18" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
@@ -7403,8 +7553,10 @@
       <c r="AG18" s="28"/>
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -7460,8 +7612,8 @@
       <c r="U19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
@@ -7474,8 +7626,10 @@
       <c r="AG19" s="28"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
-    </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -7535,8 +7689,8 @@
       <c r="U20" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
       <c r="Z20" s="28"/>
@@ -7549,8 +7703,10 @@
       <c r="AG20" s="28"/>
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -7606,8 +7762,8 @@
       <c r="U21" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
       <c r="Z21" s="28"/>
@@ -7620,8 +7776,10 @@
       <c r="AG21" s="28"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
-    </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -7683,15 +7841,15 @@
       <c r="U22" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V22" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="W22" s="28"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
       <c r="X22" s="28" t="s">
         <v>124</v>
       </c>
       <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
+      <c r="Z22" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="AA22" s="28"/>
       <c r="AB22" s="28"/>
       <c r="AC22" s="28"/>
@@ -7701,8 +7859,10 @@
       <c r="AG22" s="28"/>
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
-    </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1">
       <c r="A23" s="28">
         <v>22</v>
       </c>
@@ -7760,8 +7920,8 @@
       <c r="U23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
       <c r="X23" s="28"/>
       <c r="Y23" s="28"/>
       <c r="Z23" s="28"/>
@@ -7774,12 +7934,14 @@
       <c r="AG23" s="28"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1">
       <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -7804,7 +7966,7 @@
         <v>93</v>
       </c>
       <c r="J24" s="28"/>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="70" t="s">
         <v>459</v>
       </c>
       <c r="L24" s="28" t="s">
@@ -7837,8 +7999,8 @@
       <c r="U24" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
@@ -7851,8 +8013,10 @@
       <c r="AG24" s="28"/>
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
-    </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -7924,8 +8088,10 @@
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -7999,8 +8165,10 @@
       <c r="AG26" s="28"/>
       <c r="AH26" s="28"/>
       <c r="AI26" s="28"/>
-    </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -8074,12 +8242,14 @@
       <c r="AG27" s="28"/>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
-    </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1">
       <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -8104,7 +8274,7 @@
         <v>93</v>
       </c>
       <c r="J28" s="28"/>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="70" t="s">
         <v>496</v>
       </c>
       <c r="L28" s="68" t="s">
@@ -8149,8 +8319,10 @@
       <c r="AG28" s="28"/>
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -8224,8 +8396,10 @@
       <c r="AG29" s="28"/>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
-    </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -8299,8 +8473,10 @@
       <c r="AG30" s="28"/>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -8372,12 +8548,14 @@
       <c r="AG31" s="28"/>
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" customHeight="1">
       <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -8402,7 +8580,7 @@
         <v>93</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="70" t="s">
         <v>404</v>
       </c>
       <c r="L32" s="68" t="s">
@@ -8447,6 +8625,8 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
     </row>
     <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A33" s="28" t="s">
@@ -10336,7 +10516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="65" spans="1:23" s="28" customFormat="1" ht="13.5">
       <c r="A65" s="28" t="s">
         <v>434</v>
       </c>
@@ -10395,7 +10575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="66" spans="1:23" s="28" customFormat="1" ht="13.5">
       <c r="A66" s="28" t="s">
         <v>439</v>
       </c>
@@ -10454,11 +10634,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="67" spans="1:23" s="28" customFormat="1" ht="13.5">
       <c r="A67" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="70" t="s">
         <v>458</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -10470,41 +10650,41 @@
       <c r="E67" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="72" t="s">
+      <c r="F67" s="70" t="s">
         <v>230</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="H67" s="72" t="s">
+      <c r="H67" s="70" t="s">
         <v>448</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="K67" s="72" t="s">
+      <c r="K67" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="L67" s="72" t="s">
+      <c r="L67" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="M67" s="72" t="s">
+      <c r="M67" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="N67" s="72" t="s">
+      <c r="N67" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="P67" s="72" t="s">
+      <c r="P67" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="Q67" s="72" t="s">
+      <c r="Q67" s="70" t="s">
         <v>289</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="S67" s="72" t="s">
-        <v>521</v>
+      <c r="S67" s="70" t="s">
+        <v>520</v>
       </c>
       <c r="T67" s="28" t="s">
         <v>108</v>
@@ -10513,307 +10693,337 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="13.5">
-      <c r="A68" t="s">
+    <row r="68" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A68" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="B68" t="s">
-        <v>450</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="D68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s">
-        <v>244</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="I68" t="s">
-        <v>221</v>
-      </c>
-      <c r="K68" t="s">
-        <v>222</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="M68" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="N68" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P68" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q68" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="S68" s="28" t="s">
         <v>525</v>
-      </c>
-      <c r="M68" t="s">
-        <v>225</v>
-      </c>
-      <c r="N68" t="s">
-        <v>227</v>
-      </c>
-      <c r="P68" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>227</v>
-      </c>
-      <c r="R68" t="s">
-        <v>523</v>
-      </c>
-      <c r="S68" t="s">
-        <v>526</v>
       </c>
       <c r="T68" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U68" t="s">
+      <c r="U68" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="13.5">
-      <c r="A69" t="s">
+      <c r="V68" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W68" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A69" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="B69" t="s">
-        <v>450</v>
-      </c>
-      <c r="C69" t="s">
-        <v>528</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="D69" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="R69" t="s">
-        <v>528</v>
-      </c>
-      <c r="S69" t="s">
-        <v>529</v>
+      <c r="R69" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>632</v>
       </c>
       <c r="T69" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U69" t="s">
+      <c r="U69" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="13.5">
-      <c r="A70" t="s">
+      <c r="V69" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W69" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A70" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="B70" t="s">
-        <v>450</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="I70" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" t="s">
-        <v>258</v>
-      </c>
-      <c r="G70" t="s">
-        <v>120</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="L70" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="I70" t="s">
-        <v>221</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="M70" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q70" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="S70" s="28" t="s">
         <v>533</v>
-      </c>
-      <c r="L70" t="s">
-        <v>534</v>
-      </c>
-      <c r="M70" t="s">
-        <v>227</v>
-      </c>
-      <c r="N70" t="s">
-        <v>227</v>
-      </c>
-      <c r="P70" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>227</v>
-      </c>
-      <c r="R70" t="s">
-        <v>531</v>
-      </c>
-      <c r="S70" t="s">
-        <v>535</v>
       </c>
       <c r="T70" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U70" t="s">
+      <c r="U70" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="13.5">
-      <c r="A71" t="s">
+      <c r="V70" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W70" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A71" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="B71" t="s">
-        <v>450</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="I71" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="L71" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="D71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" t="s">
-        <v>196</v>
-      </c>
-      <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s">
-        <v>126</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="M71" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P71" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q71" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="S71" s="28" t="s">
         <v>538</v>
-      </c>
-      <c r="I71" t="s">
-        <v>221</v>
-      </c>
-      <c r="K71" t="s">
-        <v>324</v>
-      </c>
-      <c r="L71" t="s">
-        <v>539</v>
-      </c>
-      <c r="M71" t="s">
-        <v>275</v>
-      </c>
-      <c r="N71" t="s">
-        <v>227</v>
-      </c>
-      <c r="P71" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>227</v>
-      </c>
-      <c r="R71" t="s">
-        <v>537</v>
-      </c>
-      <c r="S71" t="s">
-        <v>540</v>
       </c>
       <c r="T71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U71" t="s">
+      <c r="U71" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="13.5">
-      <c r="A72" t="s">
-        <v>541</v>
-      </c>
-      <c r="B72" t="s">
-        <v>450</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="V71" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W71" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A72" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H72" t="s">
-        <v>542</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="I72" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="Q72" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="R72" t="s">
+      <c r="R72" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="S72" t="s">
-        <v>543</v>
+      <c r="S72" s="28" t="s">
+        <v>633</v>
       </c>
       <c r="T72" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U72" t="s">
+      <c r="U72" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="13.5">
+      <c r="V72" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W72" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="13.5">
       <c r="A73" t="s">
-        <v>544</v>
-      </c>
-      <c r="B73" t="s">
-        <v>450</v>
+        <v>541</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -10831,7 +11041,7 @@
         <v>87</v>
       </c>
       <c r="H73" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I73" t="s">
         <v>221</v>
@@ -10840,7 +11050,7 @@
         <v>471</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s">
         <v>225</v>
@@ -10858,7 +11068,7 @@
         <v>240</v>
       </c>
       <c r="S73" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>108</v>
@@ -10867,15 +11077,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="13.5">
+    <row r="74" spans="1:23" ht="13.5">
       <c r="A74" t="s">
-        <v>548</v>
-      </c>
-      <c r="B74" t="s">
-        <v>450</v>
+        <v>545</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D74" t="s">
         <v>284</v>
@@ -10890,16 +11100,16 @@
         <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I74" t="s">
         <v>221</v>
       </c>
       <c r="K74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L74" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M74" t="s">
         <v>224</v>
@@ -10914,10 +11124,10 @@
         <v>222</v>
       </c>
       <c r="R74" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="S74" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>108</v>
@@ -10926,71 +11136,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="13.5">
-      <c r="A75" t="s">
+    <row r="75" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A75" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="B75" t="s">
-        <v>450</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="L75" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D75" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s">
-        <v>258</v>
-      </c>
-      <c r="G75" t="s">
-        <v>259</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="M75" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q75" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="S75" s="28" t="s">
         <v>556</v>
-      </c>
-      <c r="I75" t="s">
-        <v>221</v>
-      </c>
-      <c r="K75" t="s">
-        <v>557</v>
-      </c>
-      <c r="L75" t="s">
-        <v>558</v>
-      </c>
-      <c r="M75" t="s">
-        <v>225</v>
-      </c>
-      <c r="N75" t="s">
-        <v>227</v>
-      </c>
-      <c r="P75" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>227</v>
-      </c>
-      <c r="R75" t="s">
-        <v>555</v>
-      </c>
-      <c r="S75" t="s">
-        <v>559</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="U75" t="s">
+      <c r="U75" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="13.5">
+      <c r="V75" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W75" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="13.5">
       <c r="A76" t="s">
-        <v>560</v>
-      </c>
-      <c r="B76" t="s">
-        <v>450</v>
+        <v>557</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
@@ -11008,16 +11224,16 @@
         <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I76" t="s">
         <v>221</v>
       </c>
       <c r="K76" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L76" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M76" t="s">
         <v>275</v>
@@ -11035,7 +11251,7 @@
         <v>240</v>
       </c>
       <c r="S76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>108</v>
@@ -11044,15 +11260,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="13.5">
+    <row r="77" spans="1:23" ht="13.5">
       <c r="A77" t="s">
-        <v>565</v>
-      </c>
-      <c r="B77" t="s">
-        <v>450</v>
+        <v>562</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D77" t="s">
         <v>284</v>
@@ -11064,19 +11280,19 @@
         <v>230</v>
       </c>
       <c r="G77" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H77" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I77" t="s">
         <v>221</v>
       </c>
       <c r="K77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L77" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M77" t="s">
         <v>227</v>
@@ -11091,10 +11307,10 @@
         <v>289</v>
       </c>
       <c r="R77" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="S77" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>108</v>
@@ -11103,74 +11319,80 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="13.5">
-      <c r="A78" t="s">
-        <v>572</v>
-      </c>
-      <c r="B78" t="s">
-        <v>450</v>
-      </c>
-      <c r="C78" t="s">
-        <v>573</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="78" spans="1:23" s="28" customFormat="1" ht="13.5">
+      <c r="A78" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H78" t="s">
-        <v>574</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H78" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="I78" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q78" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="R78" t="s">
-        <v>573</v>
-      </c>
-      <c r="S78" t="s">
-        <v>575</v>
+      <c r="R78" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="S78" s="28" t="s">
+        <v>631</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="U78" t="s">
+      <c r="U78" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="13.5">
+      <c r="V78" s="71">
+        <v>44339</v>
+      </c>
+      <c r="W78" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="13.5">
       <c r="A79" t="s">
-        <v>576</v>
-      </c>
-      <c r="B79" t="s">
-        <v>450</v>
+        <v>572</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
@@ -11185,16 +11407,16 @@
         <v>230</v>
       </c>
       <c r="H79" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I79" t="s">
         <v>221</v>
       </c>
       <c r="K79" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L79" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M79" t="s">
         <v>227</v>
@@ -11209,10 +11431,10 @@
         <v>222</v>
       </c>
       <c r="R79" t="s">
+        <v>573</v>
+      </c>
+      <c r="S79" t="s">
         <v>577</v>
-      </c>
-      <c r="S79" t="s">
-        <v>581</v>
       </c>
       <c r="T79" s="28" t="s">
         <v>108</v>
@@ -11221,15 +11443,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="13.5">
+    <row r="80" spans="1:23" ht="13.5">
       <c r="A80" t="s">
-        <v>582</v>
-      </c>
-      <c r="B80" t="s">
-        <v>450</v>
+        <v>578</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D80" t="s">
         <v>284</v>
@@ -11244,16 +11466,16 @@
         <v>271</v>
       </c>
       <c r="H80" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I80" t="s">
         <v>221</v>
       </c>
       <c r="K80" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L80" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M80" t="s">
         <v>225</v>
@@ -11268,10 +11490,10 @@
         <v>227</v>
       </c>
       <c r="R80" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="S80" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>108</v>
@@ -11282,10 +11504,10 @@
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" t="s">
-        <v>589</v>
-      </c>
-      <c r="B81" t="s">
-        <v>450</v>
+        <v>585</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>91</v>
@@ -11303,16 +11525,16 @@
         <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I81" t="s">
         <v>221</v>
       </c>
       <c r="K81" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L81" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M81" t="s">
         <v>275</v>
@@ -11330,7 +11552,7 @@
         <v>240</v>
       </c>
       <c r="S81" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="T81" s="28" t="s">
         <v>108</v>
@@ -11341,10 +11563,10 @@
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" t="s">
-        <v>594</v>
-      </c>
-      <c r="B82" t="s">
-        <v>450</v>
+        <v>590</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>130</v>
@@ -11362,16 +11584,16 @@
         <v>132</v>
       </c>
       <c r="H82" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I82" t="s">
         <v>221</v>
       </c>
       <c r="K82" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L82" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M82" t="s">
         <v>224</v>
@@ -11389,7 +11611,7 @@
         <v>280</v>
       </c>
       <c r="S82" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>108</v>
@@ -11400,10 +11622,10 @@
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" t="s">
-        <v>599</v>
-      </c>
-      <c r="B83" t="s">
-        <v>450</v>
+        <v>595</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>101</v>
@@ -11430,7 +11652,7 @@
         <v>475</v>
       </c>
       <c r="L83" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M83" t="s">
         <v>224</v>
@@ -11448,7 +11670,7 @@
         <v>234</v>
       </c>
       <c r="S83" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="T83" s="28" t="s">
         <v>108</v>
@@ -11459,10 +11681,10 @@
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" t="s">
-        <v>602</v>
-      </c>
-      <c r="B84" t="s">
-        <v>450</v>
+        <v>598</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
@@ -11480,16 +11702,16 @@
         <v>120</v>
       </c>
       <c r="H84" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I84" t="s">
         <v>221</v>
       </c>
       <c r="K84" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L84" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M84" t="s">
         <v>224</v>
@@ -11504,10 +11726,10 @@
         <v>227</v>
       </c>
       <c r="R84" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="S84" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="T84" s="28" t="s">
         <v>108</v>
@@ -11518,13 +11740,13 @@
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" t="s">
-        <v>606</v>
-      </c>
-      <c r="B85" t="s">
-        <v>450</v>
+        <v>602</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D85" t="s">
         <v>78</v>
@@ -11533,22 +11755,22 @@
         <v>196</v>
       </c>
       <c r="F85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G85" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H85" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I85" t="s">
         <v>221</v>
       </c>
       <c r="K85" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L85" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M85" t="s">
         <v>289</v>
@@ -11563,10 +11785,10 @@
         <v>222</v>
       </c>
       <c r="R85" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="S85" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="T85" s="28" t="s">
         <v>108</v>
@@ -11575,45 +11797,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>555</v>
-      </c>
-      <c r="D86" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="74"/>
-      <c r="J86" s="74"/>
-      <c r="K86" s="74"/>
-      <c r="L86" s="74"/>
-      <c r="M86" s="74"/>
-      <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="74"/>
-      <c r="Q86" s="74"/>
-      <c r="R86" s="74"/>
-      <c r="S86" s="74"/>
-      <c r="T86" s="74"/>
-      <c r="U86" s="74"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -11624,8 +11809,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="A1:AI1">
+  <conditionalFormatting sqref="A1:AK1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-business\src\main\resources\InputTestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\git\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC34725-D059-4AC7-B460-3ED0B1279E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59EA50-1A4A-4B74-81A8-904222A3D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
-    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AG$32</definedName>
-    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AG$32</definedName>
+    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="707">
   <si>
     <t>ID</t>
   </si>
@@ -1955,9 +1955,6 @@
     <t>Rented</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>777 URL</t>
   </si>
   <si>
@@ -1985,9 +1982,6 @@
     <t xml:space="preserve">8	2	0	0	0	0	</t>
   </si>
   <si>
-    <t>Strathnairn 2615</t>
-  </si>
-  <si>
     <t>Block/House: 371/ 190</t>
   </si>
   <si>
@@ -2044,9 +2038,6 @@
   </si>
   <si>
     <t xml:space="preserve">6	8	9	0	0	0	</t>
-  </si>
-  <si>
-    <t>Taylor 2913</t>
   </si>
   <si>
     <t>Block/House: 483/ -</t>
@@ -2145,9 +2136,6 @@
   </si>
   <si>
     <t xml:space="preserve">1	0	7	5	0	0	0	</t>
-  </si>
-  <si>
-    <t>Phillip 2606</t>
   </si>
   <si>
     <t>Block/House: 3377/ 104</t>
@@ -2665,15 +2653,6 @@
     <t>https://www.allhomes.com.au/sculthorpe-avenue-whitlam-act-2611?tid=179490568</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked by </t>
-  </si>
-  <si>
-    <t>Checked by Date</t>
-  </si>
-  <si>
-    <t>Athavan</t>
-  </si>
-  <si>
     <t>Start Living Your Dream! Last 2 H&amp;L Packages left!
 Opens to be held at Pro Hart Ave, Block 17 Section 23, Ginninderry Residences, Strathnairn.  (Opposite the Land sales office)
 Completion estimated to be last quarter of 2021.
@@ -2758,13 +2737,7 @@
 EER 6 stars</t>
   </si>
   <si>
-    <t>Turner 2612</t>
-  </si>
-  <si>
     <t>Land</t>
-  </si>
-  <si>
-    <t>Moncrieff 2914</t>
   </si>
   <si>
     <t>Block/House: 651/ -</t>
@@ -3106,9 +3079,6 @@
   </si>
   <si>
     <t>$820,000+</t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
   <si>
     <t>Currently Tenanted for $470 per week - A fantastic opportunity to buy for living later on or an investment. You will love this 2-bedroom apartment with its open plan living, dining &amp; kitchen area that flows straight to the tiled balcony through glass sliding doors to enjoy breathtaking views on daily basis. The second bedroom can be used as a home office if you prefer, the choice is yours. Quality appliances include a dishwasher, heating and cooling system, laminated timber floor covering to living area and quality carpet to the bedrooms provide a comfortable lifestyle.
@@ -3327,6 +3297,12 @@
   </si>
   <si>
     <t>https://www.777homes.com.au/?post_type=property&amp;p=7338&amp;preview=true</t>
+  </si>
+  <si>
+    <t>Woden Valley</t>
+  </si>
+  <si>
+    <t>PF - Central A/C</t>
   </si>
 </sst>
 </file>
@@ -3631,7 +3607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3773,9 +3749,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -4029,21 +4002,21 @@
       <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74.77734375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="65" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" style="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.9">
+    <row r="1" spans="1:28" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4118,7 +4091,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="13.9">
+    <row r="3" spans="1:28" ht="13.8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4210,7 +4183,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="13.9">
+    <row r="5" spans="1:28" ht="13.8">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4256,7 +4229,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="13.9">
+    <row r="6" spans="1:28" ht="13.8">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4298,7 +4271,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9">
+    <row r="7" spans="1:28" ht="13.8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4340,7 +4313,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="13.9">
+    <row r="8" spans="1:28" ht="13.8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4382,7 +4355,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="13.9">
+    <row r="9" spans="1:28" ht="13.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4424,7 +4397,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9">
+    <row r="10" spans="1:28" ht="13.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4466,7 +4439,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9">
+    <row r="11" spans="1:28" ht="13.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4508,7 +4481,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="13.9">
+    <row r="12" spans="1:28" ht="13.8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4550,7 +4523,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9">
+    <row r="13" spans="1:28" ht="13.8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4592,7 +4565,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="13.9">
+    <row r="14" spans="1:28" ht="13.8">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4634,7 +4607,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="13.9">
+    <row r="15" spans="1:28" ht="13.8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4676,7 +4649,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="13.9">
+    <row r="16" spans="1:28" ht="13.8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4718,7 +4691,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="13.9">
+    <row r="17" spans="1:28" ht="13.8">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4760,7 +4733,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="13.9">
+    <row r="18" spans="1:28" ht="13.8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4802,7 +4775,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.9">
+    <row r="19" spans="1:28" ht="13.8">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4844,7 +4817,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="13.9">
+    <row r="20" spans="1:28" ht="13.8">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4886,7 +4859,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="13.9">
+    <row r="21" spans="1:28" ht="13.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4928,7 +4901,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="13.9">
+    <row r="22" spans="1:28" ht="13.8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4970,7 +4943,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="13.9">
+    <row r="23" spans="1:28" ht="13.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -5012,7 +4985,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="13.9">
+    <row r="24" spans="1:28" ht="13.8">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5054,7 +5027,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="13.9">
+    <row r="25" spans="1:28" ht="13.8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5096,7 +5069,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="13.9">
+    <row r="26" spans="1:28" ht="13.8">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5138,7 +5111,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="13.9">
+    <row r="27" spans="1:28" ht="13.8">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5180,7 +5153,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="13.9">
+    <row r="28" spans="1:28" ht="13.8">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5222,7 +5195,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="13.9">
+    <row r="29" spans="1:28" ht="13.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -5264,7 +5237,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="13.9">
+    <row r="30" spans="1:28" ht="13.8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -5306,7 +5279,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="13.9">
+    <row r="31" spans="1:28" ht="13.8">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5348,7 +5321,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="13.9">
+    <row r="32" spans="1:28" ht="13.8">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5390,7 +5363,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5410,7 +5383,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5430,7 +5403,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5450,7 +5423,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5470,7 +5443,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5490,7 +5463,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5510,7 +5483,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5530,7 +5503,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5550,7 +5523,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5570,7 +5543,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5590,7 +5563,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5610,7 +5583,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5630,7 +5603,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5650,7 +5623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5670,7 +5643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5690,7 +5663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5710,7 +5683,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5730,7 +5703,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5750,7 +5723,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5770,7 +5743,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5810,7 +5783,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8" ht="13.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5830,7 +5803,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5850,7 +5823,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5870,7 +5843,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5890,7 +5863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5910,7 +5883,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5930,7 +5903,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5950,7 +5923,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5970,7 +5943,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5990,7 +5963,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6010,7 +5983,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6030,7 +6003,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6051,7 +6024,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6071,7 +6044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6091,15 +6064,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>7</v>
@@ -6114,15 +6087,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>15</v>
@@ -6137,15 +6110,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>15</v>
@@ -6160,15 +6133,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>15</v>
@@ -6183,15 +6156,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
@@ -6206,15 +6179,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row r="73" spans="1:8" ht="13.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
@@ -6229,15 +6202,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row r="74" spans="1:8" ht="13.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C74" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
@@ -6252,15 +6225,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="13.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
@@ -6275,15 +6248,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row r="76" spans="1:8" ht="13.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C76" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
@@ -6298,15 +6271,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row r="77" spans="1:8" ht="13.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C77" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
@@ -6321,15 +6294,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row r="78" spans="1:8" ht="13.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
@@ -6344,15 +6317,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row r="79" spans="1:8" ht="13.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C79" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>15</v>
@@ -6367,15 +6340,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row r="80" spans="1:8" ht="13.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C80" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
@@ -6390,15 +6363,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row r="81" spans="1:8" ht="13.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C81" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
@@ -6413,15 +6386,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row r="82" spans="1:8" ht="13.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
@@ -6436,15 +6409,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row r="83" spans="1:8" ht="13.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C83" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
@@ -6459,15 +6432,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row r="84" spans="1:8" ht="13.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C84" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
@@ -6482,15 +6455,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row r="85" spans="1:8" ht="13.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C85" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
@@ -6505,17 +6478,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row r="86" spans="1:8" ht="13.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C86" t="s">
-        <v>667</v>
-      </c>
-      <c r="D86" s="64" t="s">
+        <v>658</v>
+      </c>
+      <c r="D86" s="63" t="s">
         <v>438</v>
       </c>
       <c r="G86" t="s">
@@ -6525,17 +6498,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row r="87" spans="1:8" ht="13.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C87" t="s">
-        <v>668</v>
-      </c>
-      <c r="D87" s="65" t="s">
+        <v>659</v>
+      </c>
+      <c r="D87" s="64" t="s">
         <v>438</v>
       </c>
       <c r="G87" t="s">
@@ -6545,17 +6518,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row r="88" spans="1:8" ht="13.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C88" t="s">
-        <v>669</v>
-      </c>
-      <c r="D88" s="65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D88" s="64" t="s">
         <v>438</v>
       </c>
       <c r="G88" t="s">
@@ -6565,17 +6538,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row r="89" spans="1:8" ht="13.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C89" t="s">
-        <v>670</v>
-      </c>
-      <c r="D89" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D89" s="64" t="s">
         <v>438</v>
       </c>
       <c r="G89" t="s">
@@ -6585,17 +6558,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row r="90" spans="1:8" ht="13.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C90" t="s">
-        <v>671</v>
-      </c>
-      <c r="D90" s="66" t="s">
+        <v>662</v>
+      </c>
+      <c r="D90" s="65" t="s">
         <v>438</v>
       </c>
       <c r="G90" t="s">
@@ -6605,17 +6578,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row r="91" spans="1:8" ht="13.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C91" t="s">
-        <v>672</v>
-      </c>
-      <c r="D91" s="66" t="s">
+        <v>663</v>
+      </c>
+      <c r="D91" s="65" t="s">
         <v>438</v>
       </c>
       <c r="G91" t="s">
@@ -6625,17 +6598,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row r="92" spans="1:8" ht="13.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C92" t="s">
-        <v>664</v>
-      </c>
-      <c r="D92" s="66" t="s">
+        <v>655</v>
+      </c>
+      <c r="D92" s="65" t="s">
         <v>438</v>
       </c>
       <c r="G92" t="s">
@@ -6645,17 +6618,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row r="93" spans="1:8" ht="13.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C93" t="s">
-        <v>665</v>
-      </c>
-      <c r="D93" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="D93" s="65" t="s">
         <v>438</v>
       </c>
       <c r="G93" t="s">
@@ -6665,17 +6638,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row r="94" spans="1:8" ht="13.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C94" t="s">
-        <v>713</v>
-      </c>
-      <c r="D94" s="67" t="s">
+        <v>703</v>
+      </c>
+      <c r="D94" s="66" t="s">
         <v>438</v>
       </c>
       <c r="G94" t="s">
@@ -6685,17 +6658,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row r="95" spans="1:8" ht="13.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C95" t="s">
-        <v>711</v>
-      </c>
-      <c r="D95" s="67" t="s">
+        <v>701</v>
+      </c>
+      <c r="D95" s="66" t="s">
         <v>438</v>
       </c>
       <c r="G95" t="s">
@@ -6705,17 +6678,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row r="96" spans="1:8" ht="13.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C96" t="s">
-        <v>712</v>
-      </c>
-      <c r="D96" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="D96" s="66" t="s">
         <v>438</v>
       </c>
       <c r="G96" t="s">
@@ -6725,17 +6698,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row r="97" spans="1:8" ht="13.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C97" t="s">
-        <v>714</v>
-      </c>
-      <c r="D97" s="72" t="s">
+        <v>704</v>
+      </c>
+      <c r="D97" s="71" t="s">
         <v>438</v>
       </c>
       <c r="G97" t="s">
@@ -6841,37 +6814,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U105" sqref="U105"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.77734375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.5546875" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="25" max="33" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="31" width="19.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27.75">
+    <row r="1" spans="1:35" ht="27.6">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6936,47 +6909,41 @@
         <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>70</v>
+        <v>706</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-    </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -7046,10 +7013,8 @@
       <c r="AG2" s="28"/>
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-    </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:35" ht="15" customHeight="1">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -7119,15 +7084,13 @@
       <c r="AG3" s="28"/>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-    </row>
-    <row r="4" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>676</v>
+      <c r="B4" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>91</v>
@@ -7135,31 +7098,31 @@
       <c r="D4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="67" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="68" t="s">
-        <v>678</v>
+      <c r="H4" s="67" t="s">
+        <v>669</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="73" t="s">
-        <v>679</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>680</v>
+      <c r="K4" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>671</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>213</v>
       </c>
       <c r="O4" s="28">
@@ -7174,8 +7137,8 @@
       <c r="R4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="68" t="s">
-        <v>677</v>
+      <c r="S4" s="67" t="s">
+        <v>668</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>83</v>
@@ -7184,7 +7147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -7256,10 +7219,8 @@
       <c r="AG5" s="28"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -7319,8 +7280,8 @@
       <c r="U6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -7333,15 +7294,13 @@
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-    </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>676</v>
+      <c r="B7" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>109</v>
@@ -7359,15 +7318,15 @@
         <v>110</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="73" t="s">
-        <v>447</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>681</v>
+      <c r="K7" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>672</v>
       </c>
       <c r="M7" s="28">
         <v>4</v>
@@ -7388,7 +7347,7 @@
         <v>109</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>107</v>
@@ -7396,8 +7355,8 @@
       <c r="U7" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -7410,10 +7369,8 @@
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-    </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -7471,8 +7428,8 @@
       <c r="U8" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
@@ -7481,14 +7438,12 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-    </row>
-    <row r="9" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -7505,13 +7460,13 @@
         <v>183</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>448</v>
+        <v>218</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>103</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>92</v>
@@ -7547,7 +7502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -7564,13 +7519,13 @@
         <v>183</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>608</v>
+        <v>281</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>210</v>
@@ -7603,12 +7558,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>676</v>
+      <c r="B11" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>116</v>
@@ -7616,7 +7571,7 @@
       <c r="D11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="70" t="s">
         <v>184</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -7625,21 +7580,21 @@
       <c r="G11" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="71" t="s">
-        <v>704</v>
+      <c r="H11" s="70" t="s">
+        <v>694</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="70" t="s">
         <v>330</v>
       </c>
       <c r="M11" s="33">
         <v>4</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="70" t="s">
         <v>213</v>
       </c>
       <c r="O11" s="38"/>
@@ -7652,8 +7607,8 @@
       <c r="R11" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="S11" s="71" t="s">
-        <v>703</v>
+      <c r="S11" s="70" t="s">
+        <v>693</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>107</v>
@@ -7661,30 +7616,28 @@
       <c r="U11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="Y11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA11" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-    </row>
-    <row r="12" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -7707,13 +7660,13 @@
         <v>122</v>
       </c>
       <c r="H12" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>452</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>454</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -7731,7 +7684,7 @@
         <v>123</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T12" s="28" t="s">
         <v>107</v>
@@ -7740,7 +7693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -7751,19 +7704,19 @@
         <v>124</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>183</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>122</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>92</v>
@@ -7795,11 +7748,11 @@
       <c r="U13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="V13" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -7822,16 +7775,16 @@
         <v>127</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
@@ -7849,7 +7802,7 @@
         <v>128</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T14" s="28" t="s">
         <v>107</v>
@@ -7857,19 +7810,19 @@
       <c r="U14" s="28" t="s">
         <v>108</v>
       </c>
+      <c r="AA14" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="AC14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE14" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>676</v>
+      <c r="B15" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>100</v>
@@ -7880,17 +7833,17 @@
       <c r="E15" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="68" t="s">
         <v>218</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>103</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>462</v>
+        <v>459</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>460</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>129</v>
@@ -7911,7 +7864,7 @@
         <v>106</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T15" s="28" t="s">
         <v>107</v>
@@ -7920,7 +7873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -7937,13 +7890,13 @@
         <v>183</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>92</v>
@@ -7979,12 +7932,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>676</v>
+      <c r="B17" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>131</v>
@@ -7995,16 +7948,16 @@
       <c r="E17" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="68" t="s">
         <v>218</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>103</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="K17" s="73" t="s">
+        <v>604</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>437</v>
       </c>
       <c r="L17" s="28" t="s">
@@ -8026,7 +7979,7 @@
         <v>131</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="T17" s="28" t="s">
         <v>107</v>
@@ -8035,7 +7988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -8064,10 +8017,10 @@
         <v>92</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M18" s="28">
         <v>4</v>
@@ -8085,7 +8038,7 @@
         <v>128</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>107</v>
@@ -8094,12 +8047,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="28">
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>100</v>
@@ -8150,8 +8103,8 @@
       <c r="U19" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
@@ -8164,10 +8117,8 @@
       <c r="AG19" s="28"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -8227,8 +8178,8 @@
       <c r="U20" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
       <c r="Z20" s="28"/>
@@ -8241,10 +8192,8 @@
       <c r="AG20" s="28"/>
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-    </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -8300,8 +8249,8 @@
       <c r="U21" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
       <c r="Z21" s="28"/>
@@ -8314,10 +8263,8 @@
       <c r="AG21" s="28"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-    </row>
-    <row r="22" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -8340,16 +8287,16 @@
         <v>127</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M22" s="28">
         <v>3</v>
@@ -8370,7 +8317,7 @@
         <v>140</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T22" s="28" t="s">
         <v>107</v>
@@ -8378,24 +8325,24 @@
       <c r="U22" s="28" t="s">
         <v>108</v>
       </c>
+      <c r="V22" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="X22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Z22" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="73" t="s">
-        <v>676</v>
+      <c r="B23" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="28" t="s">
@@ -8443,8 +8390,8 @@
       <c r="U23" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
       <c r="X23" s="28"/>
       <c r="Y23" s="28"/>
       <c r="Z23" s="28"/>
@@ -8457,10 +8404,8 @@
       <c r="AG23" s="28"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-    </row>
-    <row r="24" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -8483,13 +8428,13 @@
         <v>122</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>146</v>
@@ -8513,7 +8458,7 @@
         <v>123</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T24" s="28" t="s">
         <v>107</v>
@@ -8522,7 +8467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -8594,15 +8539,13 @@
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-    </row>
-    <row r="26" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="73" t="s">
-        <v>676</v>
+      <c r="B26" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>152</v>
@@ -8620,16 +8563,16 @@
         <v>154</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="72" t="s">
         <v>226</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="M26" s="28">
         <v>2</v>
@@ -8647,7 +8590,7 @@
         <v>152</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="T26" s="28" t="s">
         <v>83</v>
@@ -8656,12 +8599,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="73" t="s">
-        <v>676</v>
+      <c r="B27" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>155</v>
@@ -8669,8 +8612,8 @@
       <c r="D27" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="69" t="s">
-        <v>682</v>
+      <c r="E27" s="68" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>96</v>
@@ -8678,18 +8621,18 @@
       <c r="G27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="68" t="s">
         <v>210</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>92</v>
       </c>
       <c r="J27" s="28"/>
-      <c r="K27" s="73" t="s">
-        <v>684</v>
-      </c>
-      <c r="L27" s="69" t="s">
-        <v>685</v>
+      <c r="K27" s="72" t="s">
+        <v>674</v>
+      </c>
+      <c r="L27" s="68" t="s">
+        <v>675</v>
       </c>
       <c r="M27" s="28">
         <v>2</v>
@@ -8707,8 +8650,8 @@
       <c r="R27" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="S27" s="69" t="s">
-        <v>683</v>
+      <c r="S27" s="68" t="s">
+        <v>673</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>83</v>
@@ -8730,10 +8673,8 @@
       <c r="AG27" s="28"/>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-    </row>
-    <row r="28" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -8756,16 +8697,16 @@
         <v>148</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M28" s="28">
         <v>4</v>
@@ -8783,7 +8724,7 @@
         <v>156</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T28" s="28" t="s">
         <v>83</v>
@@ -8792,12 +8733,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="28">
         <v>28</v>
       </c>
-      <c r="B29" s="73" t="s">
-        <v>676</v>
+      <c r="B29" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>157</v>
@@ -8805,8 +8746,8 @@
       <c r="D29" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="69" t="s">
-        <v>686</v>
+      <c r="E29" s="68" t="s">
+        <v>676</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>96</v>
@@ -8814,18 +8755,18 @@
       <c r="G29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="69" t="s">
-        <v>688</v>
+      <c r="H29" s="68" t="s">
+        <v>678</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>92</v>
       </c>
       <c r="J29" s="28"/>
-      <c r="K29" s="73" t="s">
-        <v>689</v>
-      </c>
-      <c r="L29" s="69" t="s">
-        <v>690</v>
+      <c r="K29" s="72" t="s">
+        <v>679</v>
+      </c>
+      <c r="L29" s="68" t="s">
+        <v>680</v>
       </c>
       <c r="M29" s="28">
         <v>4</v>
@@ -8843,8 +8784,8 @@
       <c r="R29" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="69" t="s">
-        <v>687</v>
+      <c r="S29" s="68" t="s">
+        <v>677</v>
       </c>
       <c r="T29" s="28" t="s">
         <v>83</v>
@@ -8866,10 +8807,8 @@
       <c r="AG29" s="28"/>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-    </row>
-    <row r="30" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -8886,13 +8825,13 @@
         <v>183</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>477</v>
+        <v>705</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>154</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>92</v>
@@ -8928,12 +8867,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="28">
         <v>30</v>
       </c>
-      <c r="B31" s="73" t="s">
-        <v>676</v>
+      <c r="B31" s="72" t="s">
+        <v>667</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>159</v>
@@ -8941,7 +8880,7 @@
       <c r="D31" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="68" t="s">
         <v>184</v>
       </c>
       <c r="F31" s="30" t="s">
@@ -8950,13 +8889,13 @@
       <c r="G31" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="68" t="s">
         <v>210</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="73" t="s">
-        <v>692</v>
+      <c r="K31" s="72" t="s">
+        <v>682</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>161</v>
@@ -8968,17 +8907,17 @@
         <v>1</v>
       </c>
       <c r="O31" s="28"/>
-      <c r="P31" s="69" t="s">
+      <c r="P31" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="Q31" s="69" t="s">
+      <c r="Q31" s="68" t="s">
         <v>210</v>
       </c>
       <c r="R31" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="S31" s="69" t="s">
-        <v>691</v>
+      <c r="S31" s="68" t="s">
+        <v>681</v>
       </c>
       <c r="T31" s="28" t="s">
         <v>83</v>
@@ -9000,10 +8939,8 @@
       <c r="AG31" s="28"/>
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-    </row>
-    <row r="32" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -9026,7 +8963,7 @@
         <v>87</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>92</v>
@@ -9053,7 +8990,7 @@
         <v>162</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T32" s="28" t="s">
         <v>83</v>
@@ -9062,7 +8999,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A33" s="28" t="s">
         <v>206</v>
       </c>
@@ -9121,7 +9058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A34" s="28" t="s">
         <v>217</v>
       </c>
@@ -9180,7 +9117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A35" s="28" t="s">
         <v>224</v>
       </c>
@@ -9239,7 +9176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A36" s="28" t="s">
         <v>230</v>
       </c>
@@ -9298,7 +9235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A37" s="28" t="s">
         <v>237</v>
       </c>
@@ -9357,7 +9294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A38" s="28" t="s">
         <v>243</v>
       </c>
@@ -9416,7 +9353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A39" s="28" t="s">
         <v>251</v>
       </c>
@@ -9475,7 +9412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A40" s="28" t="s">
         <v>254</v>
       </c>
@@ -9534,7 +9471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A41" s="28" t="s">
         <v>257</v>
       </c>
@@ -9593,7 +9530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A42" s="28" t="s">
         <v>266</v>
       </c>
@@ -9652,7 +9589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A43" s="28" t="s">
         <v>270</v>
       </c>
@@ -9711,7 +9648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A44" s="28" t="s">
         <v>279</v>
       </c>
@@ -9770,7 +9707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A45" s="28" t="s">
         <v>286</v>
       </c>
@@ -9829,7 +9766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A46" s="28" t="s">
         <v>292</v>
       </c>
@@ -9888,7 +9825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A47" s="28" t="s">
         <v>298</v>
       </c>
@@ -9947,7 +9884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A48" s="28" t="s">
         <v>304</v>
       </c>
@@ -10006,7 +9943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
@@ -10065,7 +10002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A50" s="28" t="s">
         <v>315</v>
       </c>
@@ -10124,7 +10061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A51" s="28" t="s">
         <v>321</v>
       </c>
@@ -10183,7 +10120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A52" s="28" t="s">
         <v>327</v>
       </c>
@@ -10242,7 +10179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A53" s="28" t="s">
         <v>354</v>
       </c>
@@ -10301,7 +10238,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75">
+    <row r="54" spans="1:21" ht="13.2">
       <c r="A54" t="s">
         <v>360</v>
       </c>
@@ -10360,7 +10297,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A55" s="28" t="s">
         <v>364</v>
       </c>
@@ -10419,7 +10356,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A56" s="28" t="s">
         <v>370</v>
       </c>
@@ -10478,7 +10415,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A57" s="28" t="s">
         <v>375</v>
       </c>
@@ -10537,7 +10474,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A58" s="28" t="s">
         <v>382</v>
       </c>
@@ -10596,7 +10533,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A59" s="28" t="s">
         <v>388</v>
       </c>
@@ -10655,7 +10592,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A60" s="28" t="s">
         <v>395</v>
       </c>
@@ -10714,7 +10651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A61" s="28" t="s">
         <v>402</v>
       </c>
@@ -10773,7 +10710,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A62" s="28" t="s">
         <v>408</v>
       </c>
@@ -10832,7 +10769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A63" s="28" t="s">
         <v>411</v>
       </c>
@@ -10891,7 +10828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A64" s="28" t="s">
         <v>416</v>
       </c>
@@ -10950,7 +10887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A65" s="28" t="s">
         <v>422</v>
       </c>
@@ -11009,7 +10946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A66" s="28" t="s">
         <v>427</v>
       </c>
@@ -11068,7 +11005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A67" s="28" t="s">
         <v>433</v>
       </c>
@@ -11100,7 +11037,7 @@
         <v>825000</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="M67" s="28" t="s">
         <v>212</v>
@@ -11118,7 +11055,7 @@
         <v>434</v>
       </c>
       <c r="S67" s="28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="T67" s="28" t="s">
         <v>107</v>
@@ -11127,15 +11064,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A68" s="28" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>86</v>
@@ -11150,7 +11087,7 @@
         <v>232</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>209</v>
@@ -11159,7 +11096,7 @@
         <v>210</v>
       </c>
       <c r="L68" s="28" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M68" s="28" t="s">
         <v>213</v>
@@ -11174,10 +11111,10 @@
         <v>215</v>
       </c>
       <c r="R68" s="28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="S68" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="T68" s="28" t="s">
         <v>83</v>
@@ -11185,22 +11122,16 @@
       <c r="U68" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V68" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W68" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A69" s="28" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>272</v>
@@ -11239,10 +11170,10 @@
         <v>277</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="S69" s="28" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="T69" s="28" t="s">
         <v>83</v>
@@ -11250,22 +11181,16 @@
       <c r="U69" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V69" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W69" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A70" s="28" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>86</v>
@@ -11280,16 +11205,16 @@
         <v>118</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M70" s="28" t="s">
         <v>215</v>
@@ -11304,10 +11229,10 @@
         <v>215</v>
       </c>
       <c r="R70" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="S70" s="28" t="s">
         <v>507</v>
-      </c>
-      <c r="S70" s="28" t="s">
-        <v>511</v>
       </c>
       <c r="T70" s="28" t="s">
         <v>83</v>
@@ -11315,22 +11240,16 @@
       <c r="U70" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V70" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W70" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A71" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>86</v>
@@ -11345,7 +11264,7 @@
         <v>122</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>209</v>
@@ -11354,7 +11273,7 @@
         <v>312</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M71" s="28" t="s">
         <v>263</v>
@@ -11369,10 +11288,10 @@
         <v>215</v>
       </c>
       <c r="R71" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="S71" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="T71" s="28" t="s">
         <v>83</v>
@@ -11380,16 +11299,10 @@
       <c r="U71" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V71" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W71" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A72" s="28" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>7</v>
@@ -11410,7 +11323,7 @@
         <v>103</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>209</v>
@@ -11437,7 +11350,7 @@
         <v>222</v>
       </c>
       <c r="S72" s="28" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="T72" s="28" t="s">
         <v>83</v>
@@ -11445,16 +11358,10 @@
       <c r="U72" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="V72" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W72" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A73" s="28" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>7</v>
@@ -11475,16 +11382,16 @@
         <v>87</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M73" s="28" t="s">
         <v>213</v>
@@ -11502,7 +11409,7 @@
         <v>228</v>
       </c>
       <c r="S73" s="28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>107</v>
@@ -11511,15 +11418,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A74" s="28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>272</v>
@@ -11534,16 +11441,16 @@
         <v>232</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>212</v>
@@ -11558,10 +11465,10 @@
         <v>210</v>
       </c>
       <c r="R74" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="S74" s="28" t="s">
         <v>524</v>
-      </c>
-      <c r="S74" s="28" t="s">
-        <v>528</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>107</v>
@@ -11570,15 +11477,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A75" s="28" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>86</v>
@@ -11593,16 +11500,16 @@
         <v>247</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M75" s="28" t="s">
         <v>213</v>
@@ -11617,10 +11524,10 @@
         <v>215</v>
       </c>
       <c r="R75" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="S75" s="28" t="s">
         <v>530</v>
-      </c>
-      <c r="S75" s="28" t="s">
-        <v>534</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>107</v>
@@ -11628,16 +11535,10 @@
       <c r="U75" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V75" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W75" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A76" s="28" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>7</v>
@@ -11658,16 +11559,16 @@
         <v>87</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M76" s="28" t="s">
         <v>263</v>
@@ -11685,7 +11586,7 @@
         <v>228</v>
       </c>
       <c r="S76" s="28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>107</v>
@@ -11694,15 +11595,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A77" s="28" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>272</v>
@@ -11714,19 +11615,19 @@
         <v>218</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K77" s="28" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M77" s="28" t="s">
         <v>215</v>
@@ -11741,10 +11642,10 @@
         <v>277</v>
       </c>
       <c r="R77" s="28" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="S77" s="28" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>107</v>
@@ -11753,15 +11654,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A78" s="28" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>86</v>
@@ -11776,13 +11677,13 @@
         <v>103</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L78" s="28" t="s">
         <v>150</v>
@@ -11800,10 +11701,10 @@
         <v>215</v>
       </c>
       <c r="R78" s="28" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>107</v>
@@ -11811,22 +11712,16 @@
       <c r="U78" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V78" s="63">
-        <v>44339</v>
-      </c>
-      <c r="W78" s="28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" s="28" customFormat="1" ht="13.5">
+    </row>
+    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A79" s="28" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>78</v>
@@ -11841,16 +11736,16 @@
         <v>218</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K79" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L79" s="28" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M79" s="28" t="s">
         <v>215</v>
@@ -11865,10 +11760,10 @@
         <v>210</v>
       </c>
       <c r="R79" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="S79" s="28" t="s">
         <v>551</v>
-      </c>
-      <c r="S79" s="28" t="s">
-        <v>555</v>
       </c>
       <c r="T79" s="28" t="s">
         <v>107</v>
@@ -11877,15 +11772,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="28" customFormat="1" ht="13.5">
+    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A80" s="28" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>272</v>
@@ -11900,16 +11795,16 @@
         <v>259</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L80" s="28" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M80" s="28" t="s">
         <v>213</v>
@@ -11924,10 +11819,10 @@
         <v>215</v>
       </c>
       <c r="R80" s="28" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="S80" s="28" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>107</v>
@@ -11936,9 +11831,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A81" s="28" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>7</v>
@@ -11959,16 +11854,16 @@
         <v>87</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K81" s="28" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M81" s="28" t="s">
         <v>263</v>
@@ -11986,7 +11881,7 @@
         <v>228</v>
       </c>
       <c r="S81" s="28" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T81" s="28" t="s">
         <v>107</v>
@@ -11995,9 +11890,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A82" s="28" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>7</v>
@@ -12018,16 +11913,16 @@
         <v>127</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K82" s="28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M82" s="28" t="s">
         <v>212</v>
@@ -12045,7 +11940,7 @@
         <v>268</v>
       </c>
       <c r="S82" s="28" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>107</v>
@@ -12054,9 +11949,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A83" s="28" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>7</v>
@@ -12077,16 +11972,16 @@
         <v>103</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K83" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L83" s="28" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M83" s="28" t="s">
         <v>212</v>
@@ -12104,7 +11999,7 @@
         <v>222</v>
       </c>
       <c r="S83" s="28" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="T83" s="28" t="s">
         <v>107</v>
@@ -12113,9 +12008,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A84" s="28" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>7</v>
@@ -12136,16 +12031,16 @@
         <v>118</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L84" s="28" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M84" s="28" t="s">
         <v>212</v>
@@ -12160,10 +12055,10 @@
         <v>215</v>
       </c>
       <c r="R84" s="28" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="S84" s="28" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="T84" s="28" t="s">
         <v>107</v>
@@ -12172,15 +12067,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A85" s="28" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>78</v>
@@ -12192,19 +12087,19 @@
         <v>153</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K85" s="28">
         <v>349000</v>
       </c>
       <c r="L85" s="28" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="M85" s="28">
         <v>1</v>
@@ -12219,10 +12114,10 @@
         <v>277</v>
       </c>
       <c r="R85" s="28" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="S85" s="28" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="T85" s="28" t="s">
         <v>107</v>
@@ -12231,15 +12126,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A86" s="28" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>86</v>
@@ -12254,7 +12149,7 @@
         <v>122</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>209</v>
@@ -12263,7 +12158,7 @@
         <v>210</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M86" s="28" t="s">
         <v>212</v>
@@ -12278,10 +12173,10 @@
         <v>215</v>
       </c>
       <c r="R86" s="28" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="S86" s="28" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="T86" s="28" t="s">
         <v>83</v>
@@ -12290,15 +12185,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A87" s="28" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>86</v>
@@ -12310,16 +12205,16 @@
         <v>80</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L87" s="28" t="s">
         <v>150</v>
@@ -12337,10 +12232,10 @@
         <v>215</v>
       </c>
       <c r="R87" s="28" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="S87" s="28" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="T87" s="28" t="s">
         <v>83</v>
@@ -12349,15 +12244,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A88" s="28" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>78</v>
@@ -12372,7 +12267,7 @@
         <v>80</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>209</v>
@@ -12396,10 +12291,10 @@
         <v>277</v>
       </c>
       <c r="R88" s="28" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="S88" s="28" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="T88" s="28" t="s">
         <v>83</v>
@@ -12408,15 +12303,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A89" s="28" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>86</v>
@@ -12428,10 +12323,10 @@
         <v>80</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>209</v>
@@ -12440,7 +12335,7 @@
         <v>210</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="M89" s="28" t="s">
         <v>213</v>
@@ -12455,10 +12350,10 @@
         <v>215</v>
       </c>
       <c r="R89" s="28" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="S89" s="28" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="T89" s="28" t="s">
         <v>83</v>
@@ -12467,15 +12362,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A90" s="28" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>86</v>
@@ -12490,7 +12385,7 @@
         <v>87</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>209</v>
@@ -12514,10 +12409,10 @@
         <v>215</v>
       </c>
       <c r="R90" s="28" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="S90" s="28" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="T90" s="28" t="s">
         <v>107</v>
@@ -12526,15 +12421,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A91" s="28" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>86</v>
@@ -12549,7 +12444,7 @@
         <v>332</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I91" s="28" t="s">
         <v>209</v>
@@ -12573,10 +12468,10 @@
         <v>277</v>
       </c>
       <c r="R91" s="28" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="S91" s="28" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="T91" s="28" t="s">
         <v>107</v>
@@ -12585,15 +12480,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.8">
       <c r="A92" s="28" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>78</v>
@@ -12608,16 +12503,16 @@
         <v>218</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I92" s="28" t="s">
         <v>209</v>
       </c>
       <c r="K92" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L92" s="28" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M92" s="28" t="s">
         <v>215</v>
@@ -12632,10 +12527,10 @@
         <v>210</v>
       </c>
       <c r="R92" s="28" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="S92" s="28" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="T92" s="28" t="s">
         <v>107</v>
@@ -12644,12 +12539,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="13.5">
+    <row r="93" spans="1:21" ht="13.8">
       <c r="A93" t="s">
-        <v>656</v>
-      </c>
-      <c r="B93" s="70" t="s">
-        <v>676</v>
+        <v>647</v>
+      </c>
+      <c r="B93" t="s">
+        <v>438</v>
       </c>
       <c r="C93" t="s">
         <v>121</v>
@@ -12660,41 +12555,41 @@
       <c r="E93" t="s">
         <v>184</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="69" t="s">
         <v>246</v>
       </c>
       <c r="G93" t="s">
         <v>122</v>
       </c>
-      <c r="H93" s="70" t="s">
-        <v>577</v>
+      <c r="H93" s="69" t="s">
+        <v>573</v>
       </c>
       <c r="I93" t="s">
         <v>209</v>
       </c>
-      <c r="K93" s="70" t="s">
-        <v>559</v>
-      </c>
-      <c r="L93" s="70" t="s">
-        <v>560</v>
-      </c>
-      <c r="M93" s="70" t="s">
+      <c r="K93" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="L93" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="M93" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="N93" s="70" t="s">
+      <c r="N93" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="P93" s="70" t="s">
+      <c r="P93" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="Q93" s="70" t="s">
+      <c r="Q93" s="69" t="s">
         <v>215</v>
       </c>
       <c r="R93" t="s">
-        <v>657</v>
-      </c>
-      <c r="S93" s="70" t="s">
-        <v>579</v>
+        <v>648</v>
+      </c>
+      <c r="S93" s="69" t="s">
+        <v>575</v>
       </c>
       <c r="T93" s="28" t="s">
         <v>107</v>
@@ -12703,15 +12598,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="13.5">
+    <row r="94" spans="1:21" ht="13.8">
       <c r="A94" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B94" t="s">
         <v>438</v>
       </c>
       <c r="C94" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D94" t="s">
         <v>86</v>
@@ -12726,7 +12621,7 @@
         <v>148</v>
       </c>
       <c r="H94" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I94" t="s">
         <v>209</v>
@@ -12735,7 +12630,7 @@
         <v>210</v>
       </c>
       <c r="L94" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="M94" t="s">
         <v>212</v>
@@ -12750,10 +12645,10 @@
         <v>215</v>
       </c>
       <c r="R94" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="S94" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>83</v>
@@ -12762,15 +12657,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="13.5">
+    <row r="95" spans="1:21" ht="13.8">
       <c r="A95" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B95" t="s">
         <v>438</v>
       </c>
       <c r="C95" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D95" t="s">
         <v>86</v>
@@ -12791,10 +12686,10 @@
         <v>209</v>
       </c>
       <c r="K95" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L95" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="M95" t="s">
         <v>212</v>
@@ -12809,10 +12704,10 @@
         <v>215</v>
       </c>
       <c r="R95" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="S95" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>83</v>
@@ -12821,9 +12716,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="13.5">
+    <row r="96" spans="1:21" ht="13.8">
       <c r="A96" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B96" t="s">
         <v>438</v>
@@ -12837,41 +12732,41 @@
       <c r="E96" t="s">
         <v>79</v>
       </c>
-      <c r="F96" s="73" t="s">
+      <c r="F96" s="72" t="s">
         <v>218</v>
       </c>
       <c r="G96" t="s">
         <v>87</v>
       </c>
-      <c r="H96" s="73" t="s">
-        <v>449</v>
+      <c r="H96" s="72" t="s">
+        <v>447</v>
       </c>
       <c r="I96" t="s">
         <v>209</v>
       </c>
-      <c r="K96" s="73" t="s">
-        <v>455</v>
-      </c>
-      <c r="L96" s="73" t="s">
-        <v>574</v>
-      </c>
-      <c r="M96" s="73" t="s">
+      <c r="K96" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="L96" s="72" t="s">
+        <v>570</v>
+      </c>
+      <c r="M96" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="N96" s="73" t="s">
+      <c r="N96" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="P96" s="73" t="s">
+      <c r="P96" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="Q96" s="73" t="s">
+      <c r="Q96" s="72" t="s">
         <v>277</v>
       </c>
       <c r="R96" t="s">
         <v>228</v>
       </c>
-      <c r="S96" s="73" t="s">
-        <v>575</v>
+      <c r="S96" s="72" t="s">
+        <v>571</v>
       </c>
       <c r="T96" s="28" t="s">
         <v>83</v>
@@ -12880,15 +12775,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="13.5">
+    <row r="97" spans="1:21" ht="13.8">
       <c r="A97" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B97" t="s">
         <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D97" t="s">
         <v>86</v>
@@ -12903,7 +12798,7 @@
         <v>148</v>
       </c>
       <c r="H97" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I97" t="s">
         <v>209</v>
@@ -12912,7 +12807,7 @@
         <v>210</v>
       </c>
       <c r="L97" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="M97" t="s">
         <v>212</v>
@@ -12927,10 +12822,10 @@
         <v>215</v>
       </c>
       <c r="R97" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="S97" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>83</v>
@@ -12941,13 +12836,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{38D2612A-9F4E-4B79-B3B7-6162B58C1230}"/>
-    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{1E224870-A2D2-4119-99A3-9B51FD782071}">
+      <autoFilter ref="A1:AD33" xr:uid="{2452B91A-1092-476C-AA9F-A0F90977EB27}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -12955,8 +12846,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{2B19F17B-E94C-4ACA-A398-EF54335794CA}"/>
+    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="A1:AK1">
+  <conditionalFormatting sqref="A1:AI1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -13026,23 +12921,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.21875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.77734375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" customHeight="1">
@@ -13165,16 +13060,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9">
+    <row r="1" spans="1:26" ht="13.8">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\git\777Homes-business\src\main\resources\InputTestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59EA50-1A4A-4B74-81A8-904222A3D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA381021-8C8F-4AA4-9D58-4297210F2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="718">
   <si>
     <t>ID</t>
   </si>
@@ -3045,9 +3045,6 @@
     <t>https://www.allhomes.com.au/taylor-act-2913?tid=179073334</t>
   </si>
   <si>
-    <t>TO BE UPDATED</t>
-  </si>
-  <si>
     <t>New Door Properties presents this wonderful opportunity to secure a 4 bedroom beautiful home in Taylor.
 This 4 bedroom three bathroom comes with a practical layout and room to entertain and relax, you will feel right at home with the contemporary and neutral decor. You would notice that the inclusion list is quite generous with provision of high standard items. 
 House and Land Package Details:
@@ -3103,9 +3100,6 @@
   </si>
   <si>
     <t>$399,000+</t>
-  </si>
-  <si>
-    <t>NEW PRICE</t>
   </si>
   <si>
     <t>An amazing large home to enjoy living upon completion of this extravagant property nearby multiple walking &amp; bike trails, schools, and shops. All the local amenities are right on your doorstep to build lifetime memories in this amazing home.
@@ -3303,6 +3297,45 @@
   </si>
   <si>
     <t>PF - Central A/C</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5543&amp;amp;action=edit&amp;amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5525&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5730&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5748&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5762&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=6230&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5774&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=5786&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=6051&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=6058&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=6070&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/wp-admin/post.php?post=6090&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t>Owner Infor</t>
   </si>
 </sst>
 </file>
@@ -3998,25 +4031,25 @@
   <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD97"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="65" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.109375" style="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.1328125" style="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.8">
+    <row r="1" spans="1:28" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4083,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="58" t="s">
         <v>15</v>
       </c>
@@ -4091,14 +4124,16 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="13.8">
+    <row r="3" spans="1:28" ht="13.9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4144,7 +4179,9 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>706</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4183,14 +4220,14 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="13.8">
+    <row r="5" spans="1:28" ht="13.9">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="58" t="s">
         <v>15</v>
       </c>
@@ -4229,14 +4266,16 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="13.8">
+    <row r="6" spans="1:28" ht="13.9">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>707</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4271,14 +4310,16 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="13.8">
+    <row r="7" spans="1:28" ht="13.9">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>708</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4313,14 +4354,14 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="13.8">
+    <row r="8" spans="1:28" ht="13.9">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4355,14 +4396,14 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="13.8">
+    <row r="9" spans="1:28" ht="13.9">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="58" t="s">
         <v>15</v>
       </c>
@@ -4397,14 +4438,14 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="13.8">
+    <row r="10" spans="1:28" ht="13.9">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="58" t="s">
         <v>15</v>
       </c>
@@ -4439,14 +4480,16 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="13.8">
+    <row r="11" spans="1:28" ht="13.9">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>709</v>
+      </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
       </c>
@@ -4481,14 +4524,14 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="13.8">
+    <row r="12" spans="1:28" ht="13.9">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="58" t="s">
         <v>15</v>
       </c>
@@ -4523,14 +4566,14 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="13.8">
+    <row r="13" spans="1:28" ht="13.9">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="58" t="s">
         <v>15</v>
       </c>
@@ -4565,14 +4608,14 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="13.8">
+    <row r="14" spans="1:28" ht="13.9">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="58" t="s">
         <v>15</v>
       </c>
@@ -4607,14 +4650,16 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="13.8">
+    <row r="15" spans="1:28" ht="13.9">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>710</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>7</v>
       </c>
@@ -4649,14 +4694,14 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="13.8">
+    <row r="16" spans="1:28" ht="13.9">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="58" t="s">
         <v>15</v>
       </c>
@@ -4691,14 +4736,16 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="13.8">
+    <row r="17" spans="1:28" ht="13.9">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>711</v>
+      </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
       </c>
@@ -4733,14 +4780,14 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="13.8">
+    <row r="18" spans="1:28" ht="13.9">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="58" t="s">
         <v>15</v>
       </c>
@@ -4775,14 +4822,14 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.8">
+    <row r="19" spans="1:28" ht="13.9">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="16" t="s">
         <v>7</v>
       </c>
@@ -4817,14 +4864,14 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="13.8">
+    <row r="20" spans="1:28" ht="13.9">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="16" t="s">
         <v>7</v>
       </c>
@@ -4859,14 +4906,14 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="13.8">
+    <row r="21" spans="1:28" ht="13.9">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
@@ -4901,14 +4948,14 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="13.8">
+    <row r="22" spans="1:28" ht="13.9">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
@@ -4943,14 +4990,16 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="13.8">
+    <row r="23" spans="1:28" ht="13.9">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>712</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
@@ -4985,14 +5034,14 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="13.8">
+    <row r="24" spans="1:28" ht="13.9">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="16" t="s">
         <v>15</v>
       </c>
@@ -5027,14 +5076,14 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="13.8">
+    <row r="25" spans="1:28" ht="13.9">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="58" t="s">
         <v>15</v>
       </c>
@@ -5069,14 +5118,16 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="13.8">
+    <row r="26" spans="1:28" ht="13.9">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>713</v>
+      </c>
       <c r="D26" s="16" t="s">
         <v>7</v>
       </c>
@@ -5111,14 +5162,16 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="13.8">
+    <row r="27" spans="1:28" ht="13.9">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>714</v>
+      </c>
       <c r="D27" s="16" t="s">
         <v>7</v>
       </c>
@@ -5153,14 +5206,14 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="13.8">
+    <row r="28" spans="1:28" ht="13.9">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="58" t="s">
         <v>15</v>
       </c>
@@ -5195,14 +5248,16 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="13.8">
+    <row r="29" spans="1:28" ht="13.9">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="D29" s="16" t="s">
         <v>7</v>
       </c>
@@ -5237,14 +5292,14 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="13.8">
+    <row r="30" spans="1:28" ht="13.9">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="58" t="s">
         <v>15</v>
       </c>
@@ -5279,14 +5334,16 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="13.8">
+    <row r="31" spans="1:28" ht="13.9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>716</v>
+      </c>
       <c r="D31" s="16" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5378,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="13.8">
+    <row r="32" spans="1:28" ht="13.9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5363,7 +5420,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.8">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5383,7 +5440,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.8">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5403,7 +5460,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5423,7 +5480,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5443,7 +5500,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5463,7 +5520,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5483,7 +5540,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5503,7 +5560,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5523,7 +5580,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5543,7 +5600,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5563,7 +5620,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5583,7 +5640,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5603,7 +5660,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5623,7 +5680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5643,7 +5700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5663,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5683,7 +5740,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5703,7 +5760,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5723,7 +5780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5743,7 +5800,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5783,7 +5840,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.2">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5803,7 +5860,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5823,7 +5880,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5843,7 +5900,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5863,7 +5920,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5883,7 +5940,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5903,7 +5960,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5923,7 +5980,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5943,7 +6000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5963,7 +6020,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5983,7 +6040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6003,7 +6060,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6024,7 +6081,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6044,7 +6101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6064,7 +6121,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6087,7 +6144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6110,7 +6167,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6133,7 +6190,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6156,7 +6213,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6179,7 +6236,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.2">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6202,7 +6259,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.2">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6225,7 +6282,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="13.2">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6248,7 +6305,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.2">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6271,7 +6328,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.2">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6294,7 +6351,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.2">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6317,7 +6374,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.2">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6340,7 +6397,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.2">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6363,7 +6420,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.2">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6386,7 +6443,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.2">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6409,7 +6466,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.2">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6432,7 +6489,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.2">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6455,7 +6512,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.2">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6478,7 +6535,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.2">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6498,7 +6555,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.2">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6518,7 +6575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.2">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6538,7 +6595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.2">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6558,7 +6615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.2">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6578,7 +6635,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.2">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6598,7 +6655,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.2">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6618,7 +6675,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.2">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6638,7 +6695,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.2">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6646,7 +6703,7 @@
         <v>664</v>
       </c>
       <c r="C94" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D94" s="66" t="s">
         <v>438</v>
@@ -6658,7 +6715,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.2">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6666,7 +6723,7 @@
         <v>665</v>
       </c>
       <c r="C95" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D95" s="66" t="s">
         <v>438</v>
@@ -6678,7 +6735,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.2">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6686,7 +6743,7 @@
         <v>666</v>
       </c>
       <c r="C96" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D96" s="66" t="s">
         <v>438</v>
@@ -6698,15 +6755,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.2">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C97" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D97" s="71" t="s">
         <v>438</v>
@@ -6816,35 +6873,35 @@
   </sheetPr>
   <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.88671875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.21875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="23" max="31" width="19.19921875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.6">
+    <row r="1" spans="1:35" ht="27.75">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6924,7 +6981,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>73</v>
@@ -7089,8 +7146,8 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>667</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>91</v>
@@ -7108,16 +7165,16 @@
         <v>87</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K4" s="72" t="s">
+        <v>669</v>
+      </c>
+      <c r="L4" s="67" t="s">
         <v>670</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>671</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -7138,7 +7195,7 @@
         <v>93</v>
       </c>
       <c r="S4" s="67" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>83</v>
@@ -7299,8 +7356,8 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>667</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>109</v>
@@ -7326,7 +7383,7 @@
         <v>446</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M7" s="28">
         <v>4</v>
@@ -7562,8 +7619,8 @@
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>667</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>116</v>
@@ -7581,7 +7638,7 @@
         <v>118</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
@@ -7608,7 +7665,7 @@
         <v>119</v>
       </c>
       <c r="S11" s="70" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>107</v>
@@ -7821,8 +7878,8 @@
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>667</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>100</v>
@@ -7936,8 +7993,8 @@
       <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>667</v>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>131</v>
@@ -8336,8 +8393,8 @@
       <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>667</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>141</v>
@@ -8346,7 +8403,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>102</v>
@@ -8523,7 +8580,7 @@
         <v>83</v>
       </c>
       <c r="U25" s="28" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
@@ -8544,8 +8601,8 @@
       <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="72" t="s">
-        <v>667</v>
+      <c r="B26" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>152</v>
@@ -8596,15 +8653,15 @@
         <v>83</v>
       </c>
       <c r="U26" s="28" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="72" t="s">
-        <v>667</v>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>155</v>
@@ -8629,10 +8686,10 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="72" t="s">
+        <v>673</v>
+      </c>
+      <c r="L27" s="68" t="s">
         <v>674</v>
-      </c>
-      <c r="L27" s="68" t="s">
-        <v>675</v>
       </c>
       <c r="M27" s="28">
         <v>2</v>
@@ -8651,13 +8708,13 @@
         <v>155</v>
       </c>
       <c r="S27" s="68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>83</v>
       </c>
       <c r="U27" s="28" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
@@ -8730,15 +8787,15 @@
         <v>83</v>
       </c>
       <c r="U28" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="28">
         <v>28</v>
       </c>
-      <c r="B29" s="72" t="s">
-        <v>667</v>
+      <c r="B29" s="61" t="s">
+        <v>183</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>157</v>
@@ -8746,27 +8803,26 @@
       <c r="D29" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="68" t="s">
-        <v>676</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="68" t="s">
-        <v>678</v>
+      <c r="H29" s="28" t="s">
+        <v>676</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="72" t="s">
-        <v>679</v>
-      </c>
-      <c r="L29" s="68" t="s">
-        <v>680</v>
+      <c r="K29" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>678</v>
       </c>
       <c r="M29" s="28">
         <v>4</v>
@@ -8774,7 +8830,6 @@
       <c r="N29" s="28">
         <v>3</v>
       </c>
-      <c r="O29" s="28"/>
       <c r="P29" s="28">
         <v>6</v>
       </c>
@@ -8784,29 +8839,15 @@
       <c r="R29" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="68" t="s">
-        <v>677</v>
+      <c r="S29" s="28" t="s">
+        <v>675</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>83</v>
+        <v>717</v>
       </c>
       <c r="U29" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="28">
@@ -8825,7 +8866,7 @@
         <v>183</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>154</v>
@@ -8861,18 +8902,18 @@
         <v>210</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>83</v>
+        <v>717</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="28">
         <v>30</v>
       </c>
-      <c r="B31" s="72" t="s">
-        <v>667</v>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>159</v>
@@ -8895,7 +8936,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="72" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>161</v>
@@ -8917,13 +8958,13 @@
         <v>159</v>
       </c>
       <c r="S31" s="68" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>83</v>
+        <v>717</v>
       </c>
       <c r="U31" s="28" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
@@ -8999,7 +9040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A33" s="28" t="s">
         <v>206</v>
       </c>
@@ -9058,7 +9099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A34" s="28" t="s">
         <v>217</v>
       </c>
@@ -9117,7 +9158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A35" s="28" t="s">
         <v>224</v>
       </c>
@@ -9176,7 +9217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A36" s="28" t="s">
         <v>230</v>
       </c>
@@ -9235,7 +9276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A37" s="28" t="s">
         <v>237</v>
       </c>
@@ -9294,7 +9335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A38" s="28" t="s">
         <v>243</v>
       </c>
@@ -9353,7 +9394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A39" s="28" t="s">
         <v>251</v>
       </c>
@@ -9412,7 +9453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A40" s="28" t="s">
         <v>254</v>
       </c>
@@ -9471,7 +9512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A41" s="28" t="s">
         <v>257</v>
       </c>
@@ -9530,7 +9571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A42" s="28" t="s">
         <v>266</v>
       </c>
@@ -9589,7 +9630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A43" s="28" t="s">
         <v>270</v>
       </c>
@@ -9648,7 +9689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A44" s="28" t="s">
         <v>279</v>
       </c>
@@ -9707,7 +9748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A45" s="28" t="s">
         <v>286</v>
       </c>
@@ -9766,7 +9807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A46" s="28" t="s">
         <v>292</v>
       </c>
@@ -9825,7 +9866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A47" s="28" t="s">
         <v>298</v>
       </c>
@@ -9884,7 +9925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A48" s="28" t="s">
         <v>304</v>
       </c>
@@ -9943,7 +9984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
@@ -10002,7 +10043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A50" s="28" t="s">
         <v>315</v>
       </c>
@@ -10061,7 +10102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A51" s="28" t="s">
         <v>321</v>
       </c>
@@ -10120,7 +10161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A52" s="28" t="s">
         <v>327</v>
       </c>
@@ -10179,7 +10220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A53" s="28" t="s">
         <v>354</v>
       </c>
@@ -10238,7 +10279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="13.2">
+    <row r="54" spans="1:21" ht="12.75">
       <c r="A54" t="s">
         <v>360</v>
       </c>
@@ -10297,7 +10338,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A55" s="28" t="s">
         <v>364</v>
       </c>
@@ -10356,7 +10397,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A56" s="28" t="s">
         <v>370</v>
       </c>
@@ -10415,7 +10456,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A57" s="28" t="s">
         <v>375</v>
       </c>
@@ -10474,7 +10515,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A58" s="28" t="s">
         <v>382</v>
       </c>
@@ -10533,7 +10574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A59" s="28" t="s">
         <v>388</v>
       </c>
@@ -10592,7 +10633,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A60" s="28" t="s">
         <v>395</v>
       </c>
@@ -10651,7 +10692,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A61" s="28" t="s">
         <v>402</v>
       </c>
@@ -10710,7 +10751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A62" s="28" t="s">
         <v>408</v>
       </c>
@@ -10769,7 +10810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A63" s="28" t="s">
         <v>411</v>
       </c>
@@ -10828,7 +10869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A64" s="28" t="s">
         <v>416</v>
       </c>
@@ -10887,7 +10928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A65" s="28" t="s">
         <v>422</v>
       </c>
@@ -10946,7 +10987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A66" s="28" t="s">
         <v>427</v>
       </c>
@@ -11005,7 +11046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A67" s="28" t="s">
         <v>433</v>
       </c>
@@ -11064,7 +11105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="28" t="s">
         <v>495</v>
       </c>
@@ -11123,7 +11164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A69" s="28" t="s">
         <v>500</v>
       </c>
@@ -11182,7 +11223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A70" s="28" t="s">
         <v>502</v>
       </c>
@@ -11241,7 +11282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A71" s="28" t="s">
         <v>508</v>
       </c>
@@ -11300,7 +11341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A72" s="28" t="s">
         <v>513</v>
       </c>
@@ -11359,7 +11400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A73" s="28" t="s">
         <v>515</v>
       </c>
@@ -11418,7 +11459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A74" s="28" t="s">
         <v>519</v>
       </c>
@@ -11477,7 +11518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A75" s="28" t="s">
         <v>525</v>
       </c>
@@ -11536,7 +11577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A76" s="28" t="s">
         <v>531</v>
       </c>
@@ -11595,7 +11636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A77" s="28" t="s">
         <v>536</v>
       </c>
@@ -11654,7 +11695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A78" s="28" t="s">
         <v>543</v>
       </c>
@@ -11713,7 +11754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A79" s="28" t="s">
         <v>546</v>
       </c>
@@ -11772,7 +11813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A80" s="28" t="s">
         <v>552</v>
       </c>
@@ -11831,7 +11872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="28" t="s">
         <v>559</v>
       </c>
@@ -11890,7 +11931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A82" s="28" t="s">
         <v>564</v>
       </c>
@@ -11949,7 +11990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A83" s="28" t="s">
         <v>569</v>
       </c>
@@ -12008,7 +12049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A84" s="28" t="s">
         <v>572</v>
       </c>
@@ -12067,7 +12108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="28" t="s">
         <v>576</v>
       </c>
@@ -12126,7 +12167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="28" t="s">
         <v>617</v>
       </c>
@@ -12185,7 +12226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="28" t="s">
         <v>621</v>
       </c>
@@ -12244,7 +12285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A88" s="28" t="s">
         <v>626</v>
       </c>
@@ -12303,7 +12344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A89" s="28" t="s">
         <v>630</v>
       </c>
@@ -12362,7 +12403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A90" s="28" t="s">
         <v>636</v>
       </c>
@@ -12421,7 +12462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A91" s="28" t="s">
         <v>640</v>
       </c>
@@ -12480,7 +12521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.8">
+    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A92" s="28" t="s">
         <v>644</v>
       </c>
@@ -12539,12 +12580,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="13.8">
+    <row r="93" spans="1:21" ht="13.5">
       <c r="A93" t="s">
         <v>647</v>
       </c>
-      <c r="B93" t="s">
-        <v>438</v>
+      <c r="B93" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>121</v>
@@ -12598,15 +12639,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="13.8">
+    <row r="94" spans="1:21" ht="13.5">
       <c r="A94" t="s">
-        <v>683</v>
-      </c>
-      <c r="B94" t="s">
-        <v>438</v>
+        <v>681</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D94" t="s">
         <v>86</v>
@@ -12621,7 +12662,7 @@
         <v>148</v>
       </c>
       <c r="H94" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I94" t="s">
         <v>209</v>
@@ -12630,7 +12671,7 @@
         <v>210</v>
       </c>
       <c r="L94" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="M94" t="s">
         <v>212</v>
@@ -12645,10 +12686,10 @@
         <v>215</v>
       </c>
       <c r="R94" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S94" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>83</v>
@@ -12657,15 +12698,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="13.8">
+    <row r="95" spans="1:21" ht="13.5">
       <c r="A95" t="s">
-        <v>688</v>
-      </c>
-      <c r="B95" t="s">
-        <v>438</v>
+        <v>686</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D95" t="s">
         <v>86</v>
@@ -12689,7 +12730,7 @@
         <v>443</v>
       </c>
       <c r="L95" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M95" t="s">
         <v>212</v>
@@ -12704,10 +12745,10 @@
         <v>215</v>
       </c>
       <c r="R95" t="s">
+        <v>687</v>
+      </c>
+      <c r="S95" t="s">
         <v>689</v>
-      </c>
-      <c r="S95" t="s">
-        <v>691</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>83</v>
@@ -12716,12 +12757,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="13.8">
+    <row r="96" spans="1:21" ht="13.5">
       <c r="A96" t="s">
-        <v>692</v>
-      </c>
-      <c r="B96" t="s">
-        <v>438</v>
+        <v>690</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>91</v>
@@ -12775,15 +12816,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="13.8">
+    <row r="97" spans="1:21" ht="13.5">
       <c r="A97" t="s">
-        <v>696</v>
-      </c>
-      <c r="B97" t="s">
-        <v>438</v>
+        <v>694</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D97" t="s">
         <v>86</v>
@@ -12798,7 +12839,7 @@
         <v>148</v>
       </c>
       <c r="H97" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I97" t="s">
         <v>209</v>
@@ -12807,7 +12848,7 @@
         <v>210</v>
       </c>
       <c r="L97" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M97" t="s">
         <v>212</v>
@@ -12822,10 +12863,10 @@
         <v>215</v>
       </c>
       <c r="R97" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S97" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>83</v>
@@ -12838,7 +12879,7 @@
   <customSheetViews>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{2452B91A-1092-476C-AA9F-A0F90977EB27}">
+      <autoFilter ref="A1:AD33" xr:uid="{6C46D9A0-423D-4209-BC8B-2A919D166CCC}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -12848,7 +12889,7 @@
     </customSheetView>
     <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{2B19F17B-E94C-4ACA-A398-EF54335794CA}"/>
+      <autoFilter ref="A1:AD33" xr:uid="{EFC939B7-DF89-4B3F-B51B-36EEFA6E0F08}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
@@ -12921,23 +12962,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.21875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" customHeight="1">
@@ -13060,16 +13101,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8">
+    <row r="1" spans="1:26" ht="13.9">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439752A-6268-4ED2-97C7-D99E63ECE2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBC77D-CD4B-47D4-8102-651F5244D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3516,7 +3516,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3576,11 +3576,6 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3595,7 +3590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3737,7 +3732,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3976,9 +3970,9 @@
   </sheetPr>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -6767,8 +6761,8 @@
       <c r="C98" t="s">
         <v>717</v>
       </c>
-      <c r="D98" s="63" t="s">
-        <v>434</v>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>714</v>
@@ -6878,9 +6872,9 @@
   </sheetPr>
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A97" sqref="A97:XFD97"/>
+      <selection pane="topRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -12803,80 +12797,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="13.5">
-      <c r="A98" t="s">
+    <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A98" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="B98" t="s">
-        <v>434</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N98" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P98" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="Q98" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="R98" t="s">
+      <c r="R98" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="S98" t="s">
+      <c r="S98" s="28" t="s">
         <v>635</v>
       </c>
       <c r="T98" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="U98" t="s">
+      <c r="U98" s="28" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{B0ED3D05-3B5B-4FB4-9A60-B4383DAB1391}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{BE5A55DF-ED33-4C8A-8036-FC463D608211}">
+      <autoFilter ref="A1:AD33" xr:uid="{A8EDCA26-C172-46B6-964C-3378F9082C9B}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{E280BB77-753A-4243-B253-2341D02F5790}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176A150-6395-4026-BB14-892D1F48AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{30AB22AF-B962-45E9-A187-B441513416E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="13276" windowWidth="20715" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Listing" sheetId="2" r:id="rId2"/>
-    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
-    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
+    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
+    <sheet name="Listing" r:id="rId2" sheetId="2"/>
+    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
+    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
-    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
-    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -3333,6 +3333,105 @@
   </si>
   <si>
     <t>https://www.777homes.com.au/?post_type=property&amp;p=6070&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-11-15-bill-ferguson-circuit-bonner-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-294-1-anthony-rolfe-avenue-gungahlin-act-2912</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/14-hartley-street-turner-act-2612</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>11/15 Bill Ferguson Circuit, Bonner ACT 2914</t>
+  </si>
+  <si>
+    <t>Block/House: 106/ -</t>
+  </si>
+  <si>
+    <t>New Door Properties is proudly presenting this spacious 2-bedroom apartment that has been released to the market, so do not miss out the opportunity.
+Call to all first home buyers and investors!
+This apartment boasts lots of natural light, with spacious open plan living areas that create a sense of space. Also included is a split system air conditioner and you benefit from a good-sized North and South facing balcony. The modern kitchen has stainless steel appliances, combined with stone bench tops and a functional layout that makes life for the chef in the family a bit easier.
+The 2 bedrooms are all a good size, the master with Ensuite and there are robes in each room. The large bathroom also incorporates the European style laundry. Apartment is located on level 2, with secured entrance to the building along with the secured entrance to the car port located in the private complex.
+Easy walking distance to cafes, parks, playing fields and Neville Bonner Primary School is just walkable distance.
+Property Features:
+• Two Spacious Bedrooms
+• Main bedroom with Ensuite &amp; built-in-robe
+• Second bedroom with built-in-robe
+• Spacious Kitchen with ample of storage cupboards
+• Tiled splashback in kitchen
+• 600 mm stainless steel appliances, gas cooktop, oven &amp; dishwasher
+• European laundry in main bathroom
+- Separate two facing balcony
+• Split aircon in Living
+• Secured intercom entrance to the building, and carport
+• Strata fees: $857 per quarter (approx.)
+• Rates: $404 per quarter (approx.)
+Property Information:
+Living : 89 m2 (approx.)
+Balcony : 22 m2 (approx.)
+Storage : 4 m2 (approx.)
+EER : 6 Stars</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>294/1 Anthony Rolfe Ave, Gungahlin ACT 2912</t>
+  </si>
+  <si>
+    <t>Block/House: 76/ -</t>
+  </si>
+  <si>
+    <t>This is an incredible opportunity to own an apartment in the heart of Gungahlin. A stones throw from all the local amenities including Light Rail. You can't help but smile when you walk into this gorgeous apartment. This north facing apartment showcases some of the best views to Brindabella mountains. An apartment with natural light, its truly has a great feel to it.
+A chance to buy for an investment or living the lifestyle your deserve on daily basis. A short stroll to the heart of the Gungahlin shopping district. If you are an investor, then consider someone else paying off the apartment in the mid term and when you are ready to move in, on reflection it could be the best investment you have ever made.
+On the 5th floor is the Sky Deck. With its; open spaces and separate BBQ areas, , a beautiful infinity pool, with a quality gym and a sitting area which can be used for private functions or parties with friends and family to enjoy and of course incredible views over Yerrabi Pond &amp; Gungahlin Town Centre. This is definitely a lifestyle and an investment in your future. Call us now to view this amazing apartment before you miss this one.
+Property Features Include:
+North facing with beautiful views
+Sunset &amp; water views
+2 Rooms with practical layout
+Walk-in Robe
+Heating &amp; cooling system
+Parking with storage cage
+Intercom access to foyer
+Gym &amp; Function room
+Barbecue area
+Infinity edge Pool &amp; Spa
+Short stroll to Gungahlin Town Centre
+Much more on offer to enjoy living the life style you deserve in this apartment.
+Call us now before you miss this one.</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>14 Hartley Street, Turner ACT 2612</t>
+  </si>
+  <si>
+    <t>Block/House: 813/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	7	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$470,000</t>
+  </si>
+  <si>
+    <t>Located in Unit 21/ 14 Hartley Street, Turner ACT 2612, this unit is one of a kind. A special place for those who want to have a peaceful and comfortable living.
+Enjoy its one spacious bedroom with one living room consists of alluring highlights and with a touch of modern architectural designs. Every corner is filled with natural light and giving you a vacation like vibe.</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7483&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7485&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7487&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3513,7 +3612,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3573,6 +3672,21 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3584,155 +3698,158 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="29" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="66">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="3" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3752,7 +3869,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3876,21 +3993,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3907,7 +4024,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3961,32 +4078,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
+      <selection activeCell="B15" pane="bottomLeft" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.19921875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="74.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="55" width="22.1328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.86328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.86328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.86328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.53125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.9">
+    <row ht="13.9" r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4130,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:28">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4059,7 +4176,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="13.9">
+    <row ht="13.9" r="3" spans="1:28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4105,7 +4222,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:28">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4151,7 +4268,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="13.9">
+    <row ht="13.9" r="5" spans="1:28">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4195,7 +4312,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="13.9">
+    <row ht="13.9" r="6" spans="1:28">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4239,7 +4356,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9">
+    <row ht="13.9" r="7" spans="1:28">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4283,7 +4400,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="13.9">
+    <row ht="13.9" r="8" spans="1:28">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4325,7 +4442,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="13.9">
+    <row ht="13.9" r="9" spans="1:28">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4367,7 +4484,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9">
+    <row ht="13.9" r="10" spans="1:28">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4409,7 +4526,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9">
+    <row ht="13.9" r="11" spans="1:28">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4453,7 +4570,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="13.9">
+    <row ht="13.9" r="12" spans="1:28">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4495,7 +4612,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9">
+    <row ht="13.9" r="13" spans="1:28">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4537,7 +4654,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="13.9">
+    <row ht="13.9" r="14" spans="1:28">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4579,7 +4696,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="13.9">
+    <row ht="13.9" r="15" spans="1:28">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4623,7 +4740,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="13.9">
+    <row ht="13.9" r="16" spans="1:28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4665,7 +4782,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="13.9">
+    <row ht="13.9" r="17" spans="1:28">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4709,7 +4826,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="13.9">
+    <row ht="13.9" r="18" spans="1:28">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4751,7 +4868,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.9">
+    <row ht="13.9" r="19" spans="1:28">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4793,7 +4910,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="13.9">
+    <row ht="13.9" r="20" spans="1:28">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4835,7 +4952,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="13.9">
+    <row ht="13.9" r="21" spans="1:28">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4877,7 +4994,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="13.9">
+    <row ht="13.9" r="22" spans="1:28">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4919,7 +5036,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="13.9">
+    <row ht="13.9" r="23" spans="1:28">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4963,7 +5080,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="13.9">
+    <row ht="13.9" r="24" spans="1:28">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5005,7 +5122,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="13.9">
+    <row ht="13.9" r="25" spans="1:28">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5047,7 +5164,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="13.9">
+    <row ht="13.9" r="26" spans="1:28">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5091,7 +5208,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="13.9">
+    <row ht="13.9" r="27" spans="1:28">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5135,7 +5252,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="13.9">
+    <row ht="13.9" r="28" spans="1:28">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5177,7 +5294,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="13.9">
+    <row ht="13.9" r="29" spans="1:28">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -5221,7 +5338,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="13.9">
+    <row ht="13.9" r="30" spans="1:28">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -5263,7 +5380,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="13.9">
+    <row ht="13.9" r="31" spans="1:28">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5307,7 +5424,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="13.9">
+    <row ht="13.9" r="32" spans="1:28">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5349,7 +5466,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="4" spans="1:8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5369,7 +5486,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="34" s="4" spans="1:8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5389,7 +5506,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="35" s="4" spans="1:8">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5409,7 +5526,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="36" s="4" spans="1:8">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5429,7 +5546,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="37" s="4" spans="1:8">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5449,7 +5566,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="4" spans="1:8">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5469,7 +5586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="4" spans="1:8">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5489,7 +5606,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="4" spans="1:8">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5509,7 +5626,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="41" s="4" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5529,7 +5646,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="4" spans="1:8">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5549,7 +5666,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="4" spans="1:8">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5569,7 +5686,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="4" spans="1:8">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5589,7 +5706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="4" spans="1:8">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5609,7 +5726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="4" spans="1:8">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5629,7 +5746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="4" spans="1:8">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5649,7 +5766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="48" s="4" spans="1:8">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5669,7 +5786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="49" s="4" spans="1:8">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5689,7 +5806,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="50" s="4" spans="1:8">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5709,7 +5826,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="51" s="4" spans="1:8">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5729,7 +5846,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="52" s="4" spans="1:8">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5749,7 +5866,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="53" s="4" spans="1:8">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5769,7 +5886,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row ht="12.75" r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5789,7 +5906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="55" s="4" spans="1:8">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5809,7 +5926,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="56" s="4" spans="1:8">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5829,7 +5946,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="57" s="4" spans="1:8">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5849,7 +5966,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="58" s="4" spans="1:8">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5869,7 +5986,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="59" s="4" spans="1:8">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5889,7 +6006,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="60" s="4" spans="1:8">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5909,7 +6026,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="61" s="4" spans="1:8">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5929,7 +6046,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="62" s="4" spans="1:8">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5949,7 +6066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="63" s="4" spans="1:8">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5969,7 +6086,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="64" s="4" spans="1:8">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5989,7 +6106,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="65" s="4" spans="1:8">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5998,7 +6115,7 @@
       </c>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>700</v>
@@ -6010,7 +6127,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="66" s="4" spans="1:8">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6030,7 +6147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="67" s="4" spans="1:8">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6050,7 +6167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="68" s="4" spans="1:8">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6073,7 +6190,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="69" s="4" spans="1:8">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6096,7 +6213,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="70" s="4" spans="1:8">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6119,7 +6236,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="71" s="4" spans="1:8">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6142,7 +6259,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="72" s="4" spans="1:8">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6165,7 +6282,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row ht="12.75" r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6188,7 +6305,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row ht="12.75" r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6211,7 +6328,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="75" s="4" spans="1:8">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6234,7 +6351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row ht="12.75" r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6257,7 +6374,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row ht="12.75" r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6280,7 +6397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row ht="12.75" r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6303,7 +6420,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row ht="12.75" r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6326,7 +6443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row ht="12.75" r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6349,7 +6466,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row ht="12.75" r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6372,7 +6489,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row ht="12.75" r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6395,7 +6512,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row ht="12.75" r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6418,7 +6535,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row ht="12.75" r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6441,7 +6558,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row ht="12.75" r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6464,7 +6581,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row ht="12.75" r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6487,7 +6604,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row ht="12.75" r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6510,7 +6627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row ht="12.75" r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6533,7 +6650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row ht="12.75" r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6544,7 +6661,7 @@
         <v>656</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>700</v>
@@ -6556,7 +6673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row ht="12.75" r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6579,7 +6696,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row ht="12.75" r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6602,7 +6719,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row ht="12.75" r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6625,7 +6742,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row ht="12.75" r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6648,7 +6765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row ht="12.75" r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6671,7 +6788,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row ht="12.75" r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6694,7 +6811,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row ht="12.75" r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6717,7 +6834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row ht="12.75" r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6740,7 +6857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row ht="12.75" r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6763,138 +6880,198 @@
         <v>435</v>
       </c>
     </row>
+    <row ht="12.75" r="99" spans="1:8">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>717</v>
+      </c>
+      <c r="C99" t="s">
+        <v>734</v>
+      </c>
+      <c r="D99" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row ht="12.75" r="100" spans="1:8">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>718</v>
+      </c>
+      <c r="C100" t="s">
+        <v>735</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="12.75" r="101" spans="1:8">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>719</v>
+      </c>
+      <c r="C101" t="s">
+        <v>736</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B38" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
-    <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
-    <hyperlink ref="B75" r:id="rId69" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
-    <hyperlink ref="C75" r:id="rId70" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
-    <hyperlink ref="H75" r:id="rId71" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
-    <hyperlink ref="B78" r:id="rId72" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
-    <hyperlink ref="C78" r:id="rId73" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
-    <hyperlink ref="B68" r:id="rId74" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
-    <hyperlink ref="B69" r:id="rId75" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
-    <hyperlink ref="C70" r:id="rId76" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
-    <hyperlink ref="B70" r:id="rId77" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
-    <hyperlink ref="B71" r:id="rId78" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
-    <hyperlink ref="C71" r:id="rId79" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
-    <hyperlink ref="B72" r:id="rId80" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
-    <hyperlink ref="C72" r:id="rId81" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
-    <hyperlink ref="C73" r:id="rId82" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
-    <hyperlink ref="C4" r:id="rId84" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
-    <hyperlink ref="C29" r:id="rId85" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
-    <hyperlink ref="C90" r:id="rId86" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
-    <hyperlink ref="C15" r:id="rId88" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="B6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="H6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="B7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="B8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId9" ref="B9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId10" ref="B10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId11" ref="B11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="B12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="B13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="B14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="B15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="B16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="B17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink r:id="rId18" ref="B18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink r:id="rId19" ref="B19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink r:id="rId20" ref="B20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink r:id="rId21" ref="B21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink r:id="rId22" ref="B22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink r:id="rId23" ref="B23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink r:id="rId24" ref="B24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink r:id="rId25" ref="B25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink r:id="rId26" ref="H25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink r:id="rId27" ref="B26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="H26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="B27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="H27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="B28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="H28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="B29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink r:id="rId34" ref="H29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink r:id="rId35" ref="B30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink r:id="rId36" ref="H30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink r:id="rId37" ref="B31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink r:id="rId38" ref="H31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink r:id="rId39" ref="B32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink r:id="rId40" ref="H32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink r:id="rId41" ref="B33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink r:id="rId42" ref="B34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink r:id="rId43" ref="B38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="B45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="B48" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="B35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="B52" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink r:id="rId48" ref="B53" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink r:id="rId49" ref="B55" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink r:id="rId50" ref="B56" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink r:id="rId51" ref="B57" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink r:id="rId52" ref="B58" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink r:id="rId53" ref="B61" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink r:id="rId54" ref="B62" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink r:id="rId55" ref="B63" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink r:id="rId56" ref="B64" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink r:id="rId57" ref="B65" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink r:id="rId58" ref="B66" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink r:id="rId59" ref="B67" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" r:id="rId60" ref="H7:H24" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink r:id="rId61" ref="B43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink r:id="rId62" ref="B44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink r:id="rId63" ref="B46" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink r:id="rId64" ref="B54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink r:id="rId65" ref="B42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink r:id="rId66" ref="J2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink r:id="rId67" ref="C69" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
+    <hyperlink r:id="rId68" ref="C68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
+    <hyperlink r:id="rId69" ref="B75" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
+    <hyperlink r:id="rId70" ref="C75" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
+    <hyperlink r:id="rId71" ref="H75" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
+    <hyperlink r:id="rId72" ref="B78" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
+    <hyperlink r:id="rId73" ref="C78" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
+    <hyperlink r:id="rId74" ref="B68" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
+    <hyperlink r:id="rId75" ref="B69" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
+    <hyperlink r:id="rId76" ref="C70" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
+    <hyperlink r:id="rId77" ref="B70" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
+    <hyperlink r:id="rId78" ref="B71" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
+    <hyperlink r:id="rId79" ref="C71" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
+    <hyperlink r:id="rId80" ref="B72" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
+    <hyperlink r:id="rId81" ref="C72" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
+    <hyperlink r:id="rId82" ref="C73" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
+    <hyperlink r:id="rId83" ref="B85" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
+    <hyperlink r:id="rId84" ref="C4" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
+    <hyperlink r:id="rId85" ref="C29" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
+    <hyperlink r:id="rId86" ref="C90" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
+    <hyperlink r:id="rId87" ref="B90" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
+    <hyperlink r:id="rId88" ref="C15" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId89"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI98"/>
+  <dimension ref="A1:AJ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="R1" xSplit="1"/>
+      <selection activeCell="T106" pane="topRight" sqref="T106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.86328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.19921875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.1328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="37.53125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="47.86328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="77.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="23" max="31" customWidth="true" width="19.19921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75">
+    <row ht="27.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -6993,7 +7170,7 @@
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="2" spans="1:35">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -7064,7 +7241,7 @@
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="3" spans="1:35">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -7135,7 +7312,7 @@
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
     </row>
-    <row r="4" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:35">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -7197,7 +7374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="5" spans="1:35">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -7270,7 +7447,7 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="6" spans="1:35">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -7345,7 +7522,7 @@
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
     </row>
-    <row r="7" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:35">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -7404,7 +7581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="8" spans="1:35">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -7477,7 +7654,7 @@
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
     </row>
-    <row r="9" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="28" spans="1:35">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -7536,7 +7713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="28" spans="1:35">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -7592,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="28" spans="1:35">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -7657,7 +7834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="28" spans="1:35">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -7713,7 +7890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="28" spans="1:35">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -7772,7 +7949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="28" spans="1:35">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -7837,7 +8014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="28" spans="1:35">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -7896,7 +8073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="28" spans="1:35">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -7955,7 +8132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="28" spans="1:35">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -8011,7 +8188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:35">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -8070,7 +8247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="19" spans="1:35">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -8141,7 +8318,7 @@
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20" spans="1:35">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -8216,7 +8393,7 @@
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21" spans="1:35">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -8287,7 +8464,7 @@
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
     </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:35">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -8355,7 +8532,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:35">
       <c r="A23" s="28">
         <v>22</v>
       </c>
@@ -8411,7 +8588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="28" spans="1:35">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -8473,7 +8650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25" spans="1:35">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -8546,7 +8723,7 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="28" spans="1:35">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -8605,7 +8782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="28" spans="1:35">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -8664,7 +8841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="28" spans="1:35">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -8723,7 +8900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="28" spans="1:35">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -8782,7 +8959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="28" spans="1:35">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -8841,7 +9018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="28" spans="1:35">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -8897,7 +9074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="28" spans="1:35">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -8956,7 +9133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="28" spans="1:21">
       <c r="A33" s="28" t="s">
         <v>201</v>
       </c>
@@ -9015,7 +9192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="34" s="28" spans="1:21">
       <c r="A34" s="28" t="s">
         <v>212</v>
       </c>
@@ -9074,7 +9251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="35" s="28" spans="1:21">
       <c r="A35" s="28" t="s">
         <v>219</v>
       </c>
@@ -9133,7 +9310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="36" s="28" spans="1:21">
       <c r="A36" s="28" t="s">
         <v>225</v>
       </c>
@@ -9192,7 +9369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="37" s="28" spans="1:21">
       <c r="A37" s="28" t="s">
         <v>232</v>
       </c>
@@ -9251,7 +9428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="28" spans="1:21">
       <c r="A38" s="28" t="s">
         <v>238</v>
       </c>
@@ -9310,7 +9487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="28" spans="1:21">
       <c r="A39" s="28" t="s">
         <v>246</v>
       </c>
@@ -9369,7 +9546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="28" spans="1:21">
       <c r="A40" s="28" t="s">
         <v>249</v>
       </c>
@@ -9428,7 +9605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="41" s="28" spans="1:21">
       <c r="A41" s="28" t="s">
         <v>252</v>
       </c>
@@ -9487,7 +9664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="28" spans="1:21">
       <c r="A42" s="28" t="s">
         <v>261</v>
       </c>
@@ -9546,7 +9723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="28" spans="1:21">
       <c r="A43" s="28" t="s">
         <v>265</v>
       </c>
@@ -9605,7 +9782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="28" spans="1:21">
       <c r="A44" s="28" t="s">
         <v>274</v>
       </c>
@@ -9664,7 +9841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="28" spans="1:21">
       <c r="A45" s="28" t="s">
         <v>281</v>
       </c>
@@ -9723,7 +9900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="28" spans="1:21">
       <c r="A46" s="28" t="s">
         <v>287</v>
       </c>
@@ -9782,7 +9959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="28" spans="1:21">
       <c r="A47" s="28" t="s">
         <v>293</v>
       </c>
@@ -9841,7 +10018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="48" s="28" spans="1:21">
       <c r="A48" s="28" t="s">
         <v>299</v>
       </c>
@@ -9900,7 +10077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="49" s="28" spans="1:21">
       <c r="A49" s="28" t="s">
         <v>304</v>
       </c>
@@ -9959,7 +10136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="50" s="28" spans="1:21">
       <c r="A50" s="28" t="s">
         <v>310</v>
       </c>
@@ -10018,7 +10195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="51" s="28" spans="1:21">
       <c r="A51" s="28" t="s">
         <v>316</v>
       </c>
@@ -10077,7 +10254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="52" s="28" spans="1:21">
       <c r="A52" s="28" t="s">
         <v>322</v>
       </c>
@@ -10136,7 +10313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="53" s="28" spans="1:21">
       <c r="A53" s="28" t="s">
         <v>349</v>
       </c>
@@ -10195,7 +10372,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75">
+    <row ht="12.75" r="54" spans="1:21">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -10254,7 +10431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="55" s="28" spans="1:21">
       <c r="A55" s="28" t="s">
         <v>359</v>
       </c>
@@ -10313,7 +10490,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="56" s="28" spans="1:21">
       <c r="A56" s="28" t="s">
         <v>365</v>
       </c>
@@ -10372,7 +10549,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="57" s="28" spans="1:21">
       <c r="A57" s="28" t="s">
         <v>370</v>
       </c>
@@ -10431,7 +10608,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="58" s="28" spans="1:21">
       <c r="A58" s="28" t="s">
         <v>377</v>
       </c>
@@ -10490,7 +10667,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="59" s="28" spans="1:21">
       <c r="A59" s="28" t="s">
         <v>383</v>
       </c>
@@ -10549,7 +10726,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="60" s="28" spans="1:21">
       <c r="A60" s="28" t="s">
         <v>390</v>
       </c>
@@ -10608,7 +10785,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="61" s="28" spans="1:21">
       <c r="A61" s="28" t="s">
         <v>397</v>
       </c>
@@ -10667,7 +10844,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="62" s="28" spans="1:21">
       <c r="A62" s="28" t="s">
         <v>403</v>
       </c>
@@ -10726,7 +10903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="63" s="28" spans="1:21">
       <c r="A63" s="28" t="s">
         <v>406</v>
       </c>
@@ -10785,7 +10962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="64" s="28" spans="1:21">
       <c r="A64" s="28" t="s">
         <v>411</v>
       </c>
@@ -10844,7 +11021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="65" s="28" spans="1:21">
       <c r="A65" s="28" t="s">
         <v>417</v>
       </c>
@@ -10903,7 +11080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="66" s="28" spans="1:21">
       <c r="A66" s="28" t="s">
         <v>422</v>
       </c>
@@ -10962,7 +11139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="67" s="28" spans="1:21">
       <c r="A67" s="28" t="s">
         <v>428</v>
       </c>
@@ -11021,7 +11198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="68" s="28" spans="1:21">
       <c r="A68" s="28" t="s">
         <v>490</v>
       </c>
@@ -11080,7 +11257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="69" s="28" spans="1:21">
       <c r="A69" s="28" t="s">
         <v>495</v>
       </c>
@@ -11139,7 +11316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="70" s="28" spans="1:21">
       <c r="A70" s="28" t="s">
         <v>497</v>
       </c>
@@ -11198,7 +11375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="71" s="28" spans="1:21">
       <c r="A71" s="28" t="s">
         <v>503</v>
       </c>
@@ -11257,7 +11434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="72" s="28" spans="1:21">
       <c r="A72" s="28" t="s">
         <v>508</v>
       </c>
@@ -11316,7 +11493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="73" s="28" spans="1:21">
       <c r="A73" s="28" t="s">
         <v>510</v>
       </c>
@@ -11375,7 +11552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="74" s="28" spans="1:21">
       <c r="A74" s="28" t="s">
         <v>514</v>
       </c>
@@ -11434,7 +11611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="75" s="28" spans="1:21">
       <c r="A75" s="28" t="s">
         <v>520</v>
       </c>
@@ -11493,7 +11670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="76" s="28" spans="1:21">
       <c r="A76" s="28" t="s">
         <v>526</v>
       </c>
@@ -11552,7 +11729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="77" s="28" spans="1:21">
       <c r="A77" s="28" t="s">
         <v>531</v>
       </c>
@@ -11611,7 +11788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="78" s="28" spans="1:21">
       <c r="A78" s="28" t="s">
         <v>538</v>
       </c>
@@ -11670,7 +11847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="79" s="28" spans="1:21">
       <c r="A79" s="28" t="s">
         <v>541</v>
       </c>
@@ -11729,7 +11906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="80" s="28" spans="1:21">
       <c r="A80" s="28" t="s">
         <v>547</v>
       </c>
@@ -11788,7 +11965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="81" s="28" spans="1:21">
       <c r="A81" s="28" t="s">
         <v>554</v>
       </c>
@@ -11847,7 +12024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="82" s="28" spans="1:21">
       <c r="A82" s="28" t="s">
         <v>559</v>
       </c>
@@ -11906,7 +12083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="83" s="28" spans="1:21">
       <c r="A83" s="28" t="s">
         <v>564</v>
       </c>
@@ -11965,7 +12142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="84" s="28" spans="1:21">
       <c r="A84" s="28" t="s">
         <v>567</v>
       </c>
@@ -12024,7 +12201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="85" s="28" spans="1:21">
       <c r="A85" s="28" t="s">
         <v>571</v>
       </c>
@@ -12083,7 +12260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="86" s="28" spans="1:21">
       <c r="A86" s="28" t="s">
         <v>612</v>
       </c>
@@ -12142,7 +12319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="87" s="28" spans="1:21">
       <c r="A87" s="28" t="s">
         <v>616</v>
       </c>
@@ -12201,7 +12378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="88" s="28" spans="1:21">
       <c r="A88" s="28" t="s">
         <v>621</v>
       </c>
@@ -12260,7 +12437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="89" s="28" spans="1:21">
       <c r="A89" s="28" t="s">
         <v>625</v>
       </c>
@@ -12319,7 +12496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="90" s="28" spans="1:21">
       <c r="A90" s="28" t="s">
         <v>631</v>
       </c>
@@ -12378,7 +12555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="91" s="28" spans="1:21">
       <c r="A91" s="28" t="s">
         <v>635</v>
       </c>
@@ -12437,7 +12614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="92" s="28" spans="1:21">
       <c r="A92" s="28" t="s">
         <v>639</v>
       </c>
@@ -12496,7 +12673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="93" s="28" spans="1:21">
       <c r="A93" s="28" t="s">
         <v>642</v>
       </c>
@@ -12555,7 +12732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="94" s="28" spans="1:21">
       <c r="A94" s="28" t="s">
         <v>676</v>
       </c>
@@ -12614,7 +12791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="95" s="28" spans="1:21">
       <c r="A95" s="28" t="s">
         <v>681</v>
       </c>
@@ -12673,7 +12850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="96" s="28" spans="1:21">
       <c r="A96" s="28" t="s">
         <v>685</v>
       </c>
@@ -12732,7 +12909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="97" s="28" spans="1:21">
       <c r="A97" s="28" t="s">
         <v>689</v>
       </c>
@@ -12791,7 +12968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="98" s="28" spans="1:21">
       <c r="A98" s="28" t="s">
         <v>703</v>
       </c>
@@ -12850,15 +13027,188 @@
         <v>16</v>
       </c>
     </row>
+    <row ht="13.5" r="99" spans="1:21">
+      <c r="A99" t="s">
+        <v>720</v>
+      </c>
+      <c r="B99" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" t="s">
+        <v>721</v>
+      </c>
+      <c r="D99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s">
+        <v>144</v>
+      </c>
+      <c r="H99" t="s">
+        <v>722</v>
+      </c>
+      <c r="I99" t="s">
+        <v>204</v>
+      </c>
+      <c r="K99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L99" t="s">
+        <v>243</v>
+      </c>
+      <c r="M99" t="s">
+        <v>210</v>
+      </c>
+      <c r="N99" t="s">
+        <v>210</v>
+      </c>
+      <c r="P99" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>205</v>
+      </c>
+      <c r="R99" t="s">
+        <v>721</v>
+      </c>
+      <c r="S99" t="s">
+        <v>723</v>
+      </c>
+      <c r="T99" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="13.5" r="100" spans="1:21">
+      <c r="A100" t="s">
+        <v>724</v>
+      </c>
+      <c r="B100" t="s">
+        <v>433</v>
+      </c>
+      <c r="C100" t="s">
+        <v>725</v>
+      </c>
+      <c r="D100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>726</v>
+      </c>
+      <c r="I100" t="s">
+        <v>204</v>
+      </c>
+      <c r="K100" t="s">
+        <v>205</v>
+      </c>
+      <c r="L100" t="s">
+        <v>243</v>
+      </c>
+      <c r="M100" t="s">
+        <v>210</v>
+      </c>
+      <c r="N100" t="s">
+        <v>272</v>
+      </c>
+      <c r="P100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>272</v>
+      </c>
+      <c r="R100" t="s">
+        <v>725</v>
+      </c>
+      <c r="S100" t="s">
+        <v>727</v>
+      </c>
+      <c r="T100" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="13.5" r="101" spans="1:21">
+      <c r="A101" t="s">
+        <v>728</v>
+      </c>
+      <c r="B101" t="s">
+        <v>433</v>
+      </c>
+      <c r="C101" t="s">
+        <v>729</v>
+      </c>
+      <c r="D101" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s">
+        <v>276</v>
+      </c>
+      <c r="G101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" t="s">
+        <v>730</v>
+      </c>
+      <c r="I101" t="s">
+        <v>204</v>
+      </c>
+      <c r="K101" t="s">
+        <v>731</v>
+      </c>
+      <c r="L101" t="s">
+        <v>732</v>
+      </c>
+      <c r="M101" t="s">
+        <v>272</v>
+      </c>
+      <c r="N101" t="s">
+        <v>272</v>
+      </c>
+      <c r="P101" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>205</v>
+      </c>
+      <c r="R101" t="s">
+        <v>729</v>
+      </c>
+      <c r="S101" t="s">
+        <v>733</v>
+      </c>
+      <c r="T101" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="U101" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{B0ED3D05-3B5B-4FB4-9A60-B4383DAB1391}"/>
-    </customSheetView>
-    <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{A8EDCA26-C172-46B6-964C-3378F9082C9B}">
+    <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{8814925C-CAF0-49FB-90A3-CF047BD5F7AB}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -12866,78 +13216,82 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{C85633C5-E7A2-4BE6-9827-6CBA723B2F4B}"/>
+    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule dxfId="1" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="S25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="S26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="S27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="S28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="S31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="S32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink r:id="rId1" ref="S2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="S3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="S4" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="S5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="S6" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="S7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId7" ref="S8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink r:id="rId8" ref="S9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink r:id="rId9" ref="S10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink r:id="rId10" ref="S11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink r:id="rId11" ref="S12" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink r:id="rId12" ref="S14" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink r:id="rId13" ref="S15" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink r:id="rId14" ref="S16" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink r:id="rId15" ref="S17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink r:id="rId16" ref="S18" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink r:id="rId17" ref="S19" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink r:id="rId18" ref="S20" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink r:id="rId19" ref="S21" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink r:id="rId20" ref="S22" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink r:id="rId21" ref="S23" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink r:id="rId22" ref="S24" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink r:id="rId23" ref="S25" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink r:id="rId24" ref="S26" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink r:id="rId25" ref="S27" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink r:id="rId26" ref="S28" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink r:id="rId27" ref="S29" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink r:id="rId28" ref="S30" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink r:id="rId29" ref="S31" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink r:id="rId30" ref="S32" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId31"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.86328125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="20.1328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.46484375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.1328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="15.86328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13036,37 +13390,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.86328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.46484375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.1328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="51.1328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9">
+    <row ht="13.9" r="1" spans="1:26">
       <c r="A1" s="42" t="s">
         <v>158</v>
       </c>
@@ -13089,7 +13443,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:26">
       <c r="A2" s="43" t="s">
         <v>164</v>
       </c>
@@ -13131,7 +13485,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="3" spans="1:26">
       <c r="A3" s="48" t="s">
         <v>167</v>
       </c>
@@ -13148,7 +13502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:26">
       <c r="A4" s="48" t="s">
         <v>170</v>
       </c>
@@ -13165,7 +13519,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:26">
       <c r="A5" s="52" t="s">
         <v>173</v>
       </c>
@@ -13182,7 +13536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:26">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -13201,14 +13555,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="D6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="E6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{30AB22AF-B962-45E9-A187-B441513416E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBD481-9B4E-48A5-9089-A30F53214E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="13276" windowWidth="20715" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
-    <sheet name="Listing" r:id="rId2" sheetId="2"/>
-    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
-    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Listing" sheetId="2" r:id="rId2"/>
+    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
+    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!#REF!</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
+    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
-    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -3698,158 +3698,158 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="29" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3869,7 +3869,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3993,21 +3993,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4024,7 +4024,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4078,32 +4078,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
-      <selection activeCell="B15" pane="bottomLeft" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.19921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="74.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="75.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.53125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="55" width="22.1328125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.86328125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.86328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.86328125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.86328125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.53125" collapsed="true"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.1328125" style="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="13.9" r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row ht="13.9" r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="13.9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row ht="13.9" r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="13.9">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row ht="13.9" r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="13.9">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row ht="13.9" r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="13.9">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row ht="13.9" r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="13.9">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row ht="13.9" r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="13.9">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row ht="13.9" r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="13.9">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row ht="13.9" r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="13.9">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row ht="13.9" r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="13.9">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row ht="13.9" r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="13.9">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row ht="13.9" r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="13.9">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row ht="13.9" r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="13.9">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row ht="13.9" r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="13.9">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row ht="13.9" r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="13.9">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row ht="13.9" r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="13.9">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4868,7 +4868,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row ht="13.9" r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="13.9">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row ht="13.9" r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="13.9">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row ht="13.9" r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="13.9">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row ht="13.9" r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="13.9">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row ht="13.9" r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="13.9">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row ht="13.9" r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="13.9">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row ht="13.9" r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="13.9">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row ht="13.9" r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="13.9">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row ht="13.9" r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="13.9">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row ht="13.9" r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="13.9">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row ht="13.9" r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="13.9">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row ht="13.9" r="30" spans="1:28">
+    <row r="30" spans="1:28" ht="13.9">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row ht="13.9" r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="13.9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row ht="13.9" r="32" spans="1:28">
+    <row r="32" spans="1:28" ht="13.9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row customFormat="1" ht="13.5" r="33" s="4" spans="1:8">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="34" s="4" spans="1:8">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.9" r="35" s="4" spans="1:8">
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.9" r="36" s="4" spans="1:8">
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.9" r="37" s="4" spans="1:8">
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="38" s="4" spans="1:8">
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="39" s="4" spans="1:8">
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="40" s="4" spans="1:8">
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.9" r="41" s="4" spans="1:8">
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="42" s="4" spans="1:8">
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="43" s="4" spans="1:8">
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="44" s="4" spans="1:8">
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="45" s="4" spans="1:8">
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="46" s="4" spans="1:8">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="47" s="4" spans="1:8">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.5">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="48" s="4" spans="1:8">
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="49" s="4" spans="1:8">
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.15" r="50" s="4" spans="1:8">
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.15" r="51" s="4" spans="1:8">
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.15" r="52" s="4" spans="1:8">
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="53" s="4" spans="1:8">
+    <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>329</v>
       </c>
     </row>
-    <row ht="12.75" r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="55" s="4" spans="1:8">
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="56" s="4" spans="1:8">
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="57" s="4" spans="1:8">
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="58" s="4" spans="1:8">
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="59" s="4" spans="1:8">
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="60" s="4" spans="1:8">
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="61" s="4" spans="1:8">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="62" s="4" spans="1:8">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="63" s="4" spans="1:8">
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="64" s="4" spans="1:8">
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="65" s="4" spans="1:8">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="66" s="4" spans="1:8">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="67" s="4" spans="1:8">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="68" s="4" spans="1:8">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="69" s="4" spans="1:8">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="70" s="4" spans="1:8">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="71" s="4" spans="1:8">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>434</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="72" s="4" spans="1:8">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>435</v>
       </c>
     </row>
-    <row customFormat="1" ht="12.75" r="75" s="4" spans="1:8">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="12.75" r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="12.75" r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="12.75" r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="12.75" r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="12.75">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>435</v>
       </c>
     </row>
-    <row ht="12.75" r="99" spans="1:8">
+    <row r="99" spans="1:8" ht="12.75">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="12.75" r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="12.75">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="12.75" r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="12.75">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6942,136 +6942,137 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink r:id="rId2" ref="B3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="B4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="B6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="H6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="B7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="B8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink r:id="rId9" ref="B9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink r:id="rId10" ref="B10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink r:id="rId11" ref="B11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink r:id="rId12" ref="B12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink r:id="rId13" ref="B13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink r:id="rId14" ref="B14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink r:id="rId15" ref="B15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink r:id="rId16" ref="B16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink r:id="rId17" ref="B17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink r:id="rId18" ref="B18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink r:id="rId19" ref="B19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink r:id="rId20" ref="B20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink r:id="rId21" ref="B21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink r:id="rId22" ref="B22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink r:id="rId23" ref="B23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink r:id="rId24" ref="B24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink r:id="rId25" ref="B25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink r:id="rId26" ref="H25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink r:id="rId27" ref="B26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink r:id="rId28" ref="H26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink r:id="rId29" ref="B27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink r:id="rId30" ref="H27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink r:id="rId31" ref="B28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink r:id="rId32" ref="H28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink r:id="rId33" ref="B29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink r:id="rId34" ref="H29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink r:id="rId35" ref="B30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink r:id="rId36" ref="H30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink r:id="rId37" ref="B31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink r:id="rId38" ref="H31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink r:id="rId39" ref="B32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink r:id="rId40" ref="H32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink r:id="rId41" ref="B33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink r:id="rId42" ref="B34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink r:id="rId43" ref="B38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink r:id="rId44" ref="B45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink r:id="rId45" ref="B48" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink r:id="rId46" ref="B35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink r:id="rId47" ref="B52" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink r:id="rId48" ref="B53" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink r:id="rId49" ref="B55" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink r:id="rId50" ref="B56" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink r:id="rId51" ref="B57" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink r:id="rId52" ref="B58" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink r:id="rId53" ref="B61" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink r:id="rId54" ref="B62" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink r:id="rId55" ref="B63" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink r:id="rId56" ref="B64" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink r:id="rId57" ref="B65" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink r:id="rId58" ref="B66" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink r:id="rId59" ref="B67" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" r:id="rId60" ref="H7:H24" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink r:id="rId61" ref="B43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink r:id="rId62" ref="B44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink r:id="rId63" ref="B46" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink r:id="rId64" ref="B54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink r:id="rId65" ref="B42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink r:id="rId66" ref="J2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink r:id="rId67" ref="C69" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
-    <hyperlink r:id="rId68" ref="C68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
-    <hyperlink r:id="rId69" ref="B75" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
-    <hyperlink r:id="rId70" ref="C75" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
-    <hyperlink r:id="rId71" ref="H75" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
-    <hyperlink r:id="rId72" ref="B78" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
-    <hyperlink r:id="rId73" ref="C78" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
-    <hyperlink r:id="rId74" ref="B68" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
-    <hyperlink r:id="rId75" ref="B69" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
-    <hyperlink r:id="rId76" ref="C70" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
-    <hyperlink r:id="rId77" ref="B70" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
-    <hyperlink r:id="rId78" ref="B71" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
-    <hyperlink r:id="rId79" ref="C71" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
-    <hyperlink r:id="rId80" ref="B72" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
-    <hyperlink r:id="rId81" ref="C72" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
-    <hyperlink r:id="rId82" ref="C73" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
-    <hyperlink r:id="rId83" ref="B85" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
-    <hyperlink r:id="rId84" ref="C4" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
-    <hyperlink r:id="rId85" ref="C29" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
-    <hyperlink r:id="rId86" ref="C90" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
-    <hyperlink r:id="rId87" ref="B90" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
-    <hyperlink r:id="rId88" ref="C15" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B38" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
+    <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
+    <hyperlink ref="B75" r:id="rId69" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
+    <hyperlink ref="C75" r:id="rId70" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
+    <hyperlink ref="H75" r:id="rId71" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
+    <hyperlink ref="B78" r:id="rId72" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
+    <hyperlink ref="C78" r:id="rId73" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
+    <hyperlink ref="B68" r:id="rId74" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
+    <hyperlink ref="B69" r:id="rId75" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
+    <hyperlink ref="C70" r:id="rId76" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
+    <hyperlink ref="B70" r:id="rId77" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
+    <hyperlink ref="B71" r:id="rId78" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
+    <hyperlink ref="C71" r:id="rId79" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
+    <hyperlink ref="B72" r:id="rId80" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
+    <hyperlink ref="C72" r:id="rId81" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
+    <hyperlink ref="C73" r:id="rId82" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
+    <hyperlink ref="C4" r:id="rId84" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
+    <hyperlink ref="C29" r:id="rId85" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
+    <hyperlink ref="C90" r:id="rId86" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
+    <hyperlink ref="C15" r:id="rId88" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
+    <hyperlink ref="C3" r:id="rId89" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId89"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ101"/>
+  <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="R1" xSplit="1"/>
-      <selection activeCell="T106" pane="topRight" sqref="T106"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.86328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="55.53125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.19921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="32.19921875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.53125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.1328125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="37.53125" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="47.86328125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="77.53125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.1328125" collapsed="true"/>
-    <col min="23" max="31" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="23" max="31" width="19.19921875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="27.75" r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="27.75">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -7170,7 +7171,7 @@
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:35">
+    <row r="2" spans="1:35" ht="15" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -7241,7 +7242,7 @@
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:35">
+    <row r="3" spans="1:35" ht="15" customHeight="1">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -7312,11 +7313,11 @@
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:35">
+    <row r="4" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -7374,7 +7375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" spans="1:35">
+    <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -7447,7 +7448,7 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
     </row>
-    <row customHeight="1" ht="15" r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -7522,7 +7523,7 @@
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:35">
+    <row r="7" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" spans="1:35">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -7654,7 +7655,7 @@
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="28" spans="1:35">
+    <row r="9" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="28" spans="1:35">
+    <row r="10" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="28" spans="1:35">
+    <row r="11" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="28" spans="1:35">
+    <row r="12" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="28" spans="1:35">
+    <row r="13" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="28" spans="1:35">
+    <row r="14" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="28" spans="1:35">
+    <row r="15" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="28" spans="1:35">
+    <row r="16" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -8132,7 +8133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="28" spans="1:35">
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:35">
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="19" spans="1:35">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -8318,7 +8319,7 @@
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
     </row>
-    <row customHeight="1" ht="15" r="20" spans="1:35">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -8393,7 +8394,7 @@
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
     </row>
-    <row customHeight="1" ht="15" r="21" spans="1:35">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -8464,7 +8465,7 @@
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:35">
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:35">
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="28">
         <v>22</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="28" spans="1:35">
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="25" spans="1:35">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -8723,7 +8724,7 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="28" spans="1:35">
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="28" spans="1:35">
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="28" spans="1:35">
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="28" spans="1:35">
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="28" spans="1:35">
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="28" spans="1:35">
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="28" spans="1:35">
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="33" s="28" spans="1:21">
+    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A33" s="28" t="s">
         <v>201</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="34" s="28" spans="1:21">
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A34" s="28" t="s">
         <v>212</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="35" s="28" spans="1:21">
+    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A35" s="28" t="s">
         <v>219</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="36" s="28" spans="1:21">
+    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A36" s="28" t="s">
         <v>225</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="37" s="28" spans="1:21">
+    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A37" s="28" t="s">
         <v>232</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="38" s="28" spans="1:21">
+    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A38" s="28" t="s">
         <v>238</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="39" s="28" spans="1:21">
+    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A39" s="28" t="s">
         <v>246</v>
       </c>
@@ -9546,7 +9547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="40" s="28" spans="1:21">
+    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A40" s="28" t="s">
         <v>249</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="41" s="28" spans="1:21">
+    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A41" s="28" t="s">
         <v>252</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="42" s="28" spans="1:21">
+    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A42" s="28" t="s">
         <v>261</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="43" s="28" spans="1:21">
+    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A43" s="28" t="s">
         <v>265</v>
       </c>
@@ -9782,7 +9783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="44" s="28" spans="1:21">
+    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A44" s="28" t="s">
         <v>274</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="45" s="28" spans="1:21">
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A45" s="28" t="s">
         <v>281</v>
       </c>
@@ -9900,7 +9901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="46" s="28" spans="1:21">
+    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A46" s="28" t="s">
         <v>287</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="47" s="28" spans="1:21">
+    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A47" s="28" t="s">
         <v>293</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="48" s="28" spans="1:21">
+    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A48" s="28" t="s">
         <v>299</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="49" s="28" spans="1:21">
+    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A49" s="28" t="s">
         <v>304</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="50" s="28" spans="1:21">
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A50" s="28" t="s">
         <v>310</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="51" s="28" spans="1:21">
+    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A51" s="28" t="s">
         <v>316</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="52" s="28" spans="1:21">
+    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A52" s="28" t="s">
         <v>322</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="53" s="28" spans="1:21">
+    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A53" s="28" t="s">
         <v>349</v>
       </c>
@@ -10372,7 +10373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row ht="12.75" r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="12.75">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="55" s="28" spans="1:21">
+    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A55" s="28" t="s">
         <v>359</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="56" s="28" spans="1:21">
+    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A56" s="28" t="s">
         <v>365</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="57" s="28" spans="1:21">
+    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A57" s="28" t="s">
         <v>370</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="58" s="28" spans="1:21">
+    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A58" s="28" t="s">
         <v>377</v>
       </c>
@@ -10667,7 +10668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="59" s="28" spans="1:21">
+    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A59" s="28" t="s">
         <v>383</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="60" s="28" spans="1:21">
+    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A60" s="28" t="s">
         <v>390</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="61" s="28" spans="1:21">
+    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A61" s="28" t="s">
         <v>397</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="62" s="28" spans="1:21">
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A62" s="28" t="s">
         <v>403</v>
       </c>
@@ -10903,7 +10904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="63" s="28" spans="1:21">
+    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A63" s="28" t="s">
         <v>406</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="64" s="28" spans="1:21">
+    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A64" s="28" t="s">
         <v>411</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="65" s="28" spans="1:21">
+    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A65" s="28" t="s">
         <v>417</v>
       </c>
@@ -11080,7 +11081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="66" s="28" spans="1:21">
+    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A66" s="28" t="s">
         <v>422</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="67" s="28" spans="1:21">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A67" s="28" t="s">
         <v>428</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="68" s="28" spans="1:21">
+    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="28" t="s">
         <v>490</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="69" s="28" spans="1:21">
+    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A69" s="28" t="s">
         <v>495</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="70" s="28" spans="1:21">
+    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A70" s="28" t="s">
         <v>497</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="71" s="28" spans="1:21">
+    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A71" s="28" t="s">
         <v>503</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="72" s="28" spans="1:21">
+    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A72" s="28" t="s">
         <v>508</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="73" s="28" spans="1:21">
+    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A73" s="28" t="s">
         <v>510</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="74" s="28" spans="1:21">
+    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A74" s="28" t="s">
         <v>514</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="75" s="28" spans="1:21">
+    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A75" s="28" t="s">
         <v>520</v>
       </c>
@@ -11670,7 +11671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="76" s="28" spans="1:21">
+    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A76" s="28" t="s">
         <v>526</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="77" s="28" spans="1:21">
+    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A77" s="28" t="s">
         <v>531</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="78" s="28" spans="1:21">
+    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A78" s="28" t="s">
         <v>538</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="79" s="28" spans="1:21">
+    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A79" s="28" t="s">
         <v>541</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="80" s="28" spans="1:21">
+    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A80" s="28" t="s">
         <v>547</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="81" s="28" spans="1:21">
+    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="28" t="s">
         <v>554</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="82" s="28" spans="1:21">
+    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A82" s="28" t="s">
         <v>559</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="83" s="28" spans="1:21">
+    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A83" s="28" t="s">
         <v>564</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="84" s="28" spans="1:21">
+    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A84" s="28" t="s">
         <v>567</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="85" s="28" spans="1:21">
+    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="28" t="s">
         <v>571</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="86" s="28" spans="1:21">
+    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="28" t="s">
         <v>612</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="87" s="28" spans="1:21">
+    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="28" t="s">
         <v>616</v>
       </c>
@@ -12378,7 +12379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="88" s="28" spans="1:21">
+    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A88" s="28" t="s">
         <v>621</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="89" s="28" spans="1:21">
+    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A89" s="28" t="s">
         <v>625</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="90" s="28" spans="1:21">
+    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A90" s="28" t="s">
         <v>631</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="91" s="28" spans="1:21">
+    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A91" s="28" t="s">
         <v>635</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="92" s="28" spans="1:21">
+    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A92" s="28" t="s">
         <v>639</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="93" s="28" spans="1:21">
+    <row r="93" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A93" s="28" t="s">
         <v>642</v>
       </c>
@@ -12732,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="94" s="28" spans="1:21">
+    <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A94" s="28" t="s">
         <v>676</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="95" s="28" spans="1:21">
+    <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A95" s="28" t="s">
         <v>681</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="96" s="28" spans="1:21">
+    <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A96" s="28" t="s">
         <v>685</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="97" s="28" spans="1:21">
+    <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A97" s="28" t="s">
         <v>689</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" ht="13.5" r="98" s="28" spans="1:21">
+    <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A98" s="28" t="s">
         <v>703</v>
       </c>
@@ -13027,188 +13028,188 @@
         <v>16</v>
       </c>
     </row>
-    <row ht="13.5" r="99" spans="1:21">
-      <c r="A99" t="s">
+    <row r="99" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A99" s="28" t="s">
         <v>720</v>
       </c>
-      <c r="B99" t="s">
-        <v>433</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="Q99" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="R99" t="s">
+      <c r="R99" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S99" s="28" t="s">
         <v>723</v>
       </c>
       <c r="T99" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U99" t="s">
+      <c r="U99" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="13.5" r="100" spans="1:21">
-      <c r="A100" t="s">
+    <row r="100" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A100" s="28" t="s">
         <v>724</v>
       </c>
-      <c r="B100" t="s">
-        <v>433</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="28" t="s">
         <v>726</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="Q100" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="R100" t="s">
+      <c r="R100" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="S100" t="s">
+      <c r="S100" s="28" t="s">
         <v>727</v>
       </c>
       <c r="T100" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U100" t="s">
+      <c r="U100" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row ht="13.5" r="101" spans="1:21">
-      <c r="A101" t="s">
+    <row r="101" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A101" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="B101" t="s">
-        <v>433</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="Q101" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="R101" t="s">
+      <c r="R101" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="S101" t="s">
+      <c r="S101" s="28" t="s">
         <v>733</v>
       </c>
       <c r="T101" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="U101" t="s">
+      <c r="U101" s="28" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-      <autoFilter ref="A1:AD33" xr:uid="{8814925C-CAF0-49FB-90A3-CF047BD5F7AB}">
+    <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{40BF2F1D-6B36-4EDC-B085-7160A0A9926E}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -13216,82 +13217,82 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
-      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-      <autoFilter ref="A1:AD33" xr:uid="{C85633C5-E7A2-4BE6-9827-6CBA723B2F4B}"/>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{D95430B3-6978-4DE2-9652-220449C3B219}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule dxfId="1" priority="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="S3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="S4" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="S5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="S6" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="S7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink r:id="rId7" ref="S8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink r:id="rId8" ref="S9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink r:id="rId9" ref="S10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink r:id="rId10" ref="S11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink r:id="rId11" ref="S12" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink r:id="rId12" ref="S14" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink r:id="rId13" ref="S15" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink r:id="rId14" ref="S16" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink r:id="rId15" ref="S17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink r:id="rId16" ref="S18" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink r:id="rId17" ref="S19" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink r:id="rId18" ref="S20" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink r:id="rId19" ref="S21" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink r:id="rId20" ref="S22" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink r:id="rId21" ref="S23" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink r:id="rId22" ref="S24" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink r:id="rId23" ref="S25" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink r:id="rId24" ref="S26" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink r:id="rId25" ref="S27" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink r:id="rId26" ref="S28" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink r:id="rId27" ref="S29" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink r:id="rId28" ref="S30" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink r:id="rId29" ref="S31" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink r:id="rId30" ref="S32" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="S25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="S26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="S27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="S28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="S31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="S32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId31"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.53125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.53125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.86328125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.1328125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.19921875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="20.1328125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.86328125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.46484375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.1328125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13390,37 +13391,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule dxfId="0" priority="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.86328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.46484375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.1328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="51.1328125" collapsed="true"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="13.9" r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="13.9">
       <c r="A1" s="42" t="s">
         <v>158</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>164</v>
       </c>
@@ -13485,7 +13486,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>167</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>170</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>173</v>
       </c>
@@ -13536,7 +13537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -13555,14 +13556,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink r:id="rId5" ref="D6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink r:id="rId6" ref="E6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBD481-9B4E-48A5-9089-A30F53214E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453522B0-1FF7-4160-B30D-C8FF949DC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,14 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="770">
   <si>
     <t>ID</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>(no street name provided), Throsby ACT 2914</t>
-  </si>
-  <si>
-    <t>Offer</t>
   </si>
   <si>
     <t>Throsby</t>
@@ -2947,9 +2944,6 @@
     <t xml:space="preserve"> Moncrieff ACT 2914</t>
   </si>
   <si>
-    <t>TO BE VERIFY</t>
-  </si>
-  <si>
     <t>825,000 +</t>
   </si>
   <si>
@@ -3412,26 +3406,163 @@
     <t>14 Hartley Street, Turner ACT 2612</t>
   </si>
   <si>
-    <t>Block/House: 813/ -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4	7	0	0	0	0	</t>
-  </si>
-  <si>
-    <t>$470,000</t>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7483&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7485&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7487&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=5770&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=5778&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=5780&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6241&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6299&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6339&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6311&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6313&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6317&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6321&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6333&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6325&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6327&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6529&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6533&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6547&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6549&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6553&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6555&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/43-maynard-street-ngunnawal-act-2913</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/strathnairn-act-2615?tid=179399554</t>
   </si>
   <si>
     <t>Located in Unit 21/ 14 Hartley Street, Turner ACT 2612, this unit is one of a kind. A special place for those who want to have a peaceful and comfortable living.
 Enjoy its one spacious bedroom with one living room consists of alluring highlights and with a touch of modern architectural designs. Every corner is filled with natural light and giving you a vacation like vibe.</t>
   </si>
   <si>
-    <t>https://www.777homes.com.au/?post_type=property&amp;p=7483&amp;preview=true</t>
-  </si>
-  <si>
-    <t>https://www.777homes.com.au/?post_type=property&amp;p=7485&amp;preview=true</t>
-  </si>
-  <si>
-    <t>https://www.777homes.com.au/?post_type=property&amp;p=7487&amp;preview=true</t>
+    <t>Block/House: 813/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	7	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$470,000</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>43 Maynard Street, Ngunnawal ACT 2913</t>
+  </si>
+  <si>
+    <t>Ngunnawal</t>
+  </si>
+  <si>
+    <t>Block/House: 363/ 158</t>
+  </si>
+  <si>
+    <t>Auction 10/07/21</t>
+  </si>
+  <si>
+    <t>Auction, On-Site, 10th July at 11:am
+Positioned in a quiet and friendly neighbourhood, this neat, brick-veneer house is perfect for a small family, down-sizers, or an investor. The home is light filled and makes good use of natural light throughout.
+The home has a formal dining area, as well as a formal lounge room for the family to relax indoors but the heart of the home is the open-plan area which includes the kitchen, meals, and family room, which leads out onto a large, paved patio with a covered pergola. The pergola provides a space to enjoy the outdoors all-year round. There is shady front porch which is semi-private.
+The backyard is fully enclosed with a Colorbond fence, providing plenty of space for pets or children to play. There are no neighbours over the back fence, and the back gate leads out onto a green corridor which includes the Bicentennial National Trail and the Moncrieff Wetlands. So, this is an ideal spot for people who love walking their dog or people who just enjoy a morning or afternoon walk in a natural setting.
+The main bedroom has an ensuite, walk-in robe, and offers a perfect adult retreat, as the additional bedrooms are located at the other end of the house. The other two bedrooms have built-in wardrobes, and this home has many additional features added and improvements made over the years. This home presents an opportunity for someone with a flair for renovations. Do not miss this opportunity, inspections I strongly recommended.
+Property Features Include:
+• Spacious living areas
+• Easy care backyard
+• Gas hot water
+• Gas wall heater
+• Ducted range hood
+• Double garage with roller door &amp; remote control
+• Security camera monitoring system
+• Outdoor patio floodlights
+• Satellite dish
+• Artificial lawn
+• 11-minute walk (900m) to Ngunnawal Primary School
+Call Shaun now to discuss this property in details before you miss this one.</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Block/House: 490/ 250</t>
+  </si>
+  <si>
+    <t>$470,000+</t>
+  </si>
+  <si>
+    <t>Opens by appointment only.
+BARGAIN! - when land is less than $1000 per sqm and building is less than $2000 per sqm. Find us a better deal than this and we will buy it. 
+OFTEN SOUGHT, SELDOM FOUND
+In a quiet and convenient location in the heart of Strathnairn, and on a large 490sqm, 499sqm and 604sqm block at the elevated Hilltop Recreation stage, this property will be of particular interest to those wishing to secure a spacious family home in this tightly held Greenstar estate. Close to lakes and open green spaces, this 5 bedroom home offers plenty of space for the whole family plus a large double garage which offers tremendous flexibility with storage.
+A beautifully presented light filled home, families will appreciate the space to spread out both indoors and outdoors - with two large living areas and an outdoor alfresco. With future schools, shops, walking tracks, existing bus routes - this is a truly special opportunity not to be missed. With values steadily rising in Ginninderry, immediate enquiry is recommended. Don't look back in years to come with regret.
+Builder Perks:
+- Choose your interior colours and style
+- Security system with 3 motion sensors
+- Solar System
+- Hot water system with Heat Pump
+- Tiled alfresco
+- Colourbond roof
+- 2.55m ceiling height and more!</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7560&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7562&amp;preview=true</t>
+  </si>
+  <si>
+    <t>Drive to the block now!
+Open your eyes to the possibilities of a gorgeous view-plenty block. 
+Features Include:- Stone bench throughout kitchens and walk-in pantry- Stainless steel appliances in both kitchens- Floor to Ceiling tiles in all bathrooms- 2.55m Ceiling in main residence- Walk-in pantry- Large master and ensuite- Walk in robes to master suite- Reverse cycle zoned ducted A/C- Reverse cycle split system- Continuous gas hot water- 4000L water tank- External Gas connections- Plumbed fridge connections- Double garage with internal access to rear- NBN to the premises- Moments to local shopping centre (KIPPAX)- 15 minutes to the City
+Please contact Serene 0497565143 for more info.</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=6535&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3743,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3677,16 +3808,6 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3701,7 +3822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3844,8 +3965,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4082,11 +4201,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4111,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4149,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="60" t="s">
@@ -4184,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>14</v>
@@ -4197,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="4"/>
@@ -4230,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -4243,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
@@ -4287,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -4320,7 +4439,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -4333,7 +4452,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4364,7 +4483,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -4377,7 +4496,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4407,7 +4526,9 @@
       <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="56" t="s">
+        <v>731</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4419,7 +4540,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -4461,7 +4582,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -4503,7 +4624,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4534,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
@@ -4547,7 +4668,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4589,7 +4710,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4631,7 +4752,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -4673,7 +4794,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -4704,7 +4825,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>7</v>
@@ -4717,7 +4838,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -4759,7 +4880,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -4790,7 +4911,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -4803,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -4845,7 +4966,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -4872,10 +4993,12 @@
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="56" t="s">
+        <v>732</v>
+      </c>
       <c r="D19" s="16" t="s">
         <v>7</v>
       </c>
@@ -4887,7 +5010,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -4917,19 +5040,21 @@
       <c r="B20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="56" t="s">
+        <v>733</v>
+      </c>
       <c r="D20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -4959,19 +5084,21 @@
       <c r="B21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="56" t="s">
+        <v>734</v>
+      </c>
       <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -5007,13 +5134,13 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -5044,20 +5171,20 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -5088,18 +5215,18 @@
         <v>35</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -5135,7 +5262,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>37</v>
@@ -5172,14 +5299,14 @@
         <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D26" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="D26" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>37</v>
@@ -5216,14 +5343,14 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>37</v>
@@ -5265,7 +5392,7 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>37</v>
@@ -5302,14 +5429,14 @@
         <v>42</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>37</v>
@@ -5351,7 +5478,7 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>37</v>
@@ -5388,14 +5515,14 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>37</v>
@@ -5437,7 +5564,7 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>37</v>
@@ -5471,39 +5598,42 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>735</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5511,19 +5641,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5531,19 +5661,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5551,19 +5681,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5571,19 +5701,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>736</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5591,19 +5724,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>737</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5611,19 +5747,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>738</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5631,19 +5770,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5651,19 +5790,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>739</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5671,19 +5813,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5691,19 +5833,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5711,13 +5853,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>740</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>37</v>
@@ -5731,13 +5876,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>37</v>
@@ -5751,13 +5896,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>37</v>
@@ -5771,19 +5916,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>742</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5791,19 +5939,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>7</v>
+        <v>196</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
@@ -5811,19 +5962,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
@@ -5831,39 +5982,42 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -5871,39 +6025,42 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>744</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="12.75">
-      <c r="A54">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" ht="13.15">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="57" t="s">
+      <c r="B54" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="G54" t="s">
-        <v>331</v>
-      </c>
-      <c r="H54" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5911,19 +6068,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>745</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5931,19 +6091,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>769</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>433</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5951,19 +6114,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D57" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5971,19 +6134,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D58" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5991,19 +6154,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D59" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6011,19 +6174,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D60" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6031,19 +6194,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D61" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6051,19 +6214,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D62" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6071,19 +6234,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D63" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6091,19 +6257,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D64" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6111,20 +6280,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6132,13 +6301,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D66" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>37</v>
@@ -6152,19 +6324,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="D67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6172,22 +6347,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6195,22 +6370,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>574</v>
+        <v>472</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>573</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6218,22 +6393,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6241,22 +6416,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6264,22 +6439,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.75">
@@ -6287,22 +6462,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.75">
@@ -6310,22 +6485,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6333,22 +6508,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75">
@@ -6356,22 +6531,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75">
@@ -6379,22 +6554,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75">
@@ -6402,22 +6577,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.75">
@@ -6425,22 +6600,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D79" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.75">
@@ -6448,22 +6623,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="12.75">
@@ -6471,22 +6646,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="12.75">
@@ -6494,22 +6669,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="12.75">
@@ -6517,22 +6692,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="12.75">
@@ -6540,22 +6715,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="12.75">
@@ -6563,22 +6738,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C85" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.75">
@@ -6586,22 +6761,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C86" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G86" t="s">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="12.75">
@@ -6609,16 +6784,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C87" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -6632,16 +6807,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -6655,16 +6830,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C89" t="s">
-        <v>656</v>
-      </c>
-      <c r="D89" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D89" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G89" t="s">
         <v>37</v>
@@ -6678,22 +6853,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D90" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="12.75">
@@ -6701,22 +6876,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C91" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75">
@@ -6724,22 +6899,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C92" t="s">
-        <v>650</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>7</v>
+        <v>648</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.75">
@@ -6747,22 +6922,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C93" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.75">
@@ -6770,22 +6945,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C94" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="12.75">
@@ -6793,22 +6968,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C95" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G95" t="s">
         <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="12.75">
@@ -6816,22 +6991,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C96" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.75">
@@ -6839,16 +7014,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C97" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -6862,22 +7037,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>700</v>
+      </c>
+      <c r="C98" t="s">
         <v>702</v>
       </c>
-      <c r="C98" t="s">
-        <v>704</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>7</v>
+      <c r="D98" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="12.75">
@@ -6885,19 +7060,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C99" t="s">
-        <v>734</v>
-      </c>
-      <c r="D99" s="63" t="s">
-        <v>433</v>
+        <v>728</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.75">
@@ -6905,13 +7083,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C100" t="s">
-        <v>735</v>
-      </c>
-      <c r="D100" s="64" t="s">
-        <v>433</v>
+        <v>729</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -6925,19 +7106,68 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C101" t="s">
-        <v>736</v>
-      </c>
-      <c r="D101" s="65" t="s">
-        <v>433</v>
+        <v>730</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="12.75">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" t="s">
+        <v>766</v>
+      </c>
+      <c r="D102" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="12.75">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>751</v>
+      </c>
+      <c r="C103" t="s">
+        <v>767</v>
+      </c>
+      <c r="D103" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -7031,9 +7261,29 @@
     <hyperlink ref="B90" r:id="rId87" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
     <hyperlink ref="C15" r:id="rId88" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
     <hyperlink ref="C3" r:id="rId89" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
+    <hyperlink ref="C8" r:id="rId90" xr:uid="{3D3D678C-8F1B-47BC-ACA2-D1CBF5A76F0B}"/>
+    <hyperlink ref="C19" r:id="rId91" xr:uid="{ED2C9A9B-3440-4B4A-91A1-7CAF84972535}"/>
+    <hyperlink ref="C20" r:id="rId92" xr:uid="{E47C999F-11AE-4F93-9032-6E51EB582635}"/>
+    <hyperlink ref="C21" r:id="rId93" xr:uid="{E59411CC-EC13-4665-969A-8D9238CCD0C2}"/>
+    <hyperlink ref="C33" r:id="rId94" xr:uid="{9C953AB9-0076-4477-B52F-C393846B1211}"/>
+    <hyperlink ref="C38" r:id="rId95" xr:uid="{D349EA20-36BF-44C7-A16B-E85B8FE53B2A}"/>
+    <hyperlink ref="C39" r:id="rId96" xr:uid="{DE18DA3B-1A3D-4613-888E-7F506CC87091}"/>
+    <hyperlink ref="C40" r:id="rId97" xr:uid="{0C71282B-049B-4CD1-A090-B66647F2B29B}"/>
+    <hyperlink ref="C42" r:id="rId98" xr:uid="{AD0DC851-DEC5-4ACE-B928-50149068BB70}"/>
+    <hyperlink ref="C45" r:id="rId99" xr:uid="{EB51DFC2-D28F-4E0C-B019-F9954D6C9832}"/>
+    <hyperlink ref="C52" r:id="rId100" xr:uid="{9E5146F6-8EC8-4A2C-B192-C1CCB11CAB8A}"/>
+    <hyperlink ref="C48" r:id="rId101" xr:uid="{31B308E4-DA3E-401B-B796-7D03404228FB}"/>
+    <hyperlink ref="C49" r:id="rId102" xr:uid="{EBAAB9CE-7F91-4628-AF75-32C4EEF948C2}"/>
+    <hyperlink ref="C53" r:id="rId103" xr:uid="{2FF7EB1F-CD56-4E71-AD0F-0D12E8347603}"/>
+    <hyperlink ref="C55" r:id="rId104" xr:uid="{9BD44DCD-EEBB-4649-9792-F3DAC40B3960}"/>
+    <hyperlink ref="C63" r:id="rId105" xr:uid="{9929BCF4-32FD-4143-99F6-FEB21B90BCD7}"/>
+    <hyperlink ref="C64" r:id="rId106" xr:uid="{80B3DEC9-506E-4F3A-B171-A2D71B731577}"/>
+    <hyperlink ref="C66" r:id="rId107" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
+    <hyperlink ref="C67" r:id="rId108" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
+    <hyperlink ref="C56" r:id="rId109" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 
@@ -7042,11 +7292,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI101"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C109" sqref="C109"/>
+      <selection pane="topRight" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7077,7 +7327,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
@@ -7152,7 +7402,7 @@
         <v>70</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>72</v>
@@ -7176,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>76</v>
@@ -7185,7 +7435,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28" t="s">
@@ -7247,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>83</v>
@@ -7256,7 +7506,7 @@
         <v>84</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28" t="s">
@@ -7317,7 +7567,7 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -7327,7 +7577,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>79</v>
@@ -7336,22 +7586,22 @@
         <v>85</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O4" s="28">
         <v>2020</v>
@@ -7366,10 +7616,10 @@
         <v>91</v>
       </c>
       <c r="S4" s="28" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>8</v>
@@ -7380,7 +7630,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>92</v>
@@ -7389,7 +7639,7 @@
         <v>93</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>94</v>
@@ -7537,7 +7787,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>94</v>
@@ -7546,13 +7796,13 @@
         <v>106</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="K7" s="28" t="s">
-        <v>441</v>
-      </c>
       <c r="L7" s="28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M7" s="28">
         <v>4</v>
@@ -7573,7 +7823,7 @@
         <v>105</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>104</v>
@@ -7660,7 +7910,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>108</v>
@@ -7669,25 +7919,25 @@
         <v>84</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M9" s="28">
         <v>4</v>
@@ -7699,13 +7949,13 @@
         <v>6</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>108</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T9" s="28" t="s">
         <v>104</v>
@@ -7719,7 +7969,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>109</v>
@@ -7728,22 +7978,22 @@
         <v>77</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>111</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M10" s="28">
         <v>1</v>
@@ -7761,7 +8011,7 @@
         <v>109</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T10" s="28" t="s">
         <v>104</v>
@@ -7784,7 +8034,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>113</v>
@@ -7793,19 +8043,19 @@
         <v>114</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K11" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>324</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>325</v>
       </c>
       <c r="M11" s="28">
         <v>4</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P11" s="28">
         <v>6</v>
@@ -7817,7 +8067,7 @@
         <v>115</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>104</v>
@@ -7840,7 +8090,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>117</v>
@@ -7849,7 +8099,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>94</v>
@@ -7858,31 +8108,31 @@
         <v>118</v>
       </c>
       <c r="H12" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="L12" s="28" t="s">
         <v>446</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>447</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P12" s="28">
         <v>6</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>119</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T12" s="28" t="s">
         <v>104</v>
@@ -7896,16 +8146,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>79</v>
@@ -7914,28 +8164,28 @@
         <v>118</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R13" s="28" t="s">
         <v>120</v>
@@ -7955,7 +8205,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>121</v>
@@ -7964,31 +8214,31 @@
         <v>84</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>94</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>451</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>452</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P14" s="28">
         <v>6</v>
@@ -7997,10 +8247,10 @@
         <v>2</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T14" s="28" t="s">
         <v>104</v>
@@ -8029,25 +8279,25 @@
         <v>84</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M15" s="28">
         <v>4</v>
@@ -8065,7 +8315,7 @@
         <v>103</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T15" s="28" t="s">
         <v>104</v>
@@ -8079,16 +8329,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>79</v>
@@ -8097,34 +8347,34 @@
         <v>85</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T16" s="28" t="s">
         <v>104</v>
@@ -8141,28 +8391,28 @@
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="28">
         <v>4</v>
@@ -8177,10 +8427,10 @@
         <v>2</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T17" s="28" t="s">
         <v>104</v>
@@ -8194,34 +8444,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K18" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>458</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>459</v>
       </c>
       <c r="M18" s="28">
         <v>4</v>
@@ -8236,10 +8486,10 @@
         <v>2</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>104</v>
@@ -8248,12 +8498,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>644</v>
+      <c r="B19" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>98</v>
@@ -8261,23 +8511,20 @@
       <c r="D19" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
       <c r="K19" s="28">
         <v>720000</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" s="28">
         <v>4</v>
@@ -8285,7 +8532,6 @@
       <c r="N19" s="28">
         <v>3</v>
       </c>
-      <c r="O19" s="28"/>
       <c r="P19" s="28">
         <v>6</v>
       </c>
@@ -8295,8 +8541,8 @@
       <c r="R19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="29" t="s">
-        <v>30</v>
+      <c r="S19" s="28" t="s">
+        <v>768</v>
       </c>
       <c r="T19" s="28" t="s">
         <v>104</v>
@@ -8304,20 +8550,6 @@
       <c r="U19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="28">
@@ -8327,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>84</v>
@@ -8342,7 +8574,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>90</v>
@@ -8352,7 +8584,7 @@
         <v>775000</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="28">
         <v>4</v>
@@ -8368,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S20" s="29" t="s">
         <v>31</v>
@@ -8417,7 +8649,7 @@
         <v>100</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -8425,7 +8657,7 @@
         <v>745000</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M21" s="28">
         <v>4</v>
@@ -8470,55 +8702,55 @@
         <v>21</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K22" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>462</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>463</v>
       </c>
       <c r="M22" s="28">
         <v>3</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O22" s="28">
         <v>2</v>
       </c>
       <c r="P22" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q22" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R22" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T22" s="28" t="s">
         <v>104</v>
@@ -8541,7 +8773,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>84</v>
@@ -8553,10 +8785,10 @@
         <v>99</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>139</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>90</v>
@@ -8565,7 +8797,7 @@
         <v>749000</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M23" s="28">
         <v>4</v>
@@ -8577,7 +8809,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>34</v>
@@ -8594,7 +8826,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>117</v>
@@ -8603,7 +8835,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>94</v>
@@ -8612,37 +8844,37 @@
         <v>118</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M24" s="28">
         <v>4</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O24" s="28">
         <v>2</v>
       </c>
       <c r="P24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q24" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>119</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T24" s="28" t="s">
         <v>104</v>
@@ -8656,25 +8888,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>145</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>90</v>
@@ -8684,7 +8916,7 @@
         <v>799000</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M25" s="28">
         <v>4</v>
@@ -8698,7 +8930,7 @@
         <v>4.5</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S25" s="29" t="s">
         <v>36</v>
@@ -8732,31 +8964,31 @@
         <v>7</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="H26" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M26" s="28">
         <v>2</v>
@@ -8771,10 +9003,10 @@
         <v>1</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T26" s="28" t="s">
         <v>82</v>
@@ -8791,7 +9023,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>77</v>
@@ -8806,16 +9038,16 @@
         <v>79</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L27" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M27" s="28">
         <v>2</v>
@@ -8830,10 +9062,10 @@
         <v>1</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>82</v>
@@ -8847,34 +9079,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>94</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M28" s="28">
         <v>4</v>
@@ -8889,10 +9121,10 @@
         <v>2</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T28" s="28" t="s">
         <v>82</v>
@@ -8906,16 +9138,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>94</v>
@@ -8924,16 +9156,16 @@
         <v>85</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M29" s="28">
         <v>4</v>
@@ -8948,13 +9180,13 @@
         <v>2</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S29" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>37</v>
@@ -8965,34 +9197,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M30" s="28">
         <v>3</v>
@@ -9007,13 +9239,13 @@
         <v>1</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>37</v>
@@ -9027,28 +9259,28 @@
         <v>7</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="28" t="s">
         <v>110</v>
       </c>
       <c r="G31" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="M31" s="28">
         <v>1</v>
@@ -9057,19 +9289,19 @@
         <v>1</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>37</v>
@@ -9080,16 +9312,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>94</v>
@@ -9098,16 +9330,16 @@
         <v>85</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K32" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L32" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>388</v>
       </c>
       <c r="M32" s="28">
         <v>4</v>
@@ -9122,10 +9354,10 @@
         <v>2</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T32" s="28" t="s">
         <v>82</v>
@@ -9136,13 +9368,13 @@
     </row>
     <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A33" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>84</v>
@@ -9157,34 +9389,34 @@
         <v>85</v>
       </c>
       <c r="H33" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="K33" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="L33" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="M33" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="N33" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="N33" s="28" t="s">
+      <c r="P33" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="P33" s="28" t="s">
+      <c r="Q33" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q33" s="28" t="s">
+      <c r="R33" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="S33" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="R33" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="S33" s="28" t="s">
-        <v>211</v>
       </c>
       <c r="T33" s="28" t="s">
         <v>82</v>
@@ -9195,7 +9427,7 @@
     </row>
     <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A34" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>7</v>
@@ -9207,43 +9439,43 @@
         <v>84</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H34" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="I34" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="28" t="s">
+      <c r="L34" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="M34" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R34" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P34" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q34" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R34" s="28" t="s">
+      <c r="S34" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="S34" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="T34" s="28" t="s">
         <v>82</v>
@@ -9254,7 +9486,7 @@
     </row>
     <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A35" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>7</v>
@@ -9275,34 +9507,34 @@
         <v>85</v>
       </c>
       <c r="H35" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I35" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" s="28" t="s">
+      <c r="L35" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="M35" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q35" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R35" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="M35" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P35" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q35" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R35" s="28" t="s">
+      <c r="S35" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="S35" s="28" t="s">
-        <v>224</v>
       </c>
       <c r="T35" s="28" t="s">
         <v>82</v>
@@ -9313,55 +9545,55 @@
     </row>
     <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A36" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G36" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="I36" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="28" t="s">
+      <c r="L36" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="M36" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="S36" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="M36" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P36" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q36" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R36" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="S36" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="T36" s="28" t="s">
         <v>82</v>
@@ -9372,55 +9604,55 @@
     </row>
     <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A37" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H37" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="L37" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K37" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="28" t="s">
+      <c r="R37" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="S37" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="M37" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q37" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R37" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="S37" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="T37" s="28" t="s">
         <v>82</v>
@@ -9431,55 +9663,55 @@
     </row>
     <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A38" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>240</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="H38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="H38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="28" t="s">
+      <c r="M38" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="28" t="s">
+      <c r="N38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R38" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="M38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="P38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q38" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R38" s="28" t="s">
+      <c r="S38" s="28" t="s">
         <v>244</v>
-      </c>
-      <c r="S38" s="28" t="s">
-        <v>245</v>
       </c>
       <c r="T38" s="28" t="s">
         <v>82</v>
@@ -9490,13 +9722,13 @@
     </row>
     <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A39" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>77</v>
@@ -9508,37 +9740,37 @@
         <v>79</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K39" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K39" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L39" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M39" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P39" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P39" s="28" t="s">
+      <c r="Q39" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q39" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R39" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="S39" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="S39" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="T39" s="28" t="s">
         <v>82</v>
@@ -9549,7 +9781,7 @@
     </row>
     <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A40" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>7</v>
@@ -9561,7 +9793,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>79</v>
@@ -9570,34 +9802,34 @@
         <v>85</v>
       </c>
       <c r="H40" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S40" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P40" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q40" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R40" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S40" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="T40" s="28" t="s">
         <v>82</v>
@@ -9608,55 +9840,55 @@
     </row>
     <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A41" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="I41" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="I41" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="28" t="s">
+      <c r="L41" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="M41" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="M41" s="28" t="s">
+      <c r="N41" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="N41" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P41" s="28" t="s">
+      <c r="Q41" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="S41" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="Q41" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R41" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="S41" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="T41" s="28" t="s">
         <v>82</v>
@@ -9667,7 +9899,7 @@
     </row>
     <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A42" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>7</v>
@@ -9679,43 +9911,43 @@
         <v>84</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R42" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="I42" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="M42" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N42" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P42" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q42" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R42" s="28" t="s">
+      <c r="S42" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="S42" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="T42" s="28" t="s">
         <v>82</v>
@@ -9726,55 +9958,55 @@
     </row>
     <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A43" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="28" t="s">
+      <c r="D43" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>267</v>
-      </c>
       <c r="E43" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="I43" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K43" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="I43" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K43" s="28" t="s">
+      <c r="L43" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="M43" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="M43" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P43" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q43" s="28" t="s">
+      <c r="R43" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="S43" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="R43" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="S43" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="T43" s="28" t="s">
         <v>82</v>
@@ -9785,55 +10017,55 @@
     </row>
     <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A44" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>275</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>50</v>
       </c>
       <c r="H44" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K44" s="28" t="s">
+      <c r="L44" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="M44" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="S44" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P44" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q44" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R44" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="S44" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="T44" s="28" t="s">
         <v>82</v>
@@ -9844,13 +10076,13 @@
     </row>
     <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A45" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>84</v>
@@ -9865,34 +10097,34 @@
         <v>85</v>
       </c>
       <c r="H45" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="I45" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K45" s="28" t="s">
+      <c r="L45" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="M45" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="S45" s="28" t="s">
         <v>285</v>
-      </c>
-      <c r="M45" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P45" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q45" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R45" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="S45" s="28" t="s">
-        <v>286</v>
       </c>
       <c r="T45" s="28" t="s">
         <v>82</v>
@@ -9903,19 +10135,19 @@
     </row>
     <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A46" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>287</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>288</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="28" t="s">
         <v>79</v>
@@ -9924,34 +10156,34 @@
         <v>95</v>
       </c>
       <c r="H46" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="I46" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K46" s="28" t="s">
+      <c r="L46" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="M46" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="S46" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P46" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R46" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="S46" s="28" t="s">
-        <v>292</v>
       </c>
       <c r="T46" s="28" t="s">
         <v>82</v>
@@ -9962,55 +10194,55 @@
     </row>
     <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A47" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>293</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>294</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H47" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="I47" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K47" s="28" t="s">
+      <c r="L47" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="L47" s="28" t="s">
+      <c r="M47" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q47" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="S47" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="M47" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P47" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q47" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R47" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S47" s="28" t="s">
-        <v>298</v>
       </c>
       <c r="T47" s="28" t="s">
         <v>82</v>
@@ -10021,7 +10253,7 @@
     </row>
     <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A48" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>7</v>
@@ -10042,34 +10274,34 @@
         <v>85</v>
       </c>
       <c r="H48" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K48" s="28" t="s">
+      <c r="L48" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="M48" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S48" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="M48" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P48" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q48" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R48" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S48" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="T48" s="28" t="s">
         <v>104</v>
@@ -10080,13 +10312,13 @@
     </row>
     <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A49" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>84</v>
@@ -10095,40 +10327,40 @@
         <v>78</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="I49" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K49" s="28" t="s">
+      <c r="L49" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="M49" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q49" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="S49" s="28" t="s">
         <v>308</v>
-      </c>
-      <c r="M49" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N49" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P49" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q49" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R49" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="S49" s="28" t="s">
-        <v>309</v>
       </c>
       <c r="T49" s="28" t="s">
         <v>104</v>
@@ -10139,13 +10371,13 @@
     </row>
     <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A50" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>84</v>
@@ -10154,40 +10386,40 @@
         <v>78</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H50" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K50" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="I50" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K50" s="28" t="s">
+      <c r="L50" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="M50" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="S50" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="M50" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q50" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R50" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="S50" s="28" t="s">
-        <v>315</v>
       </c>
       <c r="T50" s="28" t="s">
         <v>104</v>
@@ -10198,55 +10430,55 @@
     </row>
     <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A51" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="L51" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="M51" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K51" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="L51" s="28" t="s">
+      <c r="N51" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="S51" s="28" t="s">
         <v>320</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="P51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R51" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="S51" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T51" s="28" t="s">
         <v>104</v>
@@ -10257,7 +10489,7 @@
     </row>
     <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A52" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>7</v>
@@ -10278,34 +10510,34 @@
         <v>85</v>
       </c>
       <c r="H52" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K52" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="I52" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K52" s="28" t="s">
+      <c r="L52" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="M52" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S52" s="28" t="s">
         <v>325</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P52" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q52" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R52" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S52" s="28" t="s">
-        <v>326</v>
       </c>
       <c r="T52" s="28" t="s">
         <v>104</v>
@@ -10316,13 +10548,13 @@
     </row>
     <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A53" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>77</v>
@@ -10337,110 +10569,110 @@
         <v>85</v>
       </c>
       <c r="H53" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K53" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="I53" s="28" t="s">
+      <c r="L53" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q53" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K53" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="L53" s="28" t="s">
+      <c r="R53" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="S53" s="28" t="s">
         <v>353</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P53" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q53" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R53" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="S53" s="28" t="s">
-        <v>354</v>
       </c>
       <c r="T53" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U53" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="12.75">
-      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A54" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B54" t="s">
-        <v>433</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="S54" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="I54" t="s">
-        <v>204</v>
-      </c>
-      <c r="K54" t="s">
-        <v>205</v>
-      </c>
-      <c r="L54" t="s">
-        <v>243</v>
-      </c>
-      <c r="M54" t="s">
-        <v>207</v>
-      </c>
-      <c r="N54" t="s">
-        <v>272</v>
-      </c>
-      <c r="P54" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>205</v>
-      </c>
-      <c r="R54" t="s">
-        <v>356</v>
-      </c>
-      <c r="S54" t="s">
-        <v>358</v>
-      </c>
-      <c r="T54" t="s">
+      <c r="T54" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U54" t="s">
-        <v>331</v>
+      <c r="U54" s="28" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A55" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>77</v>
@@ -10455,51 +10687,51 @@
         <v>85</v>
       </c>
       <c r="H55" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="I55" s="28" t="s">
+      <c r="L55" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q55" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K55" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="L55" s="28" t="s">
+      <c r="R55" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="S55" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="M55" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="N55" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P55" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q55" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R55" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="S55" s="28" t="s">
-        <v>364</v>
       </c>
       <c r="T55" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U55" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A56" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>365</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>366</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>77</v>
@@ -10514,116 +10746,116 @@
         <v>85</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q56" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K56" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="L56" s="28" t="s">
+      <c r="R56" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="S56" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="M56" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="N56" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P56" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q56" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R56" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="S56" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="T56" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A57" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>370</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>371</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G57" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="I57" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="I57" s="28" t="s">
+      <c r="L57" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P57" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K57" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="L57" s="28" t="s">
+      <c r="Q57" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="S57" s="28" t="s">
         <v>375</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P57" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q57" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R57" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="S57" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="T57" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U57" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A58" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>377</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>378</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>79</v>
@@ -10632,175 +10864,175 @@
         <v>79</v>
       </c>
       <c r="H58" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K58" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="L58" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P58" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K58" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="L58" s="28" t="s">
+      <c r="Q58" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R58" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="S58" s="28" t="s">
         <v>381</v>
-      </c>
-      <c r="M58" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P58" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q58" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R58" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="S58" s="28" t="s">
-        <v>382</v>
       </c>
       <c r="T58" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U58" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A59" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>384</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G59" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="I59" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K59" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="L59" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="M59" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P59" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K59" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="L59" s="28" t="s">
+      <c r="Q59" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="S59" s="28" t="s">
         <v>388</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N59" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P59" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q59" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R59" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="S59" s="28" t="s">
-        <v>389</v>
       </c>
       <c r="T59" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U59" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A60" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>390</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>391</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>111</v>
       </c>
       <c r="H60" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K60" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="I60" s="28" t="s">
+      <c r="L60" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P60" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K60" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="L60" s="28" t="s">
+      <c r="Q60" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="S60" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="M60" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P60" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q60" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R60" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="S60" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="T60" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U60" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A61" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>397</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>398</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>79</v>
@@ -10809,54 +11041,54 @@
         <v>106</v>
       </c>
       <c r="H61" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K61" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="I61" s="28" t="s">
+      <c r="L61" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="M61" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N61" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P61" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K61" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="L61" s="28" t="s">
+      <c r="Q61" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R61" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="S61" s="28" t="s">
         <v>401</v>
-      </c>
-      <c r="M61" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N61" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P61" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q61" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R61" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="S61" s="28" t="s">
-        <v>402</v>
       </c>
       <c r="T61" s="28" t="s">
         <v>82</v>
       </c>
       <c r="U61" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A62" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>78</v>
@@ -10865,37 +11097,37 @@
         <v>79</v>
       </c>
       <c r="G62" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="H62" s="28" t="s">
-        <v>269</v>
-      </c>
       <c r="I62" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K62" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L62" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M62" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N62" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P62" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="N62" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P62" s="28" t="s">
-        <v>209</v>
-      </c>
       <c r="Q62" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R62" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="S62" s="28" t="s">
         <v>404</v>
-      </c>
-      <c r="S62" s="28" t="s">
-        <v>405</v>
       </c>
       <c r="T62" s="28" t="s">
         <v>82</v>
@@ -10906,13 +11138,13 @@
     </row>
     <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A63" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>84</v>
@@ -10927,34 +11159,34 @@
         <v>85</v>
       </c>
       <c r="H63" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L63" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="I63" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L63" s="28" t="s">
+      <c r="M63" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P63" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q63" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R63" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="S63" s="28" t="s">
         <v>409</v>
-      </c>
-      <c r="M63" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N63" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P63" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q63" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R63" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="S63" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="T63" s="28" t="s">
         <v>82</v>
@@ -10965,13 +11197,13 @@
     </row>
     <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A64" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>84</v>
@@ -10980,40 +11212,40 @@
         <v>78</v>
       </c>
       <c r="F64" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="H64" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="I64" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L64" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N64" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q64" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="S64" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N64" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P64" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q64" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R64" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="S64" s="28" t="s">
-        <v>416</v>
       </c>
       <c r="T64" s="28" t="s">
         <v>82</v>
@@ -11024,13 +11256,13 @@
     </row>
     <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A65" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>84</v>
@@ -11045,34 +11277,34 @@
         <v>79</v>
       </c>
       <c r="H65" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="I65" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K65" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L65" s="28" t="s">
+      <c r="M65" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N65" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P65" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q65" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="S65" s="28" t="s">
         <v>420</v>
-      </c>
-      <c r="M65" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N65" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P65" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q65" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R65" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="S65" s="28" t="s">
-        <v>421</v>
       </c>
       <c r="T65" s="28" t="s">
         <v>82</v>
@@ -11083,13 +11315,13 @@
     </row>
     <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A66" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>84</v>
@@ -11104,34 +11336,34 @@
         <v>85</v>
       </c>
       <c r="H66" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K66" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="I66" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K66" s="28" t="s">
+      <c r="L66" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="L66" s="28" t="s">
+      <c r="M66" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N66" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P66" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q66" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="S66" s="28" t="s">
         <v>426</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N66" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P66" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q66" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R66" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="S66" s="28" t="s">
-        <v>427</v>
       </c>
       <c r="T66" s="28" t="s">
         <v>82</v>
@@ -11142,13 +11374,13 @@
     </row>
     <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A67" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>84</v>
@@ -11160,37 +11392,37 @@
         <v>99</v>
       </c>
       <c r="G67" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H67" s="28" t="s">
-        <v>431</v>
-      </c>
       <c r="I67" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" s="28">
         <v>825000</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q67" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S67" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T67" s="28" t="s">
         <v>104</v>
@@ -11201,13 +11433,13 @@
     </row>
     <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>84</v>
@@ -11219,37 +11451,37 @@
         <v>79</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="I68" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L68" s="28" t="s">
+      <c r="M68" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P68" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q68" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="S68" s="28" t="s">
         <v>493</v>
-      </c>
-      <c r="M68" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N68" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P68" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q68" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R68" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="S68" s="28" t="s">
-        <v>494</v>
       </c>
       <c r="T68" s="28" t="s">
         <v>82</v>
@@ -11260,16 +11492,16 @@
     </row>
     <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A69" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E69" s="28" t="s">
         <v>78</v>
@@ -11278,37 +11510,37 @@
         <v>79</v>
       </c>
       <c r="G69" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="H69" s="28" t="s">
-        <v>269</v>
-      </c>
       <c r="I69" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K69" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K69" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L69" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M69" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P69" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="N69" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P69" s="28" t="s">
-        <v>209</v>
-      </c>
       <c r="Q69" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S69" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T69" s="28" t="s">
         <v>82</v>
@@ -11319,55 +11551,55 @@
     </row>
     <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A70" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>114</v>
       </c>
       <c r="H70" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K70" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="I70" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K70" s="28" t="s">
+      <c r="L70" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="M70" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q70" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="S70" s="28" t="s">
         <v>501</v>
-      </c>
-      <c r="M70" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P70" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q70" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R70" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="S70" s="28" t="s">
-        <v>502</v>
       </c>
       <c r="T70" s="28" t="s">
         <v>82</v>
@@ -11378,19 +11610,19 @@
     </row>
     <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A71" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F71" s="28" t="s">
         <v>79</v>
@@ -11399,34 +11631,34 @@
         <v>118</v>
       </c>
       <c r="H71" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="L71" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="I71" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K71" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="L71" s="28" t="s">
+      <c r="M71" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P71" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q71" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="S71" s="28" t="s">
         <v>506</v>
-      </c>
-      <c r="M71" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N71" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P71" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q71" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R71" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="S71" s="28" t="s">
-        <v>507</v>
       </c>
       <c r="T71" s="28" t="s">
         <v>82</v>
@@ -11437,7 +11669,7 @@
     </row>
     <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A72" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>7</v>
@@ -11452,40 +11684,40 @@
         <v>78</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I72" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K72" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K72" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L72" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M72" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P72" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q72" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q72" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R72" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S72" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T72" s="28" t="s">
         <v>82</v>
@@ -11496,7 +11728,7 @@
     </row>
     <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A73" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>7</v>
@@ -11517,34 +11749,34 @@
         <v>85</v>
       </c>
       <c r="H73" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="L73" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="I73" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K73" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="L73" s="28" t="s">
+      <c r="M73" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q73" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S73" s="28" t="s">
         <v>512</v>
-      </c>
-      <c r="M73" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N73" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P73" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q73" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R73" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S73" s="28" t="s">
-        <v>513</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>104</v>
@@ -11555,16 +11787,16 @@
     </row>
     <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A74" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>78</v>
@@ -11573,37 +11805,37 @@
         <v>79</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H74" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="I74" s="28" t="s">
+      <c r="L74" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="M74" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P74" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K74" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="L74" s="28" t="s">
+      <c r="Q74" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="S74" s="28" t="s">
         <v>518</v>
-      </c>
-      <c r="M74" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N74" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P74" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q74" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R74" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="S74" s="28" t="s">
-        <v>519</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>104</v>
@@ -11614,13 +11846,13 @@
     </row>
     <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A75" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>84</v>
@@ -11629,40 +11861,40 @@
         <v>78</v>
       </c>
       <c r="F75" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>242</v>
-      </c>
       <c r="H75" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K75" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="I75" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K75" s="28" t="s">
+      <c r="L75" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="L75" s="28" t="s">
+      <c r="M75" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q75" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="S75" s="28" t="s">
         <v>524</v>
-      </c>
-      <c r="M75" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N75" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P75" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q75" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R75" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="S75" s="28" t="s">
-        <v>525</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>104</v>
@@ -11673,7 +11905,7 @@
     </row>
     <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A76" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>7</v>
@@ -11694,34 +11926,34 @@
         <v>85</v>
       </c>
       <c r="H76" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K76" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="I76" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K76" s="28" t="s">
+      <c r="L76" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="L76" s="28" t="s">
+      <c r="M76" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q76" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S76" s="28" t="s">
         <v>529</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N76" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P76" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q76" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R76" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S76" s="28" t="s">
-        <v>530</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>104</v>
@@ -11732,55 +11964,55 @@
     </row>
     <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A77" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="D77" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="28" t="s">
+      <c r="H77" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="I77" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K77" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="I77" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K77" s="28" t="s">
+      <c r="L77" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="L77" s="28" t="s">
+      <c r="M77" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N77" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P77" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q77" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R77" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="S77" s="28" t="s">
         <v>536</v>
-      </c>
-      <c r="M77" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N77" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P77" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q77" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R77" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="S77" s="28" t="s">
-        <v>537</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>104</v>
@@ -11791,13 +12023,13 @@
     </row>
     <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A78" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>84</v>
@@ -11806,40 +12038,40 @@
         <v>78</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L78" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N78" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P78" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q78" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q78" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R78" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>104</v>
@@ -11850,13 +12082,13 @@
     </row>
     <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A79" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>77</v>
@@ -11865,40 +12097,40 @@
         <v>78</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K79" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="I79" s="28" t="s">
+      <c r="L79" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="M79" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N79" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q79" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K79" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="L79" s="28" t="s">
+      <c r="R79" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="S79" s="28" t="s">
         <v>545</v>
-      </c>
-      <c r="M79" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N79" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P79" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q79" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="R79" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="S79" s="28" t="s">
-        <v>546</v>
       </c>
       <c r="T79" s="28" t="s">
         <v>104</v>
@@ -11909,55 +12141,55 @@
     </row>
     <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A80" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="H80" s="28" t="s">
+      <c r="I80" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="I80" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K80" s="28" t="s">
+      <c r="L80" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="L80" s="28" t="s">
+      <c r="M80" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N80" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q80" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R80" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="M80" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N80" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P80" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q80" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R80" s="28" t="s">
+      <c r="S80" s="28" t="s">
         <v>552</v>
-      </c>
-      <c r="S80" s="28" t="s">
-        <v>553</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>104</v>
@@ -11968,7 +12200,7 @@
     </row>
     <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>7</v>
@@ -11989,34 +12221,34 @@
         <v>85</v>
       </c>
       <c r="H81" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K81" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="I81" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K81" s="28" t="s">
+      <c r="L81" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="L81" s="28" t="s">
+      <c r="M81" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P81" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q81" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R81" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S81" s="28" t="s">
         <v>557</v>
-      </c>
-      <c r="M81" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N81" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P81" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q81" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R81" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S81" s="28" t="s">
-        <v>558</v>
       </c>
       <c r="T81" s="28" t="s">
         <v>104</v>
@@ -12027,7 +12259,7 @@
     </row>
     <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A82" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>7</v>
@@ -12039,43 +12271,43 @@
         <v>84</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H82" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K82" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="I82" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K82" s="28" t="s">
+      <c r="L82" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="L82" s="28" t="s">
+      <c r="M82" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N82" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P82" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q82" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R82" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="S82" s="28" t="s">
         <v>562</v>
-      </c>
-      <c r="M82" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N82" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P82" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q82" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R82" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="S82" s="28" t="s">
-        <v>563</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>104</v>
@@ -12086,7 +12318,7 @@
     </row>
     <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A83" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>7</v>
@@ -12101,40 +12333,40 @@
         <v>78</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I83" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K83" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="M83" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N83" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P83" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K83" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="L83" s="28" t="s">
+      <c r="Q83" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R83" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="S83" s="28" t="s">
         <v>565</v>
-      </c>
-      <c r="M83" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N83" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P83" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q83" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R83" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="S83" s="28" t="s">
-        <v>566</v>
       </c>
       <c r="T83" s="28" t="s">
         <v>104</v>
@@ -12145,7 +12377,7 @@
     </row>
     <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A84" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>7</v>
@@ -12154,46 +12386,46 @@
         <v>112</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>78</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>114</v>
       </c>
       <c r="H84" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K84" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="M84" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N84" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q84" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R84" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="I84" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K84" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="M84" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N84" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P84" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q84" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R84" s="28" t="s">
+      <c r="S84" s="28" t="s">
         <v>569</v>
-      </c>
-      <c r="S84" s="28" t="s">
-        <v>570</v>
       </c>
       <c r="T84" s="28" t="s">
         <v>104</v>
@@ -12204,55 +12436,55 @@
     </row>
     <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F85" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K85" s="28">
         <v>349000</v>
       </c>
       <c r="L85" s="28" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M85" s="28">
         <v>1</v>
       </c>
       <c r="N85" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P85" s="28">
         <v>5</v>
       </c>
       <c r="Q85" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R85" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S85" s="28" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T85" s="28" t="s">
         <v>104</v>
@@ -12263,13 +12495,13 @@
     </row>
     <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>84</v>
@@ -12284,34 +12516,34 @@
         <v>118</v>
       </c>
       <c r="H86" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K86" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="M86" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P86" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q86" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="S86" s="28" t="s">
         <v>614</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K86" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L86" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="M86" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N86" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P86" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q86" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R86" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="S86" s="28" t="s">
-        <v>615</v>
       </c>
       <c r="T86" s="28" t="s">
         <v>82</v>
@@ -12322,13 +12554,13 @@
     </row>
     <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>84</v>
@@ -12340,37 +12572,37 @@
         <v>79</v>
       </c>
       <c r="G87" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="H87" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="I87" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K87" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="L87" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M87" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N87" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q87" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R87" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="S87" s="28" t="s">
         <v>619</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K87" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="L87" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="M87" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N87" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P87" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q87" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R87" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="S87" s="28" t="s">
-        <v>620</v>
       </c>
       <c r="T87" s="28" t="s">
         <v>82</v>
@@ -12381,13 +12613,13 @@
     </row>
     <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A88" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>77</v>
@@ -12402,34 +12634,34 @@
         <v>79</v>
       </c>
       <c r="H88" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L88" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M88" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N88" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R88" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="S88" s="28" t="s">
         <v>623</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K88" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L88" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="M88" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N88" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P88" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q88" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R88" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="S88" s="28" t="s">
-        <v>624</v>
       </c>
       <c r="T88" s="28" t="s">
         <v>82</v>
@@ -12440,13 +12672,13 @@
     </row>
     <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A89" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>84</v>
@@ -12458,37 +12690,37 @@
         <v>79</v>
       </c>
       <c r="G89" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="H89" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="I89" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K89" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="I89" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K89" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L89" s="28" t="s">
+      <c r="M89" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N89" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P89" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R89" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="S89" s="28" t="s">
         <v>629</v>
-      </c>
-      <c r="M89" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N89" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P89" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q89" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R89" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="S89" s="28" t="s">
-        <v>630</v>
       </c>
       <c r="T89" s="28" t="s">
         <v>82</v>
@@ -12499,19 +12731,19 @@
     </row>
     <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A90" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>631</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>632</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="28" t="s">
         <v>79</v>
@@ -12520,34 +12752,34 @@
         <v>85</v>
       </c>
       <c r="H90" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K90" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="L90" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N90" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P90" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q90" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R90" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="S90" s="28" t="s">
         <v>633</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K90" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="L90" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="M90" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N90" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P90" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q90" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R90" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="S90" s="28" t="s">
-        <v>634</v>
       </c>
       <c r="T90" s="28" t="s">
         <v>104</v>
@@ -12558,13 +12790,13 @@
     </row>
     <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A91" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>84</v>
@@ -12573,40 +12805,40 @@
         <v>78</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H91" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K91" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M91" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N91" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P91" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q91" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R91" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="S91" s="28" t="s">
         <v>637</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K91" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="L91" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="M91" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N91" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P91" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q91" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R91" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="S91" s="28" t="s">
-        <v>638</v>
       </c>
       <c r="T91" s="28" t="s">
         <v>104</v>
@@ -12617,13 +12849,13 @@
     </row>
     <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A92" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>77</v>
@@ -12632,40 +12864,40 @@
         <v>78</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H92" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K92" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="I92" s="28" t="s">
+      <c r="L92" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="M92" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P92" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q92" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K92" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="L92" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="M92" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N92" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P92" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q92" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="R92" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="S92" s="28" t="s">
         <v>640</v>
-      </c>
-      <c r="S92" s="28" t="s">
-        <v>641</v>
       </c>
       <c r="T92" s="28" t="s">
         <v>104</v>
@@ -12676,7 +12908,7 @@
     </row>
     <row r="93" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A93" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>7</v>
@@ -12688,43 +12920,43 @@
         <v>84</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>118</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K93" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="L93" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="L93" s="28" t="s">
-        <v>551</v>
-      </c>
       <c r="M93" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N93" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P93" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q93" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q93" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R93" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S93" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T93" s="28" t="s">
         <v>104</v>
@@ -12735,13 +12967,13 @@
     </row>
     <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A94" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>84</v>
@@ -12753,37 +12985,37 @@
         <v>79</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H94" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L94" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="M94" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N94" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P94" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q94" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R94" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="S94" s="28" t="s">
         <v>678</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K94" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L94" s="28" t="s">
-        <v>679</v>
-      </c>
-      <c r="M94" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N94" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P94" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q94" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R94" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="S94" s="28" t="s">
-        <v>680</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>82</v>
@@ -12794,19 +13026,19 @@
     </row>
     <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A95" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F95" s="28" t="s">
         <v>79</v>
@@ -12815,34 +13047,34 @@
         <v>85</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M95" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P95" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q95" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q95" s="28" t="s">
-        <v>210</v>
-      </c>
       <c r="R95" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S95" s="28" t="s">
         <v>682</v>
-      </c>
-      <c r="S95" s="28" t="s">
-        <v>684</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>82</v>
@@ -12853,7 +13085,7 @@
     </row>
     <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A96" s="28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>7</v>
@@ -12868,40 +13100,40 @@
         <v>78</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>85</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I96" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K96" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="L96" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N96" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P96" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K96" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="L96" s="28" t="s">
+      <c r="Q96" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="R96" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S96" s="28" t="s">
         <v>565</v>
-      </c>
-      <c r="M96" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N96" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P96" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q96" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="R96" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S96" s="28" t="s">
-        <v>566</v>
       </c>
       <c r="T96" s="28" t="s">
         <v>82</v>
@@ -12912,13 +13144,13 @@
     </row>
     <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A97" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>84</v>
@@ -12930,37 +13162,37 @@
         <v>79</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H97" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K97" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L97" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="M97" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N97" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P97" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q97" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R97" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="S97" s="28" t="s">
         <v>691</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="M97" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N97" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P97" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q97" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R97" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="S97" s="28" t="s">
-        <v>693</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>82</v>
@@ -12971,7 +13203,7 @@
     </row>
     <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A98" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>7</v>
@@ -12992,37 +13224,37 @@
         <v>85</v>
       </c>
       <c r="H98" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K98" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P98" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q98" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R98" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="S98" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="I98" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="K98" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="P98" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q98" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="R98" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="S98" s="28" t="s">
-        <v>634</v>
-      </c>
       <c r="T98" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="U98" s="28" t="s">
         <v>16</v>
@@ -13030,13 +13262,13 @@
     </row>
     <row r="99" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A99" s="28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>77</v>
@@ -13048,37 +13280,37 @@
         <v>79</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I99" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K99" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K99" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L99" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M99" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P99" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R99" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="S99" s="28" t="s">
         <v>721</v>
-      </c>
-      <c r="S99" s="28" t="s">
-        <v>723</v>
       </c>
       <c r="T99" s="28" t="s">
         <v>82</v>
@@ -13089,13 +13321,13 @@
     </row>
     <row r="100" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A100" s="28" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>77</v>
@@ -13110,34 +13342,34 @@
         <v>79</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I100" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K100" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K100" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="L100" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M100" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P100" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R100" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="S100" s="28" t="s">
         <v>725</v>
-      </c>
-      <c r="S100" s="28" t="s">
-        <v>727</v>
       </c>
       <c r="T100" s="28" t="s">
         <v>82</v>
@@ -13148,13 +13380,13 @@
     </row>
     <row r="101" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A101" s="28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>77</v>
@@ -13163,40 +13395,40 @@
         <v>78</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>111</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="I101" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K101" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="L101" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="M101" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N101" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="P101" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="K101" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="L101" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="M101" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="N101" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="P101" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="Q101" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R101" s="28" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S101" s="28" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="T101" s="28" t="s">
         <v>104</v>
@@ -13205,21 +13437,139 @@
         <v>16</v>
       </c>
     </row>
+    <row r="102" spans="1:21" ht="13.5">
+      <c r="A102" t="s">
+        <v>756</v>
+      </c>
+      <c r="B102" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" t="s">
+        <v>757</v>
+      </c>
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s">
+        <v>758</v>
+      </c>
+      <c r="H102" t="s">
+        <v>759</v>
+      </c>
+      <c r="I102" t="s">
+        <v>203</v>
+      </c>
+      <c r="K102" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" t="s">
+        <v>760</v>
+      </c>
+      <c r="M102" t="s">
+        <v>207</v>
+      </c>
+      <c r="N102" t="s">
+        <v>209</v>
+      </c>
+      <c r="P102" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>209</v>
+      </c>
+      <c r="R102" t="s">
+        <v>757</v>
+      </c>
+      <c r="S102" t="s">
+        <v>761</v>
+      </c>
+      <c r="T102" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="13.5">
+      <c r="A103" t="s">
+        <v>762</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s">
+        <v>212</v>
+      </c>
+      <c r="G103" t="s">
+        <v>100</v>
+      </c>
+      <c r="H103" t="s">
+        <v>763</v>
+      </c>
+      <c r="I103" t="s">
+        <v>203</v>
+      </c>
+      <c r="K103" t="s">
+        <v>754</v>
+      </c>
+      <c r="L103" t="s">
+        <v>764</v>
+      </c>
+      <c r="M103" t="s">
+        <v>257</v>
+      </c>
+      <c r="N103" t="s">
+        <v>209</v>
+      </c>
+      <c r="P103" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>209</v>
+      </c>
+      <c r="R103" t="s">
+        <v>216</v>
+      </c>
+      <c r="S103" t="s">
+        <v>765</v>
+      </c>
+      <c r="T103" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="U103" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{2EE84BD7-CD08-48B0-9729-062731625796}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{40BF2F1D-6B36-4EDC-B085-7160A0A9926E}">
+      <autoFilter ref="A1:AD33" xr:uid="{C561AC0E-FB1D-4B04-95D0-12B66A5A9357}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{D95430B3-6978-4DE2-9652-220449C3B219}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
@@ -13244,7 +13594,7 @@
     <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="S19" r:id="rId17" display="https://www.allhomes.com.au/strathnairn-act-2615?tid=178720657" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
     <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
     <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
@@ -13423,39 +13773,39 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.9">
       <c r="A1" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>165</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>166</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>9</v>
@@ -13488,16 +13838,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>168</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>17</v>
@@ -13505,16 +13855,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>171</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>172</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>38</v>
@@ -13522,16 +13872,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="C5" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="50" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>176</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>9</v>
@@ -13539,19 +13889,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="C6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>332</v>
-      </c>
       <c r="E6" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453522B0-1FF7-4160-B30D-C8FF949DC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B9558-25DA-42DC-A045-5618969E7ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3743,7 +3743,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3798,16 +3798,6 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3822,7 +3812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3963,8 +3953,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4203,9 +4191,9 @@
   </sheetPr>
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7134,8 +7122,8 @@
       <c r="C102" t="s">
         <v>766</v>
       </c>
-      <c r="D102" s="62" t="s">
-        <v>432</v>
+      <c r="D102" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>698</v>
@@ -7157,8 +7145,8 @@
       <c r="C103" t="s">
         <v>767</v>
       </c>
-      <c r="D103" s="63" t="s">
-        <v>432</v>
+      <c r="D103" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>699</v>
@@ -7294,9 +7282,9 @@
   </sheetPr>
   <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D105" sqref="D105"/>
+      <selection pane="topRight" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -13437,139 +13425,139 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="13.5">
-      <c r="A102" t="s">
+    <row r="102" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A102" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="28" t="s">
         <v>759</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P102" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="Q102" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="R102" t="s">
+      <c r="R102" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="S102" t="s">
+      <c r="S102" s="28" t="s">
         <v>761</v>
       </c>
       <c r="T102" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U102" t="s">
+      <c r="U102" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="13.5">
-      <c r="A103" t="s">
+    <row r="103" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A103" s="28" t="s">
         <v>762</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P103" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="Q103" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="R103" t="s">
+      <c r="R103" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="S103" t="s">
+      <c r="S103" s="28" t="s">
         <v>765</v>
       </c>
       <c r="T103" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="U103" t="s">
+      <c r="U103" s="28" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{2EE84BD7-CD08-48B0-9729-062731625796}"/>
-    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{C561AC0E-FB1D-4B04-95D0-12B66A5A9357}">
+      <autoFilter ref="A1:AD33" xr:uid="{6FC7F231-1C0F-4B9F-9EE9-B10376BF08C8}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{2F96F445-D8DF-4A85-B15B-C24EDE52000D}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B9558-25DA-42DC-A045-5618969E7ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681793D4-8BD2-4D0C-AE95-E667EC6FC261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="769">
   <si>
     <t>ID</t>
   </si>
@@ -1923,9 +1923,6 @@
   </si>
   <si>
     <t xml:space="preserve">8	5	0	0	0	0	</t>
-  </si>
-  <si>
-    <t>Draft</t>
   </si>
   <si>
     <t>https://www.allhomes.com.au/agency/new-door-properties-888993/</t>
@@ -4191,9 +4188,9 @@
   </sheetPr>
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101:D103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4218,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4256,7 +4253,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="60" t="s">
@@ -4291,7 +4288,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>14</v>
@@ -4304,7 +4301,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="4"/>
@@ -4337,7 +4334,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -4350,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
@@ -4394,7 +4391,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -4427,7 +4424,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -4440,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4471,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -4484,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4515,7 +4512,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -4528,7 +4525,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -4570,7 +4567,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -4612,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4643,7 +4640,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
@@ -4656,7 +4653,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4698,7 +4695,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4740,7 +4737,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -4782,7 +4779,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -4813,7 +4810,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>7</v>
@@ -4826,7 +4823,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -4868,7 +4865,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -4899,7 +4896,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -4912,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -4954,7 +4951,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -4985,7 +4982,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>7</v>
@@ -4998,7 +4995,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -5029,20 +5026,20 @@
         <v>31</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -5073,20 +5070,20 @@
         <v>32</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -5122,13 +5119,13 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -5158,21 +5155,21 @@
       <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>710</v>
+      <c r="C23" s="56" t="s">
+        <v>709</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -5208,13 +5205,13 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -5250,7 +5247,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>37</v>
@@ -5283,18 +5280,18 @@
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>711</v>
+      <c r="C26" s="56" t="s">
+        <v>710</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>37</v>
@@ -5331,14 +5328,14 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>37</v>
@@ -5380,7 +5377,7 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>37</v>
@@ -5417,14 +5414,14 @@
         <v>42</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>37</v>
@@ -5466,7 +5463,7 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>37</v>
@@ -5503,14 +5500,14 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>37</v>
@@ -5552,7 +5549,7 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>37</v>
@@ -5589,19 +5586,19 @@
         <v>180</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5615,13 +5612,13 @@
         <v>14</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5635,13 +5632,13 @@
         <v>14</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5655,13 +5652,13 @@
         <v>14</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5675,13 +5672,13 @@
         <v>14</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5692,19 +5689,19 @@
         <v>185</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5715,19 +5712,19 @@
         <v>186</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5738,19 +5735,19 @@
         <v>187</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
@@ -5764,13 +5761,13 @@
         <v>14</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5781,19 +5778,19 @@
         <v>189</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5807,13 +5804,13 @@
         <v>14</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5827,13 +5824,13 @@
         <v>14</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
@@ -5844,13 +5841,13 @@
         <v>192</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>37</v>
@@ -5870,7 +5867,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>37</v>
@@ -5890,7 +5887,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>37</v>
@@ -5907,19 +5904,19 @@
         <v>195</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -5930,19 +5927,19 @@
         <v>196</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D49" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
@@ -5956,13 +5953,13 @@
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
@@ -5976,16 +5973,16 @@
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="12.75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5993,19 +5990,19 @@
         <v>199</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>741</v>
-      </c>
-      <c r="D52" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -6016,13 +6013,13 @@
         <v>329</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>330</v>
@@ -6042,7 +6039,7 @@
         <v>327</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>330</v>
@@ -6059,13 +6056,13 @@
         <v>335</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>330</v>
@@ -6082,13 +6079,13 @@
         <v>336</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>330</v>
@@ -6108,7 +6105,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>330</v>
@@ -6128,7 +6125,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>330</v>
@@ -6148,7 +6145,7 @@
         <v>327</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>330</v>
@@ -6168,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>330</v>
@@ -6188,7 +6185,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>330</v>
@@ -6208,13 +6205,13 @@
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6225,19 +6222,19 @@
         <v>343</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6248,19 +6245,19 @@
         <v>344</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6275,13 +6272,13 @@
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6292,13 +6289,13 @@
         <v>346</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>37</v>
@@ -6315,19 +6312,19 @@
         <v>347</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6335,22 +6332,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6358,22 +6355,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6381,22 +6378,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6404,22 +6401,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6427,22 +6424,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.75">
@@ -6450,22 +6447,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.75">
@@ -6473,22 +6470,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -6496,22 +6493,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75">
@@ -6519,22 +6516,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75">
@@ -6542,22 +6539,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75">
@@ -6565,22 +6562,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.75">
@@ -6588,22 +6585,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D79" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.75">
@@ -6611,22 +6608,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="12.75">
@@ -6634,22 +6631,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="12.75">
@@ -6657,22 +6654,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="12.75">
@@ -6680,22 +6677,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="12.75">
@@ -6703,22 +6700,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C84" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="12.75">
@@ -6726,22 +6723,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.75">
@@ -6749,22 +6746,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G86" t="s">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="12.75">
@@ -6772,16 +6769,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -6795,16 +6792,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C88" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -6818,16 +6815,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D89" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G89" t="s">
         <v>37</v>
@@ -6841,22 +6838,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D90" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="12.75">
@@ -6864,22 +6861,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75">
@@ -6887,22 +6884,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D92" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.75">
@@ -6910,22 +6907,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.75">
@@ -6933,22 +6930,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="12.75">
@@ -6956,22 +6953,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C95" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G95" t="s">
         <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="12.75">
@@ -6979,22 +6976,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C96" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.75">
@@ -7002,16 +6999,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C97" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -7025,22 +7022,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C98" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D98" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="12.75">
@@ -7048,22 +7045,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.75">
@@ -7071,16 +7068,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C100" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -7094,22 +7091,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="12.75">
@@ -7117,16 +7114,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -7139,23 +7136,23 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>751</v>
+      <c r="B103" s="59" t="s">
+        <v>750</v>
       </c>
       <c r="C103" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7269,9 +7266,12 @@
     <hyperlink ref="C66" r:id="rId107" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
     <hyperlink ref="C67" r:id="rId108" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
     <hyperlink ref="C56" r:id="rId109" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
+    <hyperlink ref="B103" r:id="rId110" xr:uid="{4D81C408-B745-40E2-B9C7-6E36C45175A7}"/>
+    <hyperlink ref="C26" r:id="rId111" xr:uid="{6A9C6F44-3E7F-47CF-8514-B6609EBEE668}"/>
+    <hyperlink ref="C23" r:id="rId112" xr:uid="{F99F350A-C378-4940-B611-41F47BC3B4B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
 </worksheet>
 </file>
 
@@ -7282,9 +7282,9 @@
   </sheetPr>
   <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D108" sqref="D108"/>
+      <selection pane="topRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7390,7 +7390,7 @@
         <v>70</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>72</v>
@@ -7574,16 +7574,16 @@
         <v>85</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>662</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>663</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -7604,10 +7604,10 @@
         <v>91</v>
       </c>
       <c r="S4" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>8</v>
@@ -7784,13 +7784,13 @@
         <v>106</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="K7" s="28" t="s">
-        <v>440</v>
-      </c>
       <c r="L7" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M7" s="28">
         <v>4</v>
@@ -7811,7 +7811,7 @@
         <v>105</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>104</v>
@@ -7916,7 +7916,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>90</v>
@@ -7975,7 +7975,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>204</v>
@@ -8031,7 +8031,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>323</v>
@@ -8055,7 +8055,7 @@
         <v>115</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>104</v>
@@ -8096,13 +8096,13 @@
         <v>118</v>
       </c>
       <c r="H12" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="L12" s="28" t="s">
         <v>445</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>446</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -8120,7 +8120,7 @@
         <v>119</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T12" s="28" t="s">
         <v>104</v>
@@ -8140,7 +8140,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>177</v>
@@ -8152,7 +8152,7 @@
         <v>118</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>90</v>
@@ -8211,16 +8211,16 @@
         <v>122</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>450</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>451</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
@@ -8238,7 +8238,7 @@
         <v>123</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T14" s="28" t="s">
         <v>104</v>
@@ -8276,13 +8276,13 @@
         <v>100</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>124</v>
@@ -8303,7 +8303,7 @@
         <v>103</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T15" s="28" t="s">
         <v>104</v>
@@ -8335,7 +8335,7 @@
         <v>85</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>90</v>
@@ -8394,7 +8394,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>431</v>
@@ -8418,7 +8418,7 @@
         <v>126</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T17" s="28" t="s">
         <v>104</v>
@@ -8456,10 +8456,10 @@
         <v>90</v>
       </c>
       <c r="K18" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>458</v>
       </c>
       <c r="M18" s="28">
         <v>4</v>
@@ -8477,7 +8477,7 @@
         <v>123</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>104</v>
@@ -8530,7 +8530,7 @@
         <v>103</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T19" s="28" t="s">
         <v>104</v>
@@ -8708,16 +8708,16 @@
         <v>122</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K22" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>461</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>462</v>
       </c>
       <c r="M22" s="28">
         <v>3</v>
@@ -8725,9 +8725,6 @@
       <c r="N22" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="O22" s="28">
-        <v>2</v>
-      </c>
       <c r="P22" s="28" t="s">
         <v>208</v>
       </c>
@@ -8738,7 +8735,7 @@
         <v>135</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T22" s="28" t="s">
         <v>104</v>
@@ -8790,9 +8787,6 @@
       <c r="M23" s="28">
         <v>4</v>
       </c>
-      <c r="O23" s="28">
-        <v>2</v>
-      </c>
       <c r="Q23" s="28">
         <v>6</v>
       </c>
@@ -8832,13 +8826,13 @@
         <v>118</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>141</v>
@@ -8849,9 +8843,6 @@
       <c r="N24" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="O24" s="28">
-        <v>2</v>
-      </c>
       <c r="P24" s="28" t="s">
         <v>208</v>
       </c>
@@ -8862,7 +8853,7 @@
         <v>119</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T24" s="28" t="s">
         <v>104</v>
@@ -8910,9 +8901,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="28"/>
-      <c r="O25" s="28">
-        <v>2</v>
-      </c>
+      <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28">
         <v>4.5</v>
@@ -8948,8 +8937,8 @@
       <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>7</v>
+      <c r="B26" s="61" t="s">
+        <v>177</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>146</v>
@@ -8957,8 +8946,8 @@
       <c r="D26" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>178</v>
+      <c r="E26" s="61" t="s">
+        <v>177</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>147</v>
@@ -8967,7 +8956,7 @@
         <v>148</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>90</v>
@@ -8976,7 +8965,7 @@
         <v>220</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M26" s="28">
         <v>2</v>
@@ -8994,7 +8983,7 @@
         <v>146</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T26" s="28" t="s">
         <v>82</v>
@@ -9032,10 +9021,10 @@
         <v>90</v>
       </c>
       <c r="K27" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="L27" s="28" t="s">
         <v>666</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>667</v>
       </c>
       <c r="M27" s="28">
         <v>2</v>
@@ -9053,7 +9042,7 @@
         <v>149</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>82</v>
@@ -9085,16 +9074,16 @@
         <v>143</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M28" s="28">
         <v>4</v>
@@ -9112,7 +9101,7 @@
         <v>150</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T28" s="28" t="s">
         <v>82</v>
@@ -9144,16 +9133,16 @@
         <v>85</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="L29" s="28" t="s">
         <v>670</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>671</v>
       </c>
       <c r="M29" s="28">
         <v>4</v>
@@ -9171,10 +9160,10 @@
         <v>151</v>
       </c>
       <c r="S29" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>37</v>
@@ -9197,13 +9186,13 @@
         <v>177</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>148</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>90</v>
@@ -9233,7 +9222,7 @@
         <v>204</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>37</v>
@@ -9265,7 +9254,7 @@
         <v>204</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>155</v>
@@ -9286,10 +9275,10 @@
         <v>153</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>37</v>
@@ -9318,7 +9307,7 @@
         <v>85</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>90</v>
@@ -9345,7 +9334,7 @@
         <v>156</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T32" s="28" t="s">
         <v>82</v>
@@ -10429,8 +10418,8 @@
       <c r="D51" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>78</v>
+      <c r="E51" s="61" t="s">
+        <v>177</v>
       </c>
       <c r="F51" s="28" t="s">
         <v>212</v>
@@ -10479,8 +10468,8 @@
       <c r="A52" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>7</v>
+      <c r="B52" s="61" t="s">
+        <v>327</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>89</v>
@@ -10784,7 +10773,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>212</v>
@@ -10843,7 +10832,7 @@
         <v>77</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>79</v>
@@ -11392,7 +11381,7 @@
         <v>825000</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M67" s="28" t="s">
         <v>206</v>
@@ -11410,7 +11399,7 @@
         <v>428</v>
       </c>
       <c r="S67" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T67" s="28" t="s">
         <v>104</v>
@@ -11421,13 +11410,13 @@
     </row>
     <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>84</v>
@@ -11442,7 +11431,7 @@
         <v>226</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>203</v>
@@ -11451,7 +11440,7 @@
         <v>204</v>
       </c>
       <c r="L68" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M68" s="28" t="s">
         <v>207</v>
@@ -11466,10 +11455,10 @@
         <v>209</v>
       </c>
       <c r="R68" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S68" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T68" s="28" t="s">
         <v>82</v>
@@ -11480,13 +11469,13 @@
     </row>
     <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A69" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>266</v>
@@ -11525,10 +11514,10 @@
         <v>271</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S69" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T69" s="28" t="s">
         <v>82</v>
@@ -11539,13 +11528,13 @@
     </row>
     <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A70" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>84</v>
@@ -11560,16 +11549,16 @@
         <v>114</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K70" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" s="28" t="s">
         <v>499</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>500</v>
       </c>
       <c r="M70" s="28" t="s">
         <v>209</v>
@@ -11584,10 +11573,10 @@
         <v>209</v>
       </c>
       <c r="R70" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S70" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T70" s="28" t="s">
         <v>82</v>
@@ -11598,13 +11587,13 @@
     </row>
     <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A71" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>84</v>
@@ -11619,7 +11608,7 @@
         <v>118</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>203</v>
@@ -11628,7 +11617,7 @@
         <v>306</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M71" s="28" t="s">
         <v>257</v>
@@ -11643,10 +11632,10 @@
         <v>209</v>
       </c>
       <c r="R71" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S71" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T71" s="28" t="s">
         <v>82</v>
@@ -11657,7 +11646,7 @@
     </row>
     <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A72" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>7</v>
@@ -11678,7 +11667,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>203</v>
@@ -11705,7 +11694,7 @@
         <v>216</v>
       </c>
       <c r="S72" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T72" s="28" t="s">
         <v>82</v>
@@ -11716,7 +11705,7 @@
     </row>
     <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A73" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>7</v>
@@ -11737,16 +11726,16 @@
         <v>85</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M73" s="28" t="s">
         <v>207</v>
@@ -11764,7 +11753,7 @@
         <v>222</v>
       </c>
       <c r="S73" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>104</v>
@@ -11775,13 +11764,13 @@
     </row>
     <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A74" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>266</v>
@@ -11796,16 +11785,16 @@
         <v>226</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K74" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>516</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>517</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>206</v>
@@ -11820,10 +11809,10 @@
         <v>204</v>
       </c>
       <c r="R74" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S74" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>104</v>
@@ -11834,13 +11823,13 @@
     </row>
     <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A75" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>84</v>
@@ -11855,16 +11844,16 @@
         <v>241</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K75" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="L75" s="28" t="s">
         <v>522</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>523</v>
       </c>
       <c r="M75" s="28" t="s">
         <v>207</v>
@@ -11879,10 +11868,10 @@
         <v>209</v>
       </c>
       <c r="R75" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S75" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>104</v>
@@ -11893,7 +11882,7 @@
     </row>
     <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A76" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>7</v>
@@ -11914,16 +11903,16 @@
         <v>85</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K76" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="L76" s="28" t="s">
         <v>527</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>528</v>
       </c>
       <c r="M76" s="28" t="s">
         <v>257</v>
@@ -11941,7 +11930,7 @@
         <v>222</v>
       </c>
       <c r="S76" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>104</v>
@@ -11952,13 +11941,13 @@
     </row>
     <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A77" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>266</v>
@@ -11970,19 +11959,19 @@
         <v>212</v>
       </c>
       <c r="G77" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H77" s="28" t="s">
         <v>532</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>533</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K77" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="L77" s="28" t="s">
         <v>534</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>535</v>
       </c>
       <c r="M77" s="28" t="s">
         <v>209</v>
@@ -11997,10 +11986,10 @@
         <v>271</v>
       </c>
       <c r="R77" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S77" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>104</v>
@@ -12011,13 +12000,13 @@
     </row>
     <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A78" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>84</v>
@@ -12032,13 +12021,13 @@
         <v>100</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L78" s="28" t="s">
         <v>145</v>
@@ -12056,10 +12045,10 @@
         <v>209</v>
       </c>
       <c r="R78" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>104</v>
@@ -12070,13 +12059,13 @@
     </row>
     <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A79" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>77</v>
@@ -12091,16 +12080,16 @@
         <v>212</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K79" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="L79" s="28" t="s">
         <v>543</v>
-      </c>
-      <c r="L79" s="28" t="s">
-        <v>544</v>
       </c>
       <c r="M79" s="28" t="s">
         <v>209</v>
@@ -12115,10 +12104,10 @@
         <v>204</v>
       </c>
       <c r="R79" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S79" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T79" s="28" t="s">
         <v>104</v>
@@ -12129,13 +12118,13 @@
     </row>
     <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A80" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>266</v>
@@ -12150,16 +12139,16 @@
         <v>253</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K80" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="L80" s="28" t="s">
         <v>549</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>550</v>
       </c>
       <c r="M80" s="28" t="s">
         <v>207</v>
@@ -12174,10 +12163,10 @@
         <v>209</v>
       </c>
       <c r="R80" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="S80" s="28" t="s">
         <v>551</v>
-      </c>
-      <c r="S80" s="28" t="s">
-        <v>552</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>104</v>
@@ -12188,7 +12177,7 @@
     </row>
     <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>7</v>
@@ -12209,16 +12198,16 @@
         <v>85</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K81" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="L81" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="L81" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="M81" s="28" t="s">
         <v>257</v>
@@ -12236,7 +12225,7 @@
         <v>222</v>
       </c>
       <c r="S81" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T81" s="28" t="s">
         <v>104</v>
@@ -12247,7 +12236,7 @@
     </row>
     <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A82" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>7</v>
@@ -12268,16 +12257,16 @@
         <v>122</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K82" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="L82" s="28" t="s">
         <v>560</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>561</v>
       </c>
       <c r="M82" s="28" t="s">
         <v>206</v>
@@ -12295,7 +12284,7 @@
         <v>262</v>
       </c>
       <c r="S82" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>104</v>
@@ -12306,7 +12295,7 @@
     </row>
     <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A83" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>7</v>
@@ -12327,16 +12316,16 @@
         <v>100</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K83" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L83" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M83" s="28" t="s">
         <v>206</v>
@@ -12354,7 +12343,7 @@
         <v>216</v>
       </c>
       <c r="S83" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="T83" s="28" t="s">
         <v>104</v>
@@ -12365,7 +12354,7 @@
     </row>
     <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A84" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>7</v>
@@ -12386,16 +12375,16 @@
         <v>114</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K84" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="L84" s="28" t="s">
         <v>549</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>550</v>
       </c>
       <c r="M84" s="28" t="s">
         <v>206</v>
@@ -12410,10 +12399,10 @@
         <v>209</v>
       </c>
       <c r="R84" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="S84" s="28" t="s">
         <v>568</v>
-      </c>
-      <c r="S84" s="28" t="s">
-        <v>569</v>
       </c>
       <c r="T84" s="28" t="s">
         <v>104</v>
@@ -12424,13 +12413,13 @@
     </row>
     <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>77</v>
@@ -12442,19 +12431,19 @@
         <v>147</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H85" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="I85" s="28" t="s">
         <v>644</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>645</v>
       </c>
       <c r="K85" s="28">
         <v>349000</v>
       </c>
       <c r="L85" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M85" s="28">
         <v>1</v>
@@ -12469,10 +12458,10 @@
         <v>271</v>
       </c>
       <c r="R85" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S85" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T85" s="28" t="s">
         <v>104</v>
@@ -12483,13 +12472,13 @@
     </row>
     <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>84</v>
@@ -12504,7 +12493,7 @@
         <v>118</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>203</v>
@@ -12513,7 +12502,7 @@
         <v>204</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M86" s="28" t="s">
         <v>206</v>
@@ -12528,10 +12517,10 @@
         <v>209</v>
       </c>
       <c r="R86" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S86" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T86" s="28" t="s">
         <v>82</v>
@@ -12542,13 +12531,13 @@
     </row>
     <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>84</v>
@@ -12560,16 +12549,16 @@
         <v>79</v>
       </c>
       <c r="G87" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="H87" s="28" t="s">
         <v>617</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>618</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L87" s="28" t="s">
         <v>145</v>
@@ -12587,10 +12576,10 @@
         <v>209</v>
       </c>
       <c r="R87" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S87" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T87" s="28" t="s">
         <v>82</v>
@@ -12601,13 +12590,13 @@
     </row>
     <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A88" s="28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>77</v>
@@ -12622,7 +12611,7 @@
         <v>79</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>203</v>
@@ -12646,10 +12635,10 @@
         <v>271</v>
       </c>
       <c r="R88" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S88" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T88" s="28" t="s">
         <v>82</v>
@@ -12660,13 +12649,13 @@
     </row>
     <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A89" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>84</v>
@@ -12678,10 +12667,10 @@
         <v>79</v>
       </c>
       <c r="G89" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="H89" s="28" t="s">
         <v>626</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>627</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>203</v>
@@ -12690,7 +12679,7 @@
         <v>204</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M89" s="28" t="s">
         <v>207</v>
@@ -12705,10 +12694,10 @@
         <v>209</v>
       </c>
       <c r="R89" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S89" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T89" s="28" t="s">
         <v>82</v>
@@ -12719,13 +12708,13 @@
     </row>
     <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A90" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B90" s="61" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>84</v>
@@ -12740,7 +12729,7 @@
         <v>85</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>203</v>
@@ -12764,10 +12753,10 @@
         <v>209</v>
       </c>
       <c r="R90" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S90" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T90" s="28" t="s">
         <v>104</v>
@@ -12778,13 +12767,13 @@
     </row>
     <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A91" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>84</v>
@@ -12799,7 +12788,7 @@
         <v>326</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I91" s="28" t="s">
         <v>203</v>
@@ -12823,10 +12812,10 @@
         <v>271</v>
       </c>
       <c r="R91" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S91" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T91" s="28" t="s">
         <v>104</v>
@@ -12837,13 +12826,13 @@
     </row>
     <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A92" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>77</v>
@@ -12858,16 +12847,16 @@
         <v>212</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I92" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K92" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="L92" s="28" t="s">
         <v>543</v>
-      </c>
-      <c r="L92" s="28" t="s">
-        <v>544</v>
       </c>
       <c r="M92" s="28" t="s">
         <v>209</v>
@@ -12882,10 +12871,10 @@
         <v>204</v>
       </c>
       <c r="R92" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="S92" s="28" t="s">
         <v>639</v>
-      </c>
-      <c r="S92" s="28" t="s">
-        <v>640</v>
       </c>
       <c r="T92" s="28" t="s">
         <v>104</v>
@@ -12896,7 +12885,7 @@
     </row>
     <row r="93" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A93" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>7</v>
@@ -12917,16 +12906,16 @@
         <v>118</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I93" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K93" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="L93" s="28" t="s">
         <v>549</v>
-      </c>
-      <c r="L93" s="28" t="s">
-        <v>550</v>
       </c>
       <c r="M93" s="28" t="s">
         <v>206</v>
@@ -12941,10 +12930,10 @@
         <v>209</v>
       </c>
       <c r="R93" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S93" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T93" s="28" t="s">
         <v>104</v>
@@ -12955,13 +12944,13 @@
     </row>
     <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A94" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>84</v>
@@ -12976,7 +12965,7 @@
         <v>143</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>203</v>
@@ -12985,7 +12974,7 @@
         <v>204</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M94" s="28" t="s">
         <v>206</v>
@@ -13000,10 +12989,10 @@
         <v>209</v>
       </c>
       <c r="R94" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S94" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>82</v>
@@ -13014,13 +13003,13 @@
     </row>
     <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A95" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>84</v>
@@ -13041,10 +13030,10 @@
         <v>203</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M95" s="28" t="s">
         <v>206</v>
@@ -13059,10 +13048,10 @@
         <v>209</v>
       </c>
       <c r="R95" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S95" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>82</v>
@@ -13073,7 +13062,7 @@
     </row>
     <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A96" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>7</v>
@@ -13094,16 +13083,16 @@
         <v>85</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I96" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L96" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M96" s="28" t="s">
         <v>206</v>
@@ -13121,7 +13110,7 @@
         <v>222</v>
       </c>
       <c r="S96" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="T96" s="28" t="s">
         <v>82</v>
@@ -13132,13 +13121,13 @@
     </row>
     <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A97" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>84</v>
@@ -13153,7 +13142,7 @@
         <v>143</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>203</v>
@@ -13162,7 +13151,7 @@
         <v>204</v>
       </c>
       <c r="L97" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M97" s="28" t="s">
         <v>206</v>
@@ -13177,10 +13166,10 @@
         <v>209</v>
       </c>
       <c r="R97" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S97" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>82</v>
@@ -13191,7 +13180,7 @@
     </row>
     <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A98" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>7</v>
@@ -13212,7 +13201,7 @@
         <v>85</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I98" s="28" t="s">
         <v>203</v>
@@ -13239,10 +13228,10 @@
         <v>222</v>
       </c>
       <c r="S98" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T98" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U98" s="28" t="s">
         <v>16</v>
@@ -13250,13 +13239,13 @@
     </row>
     <row r="99" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A99" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>77</v>
@@ -13271,7 +13260,7 @@
         <v>143</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I99" s="28" t="s">
         <v>203</v>
@@ -13295,10 +13284,10 @@
         <v>204</v>
       </c>
       <c r="R99" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S99" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="T99" s="28" t="s">
         <v>82</v>
@@ -13309,13 +13298,13 @@
     </row>
     <row r="100" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A100" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>77</v>
@@ -13330,7 +13319,7 @@
         <v>79</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>203</v>
@@ -13354,10 +13343,10 @@
         <v>271</v>
       </c>
       <c r="R100" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S100" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="T100" s="28" t="s">
         <v>82</v>
@@ -13368,13 +13357,13 @@
     </row>
     <row r="101" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A101" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>77</v>
@@ -13389,16 +13378,16 @@
         <v>111</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I101" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K101" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="L101" s="28" t="s">
         <v>754</v>
-      </c>
-      <c r="L101" s="28" t="s">
-        <v>755</v>
       </c>
       <c r="M101" s="28" t="s">
         <v>271</v>
@@ -13413,10 +13402,10 @@
         <v>204</v>
       </c>
       <c r="R101" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S101" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T101" s="28" t="s">
         <v>104</v>
@@ -13427,13 +13416,13 @@
     </row>
     <row r="102" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A102" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>756</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>757</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>84</v>
@@ -13445,10 +13434,10 @@
         <v>79</v>
       </c>
       <c r="G102" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="H102" s="28" t="s">
         <v>758</v>
-      </c>
-      <c r="H102" s="28" t="s">
-        <v>759</v>
       </c>
       <c r="I102" s="28" t="s">
         <v>203</v>
@@ -13457,7 +13446,7 @@
         <v>204</v>
       </c>
       <c r="L102" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M102" s="28" t="s">
         <v>207</v>
@@ -13472,10 +13461,10 @@
         <v>209</v>
       </c>
       <c r="R102" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S102" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T102" s="28" t="s">
         <v>82</v>
@@ -13486,10 +13475,10 @@
     </row>
     <row r="103" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A103" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="C103" s="28" t="s">
         <v>98</v>
@@ -13507,16 +13496,16 @@
         <v>100</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K103" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L103" s="28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M103" s="28" t="s">
         <v>257</v>
@@ -13534,7 +13523,7 @@
         <v>216</v>
       </c>
       <c r="S103" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T103" s="28" t="s">
         <v>104</v>
@@ -13545,19 +13534,19 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{8C78ACAB-9727-4888-B1E6-3A206DFE4BCD}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{6FC7F231-1C0F-4B9F-9EE9-B10376BF08C8}">
+      <autoFilter ref="A1:AD33" xr:uid="{D57518F9-B221-4842-B542-5AF5D92DA570}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{2F96F445-D8DF-4A85-B15B-C24EDE52000D}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681793D4-8BD2-4D0C-AE95-E667EC6FC261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E46597-470E-45BF-8066-298451563BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="777">
   <si>
     <t>ID</t>
   </si>
@@ -3045,12 +3045,6 @@
     <t>Block/House: 426/ 225</t>
   </si>
   <si>
-    <t xml:space="preserve">9	1	0	0	0	0	</t>
-  </si>
-  <si>
-    <t>$910,000</t>
-  </si>
-  <si>
     <t>$820,000+</t>
   </si>
   <si>
@@ -3560,6 +3554,56 @@
   </si>
   <si>
     <t>https://www.777homes.com.au/?post_type=property&amp;p=6535&amp;preview=true</t>
+  </si>
+  <si>
+    <t>$920,000</t>
+  </si>
+  <si>
+    <t>wow wow wow!
+Private Inspections strictly by appointment only. 
+Four bedrooms, two bathrooms, double garage. Sounds pretty standard eh?
+Don't just glaze over this once-in-a-lifetime opportunity.
+This gorgeous house and land package, opposite wide open spaces is the place to be. Built by one of the builders with a strong 40 years reputation in Canberra, you know you will get your home through a systematic and smooth process.  Whether you are a couple, small family or a downsizer, you will find your home sweet home in this lovely community.
+The immaculate attention to detail and generous inclusions are sure to blow you away (Double glazing windows, concealed internet point in built-in storage, inconspicuous positioning of powerpoints, siliconing of the architraves to increase long term durability, squareset cornices, bathroom niches, premium feature tiles... the list goes on).
+Call Serene Teoh now for a digital proposal sent to your email! 0497565143
+*Photos are of a previous build by same builder.</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/11-syddall-street-bonner-act-2914</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>11 Syddall Street, Bonner ACT 2914</t>
+  </si>
+  <si>
+    <t>Block/House: 186/ -</t>
+  </si>
+  <si>
+    <t>Auction, On-Site, 17th July at 11:am</t>
+  </si>
+  <si>
+    <t>Offers are considered prior to Auction - Price Guide $500k+
+This wonderfully updated established home is private and delightful, awaiting for a first home buyer, downsizer, or an investor. This is an ideal property purchase featuring 2-bedrooms and 2 bathrooms. The ducted gas heating and reverse cycle air conditioning systems will give you comfort throughout the year. The gas cook top is another added feature for the home chef. The outdoor covered area is fully updated to enjoy living daily.
+The home is in a great location with a short stroll to local transport, school, shops, and parklands. A complete home to enjoy living daily or to start an investment property portfolio. Please call Shaun to book an appointment to view before you miss this one.
+Property Features Include:
+Fully updated
+Good size living area
+Reverse cycle air conditioning
+Ducted gas heating
+Good size kitchen with quality appliances
+Gas cook top &amp; ducted rangehood
+Spacious outdoor covered area
+Easy care garden
+Proximity to transport, shops &amp; school
+Call Shaun to book an appointment before you miss this one.</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7754&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3784,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,6 +3839,11 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3809,7 +3858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3950,6 +3999,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4186,11 +4236,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4288,7 +4338,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>14</v>
@@ -4334,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -4424,7 +4474,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -4468,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -4512,7 +4562,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -4640,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>7</v>
@@ -4810,7 +4860,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>7</v>
@@ -4896,7 +4946,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -4982,7 +5032,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>7</v>
@@ -5026,14 +5076,14 @@
         <v>31</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>16</v>
@@ -5070,14 +5120,14 @@
         <v>32</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>16</v>
@@ -5119,7 +5169,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>16</v>
@@ -5156,14 +5206,14 @@
         <v>34</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>16</v>
@@ -5205,7 +5255,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>16</v>
@@ -5247,7 +5297,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>37</v>
@@ -5284,14 +5334,14 @@
         <v>39</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>37</v>
@@ -5328,14 +5378,14 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>37</v>
@@ -5377,7 +5427,7 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>37</v>
@@ -5414,14 +5464,14 @@
         <v>42</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>37</v>
@@ -5463,7 +5513,7 @@
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>37</v>
@@ -5500,14 +5550,14 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>37</v>
@@ -5549,7 +5599,7 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>37</v>
@@ -5586,13 +5636,13 @@
         <v>180</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
@@ -5612,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>8</v>
@@ -5632,7 +5682,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
@@ -5652,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
@@ -5672,7 +5722,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>8</v>
@@ -5689,13 +5739,13 @@
         <v>185</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>8</v>
@@ -5712,13 +5762,13 @@
         <v>186</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
@@ -5735,13 +5785,13 @@
         <v>187</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
@@ -5761,7 +5811,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>8</v>
@@ -5778,13 +5828,13 @@
         <v>189</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>8</v>
@@ -5804,7 +5854,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>8</v>
@@ -5824,7 +5874,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>8</v>
@@ -5841,13 +5891,13 @@
         <v>192</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>37</v>
@@ -5867,7 +5917,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>37</v>
@@ -5887,7 +5937,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>37</v>
@@ -5904,13 +5954,13 @@
         <v>195</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
@@ -5927,13 +5977,13 @@
         <v>196</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D49" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>16</v>
@@ -5953,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>16</v>
@@ -5973,7 +6023,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>16</v>
@@ -5990,13 +6040,13 @@
         <v>199</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D52" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>16</v>
@@ -6013,13 +6063,13 @@
         <v>329</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>330</v>
@@ -6036,10 +6086,10 @@
         <v>334</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>330</v>
@@ -6056,13 +6106,13 @@
         <v>335</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>330</v>
@@ -6079,13 +6129,13 @@
         <v>336</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>330</v>
@@ -6105,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>330</v>
@@ -6125,7 +6175,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>330</v>
@@ -6142,10 +6192,10 @@
         <v>339</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>330</v>
@@ -6165,7 +6215,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>330</v>
@@ -6185,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>330</v>
@@ -6205,7 +6255,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>8</v>
@@ -6222,13 +6272,13 @@
         <v>343</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>8</v>
@@ -6245,13 +6295,13 @@
         <v>344</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>8</v>
@@ -6272,7 +6322,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>8</v>
@@ -6289,13 +6339,13 @@
         <v>346</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>37</v>
@@ -6312,13 +6362,13 @@
         <v>347</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>16</v>
@@ -6338,10 +6388,10 @@
         <v>588</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>8</v>
@@ -6364,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>8</v>
@@ -6387,7 +6437,7 @@
         <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>8</v>
@@ -6410,7 +6460,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>8</v>
@@ -6433,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>8</v>
@@ -6456,7 +6506,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -6479,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -6502,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>16</v>
@@ -6525,7 +6575,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -6548,7 +6598,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -6571,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -6594,7 +6644,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -6617,7 +6667,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -6640,7 +6690,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -6663,7 +6713,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -6686,7 +6736,7 @@
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -6709,7 +6759,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -6732,7 +6782,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -6755,7 +6805,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G86" t="s">
         <v>8</v>
@@ -6778,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -6801,7 +6851,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -6824,7 +6874,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G89" t="s">
         <v>37</v>
@@ -6847,7 +6897,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -6870,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -6893,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -6916,7 +6966,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -6933,13 +6983,13 @@
         <v>656</v>
       </c>
       <c r="C94" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
@@ -6956,13 +7006,13 @@
         <v>657</v>
       </c>
       <c r="C95" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G95" t="s">
         <v>8</v>
@@ -6979,13 +7029,13 @@
         <v>658</v>
       </c>
       <c r="C96" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
@@ -6999,16 +7049,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C97" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -7022,16 +7072,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>697</v>
+      </c>
+      <c r="C98" t="s">
         <v>699</v>
-      </c>
-      <c r="C98" t="s">
-        <v>701</v>
       </c>
       <c r="D98" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -7045,16 +7095,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C99" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
@@ -7068,16 +7118,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -7091,16 +7141,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C101" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -7114,16 +7164,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C102" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -7137,22 +7187,42 @@
         <v>102</v>
       </c>
       <c r="B103" s="59" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C103" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="12.75">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>769</v>
+      </c>
+      <c r="C104" t="s">
+        <v>776</v>
+      </c>
+      <c r="D104" s="62" t="s">
+        <v>775</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7280,11 +7350,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI103"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E51" sqref="E51"/>
+      <selection pane="topRight" activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7390,7 +7460,7 @@
         <v>70</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>72</v>
@@ -7580,10 +7650,10 @@
         <v>90</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>661</v>
+        <v>554</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>662</v>
+        <v>767</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -7607,7 +7677,7 @@
         <v>659</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>8</v>
@@ -7790,7 +7860,7 @@
         <v>439</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M7" s="28">
         <v>4</v>
@@ -8031,7 +8101,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>323</v>
@@ -8055,7 +8125,7 @@
         <v>115</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>104</v>
@@ -8530,7 +8600,7 @@
         <v>103</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="T19" s="28" t="s">
         <v>104</v>
@@ -8794,7 +8864,7 @@
         <v>140</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>34</v>
+        <v>768</v>
       </c>
       <c r="T23" s="28" t="s">
         <v>104</v>
@@ -9021,10 +9091,10 @@
         <v>90</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L27" s="28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M27" s="28">
         <v>2</v>
@@ -9042,7 +9112,7 @@
         <v>149</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>82</v>
@@ -9133,16 +9203,16 @@
         <v>85</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M29" s="28">
         <v>4</v>
@@ -9160,10 +9230,10 @@
         <v>151</v>
       </c>
       <c r="S29" s="28" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>37</v>
@@ -9186,7 +9256,7 @@
         <v>177</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>148</v>
@@ -9222,7 +9292,7 @@
         <v>204</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>37</v>
@@ -9254,7 +9324,7 @@
         <v>204</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>155</v>
@@ -9275,10 +9345,10 @@
         <v>153</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>37</v>
@@ -12944,13 +13014,13 @@
     </row>
     <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A94" s="28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>84</v>
@@ -12965,7 +13035,7 @@
         <v>143</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>203</v>
@@ -12974,7 +13044,7 @@
         <v>204</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M94" s="28" t="s">
         <v>206</v>
@@ -12989,10 +13059,10 @@
         <v>209</v>
       </c>
       <c r="R94" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="S94" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>82</v>
@@ -13003,13 +13073,13 @@
     </row>
     <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A95" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>84</v>
@@ -13033,7 +13103,7 @@
         <v>436</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M95" s="28" t="s">
         <v>206</v>
@@ -13048,10 +13118,10 @@
         <v>209</v>
       </c>
       <c r="R95" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="S95" s="28" t="s">
         <v>679</v>
-      </c>
-      <c r="S95" s="28" t="s">
-        <v>681</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>82</v>
@@ -13062,7 +13132,7 @@
     </row>
     <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A96" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>7</v>
@@ -13121,13 +13191,13 @@
     </row>
     <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A97" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>84</v>
@@ -13142,7 +13212,7 @@
         <v>143</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>203</v>
@@ -13151,7 +13221,7 @@
         <v>204</v>
       </c>
       <c r="L97" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M97" s="28" t="s">
         <v>206</v>
@@ -13166,10 +13236,10 @@
         <v>209</v>
       </c>
       <c r="R97" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="S97" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>82</v>
@@ -13180,7 +13250,7 @@
     </row>
     <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A98" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>7</v>
@@ -13231,7 +13301,7 @@
         <v>632</v>
       </c>
       <c r="T98" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="U98" s="28" t="s">
         <v>16</v>
@@ -13239,13 +13309,13 @@
     </row>
     <row r="99" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A99" s="28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>77</v>
@@ -13260,7 +13330,7 @@
         <v>143</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I99" s="28" t="s">
         <v>203</v>
@@ -13284,10 +13354,10 @@
         <v>204</v>
       </c>
       <c r="R99" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="S99" s="28" t="s">
         <v>718</v>
-      </c>
-      <c r="S99" s="28" t="s">
-        <v>720</v>
       </c>
       <c r="T99" s="28" t="s">
         <v>82</v>
@@ -13298,13 +13368,13 @@
     </row>
     <row r="100" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A100" s="28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>77</v>
@@ -13319,7 +13389,7 @@
         <v>79</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>203</v>
@@ -13343,10 +13413,10 @@
         <v>271</v>
       </c>
       <c r="R100" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="S100" s="28" t="s">
         <v>722</v>
-      </c>
-      <c r="S100" s="28" t="s">
-        <v>724</v>
       </c>
       <c r="T100" s="28" t="s">
         <v>82</v>
@@ -13357,13 +13427,13 @@
     </row>
     <row r="101" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A101" s="28" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>77</v>
@@ -13378,16 +13448,16 @@
         <v>111</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I101" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L101" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M101" s="28" t="s">
         <v>271</v>
@@ -13402,10 +13472,10 @@
         <v>204</v>
       </c>
       <c r="R101" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="S101" s="28" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="T101" s="28" t="s">
         <v>104</v>
@@ -13416,13 +13486,13 @@
     </row>
     <row r="102" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A102" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>84</v>
@@ -13434,10 +13504,10 @@
         <v>79</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I102" s="28" t="s">
         <v>203</v>
@@ -13446,7 +13516,7 @@
         <v>204</v>
       </c>
       <c r="L102" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M102" s="28" t="s">
         <v>207</v>
@@ -13461,10 +13531,10 @@
         <v>209</v>
       </c>
       <c r="R102" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="S102" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="T102" s="28" t="s">
         <v>82</v>
@@ -13475,7 +13545,7 @@
     </row>
     <row r="103" spans="1:21" s="28" customFormat="1" ht="13.5">
       <c r="A103" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>7</v>
@@ -13496,16 +13566,16 @@
         <v>100</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>203</v>
       </c>
       <c r="K103" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L103" s="28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M103" s="28" t="s">
         <v>257</v>
@@ -13523,7 +13593,7 @@
         <v>216</v>
       </c>
       <c r="S103" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T103" s="28" t="s">
         <v>104</v>
@@ -13532,21 +13602,80 @@
         <v>16</v>
       </c>
     </row>
+    <row r="104" spans="1:21" ht="13.5">
+      <c r="A104" t="s">
+        <v>770</v>
+      </c>
+      <c r="B104" t="s">
+        <v>775</v>
+      </c>
+      <c r="C104" t="s">
+        <v>771</v>
+      </c>
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s">
+        <v>143</v>
+      </c>
+      <c r="H104" t="s">
+        <v>772</v>
+      </c>
+      <c r="I104" t="s">
+        <v>203</v>
+      </c>
+      <c r="K104" t="s">
+        <v>204</v>
+      </c>
+      <c r="L104" t="s">
+        <v>773</v>
+      </c>
+      <c r="M104" t="s">
+        <v>209</v>
+      </c>
+      <c r="N104" t="s">
+        <v>209</v>
+      </c>
+      <c r="P104" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>271</v>
+      </c>
+      <c r="R104" t="s">
+        <v>771</v>
+      </c>
+      <c r="S104" t="s">
+        <v>774</v>
+      </c>
+      <c r="T104" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{8C78ACAB-9727-4888-B1E6-3A206DFE4BCD}"/>
-    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{D57518F9-B221-4842-B542-5AF5D92DA570}">
+      <autoFilter ref="A1:AD33" xr:uid="{11F46911-053A-4510-B888-3F391193C886}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{F130D47C-9FDA-4A2B-9B35-D317A31C79B3}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
@@ -13575,16 +13704,16 @@
     <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
     <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="S25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="S26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="S27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="S28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="S31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="S32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="S32" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="S31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="S30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="S29" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="S28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="S27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="S26" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="S25" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="S24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="S23" r:id="rId30" display="https://www.allhomes.com.au/ginninderra-estate-act-2615?tid=174799089" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E46597-470E-45BF-8066-298451563BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040969B-F89D-4542-9441-A0F5D2A049A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -4238,9 +4238,9 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7352,9 +7352,9 @@
   </sheetPr>
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T115" sqref="T115"/>
+      <selection pane="topRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -13602,80 +13602,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="13.5">
-      <c r="A104" t="s">
+    <row r="104" spans="1:21" s="28" customFormat="1" ht="13.5">
+      <c r="A104" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="B104" t="s">
-        <v>775</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="28" t="s">
         <v>773</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="P104" t="s">
+      <c r="P104" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q104" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R104" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="S104" t="s">
+      <c r="S104" s="28" t="s">
         <v>774</v>
       </c>
       <c r="T104" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U104" t="s">
+      <c r="U104" s="28" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AD33" xr:uid="{E28CEE60-9C11-43C2-9EEE-77F48BF4CF85}"/>
+    </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{11F46911-053A-4510-B888-3F391193C886}">
+      <autoFilter ref="A1:AD33" xr:uid="{ABE36832-256B-4C7C-A4BD-386CC114998C}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{F130D47C-9FDA-4A2B-9B35-D317A31C79B3}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040969B-F89D-4542-9441-A0F5D2A049A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973EFE32-63D1-49AA-B0C5-C8AB021B9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="776">
   <si>
     <t>ID</t>
   </si>
@@ -3600,10 +3600,7 @@
 Call Shaun to book an appointment before you miss this one.</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>https://www.777homes.com.au/?post_type=property&amp;p=7754&amp;preview=true</t>
+    <t>https://cbrhome.flywheelstaging.com/?post_type=property&amp;p=7760&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3781,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3839,11 +3836,6 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3858,7 +3850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3999,7 +3991,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4239,8 +4230,8 @@
   <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7213,10 +7204,13 @@
         <v>769</v>
       </c>
       <c r="C104" t="s">
-        <v>776</v>
-      </c>
-      <c r="D104" s="62" t="s">
         <v>775</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="G104" t="s">
         <v>37</v>
@@ -7352,9 +7346,9 @@
   </sheetPr>
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -13655,7 +13649,7 @@
         <v>774</v>
       </c>
       <c r="T104" s="28" t="s">
-        <v>82</v>
+        <v>695</v>
       </c>
       <c r="U104" s="28" t="s">
         <v>37</v>
@@ -13665,11 +13659,11 @@
   <customSheetViews>
     <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{E28CEE60-9C11-43C2-9EEE-77F48BF4CF85}"/>
+      <autoFilter ref="A1:AD33" xr:uid="{80F0095E-6FDE-472D-8768-735971B8B228}"/>
     </customSheetView>
     <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{ABE36832-256B-4C7C-A4BD-386CC114998C}">
+      <autoFilter ref="A1:AD33" xr:uid="{D7DC01CA-9F22-44D3-9651-F1669AFF0E89}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>

--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973EFE32-63D1-49AA-B0C5-C8AB021B9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F21FB94B-3A7B-4CE3-BDFE-308C28EE8C82}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="13276" windowWidth="20715" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Listing" sheetId="2" r:id="rId2"/>
-    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
-    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
+    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
+    <sheet name="Listing" r:id="rId2" sheetId="2"/>
+    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
+    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
-    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
-    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="858">
   <si>
     <t>ID</t>
   </si>
@@ -3600,7 +3600,475 @@
 Call Shaun to book an appointment before you miss this one.</t>
   </si>
   <si>
-    <t>https://cbrhome.flywheelstaging.com/?post_type=property&amp;p=7760&amp;preview=true</t>
+    <t>https://www.777homes.com.au/property/11-syddall-street-bonner-act-2914/?preview=true</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-403-1-anthony-rolfe-avenue-gungahlin-act-2912</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/unit-1710-161-emu-bank-belconnen-act-2617</t>
+  </si>
+  <si>
+    <t>New Door Properties presents this wonderful opportunity to secure a 4 bedroom beautiful home in Taylor.
+This 4 bedroom three bathroom comes with a practical layout and room to entertain and relax, you will feel right at home with the contemporary and neutral decor. You would notice that the inclusion list is quite generous with provision of high standard items. 
+House and Land Package Details:
+- Four Bedrooms
+- Three bathrooms
+- Double glazed windows 
+- Under roof line tiled alfresco
+- Garage with remote
+- Colourbond Roof
+- Floor to ceiling tiles in bathrooms
+- Wall hung Vanities
+- Lockable windows and sliding doors
+- Stone benchtop, Bosch Appliances - Cooktop, Oven and Rangehood
+- Reverse Cycle heating /cooling with multiple zones
+- Modern Kitchen, Soft Closing drawers
+- 2000 litre rainwater tank as per Lease and Development Conditions
+- Concrete driveways 
+- Landcaping and retaining walls</t>
+  </si>
+  <si>
+    <t>TO BE UPDATED</t>
+  </si>
+  <si>
+    <t>If you're seeking modern styling and low maintenance living but do not want to compromise on space, this off-plan home is the one for you. With a captivating entry opening to light filled interiors this sun drenched home enjoys open plan living, state of the art features and versatile sleeping quarters.
+Right on the main street, Pro Hart Ave (opposite the Land Sales office), these beautifully presented homes feature a modern kitchen which flows effortlessly to the open plan living and dining areas and out to the lovingly landscaped outdoor courtyard areas or balconies with views of parks and the Strathnairn Arts Centre- perfect for entertaining on those warm summer nights.</t>
+  </si>
+  <si>
+    <t>Block/House: 81/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	7	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$475,000+</t>
+  </si>
+  <si>
+    <t>BOOK TODAY WITH ONLY $5000 - split contracts available. 
+Come and see us to get more information at 38 EVERIST STREET TAYLOR 2913
+This is a rare opportunity to secure a Single storey in much sought after suburb.
+Perfect for young families, singles and retirees looking for a low maintenance, energy efficient, comfortable home with garden space to enjoy or a young family who are looking for a 3 bedroom home!
+This property is just walking distance to Golf Club and the new hilltop park/open air theatre.
+The architect that designed this home focuses on ease of living. The large central living space includes an open plan kitchen, with garage opening up to a private lane at the back. 
+4 Bedroom and 2 bathroom  double garage.
+Open plan kitchen with walk in pantry - induction cooktop
+Warm and comfortable windows with double glazing
+Master Bedroom with ensuite
+Quality kitchen with stone benchtop and Bosch appliances
+North facing living area
+Samsung ducted reverse cycle air-conditioning
+Solar panels with demand management system
+Fully landscaped
+Modern custom designed to your specifications
+Private front courtyard
+Ducted air conditioning</t>
+  </si>
+  <si>
+    <t>Block/House: 236/ 185</t>
+  </si>
+  <si>
+    <t>OPENS HELD AT 38 EVERIST STREET, TAYLOR
+Strathnairn is the place to be where roads are landscaped and wide, a most airy and comfortable feel when you enter into this Green Star suburb.
+This property boasts a beautiful floorplan, with gorgeous finishes.</t>
+  </si>
+  <si>
+    <t>Block/House: 236/ -</t>
+  </si>
+  <si>
+    <t>$689,000-$750,000</t>
+  </si>
+  <si>
+    <t>Open your eyes to the possibilities of a gorgeous view-plenty block. 
+Features Include:- Stone bench throughout kitchens and walk-in pantry- Stainless steel appliances in both kitchens- Floor to Ceiling tiles in all bathrooms- 2.55m Ceiling in main residence- Walk-in pantry- Large master and ensuite- Walk in robes to master suite- Reverse cycle zoned ducted A/C- Reverse cycle split system- Continuous gas hot water- 4000L water tank- External Gas connections- Plumbed fridge connections- Double garage with internal access to rear- NBN to the premises- Moments to local shopping centre (KIPPAX)- 15 minutes to the City
+Please contact Serene 0497565143 for more info.</t>
+  </si>
+  <si>
+    <t>Block/House: 650/ 220</t>
+  </si>
+  <si>
+    <t>$950,000-$1,000,000</t>
+  </si>
+  <si>
+    <t>Drive to the site now!
+Perfectly flat in the gorgeous suburb of Taylor- nothing gets better at this price point.
+Single storey. Four bedrooms. Create your own oasis in the convenience of a brand new township- with its own schools, bus routes and future commercial and shop spaces. This is going to be one of the biggest suburbs in Gungahlin.
+Living Area: 138.42sqm Garage 37.50sqm Porch 2.47sqm
+4 bedrooms, 2 bathrooms, single level floorplan
+Built in robes in master ensuite throughout
+Stone island bench
+Brand new high quality appliances</t>
+  </si>
+  <si>
+    <t>Block/House: 341/ 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	5	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$855,000-$870,000</t>
+  </si>
+  <si>
+    <t>Opens to be held along Pro Hart Ave. 
+In a word, options! A home that has everything you need-  4 bedrooms and 2 Bathrooms, Double garage and an alfresco. A modern and well-designed home perfect for either family living or astute investment.
+Features Include:
+- Stone bench throughout kitchen
+- Low maintenance Garden on a Single Dwelling Separate Title Freestanding house
+- Floor to Ceiling tiles in all bathrooms
+- Spacious Walk-in pantry
+- Large master, Walk-in Robe and ensuite
+- Walk in robes to master suite
+- Reverse cycle zoned ducted A/C
+- Full Service Laundry
+- Double garage with internal access to rear
+- NBN to the premises
+- Moments to local shopping centre (KIPPAX)
+- 15 minutes to the City
+Light, airy and located in GINNINDERRY where roads are landscaped and wide. This low maintenance four bedroom presents a prime opportunity to pick up a smart purchase. Explore endless possibilities for your family and capitalize on the potential of this charming residence.
+This property flaunts a gorgeous floorplan- the opportunity to buy now and possibly be eligible for any grants and stamp duty benefits!
+Call us to find out more!</t>
+  </si>
+  <si>
+    <t>Block/House: 448/ 194</t>
+  </si>
+  <si>
+    <t>$799,000-$825,000</t>
+  </si>
+  <si>
+    <t>Private Inspections strictly by appointment only. 
+Four bedrooms, two bathrooms, double garage. Sounds pretty standard eh?
+Don't just glaze over this once-in-a-lifetime opportunity. 
+This gorgeous house and land package, opposite wide open spaces is the place to be. Built by one of the builders with a strong 40 years reputation in Canberra, you know you will get your home through a systematic and smooth process.  Whether you are a couple, small family or a downsizer, you will find your home sweet home in this lovely community. 
+The immaculate attention to detail and generous inclusions are sure to blow you away (Double glazing windows, concealed internet point in built-in storage, inconspicuous positioning of powerpoints, siliconing of the architraves to increase long term durability, squareset cornices, bathroom niches, premium feature tiles... the list goes on).</t>
+  </si>
+  <si>
+    <t>Block/House: 500/ 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	4	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$849,000+</t>
+  </si>
+  <si>
+    <t>Now vacant - A fantastic opportunity to buy for living later on or an investment. You will love this 2-bedroom apartment with its open plan living, dining &amp; kitchen area that flows straight to the tiled balcony through glass sliding doors to enjoy breathtaking views on daily basis. The second bedroom can be used as a home office if you prefer, the choice is yours. Quality appliances include a dishwasher, heating and cooling system, laminated timber floor covering to living area and quality carpet to the bedrooms provide a comfortable lifestyle.
+This apartment offers resort-style facilities with remarkable shared spaces and 20-meter resort style pool &amp; sun deck, rooftop alfresco dining and entertaining spaces set amongst a sumptuous garden and private residents' gymnasium. This apartment shall make you feel like you are on holiday every day of the week while enjoying living surrounded by luxurious finishes throughout. Call us now to view this wonderful apartment before you miss out.
+Property Features Include:
+Stunning mountain &amp; lake views
+Short stroll to Yerrabi Pond, walking &amp; bicycle tracks
+8.2 Energy efficiency rating
+Double glazed windows and sliding doors
+20m Resort style pool &amp; sun deck
+Residents only gymnasium in the building
+Latest efficient cooking appliances
+NBN Wired, ready for connection
+Rooftop alfresco dining &amp; entertainment spaces
+Rooftop kitchenette with pizza ovens
+Walking distance to the Gungahlin to Canberra City Light Rail terminal
+Walking distance to numerous restaurants, cafes, bars, shops &amp; entertainment options
+List goes on &amp; on – Call us now to view this wonderful apartment before you miss out.</t>
+  </si>
+  <si>
+    <t>The contemporary designed house feature open plan living, well-appointed modern kitchen, double glazed windows and high ceilings enhance the functionality and quality of interiors.
+Enjoy more space, time and tranquillity at Throsby. The suburb has exceptional public parks and amenities. At full development Throsby will accommodate approximately 1,000 dwellings, the majority of which will be on single residential blocks. Throsby will also become the home of football, including multiple outdoor fields and indoor futsal courts.
+Throsby is close to everything you need. Located just 11kms from the city centre, 13kms to the airport and 3 kms to Gungahlin market place.
+Features include:
+• Four bedrooms master with en-suite and walk in robe
+• Aluminium windows/ sliding doors with fly screens
+• Colour bond roof
+• LED Downlights throughout the house
+• Samsung Smart front door lock
+• Ducted heating and cooling system with 3 zones
+• Intercom bell with 7 inch screen as seen in display
+• Modern kitchen features stone bench tops
+• Bosch/ Smeg 900 appliances
+• Cesar or quantum quartz 40mm stone bench for island with waterfall
+• Walk in Pantry
+• Stylish bathrooms with quality fittings
+• Ducted reverse cycle heating and Cooling with Zoning
+• Floor to ceiling tiles in bathrooms
+• Wall hung Vanities
+• Quality low sheen washable paint &amp; gloss painted doors
+• Choice of 2 feature walls
+• Single/ Double garage with remote &amp; internal access
+• 2000 l rain water tank
+• NBN ready
+*Please note photos taken from the other completed project of builder.</t>
+  </si>
+  <si>
+    <t>Block/House: 450/ 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	2	0	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$1,200,000+</t>
+  </si>
+  <si>
+    <t>In a premium neighbourhood of Taylor, this is an amazing opportunity to purchase and personalise your own colour selection to receive keys of this lavish home to enjoy living daily. This home is located among other quality homes on a hillside location and the construction process has begun. This home shall be ready to move in upon completion.
+Property Features Include:
+Photos of a completed home with same inclusions list
+296.4 sqm House size
+2.55m High ceiling
+Double glazed windows
+Multi zoned ducted heating &amp; cooling system
+LED energy saving down lights throughout
+Sensor lights at front above garage
+Local alarm system
+Ring Video doorbell &amp; Chime Pro with wifi camera intercom system
+Wheelchair friendly property
+Wider hallways
+2 x Main bedroom with walk-in robe &amp; ensuite
+Dazzling kitchen with walk-in pantry
+Stone bench tops &amp; ample cupboards
+Stainless-steel appliances
+Family size laundry including linen with plenty of shelves
+7-Metre-long double garage with internal access
+Storage &amp; bicycle area in garage
+Colorbond roof
+Alfresco under same roofline
+Alfresco area perfect for entertaining
+Good size backyard
+Rainwater tank 4000 liters
+Proximity to local schools
+Parks, walking and bicycle tracks nearby
+Minutes to Gungahlin Town Centre, Belconnen, and the City
+The home comes with a plethora of parks, recreational areas and within easy commute to Amaroo shops, Casey shops and Gungahlin Town Centre. This spacious 4-bedroom home is situated on 540sqm block with northerly aspect and boasts a huge formal lounge room at front of house for intimate gatherings among family and friends. The home will feature 2.7-meter-high ceiling throughout, extra-large family &amp; dining area, proper study nook, wider hallways which adds to the size of the open plan living space to enjoy lifestyle at its best. The large stunning kitchen will be hub of this home and feature all modern comforts including walk in pantry with sink, waterfall edged island bench and quality stainless steel appliances for the home chef to cook healthy meals on daily basis.
+This home features two main bedrooms and both are secluded from other bedrooms. Both main bedroom feature double size walk-in robes with enough storage for occupants needs. All other bedrooms are spacious and include built-in wardrobes. All 3-bathrooms are modern &amp; well designed for daily comfort. To enjoy the weather in all seasons, this home will have double glazed windows, insulation in external walls &amp; ceiling and ducted multi zoned heating &amp; cooling system. The outdoor alfresco area which opens from the family area is under the same roof line, fantastic for entertaining or barbecue within a very private backyard. The home is situated in one of the best neighbourhoods of Taylor, close to school/s, park with wetlands, beautiful walking and cycling tracks and much more to see and do daily.
+Call Shaun now to meet and view this home before you miss this wonderful new property.</t>
+  </si>
+  <si>
+    <t>Block/House: 540/ 296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	0	6	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$1,069,000+</t>
+  </si>
+  <si>
+    <t>Opens to be held at 38 Everist Street, Taylor!
+Priced affordably, a split contract House and Land Package in a gorgeous suburb, walking distance to parks and the local School. Low maintenance block with single level living, good-sized bedrooms, perfect for downsizers or growing families. 
+Two beautiful floorplans for you to choose from - to make a life that you love living, custom suited to your lifestyle.</t>
+  </si>
+  <si>
+    <t>Block/House: 198/ -</t>
+  </si>
+  <si>
+    <t>$695,000-$705,000</t>
+  </si>
+  <si>
+    <t>Hill side location with amazing views to enjoy living upon completion of this elegant home nearby multiple walking &amp; bike trails, schools and shops in Taylor. All the local amenities are right at your doorstep to build lifetime memories in this wonderful home. Upon completion, this impressive new home will complement the requirements of any growing family needs who is looking for extra space. The home feature multiple living areas and main bedroom with walk-in robe and ensuite, extra-large rumpus room downstairs spacious family area overlooking an amazing kitchen with an abundance of cupboard &amp; bench space, a delight for all who enjoy delicious meals with loved ones on daily basis.
+The spacious open plan family area flowing out to a large deck which provides a space for all kinds of get-together among family &amp; friends to celebrate life. Call Shaun now to review this house &amp; land package before you miss this one.
+Property Features Include:
+Amazing views to enjoy on daily basis
+Formal lounge at the front of house
+Spacious meals &amp; family area leading to a large deck
+Large rumpus room downstairs
+Modern kitchen with stone bench tops
+Stainless steel appliances
+Ducted heating &amp; cooling system
+Colorbond roof
+Alarm system
+Ring front doorbell/intercom system
+Double garage with internal access &amp; auto door
+Main bedroom boasts ensuite &amp; walk-in robe
+All other bedrooms are generously sized &amp; feature robes
+All floor coverings - tiles &amp; carpet
+Timber looking floors family area
+Concrete driveway, pads &amp; pathways
+Slim-line cloth line
+Fencing, gates &amp; much more
+Pond, walking &amp; bicycle tracks all nearby
+Proximity to shops &amp; schools
+Call Shaun today to discuss this house &amp; land package before you miss this one.</t>
+  </si>
+  <si>
+    <t>Block/House: 594/ 297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	0	8	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$1,089,000+</t>
+  </si>
+  <si>
+    <t>New Door Properties is proud to present you this modern house and land package.
+This sleek single-level home promotes easy family living and entertaining on a block of 450 m2(approx.). Immaculate from start to finish, enjoy a modern, cleverly considered floorplan hosting a formal lounge room and an open plan family and meals area leading out to the undercover alfresco entertaining area combining indoor/outdoor living.</t>
+  </si>
+  <si>
+    <t>Opens to be held at 38 Everist Street, Taylor!!!
+House and Land Package offering in a gorgeous suburb, walking distance to parks and schools. 
+Able to customise your own floorplan, subject to council approval. 
+Low maintenance block with single level living, good-sized bedrooms, perfect for downsizers or small families.</t>
+  </si>
+  <si>
+    <t>Block/House: 135/ 115</t>
+  </si>
+  <si>
+    <t>$775,000-$799,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9	6	3	0	0	0	</t>
+  </si>
+  <si>
+    <t>$963,000+</t>
+  </si>
+  <si>
+    <t>OPENS AT 38 EVERIST STREET TAYLOR. 
+Completion estimated to be last quarter of 2021.
+Affordable luxury is now within your reach. Located in the fast growing Strathnairn, this 362 sqm block will surely make your dreams come true. This property is also in prime location, situated closely to the Community Recreation Park, a golf course, schools and shopping centres, this surely is the perfect place to build your dream home.
+This house boast a beautiful floorplan with four well-sized bedrooms, two bathrooms, a magnificent kitchen and living room with a lock up garage space, and an open carport. A modern and well-designed home that has a striking abundance of space and light, perfect for gorgeous family or astute investment. One lock-up garage for the everyday automobile and one long car spot perfect for that holidaying caravan or boat.
+Features Include:
+- Stone bench throughout kitchens and walk-in pantry
+- Stainless steel appliances in both kitchens
+- Floor to Ceiling tiles in all bathrooms
+- 2.55m Ceiling in main residence
+- Walk-in pantry
+- Large master and ensuite
+- Walk in robes to master suite
+- Double garage with internal access to rear
+- Plumbed fridge connections
+- Few minutes to local shopping centre (KIPPAX)
+- 15 minutes to the City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	2	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$825,000+</t>
+  </si>
+  <si>
+    <t>Opens to be held at 38 Everist Street TAYLOR!
+This new home design specifically take advantage of the beautiful view of  the blocks and solar orientation of Taylor and designed with functionality and space in mind, which are the key focus in every residences. 
+This beautifully designed new home will have 5 spacious bedrooms, 3 bathrooms, the two main bedrooms has walk-in robes &amp; ensuites with remaining bedrooms have built-in robes. It also features a generous kitchen and a family sized laundry. Most importanly, it offers well-proportioned living spaces including cozy living and comfy alfresco that will surely take all your stresses away from work.</t>
+  </si>
+  <si>
+    <t>Block/House: 570/ 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9	6	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$960,000-$1,080,000</t>
+  </si>
+  <si>
+    <t>Beautiful lightfilled modern place you call home! Your designer home in MOLONGLO VALLEY, at a very attractive price point.
+Four bedrooms where the front lounge can also double as a guest bedroom, study or rumpus, this smart home comes with its own wireless doorbell so you can talk to neighbours or the postie dropping off parcels at your door, even if you are down the coast.
+But why would you be down the coast? You're living the dream in this perfect home!
+You walk into the house and the beautiful linear cladding guides you in, welcoming you. The kitchen bench with gorgeous stone tops, perfect to place avocados just to let everyone know a cool family that loves smashed avo on toast lives here- why not? 
+Close your eyes every night listening to the sounds of imaginary waves, without losing the cleancut designer city feel of Canberra. Bedrooms are larger than normal, so you can have your own space, while being communal in living areas when you want to.</t>
+  </si>
+  <si>
+    <t>Block/House: 206/ 184</t>
+  </si>
+  <si>
+    <t>$775,000+</t>
+  </si>
+  <si>
+    <t>4 Bedroom Construction Package $459,000
+Please contact  Yash 0406 551 043 or Abhi 0405 525 998 to book an appointment for builder's display viewing.
+New Door Properties presents this stunning house and land package with a blend of style, class and unprecedented luxury whilst being set on a generous 540 m2 block.
+This is great opportunity to build your dream home with a practical layout and room to entertain and relax, you will feel right at home with the contemporary and neutral decor. You would notice that the inclusion list is quite generous with provision of high standard items.
+The residence is equipped with 4 spacious bedrooms, 2 bathrooms, multiple living areas. The modern kitchen boasts quality appliances, 40 mm featured stone benchtop and butler's pantry. Other features include High ceilings, Reverse-cycle ducted air-conditioning a with zones.
+Features include :</t>
+  </si>
+  <si>
+    <t>Block/House: 540/ 225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	9	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$899,000+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4	5	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$450,000-$470,000</t>
+  </si>
+  <si>
+    <t>Opens by appointment only. (At 38 Everist Street TAYLOR)
+BARGAIN! - when land is less than $1000 per sqm and building is less than $2000 per sqm. Find us a better deal than this and we will buy it. 
+OFTEN SOUGHT, SELDOM FOUND
+In a quiet and convenient location in the heart of Strathnairn, and on a large 490sqm, 499sqm and 604sqm block at the elevated Hilltop Recreation stage, this property will be of particular interest to those wishing to secure a spacious family home in this tightly held Greenstar estate. Close to lakes and open green spaces, this 5 bedroom home offers plenty of space for the whole family plus a large double garage which offers tremendous flexibility with storage.
+A beautifully presented light filled home, families will appreciate the space to spread out both indoors and outdoors - with two large living areas and an outdoor alfresco. With future schools, shops, walking tracks, existing bus routes - this is a truly special opportunity not to be missed. With values steadily rising in Ginninderry, immediate enquiry is recommended. Don't look back in years to come with regret.
+Builder Perks:
+- Choose your interior colours and style
+- Security system with 3 motion sensors
+- Solar System
+- Hot water system with Heat Pump
+- Tiled alfresco
+- Colourbond roof
+- 2.55m ceiling height and more!</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>403/1 Anthony Rolfe Avenue, Gungahlin ACT 2912</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Block/House: 101/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5	3	9	0	0	0	</t>
+  </si>
+  <si>
+    <t>$539,000+</t>
+  </si>
+  <si>
+    <t>An extra-large north facing two bedrooms apartment in a prime location is now available to buy for living or/and as an investment property. Located on a short walking distance to the public transport -light rail station, childcare center and to Gungahlin marketplace.
+This apartment is perfectly placed to enjoy cosmopolitan living and offering a resort lifestyle with immaculately landscaped garden, two maintained BBQ areas, a gym, pool and jacuzzi with zero maintenance Lifestyle. This is a stylish apartment featuring a great floor plan that compromises a spacious open plan living with a generous balcony to enjoy magnificent views, a quality kitchen with stone benchtops and appliances including dishwasher &amp; electric cooktop.
+Property Features Include:
+Northwest facing with beautiful views
+Sunset &amp; water views
+Spacious bedrooms with practical layout
+Walk-in Robe to main bedroom
+Heating &amp; cooling system
+Parking with storage cage
+Intercom access to foyer
+Gym &amp; Function room
+Two barbecue areas
+Infinity edge Pool &amp; Spa
+Short stroll to Gungahlin Town Centre
+Much more on offer to enjoy the lifestyle you deserve in this apartment. Call us now before you miss this one.</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1710/161 Emu Bank, Belconnen ACT 2617</t>
+  </si>
+  <si>
+    <t>Block/House: 297/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	5	0	0	0	0	0	</t>
+  </si>
+  <si>
+    <t>$1,500,000+</t>
+  </si>
+  <si>
+    <t>Executive Penthouse with breath taking views in the heart of Belconnen Town Centre is now available to purchase and enjoy living on daily basis to take in the panoramic Lake Ginninderra and Brindabella range’s view.
+A luxurious masterpiece of architectural design; In one of Canberra’s finest buildings,
+this north facing extra-large penthouse commands sweeping views of Belconnen district and surroundings. This is Belconnen’s newest landmark, an exclusive building in the heart of North of Canberra, next to Westfield Shopping Centre, local Restaurant, walks and bike tracks.
+Offering three spacious bedrooms, and a proper study area. Large main bedroom with spacious walk-in-robe and sparkling ensuite. The second bedroom has its own spacious walk-in-robe and sparkling ensuite as well to enjoy living. There is also a separate main bathroom, which ideally services the third bedroom and the guests. All Bedrooms have access to a large balcony connected a large private entertaining area enjoying the breath-taking view.
+Properties like this do not come to market for sale that often. Take this opportunity to buy this wonderful penthouse before it is too late.
+Call us now for further details.</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7804&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7806&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3781,7 +4249,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3836,6 +4304,66 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3847,154 +4375,160 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="29" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="68">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="3" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4014,7 +4548,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4138,21 +4672,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4169,7 +4703,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4223,32 +4757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A92" ySplit="1"/>
+      <selection activeCell="C112" pane="bottomLeft" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.19921875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="74.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="55" width="22.1328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.86328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.86328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.86328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.53125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.9">
+    <row ht="13.9" r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4275,7 +4809,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:28">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4321,7 +4855,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="13.9">
+    <row ht="13.9" r="3" spans="1:28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4367,7 +4901,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:28">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4413,7 +4947,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="13.9">
+    <row ht="13.9" r="5" spans="1:28">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4457,7 +4991,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="13.9">
+    <row ht="13.9" r="6" spans="1:28">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4501,7 +5035,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9">
+    <row ht="13.9" r="7" spans="1:28">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4545,7 +5079,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="13.9">
+    <row ht="13.9" r="8" spans="1:28">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4589,7 +5123,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="13.9">
+    <row ht="13.9" r="9" spans="1:28">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4631,7 +5165,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9">
+    <row ht="13.9" r="10" spans="1:28">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4673,7 +5207,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9">
+    <row ht="13.9" r="11" spans="1:28">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4717,7 +5251,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="13.9">
+    <row ht="13.9" r="12" spans="1:28">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4759,7 +5293,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9">
+    <row ht="13.9" r="13" spans="1:28">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4801,7 +5335,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="13.9">
+    <row ht="13.9" r="14" spans="1:28">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4843,7 +5377,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="13.9">
+    <row ht="13.9" r="15" spans="1:28">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4887,7 +5421,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="13.9">
+    <row ht="13.9" r="16" spans="1:28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4929,7 +5463,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="13.9">
+    <row ht="13.9" r="17" spans="1:28">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4973,7 +5507,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="13.9">
+    <row ht="13.9" r="18" spans="1:28">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -5015,7 +5549,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.9">
+    <row ht="13.9" r="19" spans="1:28">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -5059,7 +5593,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="13.9">
+    <row ht="13.9" r="20" spans="1:28">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -5103,7 +5637,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="13.9">
+    <row ht="13.9" r="21" spans="1:28">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -5147,7 +5681,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" ht="13.9">
+    <row ht="13.9" r="22" spans="1:28">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -5189,7 +5723,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="13.9">
+    <row ht="13.9" r="23" spans="1:28">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -5233,7 +5767,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="13.9">
+    <row ht="13.9" r="24" spans="1:28">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -5275,7 +5809,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="13.9">
+    <row ht="13.9" r="25" spans="1:28">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5317,7 +5851,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="13.9">
+    <row ht="13.9" r="26" spans="1:28">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -5361,7 +5895,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="13.9">
+    <row ht="13.9" r="27" spans="1:28">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -5405,7 +5939,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="13.9">
+    <row ht="13.9" r="28" spans="1:28">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -5447,7 +5981,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="13.9">
+    <row ht="13.9" r="29" spans="1:28">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -5491,7 +6025,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="13.9">
+    <row ht="13.9" r="30" spans="1:28">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -5533,7 +6067,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" ht="13.9">
+    <row ht="13.9" r="31" spans="1:28">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5577,7 +6111,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" ht="13.9">
+    <row ht="13.9" r="32" spans="1:28">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5619,7 +6153,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="4" spans="1:8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5642,7 +6176,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="34" s="4" spans="1:8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5662,7 +6196,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="35" s="4" spans="1:8">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5682,7 +6216,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="36" s="4" spans="1:8">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5702,7 +6236,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="37" s="4" spans="1:8">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5722,7 +6256,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="4" spans="1:8">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5745,7 +6279,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="4" spans="1:8">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5768,7 +6302,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="4" spans="1:8">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5791,7 +6325,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="41" s="4" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5811,7 +6345,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="4" spans="1:8">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5834,7 +6368,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="4" spans="1:8">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5854,7 +6388,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="4" spans="1:8">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5874,7 +6408,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="4" spans="1:8">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5897,7 +6431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="4" spans="1:8">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5917,7 +6451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="4" spans="1:8">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5937,7 +6471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="48" s="4" spans="1:8">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5960,7 +6494,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="49" s="4" spans="1:8">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5983,7 +6517,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="50" s="4" spans="1:8">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6003,7 +6537,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="51" s="4" spans="1:8">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6023,7 +6557,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="52" s="4" spans="1:8">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6046,7 +6580,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="53" s="4" spans="1:8">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6069,7 +6603,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="54" s="4" spans="1:8">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6089,7 +6623,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="55" s="4" spans="1:8">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6112,7 +6646,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="56" s="4" spans="1:8">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6135,7 +6669,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="57" s="4" spans="1:8">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6155,7 +6689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="58" s="4" spans="1:8">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6175,7 +6709,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="59" s="4" spans="1:8">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6195,7 +6729,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="60" s="4" spans="1:8">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6215,7 +6749,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="61" s="4" spans="1:8">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6235,7 +6769,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="62" s="4" spans="1:8">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6255,7 +6789,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="63" s="4" spans="1:8">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6278,7 +6812,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="64" s="4" spans="1:8">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6301,7 +6835,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="65" s="4" spans="1:8">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6322,7 +6856,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="66" s="4" spans="1:8">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6345,7 +6879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="67" s="4" spans="1:8">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6368,7 +6902,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="68" s="4" spans="1:8">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6391,7 +6925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="69" s="4" spans="1:8">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6414,7 +6948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="70" s="4" spans="1:8">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6437,7 +6971,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="71" s="4" spans="1:8">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6460,7 +6994,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="72" s="4" spans="1:8">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6483,7 +7017,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row ht="12.75" r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6506,7 +7040,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row ht="12.75" r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6529,7 +7063,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="75" s="4" spans="1:8">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6552,7 +7086,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row ht="12.75" r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6575,7 +7109,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row ht="12.75" r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6598,7 +7132,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row ht="12.75" r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6621,7 +7155,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row ht="12.75" r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6644,7 +7178,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row ht="12.75" r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6667,7 +7201,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row ht="12.75" r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6690,7 +7224,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row ht="12.75" r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6713,7 +7247,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row ht="12.75" r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6736,7 +7270,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row ht="12.75" r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6759,7 +7293,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row ht="12.75" r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6782,7 +7316,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row ht="12.75" r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6805,7 +7339,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row ht="12.75" r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6816,7 +7350,7 @@
         <v>651</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>695</v>
@@ -6828,7 +7362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row ht="12.75" r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6851,7 +7385,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row ht="12.75" r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6874,7 +7408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row ht="12.75" r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6897,7 +7431,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row ht="12.75" r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6920,7 +7454,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row ht="12.75" r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6943,7 +7477,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row ht="12.75" r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6966,7 +7500,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row ht="12.75" r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6989,7 +7523,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row ht="12.75" r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7000,7 +7534,7 @@
         <v>689</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>695</v>
@@ -7012,7 +7546,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row ht="12.75" r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7035,7 +7569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row ht="12.75" r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7046,7 +7580,7 @@
         <v>692</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>695</v>
@@ -7058,7 +7592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row ht="12.75" r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7081,7 +7615,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="12.75">
+    <row ht="12.75" r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7104,7 +7638,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="12.75">
+    <row ht="12.75" r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7127,7 +7661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="12.75">
+    <row ht="12.75" r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7150,7 +7684,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="12.75">
+    <row ht="12.75" r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7173,14 +7707,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="12.75">
+    <row ht="12.75" r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="59" t="s">
         <v>748</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="59" t="s">
         <v>764</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -7196,14 +7730,14 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="12.75">
+    <row ht="12.75" r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>769</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="59" t="s">
         <v>775</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -7219,162 +7753,203 @@
         <v>38</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>776</v>
+      </c>
+      <c r="C105" t="s">
+        <v>856</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>855</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>777</v>
+      </c>
+      <c r="C106" t="s">
+        <v>857</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>855</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B38" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
-    <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
-    <hyperlink ref="B75" r:id="rId69" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
-    <hyperlink ref="C75" r:id="rId70" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
-    <hyperlink ref="H75" r:id="rId71" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
-    <hyperlink ref="B78" r:id="rId72" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
-    <hyperlink ref="C78" r:id="rId73" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
-    <hyperlink ref="B68" r:id="rId74" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
-    <hyperlink ref="B69" r:id="rId75" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
-    <hyperlink ref="C70" r:id="rId76" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
-    <hyperlink ref="B70" r:id="rId77" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
-    <hyperlink ref="B71" r:id="rId78" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
-    <hyperlink ref="C71" r:id="rId79" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
-    <hyperlink ref="B72" r:id="rId80" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
-    <hyperlink ref="C72" r:id="rId81" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
-    <hyperlink ref="C73" r:id="rId82" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
-    <hyperlink ref="C4" r:id="rId84" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
-    <hyperlink ref="C29" r:id="rId85" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
-    <hyperlink ref="C90" r:id="rId86" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
-    <hyperlink ref="C15" r:id="rId88" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
-    <hyperlink ref="C3" r:id="rId89" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
-    <hyperlink ref="C8" r:id="rId90" xr:uid="{3D3D678C-8F1B-47BC-ACA2-D1CBF5A76F0B}"/>
-    <hyperlink ref="C19" r:id="rId91" xr:uid="{ED2C9A9B-3440-4B4A-91A1-7CAF84972535}"/>
-    <hyperlink ref="C20" r:id="rId92" xr:uid="{E47C999F-11AE-4F93-9032-6E51EB582635}"/>
-    <hyperlink ref="C21" r:id="rId93" xr:uid="{E59411CC-EC13-4665-969A-8D9238CCD0C2}"/>
-    <hyperlink ref="C33" r:id="rId94" xr:uid="{9C953AB9-0076-4477-B52F-C393846B1211}"/>
-    <hyperlink ref="C38" r:id="rId95" xr:uid="{D349EA20-36BF-44C7-A16B-E85B8FE53B2A}"/>
-    <hyperlink ref="C39" r:id="rId96" xr:uid="{DE18DA3B-1A3D-4613-888E-7F506CC87091}"/>
-    <hyperlink ref="C40" r:id="rId97" xr:uid="{0C71282B-049B-4CD1-A090-B66647F2B29B}"/>
-    <hyperlink ref="C42" r:id="rId98" xr:uid="{AD0DC851-DEC5-4ACE-B928-50149068BB70}"/>
-    <hyperlink ref="C45" r:id="rId99" xr:uid="{EB51DFC2-D28F-4E0C-B019-F9954D6C9832}"/>
-    <hyperlink ref="C52" r:id="rId100" xr:uid="{9E5146F6-8EC8-4A2C-B192-C1CCB11CAB8A}"/>
-    <hyperlink ref="C48" r:id="rId101" xr:uid="{31B308E4-DA3E-401B-B796-7D03404228FB}"/>
-    <hyperlink ref="C49" r:id="rId102" xr:uid="{EBAAB9CE-7F91-4628-AF75-32C4EEF948C2}"/>
-    <hyperlink ref="C53" r:id="rId103" xr:uid="{2FF7EB1F-CD56-4E71-AD0F-0D12E8347603}"/>
-    <hyperlink ref="C55" r:id="rId104" xr:uid="{9BD44DCD-EEBB-4649-9792-F3DAC40B3960}"/>
-    <hyperlink ref="C63" r:id="rId105" xr:uid="{9929BCF4-32FD-4143-99F6-FEB21B90BCD7}"/>
-    <hyperlink ref="C64" r:id="rId106" xr:uid="{80B3DEC9-506E-4F3A-B171-A2D71B731577}"/>
-    <hyperlink ref="C66" r:id="rId107" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
-    <hyperlink ref="C67" r:id="rId108" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
-    <hyperlink ref="C56" r:id="rId109" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
-    <hyperlink ref="B103" r:id="rId110" xr:uid="{4D81C408-B745-40E2-B9C7-6E36C45175A7}"/>
-    <hyperlink ref="C26" r:id="rId111" xr:uid="{6A9C6F44-3E7F-47CF-8514-B6609EBEE668}"/>
-    <hyperlink ref="C23" r:id="rId112" xr:uid="{F99F350A-C378-4940-B611-41F47BC3B4B0}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="B6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="H6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="B7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="B8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId9" ref="B9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId10" ref="B10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId11" ref="B11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="B12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="B13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="B14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="B15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="B16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="B17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink r:id="rId18" ref="B18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink r:id="rId19" ref="B19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink r:id="rId20" ref="B20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink r:id="rId21" ref="B21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink r:id="rId22" ref="B22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink r:id="rId23" ref="B23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink r:id="rId24" ref="B24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink r:id="rId25" ref="B25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink r:id="rId26" ref="H25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink r:id="rId27" ref="B26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="H26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="B27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="H27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="B28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="H28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="B29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink r:id="rId34" ref="H29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink r:id="rId35" ref="B30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink r:id="rId36" ref="H30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink r:id="rId37" ref="B31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink r:id="rId38" ref="H31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink r:id="rId39" ref="B32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink r:id="rId40" ref="H32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink r:id="rId41" ref="B33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink r:id="rId42" ref="B34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink r:id="rId43" ref="B38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="B45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="B48" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="B35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="B52" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink r:id="rId48" ref="B53" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink r:id="rId49" ref="B55" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink r:id="rId50" ref="B56" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink r:id="rId51" ref="B57" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink r:id="rId52" ref="B58" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink r:id="rId53" ref="B61" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink r:id="rId54" ref="B62" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink r:id="rId55" ref="B63" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink r:id="rId56" ref="B64" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink r:id="rId57" ref="B65" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink r:id="rId58" ref="B66" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink r:id="rId59" ref="B67" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" r:id="rId60" ref="H7:H24" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink r:id="rId61" ref="B43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink r:id="rId62" ref="B44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink r:id="rId63" ref="B46" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink r:id="rId64" ref="B54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink r:id="rId65" ref="B42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink r:id="rId66" ref="J2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink r:id="rId67" ref="C69" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
+    <hyperlink r:id="rId68" ref="C68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
+    <hyperlink r:id="rId69" ref="B75" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
+    <hyperlink r:id="rId70" ref="C75" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
+    <hyperlink r:id="rId71" ref="H75" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
+    <hyperlink r:id="rId72" ref="B78" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
+    <hyperlink r:id="rId73" ref="C78" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
+    <hyperlink r:id="rId74" ref="B68" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
+    <hyperlink r:id="rId75" ref="B69" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
+    <hyperlink r:id="rId76" ref="C70" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
+    <hyperlink r:id="rId77" ref="B70" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
+    <hyperlink r:id="rId78" ref="B71" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
+    <hyperlink r:id="rId79" ref="C71" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
+    <hyperlink r:id="rId80" ref="B72" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
+    <hyperlink r:id="rId81" ref="C72" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
+    <hyperlink r:id="rId82" ref="C73" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
+    <hyperlink r:id="rId83" ref="B85" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
+    <hyperlink r:id="rId84" ref="C4" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
+    <hyperlink r:id="rId85" ref="C29" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
+    <hyperlink r:id="rId86" ref="C90" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
+    <hyperlink r:id="rId87" ref="B90" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
+    <hyperlink r:id="rId88" ref="C15" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
+    <hyperlink r:id="rId89" ref="C3" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
+    <hyperlink r:id="rId90" ref="C8" xr:uid="{3D3D678C-8F1B-47BC-ACA2-D1CBF5A76F0B}"/>
+    <hyperlink r:id="rId91" ref="C19" xr:uid="{ED2C9A9B-3440-4B4A-91A1-7CAF84972535}"/>
+    <hyperlink r:id="rId92" ref="C20" xr:uid="{E47C999F-11AE-4F93-9032-6E51EB582635}"/>
+    <hyperlink r:id="rId93" ref="C21" xr:uid="{E59411CC-EC13-4665-969A-8D9238CCD0C2}"/>
+    <hyperlink r:id="rId94" ref="C33" xr:uid="{9C953AB9-0076-4477-B52F-C393846B1211}"/>
+    <hyperlink r:id="rId95" ref="C38" xr:uid="{D349EA20-36BF-44C7-A16B-E85B8FE53B2A}"/>
+    <hyperlink r:id="rId96" ref="C39" xr:uid="{DE18DA3B-1A3D-4613-888E-7F506CC87091}"/>
+    <hyperlink r:id="rId97" ref="C40" xr:uid="{0C71282B-049B-4CD1-A090-B66647F2B29B}"/>
+    <hyperlink r:id="rId98" ref="C42" xr:uid="{AD0DC851-DEC5-4ACE-B928-50149068BB70}"/>
+    <hyperlink r:id="rId99" ref="C45" xr:uid="{EB51DFC2-D28F-4E0C-B019-F9954D6C9832}"/>
+    <hyperlink r:id="rId100" ref="C52" xr:uid="{9E5146F6-8EC8-4A2C-B192-C1CCB11CAB8A}"/>
+    <hyperlink r:id="rId101" ref="C48" xr:uid="{31B308E4-DA3E-401B-B796-7D03404228FB}"/>
+    <hyperlink r:id="rId102" ref="C49" xr:uid="{EBAAB9CE-7F91-4628-AF75-32C4EEF948C2}"/>
+    <hyperlink r:id="rId103" ref="C53" xr:uid="{2FF7EB1F-CD56-4E71-AD0F-0D12E8347603}"/>
+    <hyperlink r:id="rId104" ref="C55" xr:uid="{9BD44DCD-EEBB-4649-9792-F3DAC40B3960}"/>
+    <hyperlink r:id="rId105" ref="C63" xr:uid="{9929BCF4-32FD-4143-99F6-FEB21B90BCD7}"/>
+    <hyperlink r:id="rId106" ref="C64" xr:uid="{80B3DEC9-506E-4F3A-B171-A2D71B731577}"/>
+    <hyperlink r:id="rId107" ref="C66" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
+    <hyperlink r:id="rId108" ref="C67" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
+    <hyperlink r:id="rId109" ref="C56" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
+    <hyperlink r:id="rId110" ref="B103" xr:uid="{4D81C408-B745-40E2-B9C7-6E36C45175A7}"/>
+    <hyperlink r:id="rId111" ref="C26" xr:uid="{6A9C6F44-3E7F-47CF-8514-B6609EBEE668}"/>
+    <hyperlink r:id="rId112" ref="C23" xr:uid="{F99F350A-C378-4940-B611-41F47BC3B4B0}"/>
+    <hyperlink r:id="rId113" ref="C103" xr:uid="{3E9C8DCE-ABC0-49DA-B64B-B569BAAE6ED0}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId114"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI104"/>
+  <dimension ref="A1:AJ106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B111" sqref="B111"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="B111" pane="topRight" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.86328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.19921875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.1328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="37.53125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="47.86328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="77.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="23" max="31" customWidth="true" width="19.19921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75">
+    <row ht="27.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -7473,7 +8048,7 @@
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="2" spans="1:35">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -7544,7 +8119,7 @@
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="3" spans="1:35">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -7615,12 +8190,12 @@
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
     </row>
-    <row r="4" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:35">
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>7</v>
+      <c r="B4" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>89</v>
@@ -7643,11 +8218,11 @@
       <c r="I4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>767</v>
+      <c r="K4" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>504</v>
       </c>
       <c r="M4" s="28">
         <v>4</v>
@@ -7667,8 +8242,8 @@
       <c r="R4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>659</v>
+      <c r="S4" s="66" t="s">
+        <v>778</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>695</v>
@@ -7677,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="5" spans="1:35">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -7750,7 +8325,7 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="6" spans="1:35">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -7825,12 +8400,12 @@
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
     </row>
-    <row r="7" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:35">
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>7</v>
+      <c r="B7" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>105</v>
@@ -7850,7 +8425,7 @@
       <c r="H7" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="66" t="s">
         <v>439</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -7884,7 +8459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="8" spans="1:35">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -7957,7 +8532,7 @@
       <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
     </row>
-    <row r="9" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="28" spans="1:35">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -8016,7 +8591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="28" spans="1:35">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -8072,12 +8647,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="28" spans="1:35">
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>7</v>
+      <c r="B11" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>112</v>
@@ -8097,7 +8672,7 @@
       <c r="H11" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="66" t="s">
         <v>323</v>
       </c>
       <c r="L11" s="28" t="s">
@@ -8137,7 +8712,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="28" spans="1:35">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -8193,7 +8768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="28" spans="1:35">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -8252,7 +8827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="28" spans="1:35">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -8317,7 +8892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="28" spans="1:35">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -8376,7 +8951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="28" spans="1:35">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -8435,12 +9010,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="28" spans="1:35">
       <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>7</v>
+      <c r="B17" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>126</v>
@@ -8460,7 +9035,7 @@
       <c r="H17" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="66" t="s">
         <v>431</v>
       </c>
       <c r="L17" s="28" t="s">
@@ -8491,7 +9066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:35">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -8550,7 +9125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="28" spans="1:35">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -8603,7 +9178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20" spans="1:35">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -8678,7 +9253,7 @@
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21" spans="1:35">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -8749,7 +9324,7 @@
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
     </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:35">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -8814,17 +9389,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:35">
       <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>7</v>
+      <c r="B23" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="66" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="28" t="s">
@@ -8867,7 +9442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="28" spans="1:35">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -8926,7 +9501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25" spans="1:35">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -8997,7 +9572,7 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="28" spans="1:35">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -9056,12 +9631,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="28" spans="1:35">
       <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>7</v>
+      <c r="B27" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>149</v>
@@ -9069,8 +9644,8 @@
       <c r="D27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>78</v>
+      <c r="E27" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>94</v>
@@ -9084,7 +9659,7 @@
       <c r="I27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="66" t="s">
         <v>663</v>
       </c>
       <c r="L27" s="28" t="s">
@@ -9105,8 +9680,8 @@
       <c r="R27" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="S27" s="28" t="s">
-        <v>662</v>
+      <c r="S27" s="66" t="s">
+        <v>803</v>
       </c>
       <c r="T27" s="28" t="s">
         <v>82</v>
@@ -9115,7 +9690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="28" spans="1:35">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -9174,7 +9749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="28" spans="1:35">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -9233,7 +9808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="28" spans="1:35">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -9292,7 +9867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="28" spans="1:35">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -9348,7 +9923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="28" spans="1:35">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -9407,7 +9982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="28" spans="1:21">
       <c r="A33" s="28" t="s">
         <v>200</v>
       </c>
@@ -9466,7 +10041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="34" s="28" spans="1:21">
       <c r="A34" s="28" t="s">
         <v>211</v>
       </c>
@@ -9525,7 +10100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="35" s="28" spans="1:21">
       <c r="A35" s="28" t="s">
         <v>218</v>
       </c>
@@ -9584,7 +10159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="36" s="28" spans="1:21">
       <c r="A36" s="28" t="s">
         <v>224</v>
       </c>
@@ -9643,7 +10218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="37" s="28" spans="1:21">
       <c r="A37" s="28" t="s">
         <v>231</v>
       </c>
@@ -9702,7 +10277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="28" spans="1:21">
       <c r="A38" s="28" t="s">
         <v>237</v>
       </c>
@@ -9761,7 +10336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="28" spans="1:21">
       <c r="A39" s="28" t="s">
         <v>245</v>
       </c>
@@ -9820,7 +10395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="28" spans="1:21">
       <c r="A40" s="28" t="s">
         <v>248</v>
       </c>
@@ -9879,7 +10454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="41" s="28" spans="1:21">
       <c r="A41" s="28" t="s">
         <v>251</v>
       </c>
@@ -9938,7 +10513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="28" spans="1:21">
       <c r="A42" s="28" t="s">
         <v>260</v>
       </c>
@@ -9997,7 +10572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="28" spans="1:21">
       <c r="A43" s="28" t="s">
         <v>264</v>
       </c>
@@ -10056,7 +10631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="28" spans="1:21">
       <c r="A44" s="28" t="s">
         <v>273</v>
       </c>
@@ -10115,7 +10690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="28" spans="1:21">
       <c r="A45" s="28" t="s">
         <v>280</v>
       </c>
@@ -10174,7 +10749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="28" spans="1:21">
       <c r="A46" s="28" t="s">
         <v>286</v>
       </c>
@@ -10233,7 +10808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="28" spans="1:21">
       <c r="A47" s="28" t="s">
         <v>292</v>
       </c>
@@ -10292,7 +10867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="48" s="28" spans="1:21">
       <c r="A48" s="28" t="s">
         <v>298</v>
       </c>
@@ -10351,7 +10926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="49" s="28" spans="1:21">
       <c r="A49" s="28" t="s">
         <v>303</v>
       </c>
@@ -10410,7 +10985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="50" s="28" spans="1:21">
       <c r="A50" s="28" t="s">
         <v>309</v>
       </c>
@@ -10469,7 +11044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="51" s="28" spans="1:21">
       <c r="A51" s="28" t="s">
         <v>315</v>
       </c>
@@ -10528,7 +11103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="52" s="28" spans="1:21">
       <c r="A52" s="28" t="s">
         <v>321</v>
       </c>
@@ -10587,7 +11162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="53" s="28" spans="1:21">
       <c r="A53" s="28" t="s">
         <v>348</v>
       </c>
@@ -10646,7 +11221,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="54" s="28" spans="1:21">
       <c r="A54" s="28" t="s">
         <v>354</v>
       </c>
@@ -10705,7 +11280,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="55" s="28" spans="1:21">
       <c r="A55" s="28" t="s">
         <v>358</v>
       </c>
@@ -10764,7 +11339,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="56" s="28" spans="1:21">
       <c r="A56" s="28" t="s">
         <v>364</v>
       </c>
@@ -10823,7 +11398,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="57" s="28" spans="1:21">
       <c r="A57" s="28" t="s">
         <v>369</v>
       </c>
@@ -10882,7 +11457,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="58" s="28" spans="1:21">
       <c r="A58" s="28" t="s">
         <v>376</v>
       </c>
@@ -10941,7 +11516,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="59" s="28" spans="1:21">
       <c r="A59" s="28" t="s">
         <v>382</v>
       </c>
@@ -11000,7 +11575,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="60" s="28" spans="1:21">
       <c r="A60" s="28" t="s">
         <v>389</v>
       </c>
@@ -11059,7 +11634,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="61" s="28" spans="1:21">
       <c r="A61" s="28" t="s">
         <v>396</v>
       </c>
@@ -11118,7 +11693,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="62" s="28" spans="1:21">
       <c r="A62" s="28" t="s">
         <v>402</v>
       </c>
@@ -11177,7 +11752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="63" s="28" spans="1:21">
       <c r="A63" s="28" t="s">
         <v>405</v>
       </c>
@@ -11236,7 +11811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="64" s="28" spans="1:21">
       <c r="A64" s="28" t="s">
         <v>410</v>
       </c>
@@ -11295,7 +11870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="65" s="28" spans="1:21">
       <c r="A65" s="28" t="s">
         <v>416</v>
       </c>
@@ -11354,7 +11929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="66" s="28" spans="1:21">
       <c r="A66" s="28" t="s">
         <v>421</v>
       </c>
@@ -11413,7 +11988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="67" s="28" spans="1:21">
       <c r="A67" s="28" t="s">
         <v>427</v>
       </c>
@@ -11472,7 +12047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="68" s="28" spans="1:21">
       <c r="A68" s="28" t="s">
         <v>488</v>
       </c>
@@ -11531,7 +12106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="69" s="28" spans="1:21">
       <c r="A69" s="28" t="s">
         <v>493</v>
       </c>
@@ -11590,7 +12165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="70" s="28" spans="1:21">
       <c r="A70" s="28" t="s">
         <v>495</v>
       </c>
@@ -11649,7 +12224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="71" s="28" spans="1:21">
       <c r="A71" s="28" t="s">
         <v>501</v>
       </c>
@@ -11708,7 +12283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="72" s="28" spans="1:21">
       <c r="A72" s="28" t="s">
         <v>506</v>
       </c>
@@ -11767,7 +12342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="73" s="28" spans="1:21">
       <c r="A73" s="28" t="s">
         <v>508</v>
       </c>
@@ -11826,7 +12401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="74" s="28" spans="1:21">
       <c r="A74" s="28" t="s">
         <v>512</v>
       </c>
@@ -11885,7 +12460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="75" s="28" spans="1:21">
       <c r="A75" s="28" t="s">
         <v>518</v>
       </c>
@@ -11944,7 +12519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="76" s="28" spans="1:21">
       <c r="A76" s="28" t="s">
         <v>524</v>
       </c>
@@ -12003,7 +12578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="77" s="28" spans="1:21">
       <c r="A77" s="28" t="s">
         <v>529</v>
       </c>
@@ -12062,7 +12637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="78" s="28" spans="1:21">
       <c r="A78" s="28" t="s">
         <v>536</v>
       </c>
@@ -12121,7 +12696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="79" s="28" spans="1:21">
       <c r="A79" s="28" t="s">
         <v>539</v>
       </c>
@@ -12180,7 +12755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="80" s="28" spans="1:21">
       <c r="A80" s="28" t="s">
         <v>545</v>
       </c>
@@ -12239,7 +12814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="81" s="28" spans="1:21">
       <c r="A81" s="28" t="s">
         <v>552</v>
       </c>
@@ -12298,7 +12873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="82" s="28" spans="1:21">
       <c r="A82" s="28" t="s">
         <v>557</v>
       </c>
@@ -12357,7 +12932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="83" s="28" spans="1:21">
       <c r="A83" s="28" t="s">
         <v>562</v>
       </c>
@@ -12416,7 +12991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="84" s="28" spans="1:21">
       <c r="A84" s="28" t="s">
         <v>565</v>
       </c>
@@ -12475,7 +13050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="85" s="28" spans="1:21">
       <c r="A85" s="28" t="s">
         <v>569</v>
       </c>
@@ -12534,7 +13109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="86" s="28" spans="1:21">
       <c r="A86" s="28" t="s">
         <v>610</v>
       </c>
@@ -12593,7 +13168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="87" s="28" spans="1:21">
       <c r="A87" s="28" t="s">
         <v>614</v>
       </c>
@@ -12652,7 +13227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="88" s="28" spans="1:21">
       <c r="A88" s="28" t="s">
         <v>619</v>
       </c>
@@ -12711,7 +13286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="89" s="28" spans="1:21">
       <c r="A89" s="28" t="s">
         <v>623</v>
       </c>
@@ -12770,7 +13345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="90" s="28" spans="1:21">
       <c r="A90" s="28" t="s">
         <v>629</v>
       </c>
@@ -12829,7 +13404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="91" s="28" spans="1:21">
       <c r="A91" s="28" t="s">
         <v>633</v>
       </c>
@@ -12888,7 +13463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="92" s="28" spans="1:21">
       <c r="A92" s="28" t="s">
         <v>637</v>
       </c>
@@ -12947,7 +13522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="93" s="28" spans="1:21">
       <c r="A93" s="28" t="s">
         <v>640</v>
       </c>
@@ -13006,7 +13581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="94" s="28" spans="1:21">
       <c r="A94" s="28" t="s">
         <v>671</v>
       </c>
@@ -13065,7 +13640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="95" s="28" spans="1:21">
       <c r="A95" s="28" t="s">
         <v>676</v>
       </c>
@@ -13124,7 +13699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="96" s="28" spans="1:21">
       <c r="A96" s="28" t="s">
         <v>680</v>
       </c>
@@ -13183,7 +13758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="97" s="28" spans="1:21">
       <c r="A97" s="28" t="s">
         <v>684</v>
       </c>
@@ -13242,7 +13817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="98" s="28" spans="1:21">
       <c r="A98" s="28" t="s">
         <v>698</v>
       </c>
@@ -13301,7 +13876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="99" s="28" spans="1:21">
       <c r="A99" s="28" t="s">
         <v>715</v>
       </c>
@@ -13360,7 +13935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="100" s="28" spans="1:21">
       <c r="A100" s="28" t="s">
         <v>719</v>
       </c>
@@ -13419,7 +13994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="101" s="28" spans="1:21">
       <c r="A101" s="28" t="s">
         <v>723</v>
       </c>
@@ -13478,7 +14053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="102" s="28" spans="1:21">
       <c r="A102" s="28" t="s">
         <v>753</v>
       </c>
@@ -13537,7 +14112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="103" s="28" spans="1:21">
       <c r="A103" s="28" t="s">
         <v>759</v>
       </c>
@@ -13596,12 +14171,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="28" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="104" s="28" spans="1:21">
       <c r="A104" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="B104" s="28" t="s">
-        <v>7</v>
+      <c r="B104" s="66" t="s">
+        <v>779</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>771</v>
@@ -13612,40 +14187,40 @@
       <c r="E104" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F104" s="28" t="s">
+      <c r="F104" s="66" t="s">
         <v>79</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H104" s="66" t="s">
         <v>772</v>
       </c>
       <c r="I104" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="K104" s="28" t="s">
+      <c r="K104" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L104" s="28" t="s">
+      <c r="L104" s="66" t="s">
         <v>773</v>
       </c>
-      <c r="M104" s="28" t="s">
+      <c r="M104" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="N104" s="28" t="s">
+      <c r="N104" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="P104" s="28" t="s">
+      <c r="P104" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="Q104" s="28" t="s">
+      <c r="Q104" s="66" t="s">
         <v>271</v>
       </c>
       <c r="R104" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="S104" s="28" t="s">
+      <c r="S104" s="66" t="s">
         <v>774</v>
       </c>
       <c r="T104" s="28" t="s">
@@ -13655,15 +14230,129 @@
         <v>37</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>842</v>
+      </c>
+      <c r="B105" t="s">
+        <v>855</v>
+      </c>
+      <c r="C105" t="s">
+        <v>843</v>
+      </c>
+      <c r="D105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s">
+        <v>845</v>
+      </c>
+      <c r="I105" t="s">
+        <v>203</v>
+      </c>
+      <c r="K105" t="s">
+        <v>846</v>
+      </c>
+      <c r="L105" t="s">
+        <v>847</v>
+      </c>
+      <c r="M105" t="s">
+        <v>209</v>
+      </c>
+      <c r="N105" t="s">
+        <v>209</v>
+      </c>
+      <c r="P105" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>209</v>
+      </c>
+      <c r="R105" t="s">
+        <v>843</v>
+      </c>
+      <c r="S105" t="s">
+        <v>848</v>
+      </c>
+      <c r="T105" t="s">
+        <v>204</v>
+      </c>
+      <c r="U105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>849</v>
+      </c>
+      <c r="B106" t="s">
+        <v>855</v>
+      </c>
+      <c r="C106" t="s">
+        <v>850</v>
+      </c>
+      <c r="D106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s">
+        <v>212</v>
+      </c>
+      <c r="G106" t="s">
+        <v>212</v>
+      </c>
+      <c r="H106" t="s">
+        <v>851</v>
+      </c>
+      <c r="I106" t="s">
+        <v>203</v>
+      </c>
+      <c r="K106" t="s">
+        <v>852</v>
+      </c>
+      <c r="L106" t="s">
+        <v>853</v>
+      </c>
+      <c r="M106" t="s">
+        <v>207</v>
+      </c>
+      <c r="N106" t="s">
+        <v>207</v>
+      </c>
+      <c r="P106" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>209</v>
+      </c>
+      <c r="R106" t="s">
+        <v>850</v>
+      </c>
+      <c r="S106" t="s">
+        <v>854</v>
+      </c>
+      <c r="T106" t="s">
+        <v>204</v>
+      </c>
+      <c r="U106" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{80F0095E-6FDE-472D-8768-735971B8B228}"/>
-    </customSheetView>
-    <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{D7DC01CA-9F22-44D3-9651-F1669AFF0E89}">
+    <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{5FE6C089-2190-4756-9E4C-D8169D729BAC}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -13671,78 +14360,82 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{AE6C57DD-443F-4D6D-9EEE-973A41757A2D}"/>
+    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule dxfId="1" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="S19" r:id="rId17" display="https://www.allhomes.com.au/strathnairn-act-2615?tid=178720657" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="S32" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="S31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="S30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="S29" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="S28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="S26" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="S25" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="S24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="S23" r:id="rId30" display="https://www.allhomes.com.au/ginninderra-estate-act-2615?tid=174799089" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink r:id="rId1" ref="S2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="S3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="S4" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="S5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="S6" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="S7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId7" ref="S8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink r:id="rId8" ref="S9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink r:id="rId9" ref="S10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink r:id="rId10" ref="S11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink r:id="rId11" ref="S12" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink r:id="rId12" ref="S14" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink r:id="rId13" ref="S15" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink r:id="rId14" ref="S16" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink r:id="rId15" ref="S17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink r:id="rId16" ref="S18" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/strathnairn-act-2615?tid=178720657" r:id="rId17" ref="S19" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink r:id="rId18" ref="S20" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink r:id="rId19" ref="S21" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink r:id="rId20" ref="S22" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink r:id="rId21" ref="S32" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink r:id="rId22" ref="S31" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink r:id="rId23" ref="S30" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink r:id="rId24" ref="S29" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink r:id="rId25" ref="S28" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink r:id="rId26" ref="S27" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink r:id="rId27" ref="S26" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink r:id="rId28" ref="S25" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink r:id="rId29" ref="S24" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/ginninderra-estate-act-2615?tid=174799089" r:id="rId30" ref="S23" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId31"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.86328125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="20.1328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.46484375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.1328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="15.86328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13841,37 +14534,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.86328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.46484375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.1328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="51.1328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9">
+    <row ht="13.9" r="1" spans="1:26">
       <c r="A1" s="42" t="s">
         <v>157</v>
       </c>
@@ -13894,7 +14587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:26">
       <c r="A2" s="43" t="s">
         <v>163</v>
       </c>
@@ -13936,7 +14629,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="3" spans="1:26">
       <c r="A3" s="48" t="s">
         <v>166</v>
       </c>
@@ -13953,7 +14646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:26">
       <c r="A4" s="48" t="s">
         <v>169</v>
       </c>
@@ -13970,7 +14663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:26">
       <c r="A5" s="52" t="s">
         <v>172</v>
       </c>
@@ -13987,7 +14680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:26">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -14006,14 +14699,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="D6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="E6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB2A96-C967-43E5-B4DF-EA38F4E38444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{47741F04-C141-4A31-886B-5DA89AE08662}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="13276" windowWidth="20715" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Listing" sheetId="2" r:id="rId2"/>
-    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
-    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
+    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
+    <sheet name="Listing" r:id="rId2" sheetId="2"/>
+    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
+    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
-    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
-    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="808">
   <si>
     <t>ID</t>
   </si>
@@ -3664,6 +3664,111 @@
   </si>
   <si>
     <t>https://www.777homes.com.au/?post_type=property&amp;p=7806&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/169-bettong-avenue-throsby-act-2914</t>
+  </si>
+  <si>
+    <t>https://www.allhomes.com.au/74-311-fleminton-road-franklin-act-2913?tid=179705011</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>169 Bettong Avenue, Throsby ACT 2914</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Block/House: 405/ 303</t>
+  </si>
+  <si>
+    <t>Auction 07/08/21</t>
+  </si>
+  <si>
+    <t>New Door properties is proud to present 169 Bettong Avenue, in the picturesque suburb- Throsby.
+There are plenty of features in this house to make a blanket statement about it being "breathtaking". Upon viewing this property, you will appreciate the love and care by which the first owner has kept the home. This architect designed, builder's own home stands out with its modern detailed facade, and a commitment to high end inclusions and finishes to the very last detail it is now ready and waiting for those who are looking for a beautiful new family home in a popular location.
+Offering a stunning, north facing formal living area with the detailed corner windows for the maximum sunlight, four bedrooms, three bathrooms, including spacious master suite, rumpus, spacious family and dining area, common sitting room all unfolding over two levels, and provides superlative comfort and luxury. A well-equipped alfresco with low maintenance backyard completes the family home.
+Open plan casual living can only be described as spectacular, the ceiling heights soaring to 5 meters void in family room with sun windows, this huge area is full of light and sunshine pours in over the cooler months, so heating is not required on many days although comfort is assured throughout by the ducted reverse cycle air conditioning system with separate zones, also in master bedroom it is supported with an individual reverse cycle unit to support.
+To express both space and quality of design, the magnificent chef's kitchen showcases a massive three meters stone island bench with water fall at an angle of 45 degrees. Top of the range appliances include twin Bosch oven and a 5 burner gas cook top. Fully integrated Fisher and Paykel dishwasher, double door refrigerator, attached warming drawers for keeping the food worm. Above the island bench, sun windows feature lighting and to add a glow. A room butler's pantry completes this state of the are design with all custom-made joinery and a bench to keep the grocery straight from the garage, and a practical laundry with a storage and stone bench-top lies behind the kitchen.
+Casual living is continuous with a rumpus room and an outdoor space with separate BBQ support and outside kitchen designed for entertainment with the family. Also, nature is just on the doorstep of this fabulous location, Mulligan's Flat nature reserve, with a walking/cycling pathway running along with parameter, playing field just on a walking distance. There are two childcare centres nearby and a future school will be only a short walk away. It is just a short drive to all the facilities of Gungahlin marketplace and the light rail terminals.
+Property Features:
+• Modern façade
+• Four bedrooms
+• Extra-large master bedroom
+• Spacious family &amp; dining
+• Study nook
+• Rumpus room
+• LED lights throughout the house
+• Video intercom
+• Tiles in living and family dining
+• Carpet in rumpus room
+• Standard house ceiling height is 2.7 meters.
+• Stone island bench top with 45-degree waterfall, varying from 40 mm to 80 mm.
+• Integrated Bosch coffee machine
+• 900 mm gas cooktop
+• Bosch twin 600 mm oven.
+• Integrated Fisher &amp; Paykel two door dishwasher
+• Integrated double door refrigerator
+• Butler's pantry with all custom joinery
+• Double glazed windows
+• Ducted reverse cycle heating and cooling
+• Decked up alfresco with outdoor kitchen with gas burners.
+• Low maintenance landscaped backyard and concrete all around the house.
+• 2000 L rainwater tank
+• Double garage with upgraded aluminium composite panels.
+• NBN connected
+• Proudly owned by local trusted builder
+Property Information :
+• Lower Living : 184.51 m2 (approx...)
+• Upper Living : 64.63 m2 (approx...)
+• Garage : 39.00 m2 (approx...)
+• Alfresco : 16.70 m2 (approx...)
+• Porch : 3.00 m2 (approx...)
+• House Size : 303.21 m2 (approx...)
+• Block Size : 405.00 m2 (approx...)</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>74/311 Fleminton Road, Franklin ACT 2913</t>
+  </si>
+  <si>
+    <t>Block/House: 69/ -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3	6	5	0	0	0	</t>
+  </si>
+  <si>
+    <t>$365,000+</t>
+  </si>
+  <si>
+    <t>Located near Light Rail stop and Gungahlin Town Centre, this freshly painted spacious 2-bedroom apartment is ready to occupy for living or to buy as an investment property. Close to local transport, schools, shops, parks, pond &amp; bicycle tracks - This modern apartment featuring 2-bedrooms, 1-bathroom &amp; 1-car space with storage area in a desirable convenient location.
+Proximity to Gungahlin, Belconnen &amp; the City within 10-15 minutes reach is just the beginning to enjoy a cosmopolitan lifestyle or build your investment property portfolio. Set in a quality development surrounded by beautifully landscaped pathways, excellence neighbourhood &amp; parkland with beautiful views. This modern apartment offers an exciting lifestyle with some of the features include air conditioning, good size bedrooms, easy care balcony with views &amp; much more on offer to enjoy living.
+The chef's kitchen feature quality inclusions such as stone bench tops &amp; stainless-steel appliances. The opportunity is here to purchase &amp; enjoy this stunning apartment with beautiful views. The location is the key, surrounded by schools, shops, parks, bicycle tracks &amp; only minutes' drive to the City. Call now to view this amazing apartment before you miss out.
+Property Features Includes:
+- Freshly Painted
+- Near Light Rail Station
+- Good size living &amp; dining area
+- Proximity to all local schools
+- Modern kitchen with stone bench tops
+- Stainless steel appliances
+- Air conditioning system
+- Basement car parking
+- Prime location
+- Minutes from Gungahlin Town Centre
+Amazing property, inspection is must. Call now to view before you miss this one.</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7846&amp;preview=true</t>
+  </si>
+  <si>
+    <t>https://www.777homes.com.au/?post_type=property&amp;p=7848&amp;preview=true</t>
   </si>
 </sst>
 </file>
@@ -3844,7 +3949,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3899,6 +4004,26 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3910,151 +4035,154 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="29" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="64">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="3" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="23" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4074,7 +4202,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4198,21 +4326,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4229,7 +4357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4283,32 +4411,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A89" ySplit="1"/>
+      <selection activeCell="F107" pane="bottomLeft" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74.796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1328125" style="54" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.86328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.19921875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="74.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="54" width="22.1328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.86328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.86328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.86328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.53125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.9">
+    <row ht="13.9" r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4463,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:28">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4381,7 +4509,7 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="13.9">
+    <row ht="13.9" r="3" spans="1:28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4427,7 +4555,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:28">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4473,7 +4601,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28" ht="13.9">
+    <row ht="13.9" r="5" spans="1:28">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -4517,7 +4645,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" ht="13.9">
+    <row ht="13.9" r="6" spans="1:28">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4561,7 +4689,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9">
+    <row ht="13.9" r="7" spans="1:28">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -4605,7 +4733,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:28" ht="13.9">
+    <row ht="13.9" r="8" spans="1:28">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -4649,7 +4777,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" ht="13.9">
+    <row ht="13.9" r="9" spans="1:28">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -4691,7 +4819,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9">
+    <row ht="13.9" r="10" spans="1:28">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -4733,7 +4861,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9">
+    <row ht="13.9" r="11" spans="1:28">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -4777,7 +4905,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" ht="13.9">
+    <row ht="13.9" r="12" spans="1:28">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4819,7 +4947,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28" ht="13.9">
+    <row ht="13.9" r="13" spans="1:28">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -4861,7 +4989,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" ht="13.9">
+    <row ht="13.9" r="14" spans="1:28">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4903,7 +5031,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" ht="13.9">
+    <row ht="13.9" r="15" spans="1:28">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4947,7 +5075,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28" ht="13.9">
+    <row ht="13.9" r="16" spans="1:28">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4989,7 +5117,7 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
     </row>
-    <row r="17" spans="1:28" ht="13.9">
+    <row ht="13.9" r="17" spans="1:28">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -5033,7 +5161,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="13.9">
+    <row ht="13.9" r="18" spans="1:28">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -5075,7 +5203,7 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28" ht="13.9">
+    <row ht="13.9" r="19" spans="1:28">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -5119,7 +5247,7 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
     </row>
-    <row r="20" spans="1:28" ht="13.9">
+    <row ht="13.9" r="20" spans="1:28">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -5163,7 +5291,7 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28" ht="13.9">
+    <row ht="13.9" r="21" spans="1:28">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -5207,7 +5335,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="1:28" ht="13.9">
+    <row ht="13.9" r="22" spans="1:28">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -5249,7 +5377,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28" ht="13.9">
+    <row ht="13.9" r="23" spans="1:28">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -5293,7 +5421,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="1:28" ht="13.9">
+    <row ht="13.9" r="24" spans="1:28">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -5335,7 +5463,7 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
     </row>
-    <row r="25" spans="1:28" ht="13.9">
+    <row ht="13.9" r="25" spans="1:28">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -5377,7 +5505,7 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="1:28" ht="13.9">
+    <row ht="13.9" r="26" spans="1:28">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -5421,7 +5549,7 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" ht="13.9">
+    <row ht="13.9" r="27" spans="1:28">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -5465,7 +5593,7 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="1:28" ht="13.9">
+    <row ht="13.9" r="28" spans="1:28">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -5507,7 +5635,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
     </row>
-    <row r="29" spans="1:28" ht="13.9">
+    <row ht="13.9" r="29" spans="1:28">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -5551,7 +5679,7 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
     </row>
-    <row r="30" spans="1:28" ht="13.9">
+    <row ht="13.9" r="30" spans="1:28">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -5593,7 +5721,7 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
     </row>
-    <row r="31" spans="1:28" ht="13.9">
+    <row ht="13.9" r="31" spans="1:28">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5637,7 +5765,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="1:28" ht="13.9">
+    <row ht="13.9" r="32" spans="1:28">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5679,7 +5807,7 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="4" spans="1:8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5702,7 +5830,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="34" s="4" spans="1:8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5722,7 +5850,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="35" s="4" spans="1:8">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5742,7 +5870,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="36" s="4" spans="1:8">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5762,7 +5890,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="37" s="4" spans="1:8">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5782,7 +5910,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="4" spans="1:8">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5805,7 +5933,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="4" spans="1:8">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5828,7 +5956,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="4" spans="1:8">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5851,7 +5979,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="13.9">
+    <row customFormat="1" ht="13.9" r="41" s="4" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5871,7 +5999,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="4" spans="1:8">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5894,7 +6022,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="4" spans="1:8">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5914,7 +6042,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="4" spans="1:8">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5934,7 +6062,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="4" spans="1:8">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5957,7 +6085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="4" spans="1:8">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5977,7 +6105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="4" spans="1:8">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5997,7 +6125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="48" s="4" spans="1:8">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6020,7 +6148,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="49" s="4" spans="1:8">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6043,7 +6171,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="50" s="4" spans="1:8">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6063,7 +6191,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="51" s="4" spans="1:8">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6083,7 +6211,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="52" s="4" spans="1:8">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6106,7 +6234,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="53" s="4" spans="1:8">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6129,7 +6257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" ht="13.15">
+    <row customFormat="1" ht="13.15" r="54" s="4" spans="1:8">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6149,7 +6277,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="55" s="4" spans="1:8">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6172,7 +6300,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="56" s="4" spans="1:8">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6195,7 +6323,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="57" s="4" spans="1:8">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6215,7 +6343,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="58" s="4" spans="1:8">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6235,7 +6363,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="59" s="4" spans="1:8">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6255,7 +6383,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="60" s="4" spans="1:8">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6275,7 +6403,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="61" s="4" spans="1:8">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6295,7 +6423,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="62" s="4" spans="1:8">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6315,7 +6443,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="63" s="4" spans="1:8">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6338,7 +6466,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="64" s="4" spans="1:8">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6361,7 +6489,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="65" s="4" spans="1:8">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6382,7 +6510,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="66" s="4" spans="1:8">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6405,7 +6533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="67" s="4" spans="1:8">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6428,7 +6556,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="68" s="4" spans="1:8">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6451,7 +6579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="69" s="4" spans="1:8">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6474,7 +6602,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="70" s="4" spans="1:8">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6497,7 +6625,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="71" s="4" spans="1:8">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6520,7 +6648,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="72" s="4" spans="1:8">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6543,7 +6671,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row ht="12.75" r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6566,7 +6694,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row ht="12.75" r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6589,7 +6717,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="75" s="4" spans="1:8">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6612,7 +6740,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row ht="12.75" r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6635,7 +6763,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row ht="12.75" r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6658,7 +6786,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row ht="12.75" r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6681,7 +6809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row ht="12.75" r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6704,7 +6832,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row ht="12.75" r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6727,7 +6855,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row ht="12.75" r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6750,7 +6878,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row ht="12.75" r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6773,7 +6901,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row ht="12.75" r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6796,7 +6924,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row ht="12.75" r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6819,7 +6947,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row ht="12.75" r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6842,7 +6970,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="86" s="4" spans="1:8">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -6865,7 +6993,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="12.75">
+    <row customFormat="1" ht="12.75" r="87" s="4" spans="1:8">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6888,7 +7016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row ht="12.75" r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6911,7 +7039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row ht="12.75" r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6934,7 +7062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row ht="12.75" r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6957,7 +7085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row ht="12.75" r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6980,7 +7108,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row ht="12.75" r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7003,7 +7131,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row ht="12.75" r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7026,7 +7154,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row ht="12.75" r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7049,7 +7177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row ht="12.75" r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7072,7 +7200,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row ht="12.75" r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7095,7 +7223,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row ht="12.75" r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7118,7 +7246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row ht="12.75" r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7141,7 +7269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="12.75">
+    <row ht="12.75" r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7164,7 +7292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="12.75">
+    <row ht="12.75" r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7187,7 +7315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="12.75">
+    <row ht="12.75" r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7210,7 +7338,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="12.75">
+    <row ht="12.75" r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7233,7 +7361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="12.75">
+    <row ht="12.75" r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7256,7 +7384,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="12.75">
+    <row ht="12.75" r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7279,7 +7407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="12.75">
+    <row ht="12.75" r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7302,7 +7430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="12.75">
+    <row ht="12.75" r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7325,186 +7453,232 @@
         <v>38</v>
       </c>
     </row>
+    <row ht="12.75" r="107" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>791</v>
+      </c>
+      <c r="C107" t="s">
+        <v>806</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>805</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row ht="12.75" r="108" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>792</v>
+      </c>
+      <c r="C108" t="s">
+        <v>807</v>
+      </c>
+      <c r="D108" s="62" t="s">
+        <v>805</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B38" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H7:H24" r:id="rId60" display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J2" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C69" r:id="rId67" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
-    <hyperlink ref="C68" r:id="rId68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
-    <hyperlink ref="B75" r:id="rId69" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
-    <hyperlink ref="C75" r:id="rId70" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
-    <hyperlink ref="H75" r:id="rId71" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
-    <hyperlink ref="B78" r:id="rId72" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
-    <hyperlink ref="C78" r:id="rId73" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
-    <hyperlink ref="B68" r:id="rId74" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
-    <hyperlink ref="B69" r:id="rId75" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
-    <hyperlink ref="C70" r:id="rId76" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
-    <hyperlink ref="B70" r:id="rId77" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
-    <hyperlink ref="B71" r:id="rId78" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
-    <hyperlink ref="C71" r:id="rId79" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
-    <hyperlink ref="B72" r:id="rId80" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
-    <hyperlink ref="C72" r:id="rId81" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
-    <hyperlink ref="C73" r:id="rId82" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
-    <hyperlink ref="C4" r:id="rId84" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
-    <hyperlink ref="C29" r:id="rId85" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
-    <hyperlink ref="C90" r:id="rId86" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
-    <hyperlink ref="C15" r:id="rId88" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
-    <hyperlink ref="C3" r:id="rId89" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
-    <hyperlink ref="C8" r:id="rId90" xr:uid="{3D3D678C-8F1B-47BC-ACA2-D1CBF5A76F0B}"/>
-    <hyperlink ref="C19" r:id="rId91" xr:uid="{ED2C9A9B-3440-4B4A-91A1-7CAF84972535}"/>
-    <hyperlink ref="C20" r:id="rId92" xr:uid="{E47C999F-11AE-4F93-9032-6E51EB582635}"/>
-    <hyperlink ref="C21" r:id="rId93" xr:uid="{E59411CC-EC13-4665-969A-8D9238CCD0C2}"/>
-    <hyperlink ref="C33" r:id="rId94" xr:uid="{9C953AB9-0076-4477-B52F-C393846B1211}"/>
-    <hyperlink ref="C38" r:id="rId95" xr:uid="{D349EA20-36BF-44C7-A16B-E85B8FE53B2A}"/>
-    <hyperlink ref="C39" r:id="rId96" xr:uid="{DE18DA3B-1A3D-4613-888E-7F506CC87091}"/>
-    <hyperlink ref="C40" r:id="rId97" xr:uid="{0C71282B-049B-4CD1-A090-B66647F2B29B}"/>
-    <hyperlink ref="C42" r:id="rId98" xr:uid="{AD0DC851-DEC5-4ACE-B928-50149068BB70}"/>
-    <hyperlink ref="C45" r:id="rId99" xr:uid="{EB51DFC2-D28F-4E0C-B019-F9954D6C9832}"/>
-    <hyperlink ref="C52" r:id="rId100" xr:uid="{9E5146F6-8EC8-4A2C-B192-C1CCB11CAB8A}"/>
-    <hyperlink ref="C48" r:id="rId101" xr:uid="{31B308E4-DA3E-401B-B796-7D03404228FB}"/>
-    <hyperlink ref="C49" r:id="rId102" xr:uid="{EBAAB9CE-7F91-4628-AF75-32C4EEF948C2}"/>
-    <hyperlink ref="C53" r:id="rId103" xr:uid="{2FF7EB1F-CD56-4E71-AD0F-0D12E8347603}"/>
-    <hyperlink ref="C55" r:id="rId104" xr:uid="{9BD44DCD-EEBB-4649-9792-F3DAC40B3960}"/>
-    <hyperlink ref="C63" r:id="rId105" xr:uid="{9929BCF4-32FD-4143-99F6-FEB21B90BCD7}"/>
-    <hyperlink ref="C64" r:id="rId106" xr:uid="{80B3DEC9-506E-4F3A-B171-A2D71B731577}"/>
-    <hyperlink ref="C66" r:id="rId107" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
-    <hyperlink ref="C67" r:id="rId108" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
-    <hyperlink ref="C56" r:id="rId109" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
-    <hyperlink ref="B103" r:id="rId110" xr:uid="{4D81C408-B745-40E2-B9C7-6E36C45175A7}"/>
-    <hyperlink ref="C26" r:id="rId111" xr:uid="{6A9C6F44-3E7F-47CF-8514-B6609EBEE668}"/>
-    <hyperlink ref="C23" r:id="rId112" xr:uid="{F99F350A-C378-4940-B611-41F47BC3B4B0}"/>
-    <hyperlink ref="C103" r:id="rId113" xr:uid="{3E9C8DCE-ABC0-49DA-B64B-B569BAAE6ED0}"/>
-    <hyperlink ref="C104" r:id="rId114" xr:uid="{E96AA061-2DED-4A35-BE99-8E7E156527EB}"/>
-    <hyperlink ref="C102" r:id="rId115" xr:uid="{4DAA7E56-3BCD-4AF1-B6E7-A26B02A0DA6C}"/>
-    <hyperlink ref="C101" r:id="rId116" xr:uid="{EBE0EC7F-0880-4F4A-991C-2C7C53889923}"/>
-    <hyperlink ref="C100" r:id="rId117" xr:uid="{7AA4A2D0-C18F-4625-A776-6EDD2415E1BC}"/>
-    <hyperlink ref="C99" r:id="rId118" xr:uid="{15BFB680-4225-425B-8826-841A35922C8A}"/>
-    <hyperlink ref="B99" r:id="rId119" xr:uid="{1EF2BF94-D92B-41EF-8B1F-0585F1910B74}"/>
-    <hyperlink ref="C97" r:id="rId120" xr:uid="{6687C5A1-CC2B-49FF-B98D-946AA21B8C55}"/>
-    <hyperlink ref="B97" r:id="rId121" xr:uid="{0411E592-2DE8-4D1D-B66C-46CE99CAA412}"/>
-    <hyperlink ref="C96" r:id="rId122" xr:uid="{A7ED7210-DE23-4760-B67F-78027E9B9B73}"/>
-    <hyperlink ref="B96" r:id="rId123" xr:uid="{992F1752-E440-4347-A698-44C8E60F00BE}"/>
-    <hyperlink ref="B102" r:id="rId124" xr:uid="{A0E03FB2-010F-497D-874D-A0A66FB6303C}"/>
-    <hyperlink ref="B101" r:id="rId125" xr:uid="{165FBF6F-9195-42DA-AC37-C49B2308ACA1}"/>
-    <hyperlink ref="B94" r:id="rId126" xr:uid="{7DB2C8A6-8C43-4818-A7C2-D5E14351114B}"/>
-    <hyperlink ref="B93" r:id="rId127" xr:uid="{EFC122F7-44E7-447B-8F21-BA1503A72780}"/>
-    <hyperlink ref="B91" r:id="rId128" xr:uid="{7AC22E1D-6919-43E6-AD91-1551DBBDE570}"/>
-    <hyperlink ref="B88" r:id="rId129" xr:uid="{FB3E9840-E4E3-4E64-8CCF-2BAEC7024AD6}"/>
-    <hyperlink ref="B87" r:id="rId130" xr:uid="{348337ED-A616-4A9D-A8D3-0091262177C6}"/>
-    <hyperlink ref="B86" r:id="rId131" xr:uid="{CF62843D-4B82-47CB-B74F-D3F292E9603A}"/>
-    <hyperlink ref="B84" r:id="rId132" xr:uid="{9CA10EFF-3943-479E-914B-1D6EE04D75FC}"/>
-    <hyperlink ref="C84" r:id="rId133" xr:uid="{1074AAC9-CCB0-4FFC-9AFB-EFD1363D7538}"/>
-    <hyperlink ref="B105" r:id="rId134" xr:uid="{D6DE2797-5A68-4C1E-9E74-0D323B6ADFA2}"/>
-    <hyperlink ref="B106" r:id="rId135" xr:uid="{1FCAF9BA-00B5-4008-B5C8-E822ABD6BCDD}"/>
-    <hyperlink ref="C11" r:id="rId136" xr:uid="{893B2404-B185-41F7-B397-A3E08B386C5F}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="B6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="H6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="B7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="B8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId9" ref="B9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId10" ref="B10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId11" ref="B11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="B12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="B13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="B14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="B15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="B16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="B17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink r:id="rId18" ref="B18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink r:id="rId19" ref="B19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink r:id="rId20" ref="B20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink r:id="rId21" ref="B21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink r:id="rId22" ref="B22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink r:id="rId23" ref="B23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink r:id="rId24" ref="B24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink r:id="rId25" ref="B25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink r:id="rId26" ref="H25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink r:id="rId27" ref="B26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="H26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="B27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="H27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="B28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="H28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="B29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink r:id="rId34" ref="H29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink r:id="rId35" ref="B30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink r:id="rId36" ref="H30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink r:id="rId37" ref="B31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink r:id="rId38" ref="H31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink r:id="rId39" ref="B32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink r:id="rId40" ref="H32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink r:id="rId41" ref="B33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink r:id="rId42" ref="B34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink r:id="rId43" ref="B38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="B45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="B48" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="B35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="B52" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink r:id="rId48" ref="B53" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink r:id="rId49" ref="B55" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink r:id="rId50" ref="B56" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink r:id="rId51" ref="B57" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink r:id="rId52" ref="B58" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink r:id="rId53" ref="B61" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink r:id="rId54" ref="B62" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink r:id="rId55" ref="B63" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink r:id="rId56" ref="B64" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink r:id="rId57" ref="B65" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink r:id="rId58" ref="B66" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink r:id="rId59" ref="B67" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/agency/trusted-realtors-570129/" r:id="rId60" ref="H7:H24" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink r:id="rId61" ref="B43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink r:id="rId62" ref="B44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink r:id="rId63" ref="B46" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink r:id="rId64" ref="B54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink r:id="rId65" ref="B42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink r:id="rId66" ref="J2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink r:id="rId67" ref="C69" xr:uid="{9DAE03A7-93E8-4507-BD6C-AC4013ECD47F}"/>
+    <hyperlink r:id="rId68" ref="C68" xr:uid="{66B9A9CA-DF82-46B6-9C5A-C5709E2FF1AE}"/>
+    <hyperlink r:id="rId69" ref="B75" xr:uid="{57E7BFEF-6F05-4DA9-A3DE-5B0A0EFED4D9}"/>
+    <hyperlink r:id="rId70" ref="C75" xr:uid="{F4755F93-6E59-4C38-BF66-16746869FDF3}"/>
+    <hyperlink r:id="rId71" ref="H75" xr:uid="{5BFAFD71-42C4-487F-B5E7-1697975992B4}"/>
+    <hyperlink r:id="rId72" ref="B78" xr:uid="{D3DE0D76-2479-4283-B7C7-F11B85797022}"/>
+    <hyperlink r:id="rId73" ref="C78" xr:uid="{FC1D9146-2FDC-4F13-A3C3-51CAB46DEC08}"/>
+    <hyperlink r:id="rId74" ref="B68" xr:uid="{3ED6FAA1-2B0F-4DB9-878E-9640A9C2850D}"/>
+    <hyperlink r:id="rId75" ref="B69" xr:uid="{12DE6CA8-DDC5-4E7B-BD2E-14B105A0DE3B}"/>
+    <hyperlink r:id="rId76" ref="C70" xr:uid="{0419758C-286A-4B76-B8B2-31CC336DEDF1}"/>
+    <hyperlink r:id="rId77" ref="B70" xr:uid="{AC18D1D2-FA3D-4352-A402-35B7AAFE27C0}"/>
+    <hyperlink r:id="rId78" ref="B71" xr:uid="{E8BCA1EF-4E17-4AA7-A2CE-5674FC05ABC3}"/>
+    <hyperlink r:id="rId79" ref="C71" xr:uid="{949AE606-DF4A-48F4-93A0-F148D80842CB}"/>
+    <hyperlink r:id="rId80" ref="B72" xr:uid="{69A93BB5-0295-46D6-8334-45444356E6E9}"/>
+    <hyperlink r:id="rId81" ref="C72" xr:uid="{CA171BC7-126F-4175-8A03-123D5A2C2D8A}"/>
+    <hyperlink r:id="rId82" ref="C73" xr:uid="{FACC205D-E563-4266-8E0D-0794F3D76E98}"/>
+    <hyperlink r:id="rId83" ref="B85" xr:uid="{7ABCABC0-A765-435B-AE52-9D27F653E00F}"/>
+    <hyperlink r:id="rId84" ref="C4" xr:uid="{2CD58DBE-98E3-4EDC-898F-088D5F0FCB81}"/>
+    <hyperlink r:id="rId85" ref="C29" xr:uid="{CB7CAD83-ACA3-4309-B102-B0F536FC97E6}"/>
+    <hyperlink r:id="rId86" ref="C90" xr:uid="{B4F55488-2B40-4078-ABF0-4B4254363237}"/>
+    <hyperlink r:id="rId87" ref="B90" xr:uid="{09FEE7FE-E667-40E8-BC22-3FDC999B614F}"/>
+    <hyperlink r:id="rId88" ref="C15" xr:uid="{34F25BA9-B460-46CF-85C0-4AC9D6288B41}"/>
+    <hyperlink r:id="rId89" ref="C3" xr:uid="{EBAAEE7A-83B2-457B-8600-89427BF11448}"/>
+    <hyperlink r:id="rId90" ref="C8" xr:uid="{3D3D678C-8F1B-47BC-ACA2-D1CBF5A76F0B}"/>
+    <hyperlink r:id="rId91" ref="C19" xr:uid="{ED2C9A9B-3440-4B4A-91A1-7CAF84972535}"/>
+    <hyperlink r:id="rId92" ref="C20" xr:uid="{E47C999F-11AE-4F93-9032-6E51EB582635}"/>
+    <hyperlink r:id="rId93" ref="C21" xr:uid="{E59411CC-EC13-4665-969A-8D9238CCD0C2}"/>
+    <hyperlink r:id="rId94" ref="C33" xr:uid="{9C953AB9-0076-4477-B52F-C393846B1211}"/>
+    <hyperlink r:id="rId95" ref="C38" xr:uid="{D349EA20-36BF-44C7-A16B-E85B8FE53B2A}"/>
+    <hyperlink r:id="rId96" ref="C39" xr:uid="{DE18DA3B-1A3D-4613-888E-7F506CC87091}"/>
+    <hyperlink r:id="rId97" ref="C40" xr:uid="{0C71282B-049B-4CD1-A090-B66647F2B29B}"/>
+    <hyperlink r:id="rId98" ref="C42" xr:uid="{AD0DC851-DEC5-4ACE-B928-50149068BB70}"/>
+    <hyperlink r:id="rId99" ref="C45" xr:uid="{EB51DFC2-D28F-4E0C-B019-F9954D6C9832}"/>
+    <hyperlink r:id="rId100" ref="C52" xr:uid="{9E5146F6-8EC8-4A2C-B192-C1CCB11CAB8A}"/>
+    <hyperlink r:id="rId101" ref="C48" xr:uid="{31B308E4-DA3E-401B-B796-7D03404228FB}"/>
+    <hyperlink r:id="rId102" ref="C49" xr:uid="{EBAAB9CE-7F91-4628-AF75-32C4EEF948C2}"/>
+    <hyperlink r:id="rId103" ref="C53" xr:uid="{2FF7EB1F-CD56-4E71-AD0F-0D12E8347603}"/>
+    <hyperlink r:id="rId104" ref="C55" xr:uid="{9BD44DCD-EEBB-4649-9792-F3DAC40B3960}"/>
+    <hyperlink r:id="rId105" ref="C63" xr:uid="{9929BCF4-32FD-4143-99F6-FEB21B90BCD7}"/>
+    <hyperlink r:id="rId106" ref="C64" xr:uid="{80B3DEC9-506E-4F3A-B171-A2D71B731577}"/>
+    <hyperlink r:id="rId107" ref="C66" xr:uid="{011D2C70-C541-49D4-894E-FF670D6C19BB}"/>
+    <hyperlink r:id="rId108" ref="C67" xr:uid="{B62DFA3B-60A0-44AA-BF1D-BCA2A049E46C}"/>
+    <hyperlink r:id="rId109" ref="C56" xr:uid="{C98B5D5D-65AB-489D-8160-8F1B41CDE6A7}"/>
+    <hyperlink r:id="rId110" ref="B103" xr:uid="{4D81C408-B745-40E2-B9C7-6E36C45175A7}"/>
+    <hyperlink r:id="rId111" ref="C26" xr:uid="{6A9C6F44-3E7F-47CF-8514-B6609EBEE668}"/>
+    <hyperlink r:id="rId112" ref="C23" xr:uid="{F99F350A-C378-4940-B611-41F47BC3B4B0}"/>
+    <hyperlink r:id="rId113" ref="C103" xr:uid="{3E9C8DCE-ABC0-49DA-B64B-B569BAAE6ED0}"/>
+    <hyperlink r:id="rId114" ref="C104" xr:uid="{E96AA061-2DED-4A35-BE99-8E7E156527EB}"/>
+    <hyperlink r:id="rId115" ref="C102" xr:uid="{4DAA7E56-3BCD-4AF1-B6E7-A26B02A0DA6C}"/>
+    <hyperlink r:id="rId116" ref="C101" xr:uid="{EBE0EC7F-0880-4F4A-991C-2C7C53889923}"/>
+    <hyperlink r:id="rId117" ref="C100" xr:uid="{7AA4A2D0-C18F-4625-A776-6EDD2415E1BC}"/>
+    <hyperlink r:id="rId118" ref="C99" xr:uid="{15BFB680-4225-425B-8826-841A35922C8A}"/>
+    <hyperlink r:id="rId119" ref="B99" xr:uid="{1EF2BF94-D92B-41EF-8B1F-0585F1910B74}"/>
+    <hyperlink r:id="rId120" ref="C97" xr:uid="{6687C5A1-CC2B-49FF-B98D-946AA21B8C55}"/>
+    <hyperlink r:id="rId121" ref="B97" xr:uid="{0411E592-2DE8-4D1D-B66C-46CE99CAA412}"/>
+    <hyperlink r:id="rId122" ref="C96" xr:uid="{A7ED7210-DE23-4760-B67F-78027E9B9B73}"/>
+    <hyperlink r:id="rId123" ref="B96" xr:uid="{992F1752-E440-4347-A698-44C8E60F00BE}"/>
+    <hyperlink r:id="rId124" ref="B102" xr:uid="{A0E03FB2-010F-497D-874D-A0A66FB6303C}"/>
+    <hyperlink r:id="rId125" ref="B101" xr:uid="{165FBF6F-9195-42DA-AC37-C49B2308ACA1}"/>
+    <hyperlink r:id="rId126" ref="B94" xr:uid="{7DB2C8A6-8C43-4818-A7C2-D5E14351114B}"/>
+    <hyperlink r:id="rId127" ref="B93" xr:uid="{EFC122F7-44E7-447B-8F21-BA1503A72780}"/>
+    <hyperlink r:id="rId128" ref="B91" xr:uid="{7AC22E1D-6919-43E6-AD91-1551DBBDE570}"/>
+    <hyperlink r:id="rId129" ref="B88" xr:uid="{FB3E9840-E4E3-4E64-8CCF-2BAEC7024AD6}"/>
+    <hyperlink r:id="rId130" ref="B87" xr:uid="{348337ED-A616-4A9D-A8D3-0091262177C6}"/>
+    <hyperlink r:id="rId131" ref="B86" xr:uid="{CF62843D-4B82-47CB-B74F-D3F292E9603A}"/>
+    <hyperlink r:id="rId132" ref="B84" xr:uid="{9CA10EFF-3943-479E-914B-1D6EE04D75FC}"/>
+    <hyperlink r:id="rId133" ref="C84" xr:uid="{1074AAC9-CCB0-4FFC-9AFB-EFD1363D7538}"/>
+    <hyperlink r:id="rId134" ref="B105" xr:uid="{D6DE2797-5A68-4C1E-9E74-0D323B6ADFA2}"/>
+    <hyperlink r:id="rId135" ref="B106" xr:uid="{1FCAF9BA-00B5-4008-B5C8-E822ABD6BCDD}"/>
+    <hyperlink r:id="rId136" ref="C11" xr:uid="{893B2404-B185-41F7-B397-A3E08B386C5F}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId137"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI106"/>
+  <dimension ref="A1:AJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="C86" pane="topRight" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.53125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.19921875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.53125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.1328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.53125" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="47.86328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="77.53125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="23" max="31" width="19.19921875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.86328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.19921875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.1328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="37.53125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="47.86328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="77.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="23" max="31" customWidth="true" width="19.19921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75">
+    <row ht="27.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -7603,7 +7777,7 @@
       <c r="AH1" s="26"/>
       <c r="AI1" s="26"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="2" spans="1:35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7674,7 +7848,7 @@
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="3" spans="1:35">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -7745,7 +7919,7 @@
       <c r="AH3" s="27"/>
       <c r="AI3" s="27"/>
     </row>
-    <row r="4" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="27" spans="1:35">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -7807,7 +7981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="5" spans="1:35">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -7880,7 +8054,7 @@
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="6" spans="1:35">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -7955,7 +8129,7 @@
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
     </row>
-    <row r="7" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="27" spans="1:35">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -8014,7 +8188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="8" spans="1:35">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -8087,7 +8261,7 @@
       <c r="AH8" s="40"/>
       <c r="AI8" s="40"/>
     </row>
-    <row r="9" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="27" spans="1:35">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -8146,7 +8320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="27" spans="1:35">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -8202,7 +8376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="27" spans="1:35">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -8267,7 +8441,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="27" spans="1:35">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -8323,7 +8497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="27" spans="1:35">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -8382,7 +8556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="27" spans="1:35">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -8447,7 +8621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="27" spans="1:35">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -8506,7 +8680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="27" spans="1:35">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -8565,7 +8739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="27" spans="1:35">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -8621,7 +8795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="27" spans="1:35">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -8680,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="27" spans="1:35">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -8733,7 +8907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20" spans="1:35">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -8808,7 +8982,7 @@
       <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21" spans="1:35">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -8879,7 +9053,7 @@
       <c r="AH21" s="27"/>
       <c r="AI21" s="27"/>
     </row>
-    <row r="22" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="27" spans="1:35">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -8944,7 +9118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="27" spans="1:35">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -8997,7 +9171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="27" spans="1:35">
       <c r="A24" s="27">
         <v>23</v>
       </c>
@@ -9056,7 +9230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25" spans="1:35">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -9127,7 +9301,7 @@
       <c r="AH25" s="27"/>
       <c r="AI25" s="27"/>
     </row>
-    <row r="26" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="27" spans="1:35">
       <c r="A26" s="27">
         <v>25</v>
       </c>
@@ -9186,7 +9360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="27" spans="1:35">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -9245,7 +9419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="27" spans="1:35">
       <c r="A28" s="27">
         <v>27</v>
       </c>
@@ -9304,7 +9478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="27" spans="1:35">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -9363,7 +9537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="27" spans="1:35">
       <c r="A30" s="27">
         <v>29</v>
       </c>
@@ -9422,7 +9596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="27" spans="1:35">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -9478,7 +9652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="27" spans="1:35">
       <c r="A32" s="27">
         <v>31</v>
       </c>
@@ -9537,7 +9711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="33" s="27" spans="1:21">
       <c r="A33" s="27" t="s">
         <v>200</v>
       </c>
@@ -9596,7 +9770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="34" s="27" spans="1:21">
       <c r="A34" s="27" t="s">
         <v>211</v>
       </c>
@@ -9655,7 +9829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="35" s="27" spans="1:21">
       <c r="A35" s="27" t="s">
         <v>218</v>
       </c>
@@ -9714,7 +9888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="36" s="27" spans="1:21">
       <c r="A36" s="27" t="s">
         <v>224</v>
       </c>
@@ -9773,7 +9947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="37" s="27" spans="1:21">
       <c r="A37" s="27" t="s">
         <v>231</v>
       </c>
@@ -9832,7 +10006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="38" s="27" spans="1:21">
       <c r="A38" s="27" t="s">
         <v>237</v>
       </c>
@@ -9891,7 +10065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="39" s="27" spans="1:21">
       <c r="A39" s="27" t="s">
         <v>245</v>
       </c>
@@ -9950,7 +10124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="40" s="27" spans="1:21">
       <c r="A40" s="27" t="s">
         <v>248</v>
       </c>
@@ -10009,7 +10183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="41" s="27" spans="1:21">
       <c r="A41" s="27" t="s">
         <v>251</v>
       </c>
@@ -10068,7 +10242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="42" s="27" spans="1:21">
       <c r="A42" s="27" t="s">
         <v>260</v>
       </c>
@@ -10127,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="43" s="27" spans="1:21">
       <c r="A43" s="27" t="s">
         <v>264</v>
       </c>
@@ -10186,7 +10360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="44" s="27" spans="1:21">
       <c r="A44" s="27" t="s">
         <v>273</v>
       </c>
@@ -10245,7 +10419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="45" s="27" spans="1:21">
       <c r="A45" s="27" t="s">
         <v>280</v>
       </c>
@@ -10304,7 +10478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="46" s="27" spans="1:21">
       <c r="A46" s="27" t="s">
         <v>286</v>
       </c>
@@ -10363,7 +10537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="47" s="27" spans="1:21">
       <c r="A47" s="27" t="s">
         <v>292</v>
       </c>
@@ -10422,7 +10596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="48" s="27" spans="1:21">
       <c r="A48" s="27" t="s">
         <v>298</v>
       </c>
@@ -10481,7 +10655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="49" s="27" spans="1:21">
       <c r="A49" s="27" t="s">
         <v>303</v>
       </c>
@@ -10540,7 +10714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="50" s="27" spans="1:21">
       <c r="A50" s="27" t="s">
         <v>309</v>
       </c>
@@ -10599,7 +10773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="51" s="27" spans="1:21">
       <c r="A51" s="27" t="s">
         <v>315</v>
       </c>
@@ -10658,7 +10832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="52" s="27" spans="1:21">
       <c r="A52" s="27" t="s">
         <v>321</v>
       </c>
@@ -10717,7 +10891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="53" s="27" spans="1:21">
       <c r="A53" s="27" t="s">
         <v>348</v>
       </c>
@@ -10776,7 +10950,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="54" s="27" spans="1:21">
       <c r="A54" s="27" t="s">
         <v>354</v>
       </c>
@@ -10835,7 +11009,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="55" s="27" spans="1:21">
       <c r="A55" s="27" t="s">
         <v>358</v>
       </c>
@@ -10894,7 +11068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="56" s="27" spans="1:21">
       <c r="A56" s="27" t="s">
         <v>364</v>
       </c>
@@ -10953,7 +11127,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="57" s="27" spans="1:21">
       <c r="A57" s="27" t="s">
         <v>369</v>
       </c>
@@ -11012,7 +11186,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="58" s="27" spans="1:21">
       <c r="A58" s="27" t="s">
         <v>376</v>
       </c>
@@ -11071,7 +11245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="59" s="27" spans="1:21">
       <c r="A59" s="27" t="s">
         <v>382</v>
       </c>
@@ -11130,7 +11304,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="60" s="27" spans="1:21">
       <c r="A60" s="27" t="s">
         <v>389</v>
       </c>
@@ -11189,7 +11363,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="61" s="27" spans="1:21">
       <c r="A61" s="27" t="s">
         <v>396</v>
       </c>
@@ -11248,7 +11422,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="62" s="27" spans="1:21">
       <c r="A62" s="27" t="s">
         <v>402</v>
       </c>
@@ -11307,7 +11481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="63" s="27" spans="1:21">
       <c r="A63" s="27" t="s">
         <v>405</v>
       </c>
@@ -11366,7 +11540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="64" s="27" spans="1:21">
       <c r="A64" s="27" t="s">
         <v>410</v>
       </c>
@@ -11425,7 +11599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="65" s="27" spans="1:21">
       <c r="A65" s="27" t="s">
         <v>416</v>
       </c>
@@ -11484,7 +11658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="66" s="27" spans="1:21">
       <c r="A66" s="27" t="s">
         <v>421</v>
       </c>
@@ -11543,7 +11717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="67" s="27" spans="1:21">
       <c r="A67" s="27" t="s">
         <v>427</v>
       </c>
@@ -11602,7 +11776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="68" s="27" spans="1:21">
       <c r="A68" s="27" t="s">
         <v>488</v>
       </c>
@@ -11661,7 +11835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="69" s="27" spans="1:21">
       <c r="A69" s="27" t="s">
         <v>493</v>
       </c>
@@ -11720,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="70" s="27" spans="1:21">
       <c r="A70" s="27" t="s">
         <v>495</v>
       </c>
@@ -11779,7 +11953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="71" s="27" spans="1:21">
       <c r="A71" s="27" t="s">
         <v>501</v>
       </c>
@@ -11838,7 +12012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="72" s="27" spans="1:21">
       <c r="A72" s="27" t="s">
         <v>506</v>
       </c>
@@ -11897,7 +12071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="73" s="27" spans="1:21">
       <c r="A73" s="27" t="s">
         <v>508</v>
       </c>
@@ -11956,7 +12130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="74" s="27" spans="1:21">
       <c r="A74" s="27" t="s">
         <v>512</v>
       </c>
@@ -12015,7 +12189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="75" s="27" spans="1:21">
       <c r="A75" s="27" t="s">
         <v>518</v>
       </c>
@@ -12074,7 +12248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="76" s="27" spans="1:21">
       <c r="A76" s="27" t="s">
         <v>524</v>
       </c>
@@ -12133,7 +12307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="77" s="27" spans="1:21">
       <c r="A77" s="27" t="s">
         <v>529</v>
       </c>
@@ -12192,7 +12366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="78" s="27" spans="1:21">
       <c r="A78" s="27" t="s">
         <v>536</v>
       </c>
@@ -12251,7 +12425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="79" s="27" spans="1:21">
       <c r="A79" s="27" t="s">
         <v>539</v>
       </c>
@@ -12310,7 +12484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="80" s="27" spans="1:21">
       <c r="A80" s="27" t="s">
         <v>545</v>
       </c>
@@ -12369,7 +12543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="81" s="27" spans="1:21">
       <c r="A81" s="27" t="s">
         <v>552</v>
       </c>
@@ -12428,7 +12602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="82" s="27" spans="1:21">
       <c r="A82" s="27" t="s">
         <v>557</v>
       </c>
@@ -12487,7 +12661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="83" s="27" spans="1:21">
       <c r="A83" s="27" t="s">
         <v>562</v>
       </c>
@@ -12546,7 +12720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="84" s="27" spans="1:21">
       <c r="A84" s="27" t="s">
         <v>565</v>
       </c>
@@ -12605,7 +12779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="85" s="27" spans="1:21">
       <c r="A85" s="27" t="s">
         <v>569</v>
       </c>
@@ -12664,7 +12838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="86" s="27" spans="1:21">
       <c r="A86" s="27" t="s">
         <v>610</v>
       </c>
@@ -12723,7 +12897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="87" s="27" spans="1:21">
       <c r="A87" s="27" t="s">
         <v>614</v>
       </c>
@@ -12782,7 +12956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="88" s="27" spans="1:21">
       <c r="A88" s="27" t="s">
         <v>619</v>
       </c>
@@ -12841,7 +13015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="89" s="27" spans="1:21">
       <c r="A89" s="27" t="s">
         <v>623</v>
       </c>
@@ -12900,7 +13074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="90" s="27" spans="1:21">
       <c r="A90" s="27" t="s">
         <v>629</v>
       </c>
@@ -12959,7 +13133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="91" s="27" spans="1:21">
       <c r="A91" s="27" t="s">
         <v>633</v>
       </c>
@@ -13018,7 +13192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="92" s="27" spans="1:21">
       <c r="A92" s="27" t="s">
         <v>637</v>
       </c>
@@ -13077,7 +13251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="93" s="27" spans="1:21">
       <c r="A93" s="27" t="s">
         <v>640</v>
       </c>
@@ -13136,7 +13310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="94" s="27" spans="1:21">
       <c r="A94" s="27" t="s">
         <v>669</v>
       </c>
@@ -13195,7 +13369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="95" s="27" spans="1:21">
       <c r="A95" s="27" t="s">
         <v>674</v>
       </c>
@@ -13254,7 +13428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="96" s="27" spans="1:21">
       <c r="A96" s="27" t="s">
         <v>678</v>
       </c>
@@ -13313,7 +13487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="97" s="27" spans="1:21">
       <c r="A97" s="27" t="s">
         <v>682</v>
       </c>
@@ -13372,7 +13546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="98" s="27" spans="1:21">
       <c r="A98" s="27" t="s">
         <v>696</v>
       </c>
@@ -13431,7 +13605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="99" s="27" spans="1:21">
       <c r="A99" s="27" t="s">
         <v>713</v>
       </c>
@@ -13490,7 +13664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="100" s="27" spans="1:21">
       <c r="A100" s="27" t="s">
         <v>717</v>
       </c>
@@ -13549,7 +13723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="101" s="27" spans="1:21">
       <c r="A101" s="27" t="s">
         <v>721</v>
       </c>
@@ -13608,7 +13782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="102" s="27" spans="1:21">
       <c r="A102" s="27" t="s">
         <v>751</v>
       </c>
@@ -13667,7 +13841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="103" s="27" spans="1:21">
       <c r="A103" s="27" t="s">
         <v>757</v>
       </c>
@@ -13726,7 +13900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="104" s="27" spans="1:21">
       <c r="A104" s="27" t="s">
         <v>767</v>
       </c>
@@ -13785,7 +13959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="105" s="27" spans="1:21">
       <c r="A105" s="27" t="s">
         <v>777</v>
       </c>
@@ -13844,7 +14018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="27" customFormat="1" ht="13.5">
+    <row customFormat="1" ht="13.5" r="106" s="27" spans="1:21">
       <c r="A106" s="27" t="s">
         <v>783</v>
       </c>
@@ -13903,11 +14077,133 @@
         <v>37</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>793</v>
+      </c>
+      <c r="B107" t="s">
+        <v>805</v>
+      </c>
+      <c r="C107" t="s">
+        <v>794</v>
+      </c>
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" t="s">
+        <v>796</v>
+      </c>
+      <c r="I107" t="s">
+        <v>203</v>
+      </c>
+      <c r="K107" t="s">
+        <v>204</v>
+      </c>
+      <c r="L107" t="s">
+        <v>797</v>
+      </c>
+      <c r="M107" t="s">
+        <v>206</v>
+      </c>
+      <c r="N107" t="s">
+        <v>207</v>
+      </c>
+      <c r="P107" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>209</v>
+      </c>
+      <c r="R107" t="s">
+        <v>794</v>
+      </c>
+      <c r="S107" t="s">
+        <v>798</v>
+      </c>
+      <c r="T107" t="s">
+        <v>693</v>
+      </c>
+      <c r="U107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>799</v>
+      </c>
+      <c r="B108" t="s">
+        <v>805</v>
+      </c>
+      <c r="C108" t="s">
+        <v>800</v>
+      </c>
+      <c r="D108" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s">
+        <v>226</v>
+      </c>
+      <c r="H108" t="s">
+        <v>801</v>
+      </c>
+      <c r="I108" t="s">
+        <v>203</v>
+      </c>
+      <c r="K108" t="s">
+        <v>802</v>
+      </c>
+      <c r="L108" t="s">
+        <v>803</v>
+      </c>
+      <c r="M108" t="s">
+        <v>209</v>
+      </c>
+      <c r="N108" t="s">
+        <v>271</v>
+      </c>
+      <c r="P108" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>271</v>
+      </c>
+      <c r="R108" t="s">
+        <v>800</v>
+      </c>
+      <c r="S108" t="s">
+        <v>804</v>
+      </c>
+      <c r="T108" t="s">
+        <v>693</v>
+      </c>
+      <c r="U108" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{6D551A89-A85E-423A-942E-730D5E066447}">
+    <customSheetView filter="1" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{6BD0EF35-225F-46FC-A80E-D3784726D02C}"/>
+    </customSheetView>
+    <customSheetView filter="1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" showAutoFilter="1">
+      <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <autoFilter ref="A1:AD33" xr:uid="{B3D5918A-9581-4A4E-8FA5-470CB2E3890A}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="Strathnairn"/>
@@ -13915,82 +14211,78 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD33" xr:uid="{ED92581A-654F-4195-A223-87DB2B2D15B7}"/>
-    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule dxfId="1" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="S8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="S9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="S11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="S12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="S19" r:id="rId17" display="https://www.allhomes.com.au/strathnairn-act-2615?tid=178720657" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="S32" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="S31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="S30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="S29" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="S28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="S26" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="S25" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="S24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="S23" r:id="rId30" display="https://www.allhomes.com.au/ginninderra-estate-act-2615?tid=174799089" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink r:id="rId1" ref="S2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="S3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="S4" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="S5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="S6" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="S7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId7" ref="S8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink r:id="rId8" ref="S9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink r:id="rId9" ref="S10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink r:id="rId10" ref="S11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink r:id="rId11" ref="S12" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink r:id="rId12" ref="S14" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink r:id="rId13" ref="S15" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink r:id="rId14" ref="S16" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink r:id="rId15" ref="S17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink r:id="rId16" ref="S18" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/strathnairn-act-2615?tid=178720657" r:id="rId17" ref="S19" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink r:id="rId18" ref="S20" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink r:id="rId19" ref="S21" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink r:id="rId20" ref="S22" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink r:id="rId21" ref="S32" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink r:id="rId22" ref="S31" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink r:id="rId23" ref="S30" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink r:id="rId24" ref="S29" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink r:id="rId25" ref="S28" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink r:id="rId26" ref="S27" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink r:id="rId27" ref="S26" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink r:id="rId28" ref="S25" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink r:id="rId29" ref="S24" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink display="https://www.allhomes.com.au/ginninderra-estate-act-2615?tid=174799089" r:id="rId30" ref="S23" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId31"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.53125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.86328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.1328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.19921875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.1328125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.86328125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.46484375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.19921875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1328125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.86328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.86328125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.1328125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="20.1328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.86328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.46484375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.1328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="15.86328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -14089,37 +14381,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AI1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.46484375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.1328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.1328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.86328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.46484375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.1328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="51.1328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9">
+    <row ht="13.9" r="1" spans="1:26">
       <c r="A1" s="41" t="s">
         <v>157</v>
       </c>
@@ -14142,7 +14434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="2" spans="1:26">
       <c r="A2" s="42" t="s">
         <v>163</v>
       </c>
@@ -14184,7 +14476,7 @@
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="3" spans="1:26">
       <c r="A3" s="47" t="s">
         <v>166</v>
       </c>
@@ -14201,7 +14493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:26">
       <c r="A4" s="47" t="s">
         <v>169</v>
       </c>
@@ -14218,7 +14510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:26">
       <c r="A5" s="51" t="s">
         <v>172</v>
       </c>
@@ -14235,7 +14527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:26">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -14254,14 +14546,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="D6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="E6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/InputTestdata/Listing details.xlsx
+++ b/src/main/resources/InputTestdata/Listing details.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athavan\git\777Homes-2\777Homes-business\src\main\resources\InputTestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{47741F04-C141-4A31-886B-5DA89AE08662}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C4702-C5CE-462C-ADF5-D303BEDE0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="13276" windowWidth="20715" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" r:id="rId1" sheetId="1"/>
-    <sheet name="Listing" r:id="rId2" sheetId="2"/>
-    <sheet name="Tobe-executed" r:id="rId3" sheetId="3"/>
-    <sheet name="Agency login" r:id="rId4" sheetId="4"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Listing" sheetId="2" r:id="rId2"/>
+    <sheet name="Tobe-executed" sheetId="3" r:id="rId3"/>
+    <sheet name="Agency login" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Backlog!$A$1:$AB$52</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Listing!#REF!</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData">Listing!$A$1:$AE$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$AB$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listing!#REF!</definedName>
+    <definedName name="Z_A7754112_A52F_4ABC_8778_92F04773E53C_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
+    <definedName name="Z_C25CEB9E_BEC1_4982_90C4_50C84EE1B82A_.wvu.FilterData" localSheetId="1" hidden="1">Listing!$A$1:$AE$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" name="Filter 2" windowHeight="0" windowWidth="0"/>
-    <customWorkbookView activeSheetId="0" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" name="Filter 1" windowHeight="0" windowWidth="0"/>
+    <customWorkbookView name="Filter 1" guid="{A7754112-A52F-4ABC-8778-92F04773E53C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{C25CEB9E-BEC1-4982-90C4-50C84EE1B82A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="806">
   <si>
     <t>ID</t>
   </si>
@@ -3678,9 +3678,6 @@
     <t>169 Bettong Avenue, Throsby ACT 2914</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>Block/House: 405/ 303</t>
   </si>
   <si>
@@ -3760,9 +3757,6 @@
 - Prime location
 - Minutes from Gungahlin Town Centre
 Amazing property, inspection is must. Call now to view before you miss this one.</t>
-  </si>
-  <si>
-    <t>Draft</t>
   </si>
   <si>
     <t>https://www.777homes.com.au/?post_type=property&amp;p=7846&amp;preview=true</t>
@@ -3949,7 +3943,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4004,26 +3998,6 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <bgColor indexed="2"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4035,154 +4009,151 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="29" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fo